--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="723" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="723" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CorpRiskTable_withSEoutputs" sheetId="11" r:id="rId9"/>
     <sheet name="users" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7310" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7385" uniqueCount="166">
   <si>
     <t>LocationID</t>
   </si>
@@ -452,6 +452,84 @@
   <si>
     <t>HPQ</t>
   </si>
+  <si>
+    <t>Colorado_Springs</t>
+  </si>
+  <si>
+    <t>Corvallis_OR</t>
+  </si>
+  <si>
+    <t>Colorado_Springs_CO</t>
+  </si>
+  <si>
+    <t>Cupertino_CA</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Houston_TX</t>
+  </si>
+  <si>
+    <t>Palo_Alto_CA</t>
+  </si>
+  <si>
+    <t>Palo_Alto</t>
+  </si>
+  <si>
+    <t>Cupertino</t>
+  </si>
+  <si>
+    <t>Corvallis</t>
+  </si>
+  <si>
+    <t>Plano</t>
+  </si>
+  <si>
+    <t>Plano_TX</t>
+  </si>
+  <si>
+    <t>Roseville</t>
+  </si>
+  <si>
+    <t>Roseville_CA</t>
+  </si>
+  <si>
+    <t>San_Bernadino</t>
+  </si>
+  <si>
+    <t>San_Bernadino_CA</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Puerto_Rico</t>
+  </si>
+  <si>
+    <t>Barcelona_Sant_Cugat</t>
+  </si>
+  <si>
+    <t>Rehovot</t>
+  </si>
+  <si>
+    <t>Rehovot_Israel</t>
+  </si>
+  <si>
+    <t>Singapore_DRD</t>
+  </si>
+  <si>
+    <t>San_Diego</t>
+  </si>
+  <si>
+    <t>San_Diego_CA</t>
+  </si>
+  <si>
+    <t>Barcelona_Sant_Cugat_Spain</t>
+  </si>
+  <si>
+    <t>Dublin_Ireland</t>
+  </si>
 </sst>
 </file>
 
@@ -510,8 +588,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -581,7 +663,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -612,6 +694,8 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -642,6 +726,8 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -32354,7 +32440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -34135,9 +34221,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -35142,8 +35230,444 @@
         <v>63</v>
       </c>
     </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32">
+        <v>-116.3253437</v>
+      </c>
+      <c r="E32">
+        <v>43.658526999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33">
+        <v>-104.849597</v>
+      </c>
+      <c r="E33">
+        <v>38.920178100000001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34">
+        <v>-123.2450786</v>
+      </c>
+      <c r="E34">
+        <v>44.585427600000003</v>
+      </c>
+      <c r="F34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35">
+        <v>-122.0327049</v>
+      </c>
+      <c r="E35">
+        <v>37.321731999999997</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36">
+        <v>-95.823630399999999</v>
+      </c>
+      <c r="E36">
+        <v>29.8128657</v>
+      </c>
+      <c r="F36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37">
+        <v>-122.16796359999999</v>
+      </c>
+      <c r="E37">
+        <v>37.427636300000003</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38">
+        <v>-96.805558300000001</v>
+      </c>
+      <c r="E38">
+        <v>33.043019700000002</v>
+      </c>
+      <c r="F38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39">
+        <v>-121.3208949</v>
+      </c>
+      <c r="E39">
+        <v>38.785600199999998</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40">
+        <v>-117.39390880000001</v>
+      </c>
+      <c r="E40">
+        <v>34.211296099999998</v>
+      </c>
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41">
+        <v>-6.4846804999999996</v>
+      </c>
+      <c r="E41">
+        <v>53.3728178</v>
+      </c>
+      <c r="F41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42">
+        <v>-67.112177700000004</v>
+      </c>
+      <c r="E42">
+        <v>18.486511</v>
+      </c>
+      <c r="F42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43">
+        <v>2.0603031000000001</v>
+      </c>
+      <c r="E43">
+        <v>41.491896699999998</v>
+      </c>
+      <c r="F43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44">
+        <v>34.803219599999998</v>
+      </c>
+      <c r="E44">
+        <v>31.915805200000001</v>
+      </c>
+      <c r="F44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45">
+        <v>103.7995975</v>
+      </c>
+      <c r="E45">
+        <v>1.2765481000000001</v>
+      </c>
+      <c r="F45" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46">
+        <v>-117.29049430000001</v>
+      </c>
+      <c r="E46">
+        <v>2.9066098</v>
+      </c>
+      <c r="F46" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -35665,7 +36189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H326"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
+    <sheetView topLeftCell="A307" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="723" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="723" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7385" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7385" uniqueCount="168">
   <si>
     <t>LocationID</t>
   </si>
@@ -529,6 +529,12 @@
   </si>
   <si>
     <t>Dublin_Ireland</t>
+  </si>
+  <si>
+    <t>Reputation damage</t>
+  </si>
+  <si>
+    <t>Carbon pricing</t>
   </si>
 </sst>
 </file>
@@ -34223,7 +34229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -36189,12 +36195,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H326"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36235,7 +36242,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -36261,7 +36268,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -36287,7 +36294,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -36313,7 +36320,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -36339,7 +36346,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -36365,7 +36372,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -36391,7 +36398,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -36417,7 +36424,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -36443,7 +36450,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -36703,7 +36710,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -36729,7 +36736,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -36755,7 +36762,7 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -36781,7 +36788,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -36807,7 +36814,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
@@ -36833,7 +36840,7 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
@@ -36859,7 +36866,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
@@ -36885,7 +36892,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
         <v>45</v>
@@ -36911,7 +36918,7 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E28" t="s">
         <v>45</v>
@@ -37639,7 +37646,7 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E56" t="s">
         <v>45</v>
@@ -37665,7 +37672,7 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E57" t="s">
         <v>45</v>
@@ -37691,7 +37698,7 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E58" t="s">
         <v>45</v>
@@ -37717,7 +37724,7 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E59" t="s">
         <v>45</v>
@@ -37743,7 +37750,7 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E60" t="s">
         <v>45</v>
@@ -37769,7 +37776,7 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E61" t="s">
         <v>45</v>
@@ -37795,7 +37802,7 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E62" t="s">
         <v>45</v>
@@ -37821,7 +37828,7 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E63" t="s">
         <v>45</v>
@@ -37847,7 +37854,7 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E64" t="s">
         <v>45</v>
@@ -38107,7 +38114,7 @@
         <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E74" t="s">
         <v>45</v>
@@ -38133,7 +38140,7 @@
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E75" t="s">
         <v>45</v>
@@ -38159,7 +38166,7 @@
         <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E76" t="s">
         <v>45</v>
@@ -38185,7 +38192,7 @@
         <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E77" t="s">
         <v>45</v>
@@ -38211,7 +38218,7 @@
         <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E78" t="s">
         <v>45</v>
@@ -38237,7 +38244,7 @@
         <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E79" t="s">
         <v>45</v>
@@ -38263,7 +38270,7 @@
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E80" t="s">
         <v>45</v>
@@ -38289,7 +38296,7 @@
         <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E81" t="s">
         <v>45</v>
@@ -38315,7 +38322,7 @@
         <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
         <v>45</v>
@@ -39043,7 +39050,7 @@
         <v>20</v>
       </c>
       <c r="D110" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E110" t="s">
         <v>45</v>
@@ -39069,7 +39076,7 @@
         <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E111" t="s">
         <v>45</v>
@@ -39095,7 +39102,7 @@
         <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E112" t="s">
         <v>45</v>
@@ -39121,7 +39128,7 @@
         <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E113" t="s">
         <v>45</v>
@@ -39147,7 +39154,7 @@
         <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E114" t="s">
         <v>45</v>
@@ -39173,7 +39180,7 @@
         <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E115" t="s">
         <v>45</v>
@@ -39199,7 +39206,7 @@
         <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E116" t="s">
         <v>45</v>
@@ -39225,7 +39232,7 @@
         <v>20</v>
       </c>
       <c r="D117" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E117" t="s">
         <v>45</v>
@@ -39251,7 +39258,7 @@
         <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E118" t="s">
         <v>45</v>
@@ -39511,7 +39518,7 @@
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E128" t="s">
         <v>45</v>
@@ -39537,7 +39544,7 @@
         <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E129" t="s">
         <v>45</v>
@@ -39563,7 +39570,7 @@
         <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E130" t="s">
         <v>45</v>
@@ -39589,7 +39596,7 @@
         <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E131" t="s">
         <v>45</v>
@@ -39615,7 +39622,7 @@
         <v>23</v>
       </c>
       <c r="D132" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E132" t="s">
         <v>45</v>
@@ -39641,7 +39648,7 @@
         <v>23</v>
       </c>
       <c r="D133" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E133" t="s">
         <v>45</v>
@@ -39667,7 +39674,7 @@
         <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E134" t="s">
         <v>45</v>
@@ -39693,7 +39700,7 @@
         <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E135" t="s">
         <v>45</v>
@@ -39719,7 +39726,7 @@
         <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E136" t="s">
         <v>45</v>
@@ -40447,7 +40454,7 @@
         <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E164" t="s">
         <v>45</v>
@@ -40473,7 +40480,7 @@
         <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E165" t="s">
         <v>45</v>
@@ -40499,7 +40506,7 @@
         <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E166" t="s">
         <v>45</v>
@@ -40525,7 +40532,7 @@
         <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E167" t="s">
         <v>45</v>
@@ -40551,7 +40558,7 @@
         <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E168" t="s">
         <v>45</v>
@@ -40577,7 +40584,7 @@
         <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E169" t="s">
         <v>45</v>
@@ -40603,7 +40610,7 @@
         <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E170" t="s">
         <v>45</v>
@@ -40629,7 +40636,7 @@
         <v>20</v>
       </c>
       <c r="D171" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E171" t="s">
         <v>45</v>
@@ -40655,7 +40662,7 @@
         <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E172" t="s">
         <v>45</v>
@@ -40915,7 +40922,7 @@
         <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E182" t="s">
         <v>45</v>
@@ -40941,7 +40948,7 @@
         <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E183" t="s">
         <v>45</v>
@@ -40967,7 +40974,7 @@
         <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E184" t="s">
         <v>45</v>
@@ -40993,7 +41000,7 @@
         <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E185" t="s">
         <v>45</v>
@@ -41019,7 +41026,7 @@
         <v>23</v>
       </c>
       <c r="D186" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E186" t="s">
         <v>45</v>
@@ -41045,7 +41052,7 @@
         <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E187" t="s">
         <v>45</v>
@@ -41071,7 +41078,7 @@
         <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E188" t="s">
         <v>45</v>
@@ -41097,7 +41104,7 @@
         <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E189" t="s">
         <v>45</v>
@@ -41123,7 +41130,7 @@
         <v>23</v>
       </c>
       <c r="D190" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E190" t="s">
         <v>45</v>
@@ -41851,7 +41858,7 @@
         <v>20</v>
       </c>
       <c r="D218" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E218" t="s">
         <v>45</v>
@@ -41877,7 +41884,7 @@
         <v>20</v>
       </c>
       <c r="D219" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E219" t="s">
         <v>45</v>
@@ -41903,7 +41910,7 @@
         <v>20</v>
       </c>
       <c r="D220" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E220" t="s">
         <v>45</v>
@@ -41929,7 +41936,7 @@
         <v>20</v>
       </c>
       <c r="D221" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E221" t="s">
         <v>45</v>
@@ -41955,7 +41962,7 @@
         <v>20</v>
       </c>
       <c r="D222" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E222" t="s">
         <v>45</v>
@@ -41981,7 +41988,7 @@
         <v>20</v>
       </c>
       <c r="D223" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E223" t="s">
         <v>45</v>
@@ -42007,7 +42014,7 @@
         <v>20</v>
       </c>
       <c r="D224" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E224" t="s">
         <v>45</v>
@@ -42033,7 +42040,7 @@
         <v>20</v>
       </c>
       <c r="D225" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E225" t="s">
         <v>45</v>
@@ -42059,7 +42066,7 @@
         <v>20</v>
       </c>
       <c r="D226" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E226" t="s">
         <v>45</v>
@@ -42319,7 +42326,7 @@
         <v>23</v>
       </c>
       <c r="D236" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E236" t="s">
         <v>45</v>
@@ -42345,7 +42352,7 @@
         <v>23</v>
       </c>
       <c r="D237" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E237" t="s">
         <v>45</v>
@@ -42371,7 +42378,7 @@
         <v>23</v>
       </c>
       <c r="D238" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E238" t="s">
         <v>45</v>
@@ -42397,7 +42404,7 @@
         <v>23</v>
       </c>
       <c r="D239" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E239" t="s">
         <v>45</v>
@@ -42423,7 +42430,7 @@
         <v>23</v>
       </c>
       <c r="D240" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E240" t="s">
         <v>45</v>
@@ -42449,7 +42456,7 @@
         <v>23</v>
       </c>
       <c r="D241" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E241" t="s">
         <v>45</v>
@@ -42475,7 +42482,7 @@
         <v>23</v>
       </c>
       <c r="D242" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E242" t="s">
         <v>45</v>
@@ -42501,7 +42508,7 @@
         <v>23</v>
       </c>
       <c r="D243" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E243" t="s">
         <v>45</v>
@@ -42527,7 +42534,7 @@
         <v>23</v>
       </c>
       <c r="D244" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E244" t="s">
         <v>45</v>
@@ -43255,7 +43262,7 @@
         <v>20</v>
       </c>
       <c r="D272" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E272" t="s">
         <v>45</v>
@@ -43281,7 +43288,7 @@
         <v>20</v>
       </c>
       <c r="D273" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E273" t="s">
         <v>45</v>
@@ -43307,7 +43314,7 @@
         <v>20</v>
       </c>
       <c r="D274" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E274" t="s">
         <v>45</v>
@@ -43333,7 +43340,7 @@
         <v>20</v>
       </c>
       <c r="D275" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E275" t="s">
         <v>45</v>
@@ -43359,7 +43366,7 @@
         <v>20</v>
       </c>
       <c r="D276" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E276" t="s">
         <v>45</v>
@@ -43385,7 +43392,7 @@
         <v>20</v>
       </c>
       <c r="D277" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E277" t="s">
         <v>45</v>
@@ -43411,7 +43418,7 @@
         <v>20</v>
       </c>
       <c r="D278" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E278" t="s">
         <v>45</v>
@@ -43437,7 +43444,7 @@
         <v>20</v>
       </c>
       <c r="D279" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E279" t="s">
         <v>45</v>
@@ -43463,7 +43470,7 @@
         <v>20</v>
       </c>
       <c r="D280" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E280" t="s">
         <v>45</v>
@@ -43723,7 +43730,7 @@
         <v>23</v>
       </c>
       <c r="D290" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E290" t="s">
         <v>45</v>
@@ -43749,7 +43756,7 @@
         <v>23</v>
       </c>
       <c r="D291" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E291" t="s">
         <v>45</v>
@@ -43775,7 +43782,7 @@
         <v>23</v>
       </c>
       <c r="D292" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E292" t="s">
         <v>45</v>
@@ -43801,7 +43808,7 @@
         <v>23</v>
       </c>
       <c r="D293" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E293" t="s">
         <v>45</v>
@@ -43827,7 +43834,7 @@
         <v>23</v>
       </c>
       <c r="D294" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E294" t="s">
         <v>45</v>
@@ -43853,7 +43860,7 @@
         <v>23</v>
       </c>
       <c r="D295" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E295" t="s">
         <v>45</v>
@@ -43879,7 +43886,7 @@
         <v>23</v>
       </c>
       <c r="D296" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E296" t="s">
         <v>45</v>
@@ -43905,7 +43912,7 @@
         <v>23</v>
       </c>
       <c r="D297" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E297" t="s">
         <v>45</v>
@@ -43931,7 +43938,7 @@
         <v>23</v>
       </c>
       <c r="D298" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E298" t="s">
         <v>45</v>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="723" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="723" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -36196,11 +36196,12 @@
   <dimension ref="A1:H326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14352" uniqueCount="1685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14480" uniqueCount="1711">
   <si>
     <t>LocationID</t>
   </si>
@@ -5093,6 +5093,84 @@
   </si>
   <si>
     <t>carbonprice_100</t>
+  </si>
+  <si>
+    <t>AMP Capital</t>
+  </si>
+  <si>
+    <t>ASX</t>
+  </si>
+  <si>
+    <t>AXA</t>
+  </si>
+  <si>
+    <t>AMPC</t>
+  </si>
+  <si>
+    <t>NAB_Headquarters</t>
+  </si>
+  <si>
+    <t>Malvern_Central</t>
+  </si>
+  <si>
+    <t>Exchange_Tower</t>
+  </si>
+  <si>
+    <t>Garden_City</t>
+  </si>
+  <si>
+    <t>The_Palms_NZ</t>
+  </si>
+  <si>
+    <t>Indooroopilly_Shopping_Centre</t>
+  </si>
+  <si>
+    <t>Pacific_Fair</t>
+  </si>
+  <si>
+    <t>Stanley_Plaza</t>
+  </si>
+  <si>
+    <t>Coronation_Drive_Office_Park</t>
+  </si>
+  <si>
+    <t>Macquarie_Centre</t>
+  </si>
+  <si>
+    <t>AMP_Building</t>
+  </si>
+  <si>
+    <t>Indooroopilly_QLD</t>
+  </si>
+  <si>
+    <t>Broadbeach_QLD</t>
+  </si>
+  <si>
+    <t>South_Brisbane_QLD</t>
+  </si>
+  <si>
+    <t>Milton_QLD</t>
+  </si>
+  <si>
+    <t>North_Ryde_NSW</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Armadale_VIC</t>
+  </si>
+  <si>
+    <t>Perth_WA</t>
+  </si>
+  <si>
+    <t>Booragoon_WA</t>
+  </si>
+  <si>
+    <t>Christchurch_NZ</t>
   </si>
 </sst>
 </file>
@@ -37021,10 +37099,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37121,6 +37199,23 @@
         <v>HP Inc.</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1685</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -37128,10 +37223,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38616,6 +38711,358 @@
         <v>55</v>
       </c>
       <c r="I46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f>Location!A47</f>
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f>Location!B47</f>
+        <v>4</v>
+      </c>
+      <c r="C47" t="str">
+        <f>Location!C47</f>
+        <v>Indooroopilly_Shopping_Centre</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>90</v>
+      </c>
+      <c r="F47">
+        <v>80</v>
+      </c>
+      <c r="G47">
+        <v>0.1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f>Location!A48</f>
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f>Location!B48</f>
+        <v>4</v>
+      </c>
+      <c r="C48" t="str">
+        <f>Location!C48</f>
+        <v>Pacific_Fair</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>90</v>
+      </c>
+      <c r="F48">
+        <v>80</v>
+      </c>
+      <c r="G48">
+        <v>0.1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f>Location!A49</f>
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f>Location!B49</f>
+        <v>4</v>
+      </c>
+      <c r="C49" t="str">
+        <f>Location!C49</f>
+        <v>Stanley_Plaza</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>90</v>
+      </c>
+      <c r="F49">
+        <v>80</v>
+      </c>
+      <c r="G49">
+        <v>0.1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>Location!A50</f>
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f>Location!B50</f>
+        <v>4</v>
+      </c>
+      <c r="C50" t="str">
+        <f>Location!C50</f>
+        <v>Coronation_Drive_Office_Park</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>90</v>
+      </c>
+      <c r="F50">
+        <v>80</v>
+      </c>
+      <c r="G50">
+        <v>0.1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f>Location!A51</f>
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f>Location!B51</f>
+        <v>4</v>
+      </c>
+      <c r="C51" t="str">
+        <f>Location!C51</f>
+        <v>Macquarie_Centre</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>90</v>
+      </c>
+      <c r="F51">
+        <v>80</v>
+      </c>
+      <c r="G51">
+        <v>0.1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f>Location!A52</f>
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f>Location!B52</f>
+        <v>4</v>
+      </c>
+      <c r="C52" t="str">
+        <f>Location!C52</f>
+        <v>AMP_Building</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>90</v>
+      </c>
+      <c r="F52">
+        <v>80</v>
+      </c>
+      <c r="G52">
+        <v>0.1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f>Location!A53</f>
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f>Location!B53</f>
+        <v>4</v>
+      </c>
+      <c r="C53" t="str">
+        <f>Location!C53</f>
+        <v>NAB_Headquarters</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <v>90</v>
+      </c>
+      <c r="F53">
+        <v>80</v>
+      </c>
+      <c r="G53">
+        <v>0.1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f>Location!A54</f>
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f>Location!B54</f>
+        <v>4</v>
+      </c>
+      <c r="C54" t="str">
+        <f>Location!C54</f>
+        <v>Malvern_Central</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>90</v>
+      </c>
+      <c r="F54">
+        <v>80</v>
+      </c>
+      <c r="G54">
+        <v>0.1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f>Location!A55</f>
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f>Location!B55</f>
+        <v>4</v>
+      </c>
+      <c r="C55" t="str">
+        <f>Location!C55</f>
+        <v>Exchange_Tower</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>90</v>
+      </c>
+      <c r="F55">
+        <v>80</v>
+      </c>
+      <c r="G55">
+        <v>0.1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f>Location!A56</f>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f>Location!B56</f>
+        <v>4</v>
+      </c>
+      <c r="C56" t="str">
+        <f>Location!C56</f>
+        <v>Garden_City</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <v>90</v>
+      </c>
+      <c r="F56">
+        <v>80</v>
+      </c>
+      <c r="G56">
+        <v>0.1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f>Location!A57</f>
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f>Location!B57</f>
+        <v>4</v>
+      </c>
+      <c r="C57" t="str">
+        <f>Location!C57</f>
+        <v>The_Palms_NZ</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>90</v>
+      </c>
+      <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>0.1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" t="s">
         <v>55</v>
       </c>
     </row>
@@ -60040,7 +60487,7 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -61703,10 +62150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A52" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63607,6 +64054,468 @@
         <v>55</v>
       </c>
     </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f>A46+1</f>
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D47">
+        <v>152.97045510000001</v>
+      </c>
+      <c r="E47">
+        <v>-27.499605800000001</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K47" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" ref="A48:A57" si="0">A47+1</f>
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D48">
+        <v>153.4258423</v>
+      </c>
+      <c r="E48">
+        <v>-28.036514</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D49">
+        <v>153.02070330000001</v>
+      </c>
+      <c r="E49">
+        <v>-27.4786392</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" t="s">
+        <v>54</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D50">
+        <v>153.00675190000001</v>
+      </c>
+      <c r="E50">
+        <v>-27.4695483</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D51">
+        <v>151.11832659999999</v>
+      </c>
+      <c r="E51">
+        <v>-33.776747299999997</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D52">
+        <v>151.20993540000001</v>
+      </c>
+      <c r="E52">
+        <v>-33.862573900000001</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" t="s">
+        <v>53</v>
+      </c>
+      <c r="I52" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K52" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D53">
+        <v>144.94720839999999</v>
+      </c>
+      <c r="E53">
+        <v>-37.817371000000001</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I53" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" t="s">
+        <v>55</v>
+      </c>
+      <c r="M53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D54">
+        <v>145.02497679999999</v>
+      </c>
+      <c r="E54">
+        <v>-37.862842499999999</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K54" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" t="s">
+        <v>55</v>
+      </c>
+      <c r="M54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D55">
+        <v>115.8564435</v>
+      </c>
+      <c r="E55">
+        <v>-31.956254000000001</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K55" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" t="s">
+        <v>55</v>
+      </c>
+      <c r="M55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D56">
+        <v>115.83374139999999</v>
+      </c>
+      <c r="E56">
+        <v>-32.0339551</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56" t="s">
+        <v>54</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" t="s">
+        <v>55</v>
+      </c>
+      <c r="M56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D57">
+        <v>172.66268930000001</v>
+      </c>
+      <c r="E57">
+        <v>-43.507471099999997</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G57" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" t="s">
+        <v>53</v>
+      </c>
+      <c r="I57" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L57" t="s">
+        <v>55</v>
+      </c>
+      <c r="M57" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -63615,10 +64524,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63682,6 +64591,20 @@
       </c>
       <c r="D4" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1687</v>
       </c>
     </row>
   </sheetData>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="31040" windowHeight="17960" tabRatio="723" activeTab="11"/>
+    <workbookView xWindow="1920" yWindow="1860" windowWidth="31040" windowHeight="17960" tabRatio="723" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -39072,7 +39072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView topLeftCell="D7" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -62149,8 +62149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62272,7 +62272,7 @@
       <c r="H3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J3" t="s">
@@ -64119,8 +64119,8 @@
       <c r="H48" t="s">
         <v>53</v>
       </c>
-      <c r="I48" t="s">
-        <v>54</v>
+      <c r="I48" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J48" t="s">
         <v>1680</v>
@@ -64287,8 +64287,8 @@
       <c r="H52" t="s">
         <v>53</v>
       </c>
-      <c r="I52" t="s">
-        <v>54</v>
+      <c r="I52" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J52" t="s">
         <v>1680</v>
@@ -64299,7 +64299,7 @@
       <c r="L52" t="s">
         <v>55</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -64329,8 +64329,8 @@
       <c r="H53" t="s">
         <v>53</v>
       </c>
-      <c r="I53" t="s">
-        <v>54</v>
+      <c r="I53" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J53" t="s">
         <v>1680</v>
@@ -64341,7 +64341,7 @@
       <c r="L53" t="s">
         <v>55</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -64413,8 +64413,8 @@
       <c r="H55" t="s">
         <v>53</v>
       </c>
-      <c r="I55" t="s">
-        <v>54</v>
+      <c r="I55" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J55" t="s">
         <v>1680</v>
@@ -64425,7 +64425,7 @@
       <c r="L55" t="s">
         <v>55</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -64455,8 +64455,8 @@
       <c r="H56" t="s">
         <v>53</v>
       </c>
-      <c r="I56" t="s">
-        <v>54</v>
+      <c r="I56" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J56" t="s">
         <v>1680</v>
@@ -64467,7 +64467,7 @@
       <c r="L56" t="s">
         <v>55</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="4" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1860" windowWidth="31040" windowHeight="17960" tabRatio="723" activeTab="2"/>
+    <workbookView xWindow="1920" yWindow="1860" windowWidth="31040" windowHeight="17960" tabRatio="723" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="users" sheetId="12" r:id="rId10"/>
     <sheet name="LocationValues" sheetId="13" r:id="rId11"/>
     <sheet name="DamageFunctions" sheetId="14" r:id="rId12"/>
+    <sheet name="BusinessTypes" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14480" uniqueCount="1710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14493" uniqueCount="1723">
   <si>
     <t>LocationID</t>
   </si>
@@ -5168,13 +5169,52 @@
   </si>
   <si>
     <t>0;0.01;0.1;0.2;0.3;0.4;0.5;0.6;0.7;0.8;0.9;1.0</t>
+  </si>
+  <si>
+    <t>BusinessType</t>
+  </si>
+  <si>
+    <t>BusinessTypeID</t>
+  </si>
+  <si>
+    <t>Beverage</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Packaged Foods</t>
+  </si>
+  <si>
+    <t>Paper &amp; Forest</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Metals &amp; Mining</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>Electric Utility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5207,6 +5247,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5299,7 +5345,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5325,6 +5371,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5727,7 +5774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1081"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C904" sqref="C904"/>
     </sheetView>
   </sheetViews>
@@ -37222,7 +37269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
@@ -60479,6 +60526,131 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A12" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
@@ -62149,7 +62321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1860" windowWidth="31040" windowHeight="17960" tabRatio="723" activeTab="12"/>
+    <workbookView xWindow="1920" yWindow="1860" windowWidth="31040" windowHeight="17960" tabRatio="723" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -25,8 +25,9 @@
     <sheet name="LocationValues" sheetId="13" r:id="rId11"/>
     <sheet name="DamageFunctions" sheetId="14" r:id="rId12"/>
     <sheet name="BusinessTypes" sheetId="15" r:id="rId13"/>
+    <sheet name="Business Functions" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14493" uniqueCount="1723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14504" uniqueCount="1734">
   <si>
     <t>LocationID</t>
   </si>
@@ -5208,12 +5209,45 @@
   </si>
   <si>
     <t>Electric Utility</t>
+  </si>
+  <si>
+    <t>BusinessFunctionID</t>
+  </si>
+  <si>
+    <t>BusinessFunction</t>
+  </si>
+  <si>
+    <t>Clean Room Manufacturing</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Inventory Management</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Marketing/Sales</t>
+  </si>
+  <si>
+    <t>Corporate Governance</t>
+  </si>
+  <si>
+    <t>Retail Shopping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5445,6 +5479,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -39696,7 +39733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>234</v>
       </c>
@@ -39731,7 +39768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>268</v>
       </c>
@@ -39766,7 +39803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>271</v>
       </c>
@@ -39801,7 +39838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>274</v>
       </c>
@@ -39836,7 +39873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>277</v>
       </c>
@@ -39871,7 +39908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>280</v>
       </c>
@@ -39906,7 +39943,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>283</v>
       </c>
@@ -39941,7 +39978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>286</v>
       </c>
@@ -39976,7 +40013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>289</v>
       </c>
@@ -40011,7 +40048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>292</v>
       </c>
@@ -40046,7 +40083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>295</v>
       </c>
@@ -40081,7 +40118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>298</v>
       </c>
@@ -40116,7 +40153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>301</v>
       </c>
@@ -40151,7 +40188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>304</v>
       </c>
@@ -40186,7 +40223,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>307</v>
       </c>
@@ -40221,7 +40258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>310</v>
       </c>
@@ -40256,7 +40293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>313</v>
       </c>
@@ -40291,7 +40328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>316</v>
       </c>
@@ -40326,7 +40363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>318</v>
       </c>
@@ -40361,7 +40398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>321</v>
       </c>
@@ -40396,7 +40433,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>324</v>
       </c>
@@ -40431,7 +40468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>327</v>
       </c>
@@ -40466,7 +40503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>330</v>
       </c>
@@ -40501,7 +40538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>333</v>
       </c>
@@ -40536,7 +40573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>336</v>
       </c>
@@ -40571,7 +40608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>339</v>
       </c>
@@ -40606,7 +40643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>342</v>
       </c>
@@ -40641,7 +40678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>345</v>
       </c>
@@ -40676,7 +40713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>348</v>
       </c>
@@ -40711,7 +40748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>351</v>
       </c>
@@ -40746,7 +40783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>354</v>
       </c>
@@ -40781,7 +40818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>356</v>
       </c>
@@ -40816,7 +40853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>359</v>
       </c>
@@ -40851,7 +40888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>362</v>
       </c>
@@ -40886,7 +40923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>365</v>
       </c>
@@ -40921,7 +40958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>368</v>
       </c>
@@ -40956,7 +40993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>370</v>
       </c>
@@ -40991,7 +41028,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>371</v>
       </c>
@@ -41026,7 +41063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>373</v>
       </c>
@@ -41061,7 +41098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>375</v>
       </c>
@@ -41096,7 +41133,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>377</v>
       </c>
@@ -41131,7 +41168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>380</v>
       </c>
@@ -41166,7 +41203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>383</v>
       </c>
@@ -41201,7 +41238,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>386</v>
       </c>
@@ -41236,7 +41273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>388</v>
       </c>
@@ -41271,7 +41308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>390</v>
       </c>
@@ -41306,7 +41343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>391</v>
       </c>
@@ -41341,7 +41378,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>394</v>
       </c>
@@ -41376,7 +41413,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>397</v>
       </c>
@@ -41411,7 +41448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>400</v>
       </c>
@@ -41446,7 +41483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>403</v>
       </c>
@@ -41481,7 +41518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>405</v>
       </c>
@@ -41516,7 +41553,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>407</v>
       </c>
@@ -41551,7 +41588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>409</v>
       </c>
@@ -41586,7 +41623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>412</v>
       </c>
@@ -41621,7 +41658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>414</v>
       </c>
@@ -41656,7 +41693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>417</v>
       </c>
@@ -41691,7 +41728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>420</v>
       </c>
@@ -41726,7 +41763,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>422</v>
       </c>
@@ -41761,7 +41798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>425</v>
       </c>
@@ -41796,7 +41833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>427</v>
       </c>
@@ -41831,7 +41868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>430</v>
       </c>
@@ -41866,7 +41903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>432</v>
       </c>
@@ -41901,7 +41938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>435</v>
       </c>
@@ -41936,7 +41973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>438</v>
       </c>
@@ -41971,7 +42008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>441</v>
       </c>
@@ -42006,7 +42043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>444</v>
       </c>
@@ -42041,7 +42078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>447</v>
       </c>
@@ -42076,7 +42113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>449</v>
       </c>
@@ -42111,7 +42148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>452</v>
       </c>
@@ -42146,7 +42183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>455</v>
       </c>
@@ -42181,7 +42218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>458</v>
       </c>
@@ -42216,7 +42253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>461</v>
       </c>
@@ -42251,7 +42288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>464</v>
       </c>
@@ -42286,7 +42323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>467</v>
       </c>
@@ -42321,7 +42358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>470</v>
       </c>
@@ -42356,7 +42393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>472</v>
       </c>
@@ -42391,7 +42428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>474</v>
       </c>
@@ -42426,7 +42463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>476</v>
       </c>
@@ -42461,7 +42498,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>479</v>
       </c>
@@ -42496,7 +42533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>482</v>
       </c>
@@ -42531,7 +42568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>485</v>
       </c>
@@ -42566,7 +42603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>487</v>
       </c>
@@ -42601,7 +42638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>490</v>
       </c>
@@ -42636,7 +42673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>493</v>
       </c>
@@ -42671,7 +42708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>496</v>
       </c>
@@ -42706,7 +42743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>498</v>
       </c>
@@ -42741,7 +42778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>501</v>
       </c>
@@ -42776,7 +42813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>503</v>
       </c>
@@ -42811,7 +42848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>505</v>
       </c>
@@ -42846,7 +42883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>508</v>
       </c>
@@ -42881,7 +42918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>511</v>
       </c>
@@ -42916,7 +42953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>513</v>
       </c>
@@ -42951,7 +42988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>515</v>
       </c>
@@ -42986,7 +43023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>517</v>
       </c>
@@ -43021,7 +43058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>519</v>
       </c>
@@ -43056,7 +43093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>522</v>
       </c>
@@ -43091,7 +43128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>525</v>
       </c>
@@ -43161,7 +43198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>530</v>
       </c>
@@ -43196,7 +43233,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>533</v>
       </c>
@@ -43231,7 +43268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>536</v>
       </c>
@@ -43266,7 +43303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>537</v>
       </c>
@@ -43301,7 +43338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>540</v>
       </c>
@@ -43336,7 +43373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>543</v>
       </c>
@@ -43371,7 +43408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>546</v>
       </c>
@@ -43406,7 +43443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>549</v>
       </c>
@@ -43441,7 +43478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>552</v>
       </c>
@@ -43476,7 +43513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>555</v>
       </c>
@@ -43511,7 +43548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>558</v>
       </c>
@@ -43546,7 +43583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>561</v>
       </c>
@@ -43581,7 +43618,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>564</v>
       </c>
@@ -43616,7 +43653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>567</v>
       </c>
@@ -43651,7 +43688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>570</v>
       </c>
@@ -43686,7 +43723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>573</v>
       </c>
@@ -43721,7 +43758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>576</v>
       </c>
@@ -43756,7 +43793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>579</v>
       </c>
@@ -43791,7 +43828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>582</v>
       </c>
@@ -43826,7 +43863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>585</v>
       </c>
@@ -43861,7 +43898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>588</v>
       </c>
@@ -43896,7 +43933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>591</v>
       </c>
@@ -43931,7 +43968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>593</v>
       </c>
@@ -43966,7 +44003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>595</v>
       </c>
@@ -44001,7 +44038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>597</v>
       </c>
@@ -44036,7 +44073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>599</v>
       </c>
@@ -44071,7 +44108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>601</v>
       </c>
@@ -44106,7 +44143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>603</v>
       </c>
@@ -44141,7 +44178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>605</v>
       </c>
@@ -44176,7 +44213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>607</v>
       </c>
@@ -44211,7 +44248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>609</v>
       </c>
@@ -44246,7 +44283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>612</v>
       </c>
@@ -44281,7 +44318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>615</v>
       </c>
@@ -44316,7 +44353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>618</v>
       </c>
@@ -44351,7 +44388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>621</v>
       </c>
@@ -44386,7 +44423,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>624</v>
       </c>
@@ -44421,7 +44458,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>626</v>
       </c>
@@ -44456,7 +44493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>628</v>
       </c>
@@ -44491,7 +44528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>630</v>
       </c>
@@ -44526,7 +44563,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>632</v>
       </c>
@@ -44561,7 +44598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>634</v>
       </c>
@@ -44596,7 +44633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>637</v>
       </c>
@@ -44631,7 +44668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>640</v>
       </c>
@@ -44666,7 +44703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>643</v>
       </c>
@@ -44701,7 +44738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>646</v>
       </c>
@@ -44736,7 +44773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>649</v>
       </c>
@@ -44771,7 +44808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>651</v>
       </c>
@@ -44806,7 +44843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>653</v>
       </c>
@@ -44841,7 +44878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>655</v>
       </c>
@@ -44876,7 +44913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>657</v>
       </c>
@@ -44911,7 +44948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>659</v>
       </c>
@@ -44946,7 +44983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>662</v>
       </c>
@@ -44981,7 +45018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>665</v>
       </c>
@@ -45016,7 +45053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>668</v>
       </c>
@@ -45051,7 +45088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>671</v>
       </c>
@@ -45086,7 +45123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>673</v>
       </c>
@@ -45121,7 +45158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>675</v>
       </c>
@@ -45156,7 +45193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>678</v>
       </c>
@@ -45191,7 +45228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>681</v>
       </c>
@@ -45226,7 +45263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>684</v>
       </c>
@@ -45261,7 +45298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>687</v>
       </c>
@@ -45331,7 +45368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>693</v>
       </c>
@@ -45366,7 +45403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>696</v>
       </c>
@@ -45401,7 +45438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>698</v>
       </c>
@@ -45436,7 +45473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>701</v>
       </c>
@@ -45471,7 +45508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>704</v>
       </c>
@@ -45506,7 +45543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>707</v>
       </c>
@@ -45541,7 +45578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>710</v>
       </c>
@@ -45576,7 +45613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>713</v>
       </c>
@@ -45611,7 +45648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>716</v>
       </c>
@@ -45646,7 +45683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>719</v>
       </c>
@@ -45681,7 +45718,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>722</v>
       </c>
@@ -45716,7 +45753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>725</v>
       </c>
@@ -45786,7 +45823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>731</v>
       </c>
@@ -45821,7 +45858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>734</v>
       </c>
@@ -45856,7 +45893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>737</v>
       </c>
@@ -45891,7 +45928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>740</v>
       </c>
@@ -45926,7 +45963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>743</v>
       </c>
@@ -45961,7 +45998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>746</v>
       </c>
@@ -45996,7 +46033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>749</v>
       </c>
@@ -46031,7 +46068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>752</v>
       </c>
@@ -46066,7 +46103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>755</v>
       </c>
@@ -46101,7 +46138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>758</v>
       </c>
@@ -46136,7 +46173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>761</v>
       </c>
@@ -46171,7 +46208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>764</v>
       </c>
@@ -46206,7 +46243,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>767</v>
       </c>
@@ -46241,7 +46278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>770</v>
       </c>
@@ -46276,7 +46313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>773</v>
       </c>
@@ -46311,7 +46348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>776</v>
       </c>
@@ -46346,7 +46383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>778</v>
       </c>
@@ -46381,7 +46418,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>780</v>
       </c>
@@ -46416,7 +46453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>782</v>
       </c>
@@ -46451,7 +46488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>784</v>
       </c>
@@ -46486,7 +46523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>786</v>
       </c>
@@ -46521,7 +46558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>788</v>
       </c>
@@ -46556,7 +46593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>790</v>
       </c>
@@ -46591,7 +46628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>793</v>
       </c>
@@ -46626,7 +46663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>795</v>
       </c>
@@ -46661,7 +46698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>798</v>
       </c>
@@ -46696,7 +46733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>801</v>
       </c>
@@ -46731,7 +46768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>804</v>
       </c>
@@ -46766,7 +46803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>806</v>
       </c>
@@ -46801,7 +46838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>809</v>
       </c>
@@ -46836,7 +46873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>811</v>
       </c>
@@ -46871,7 +46908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>813</v>
       </c>
@@ -46906,7 +46943,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>815</v>
       </c>
@@ -46941,7 +46978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>817</v>
       </c>
@@ -46976,7 +47013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>819</v>
       </c>
@@ -47011,7 +47048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>821</v>
       </c>
@@ -47046,7 +47083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>823</v>
       </c>
@@ -47081,7 +47118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>825</v>
       </c>
@@ -47116,7 +47153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>827</v>
       </c>
@@ -47151,7 +47188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>829</v>
       </c>
@@ -47186,7 +47223,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>831</v>
       </c>
@@ -47221,7 +47258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>833</v>
       </c>
@@ -47256,7 +47293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>835</v>
       </c>
@@ -47291,7 +47328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>837</v>
       </c>
@@ -47326,7 +47363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>839</v>
       </c>
@@ -47361,7 +47398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>841</v>
       </c>
@@ -47396,7 +47433,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>843</v>
       </c>
@@ -47431,7 +47468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>845</v>
       </c>
@@ -47466,7 +47503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>847</v>
       </c>
@@ -47501,7 +47538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>849</v>
       </c>
@@ -47536,7 +47573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>851</v>
       </c>
@@ -47571,7 +47608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>853</v>
       </c>
@@ -47606,7 +47643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>855</v>
       </c>
@@ -47676,7 +47713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>860</v>
       </c>
@@ -47711,7 +47748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>863</v>
       </c>
@@ -47746,7 +47783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>866</v>
       </c>
@@ -47781,7 +47818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>869</v>
       </c>
@@ -47816,7 +47853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>872</v>
       </c>
@@ -47851,7 +47888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>875</v>
       </c>
@@ -47886,7 +47923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>878</v>
       </c>
@@ -47921,7 +47958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>881</v>
       </c>
@@ -47956,7 +47993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>884</v>
       </c>
@@ -47991,7 +48028,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>887</v>
       </c>
@@ -48026,7 +48063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>890</v>
       </c>
@@ -48061,7 +48098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>893</v>
       </c>
@@ -48096,7 +48133,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>896</v>
       </c>
@@ -48131,7 +48168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>899</v>
       </c>
@@ -48166,7 +48203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>902</v>
       </c>
@@ -48201,7 +48238,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>905</v>
       </c>
@@ -48236,7 +48273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>908</v>
       </c>
@@ -48271,7 +48308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>911</v>
       </c>
@@ -48306,7 +48343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>914</v>
       </c>
@@ -48341,7 +48378,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>917</v>
       </c>
@@ -48376,7 +48413,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>920</v>
       </c>
@@ -48446,7 +48483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>926</v>
       </c>
@@ -48481,7 +48518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>929</v>
       </c>
@@ -48551,7 +48588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>935</v>
       </c>
@@ -48586,7 +48623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>938</v>
       </c>
@@ -48621,7 +48658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>941</v>
       </c>
@@ -48656,7 +48693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>944</v>
       </c>
@@ -48691,7 +48728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
         <v>946</v>
       </c>
@@ -48726,7 +48763,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>948</v>
       </c>
@@ -48761,7 +48798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>951</v>
       </c>
@@ -48796,7 +48833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>953</v>
       </c>
@@ -48831,7 +48868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>956</v>
       </c>
@@ -48866,7 +48903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>959</v>
       </c>
@@ -48901,7 +48938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>962</v>
       </c>
@@ -48936,7 +48973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>964</v>
       </c>
@@ -48971,7 +49008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
         <v>966</v>
       </c>
@@ -49006,7 +49043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>968</v>
       </c>
@@ -49041,7 +49078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
         <v>970</v>
       </c>
@@ -49076,7 +49113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
         <v>972</v>
       </c>
@@ -49111,7 +49148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
         <v>974</v>
       </c>
@@ -49146,7 +49183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>977</v>
       </c>
@@ -49181,7 +49218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
         <v>980</v>
       </c>
@@ -49216,7 +49253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>983</v>
       </c>
@@ -49251,7 +49288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
         <v>986</v>
       </c>
@@ -49286,7 +49323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>989</v>
       </c>
@@ -49321,7 +49358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>991</v>
       </c>
@@ -49356,7 +49393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>994</v>
       </c>
@@ -49391,7 +49428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
         <v>997</v>
       </c>
@@ -49426,7 +49463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>999</v>
       </c>
@@ -49461,7 +49498,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
         <v>1002</v>
       </c>
@@ -49496,7 +49533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
         <v>1005</v>
       </c>
@@ -49531,7 +49568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
         <v>1008</v>
       </c>
@@ -49566,7 +49603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
         <v>1011</v>
       </c>
@@ -49601,7 +49638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
         <v>1013</v>
       </c>
@@ -49636,7 +49673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
         <v>1015</v>
       </c>
@@ -49671,7 +49708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
         <v>1017</v>
       </c>
@@ -49706,7 +49743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
         <v>1019</v>
       </c>
@@ -49741,7 +49778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
         <v>1021</v>
       </c>
@@ -49776,7 +49813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
         <v>1023</v>
       </c>
@@ -49811,7 +49848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
         <v>1025</v>
       </c>
@@ -49846,7 +49883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
         <v>1027</v>
       </c>
@@ -49881,7 +49918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
         <v>1029</v>
       </c>
@@ -49916,7 +49953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
         <v>1031</v>
       </c>
@@ -49951,7 +49988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>1033</v>
       </c>
@@ -49986,7 +50023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
         <v>1035</v>
       </c>
@@ -50021,7 +50058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
         <v>1037</v>
       </c>
@@ -50056,7 +50093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
         <v>1040</v>
       </c>
@@ -50091,7 +50128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
         <v>1042</v>
       </c>
@@ -50126,7 +50163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
         <v>1044</v>
       </c>
@@ -50161,7 +50198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
         <v>1046</v>
       </c>
@@ -50196,7 +50233,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
         <v>1048</v>
       </c>
@@ -50231,7 +50268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
         <v>1050</v>
       </c>
@@ -50266,7 +50303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>1052</v>
       </c>
@@ -50301,7 +50338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>1054</v>
       </c>
@@ -50336,7 +50373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
         <v>1057</v>
       </c>
@@ -50371,7 +50408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
         <v>1060</v>
       </c>
@@ -50406,7 +50443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
         <v>1062</v>
       </c>
@@ -50441,7 +50478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
         <v>1064</v>
       </c>
@@ -50476,7 +50513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
         <v>1066</v>
       </c>
@@ -50511,7 +50548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>1068</v>
       </c>
@@ -50546,7 +50583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
         <v>1070</v>
       </c>
@@ -50581,7 +50618,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
         <v>1072</v>
       </c>
@@ -50616,7 +50653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
         <v>1074</v>
       </c>
@@ -50651,7 +50688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
         <v>1077</v>
       </c>
@@ -50686,7 +50723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
         <v>1080</v>
       </c>
@@ -50721,7 +50758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
         <v>1082</v>
       </c>
@@ -50756,7 +50793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
         <v>1085</v>
       </c>
@@ -50791,7 +50828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
         <v>1087</v>
       </c>
@@ -50826,7 +50863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
         <v>1090</v>
       </c>
@@ -50861,7 +50898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
         <v>1093</v>
       </c>
@@ -50896,7 +50933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
         <v>1096</v>
       </c>
@@ -50931,7 +50968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
         <v>1099</v>
       </c>
@@ -50966,7 +51003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
         <v>1101</v>
       </c>
@@ -51001,7 +51038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
         <v>1104</v>
       </c>
@@ -51036,7 +51073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
         <v>1107</v>
       </c>
@@ -51071,7 +51108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
         <v>1110</v>
       </c>
@@ -51106,7 +51143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
         <v>1113</v>
       </c>
@@ -51141,7 +51178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
         <v>1116</v>
       </c>
@@ -51176,7 +51213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
         <v>1119</v>
       </c>
@@ -51211,7 +51248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
         <v>1121</v>
       </c>
@@ -51246,7 +51283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
         <v>1123</v>
       </c>
@@ -51281,7 +51318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
         <v>1125</v>
       </c>
@@ -51316,7 +51353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
         <v>1127</v>
       </c>
@@ -51351,7 +51388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
         <v>1129</v>
       </c>
@@ -51386,7 +51423,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
         <v>1131</v>
       </c>
@@ -51421,7 +51458,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
         <v>1133</v>
       </c>
@@ -51456,7 +51493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
         <v>1135</v>
       </c>
@@ -51491,7 +51528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
         <v>1137</v>
       </c>
@@ -51526,7 +51563,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
         <v>1139</v>
       </c>
@@ -51561,7 +51598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
         <v>1142</v>
       </c>
@@ -51596,7 +51633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
         <v>1145</v>
       </c>
@@ -51631,7 +51668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
         <v>1147</v>
       </c>
@@ -51666,7 +51703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>1149</v>
       </c>
@@ -51701,7 +51738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
         <v>1151</v>
       </c>
@@ -51736,7 +51773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
         <v>1154</v>
       </c>
@@ -51771,7 +51808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
         <v>1157</v>
       </c>
@@ -51806,7 +51843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
         <v>1160</v>
       </c>
@@ -51841,7 +51878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
         <v>1163</v>
       </c>
@@ -51876,7 +51913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
         <v>1166</v>
       </c>
@@ -51911,7 +51948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
         <v>1168</v>
       </c>
@@ -51946,7 +51983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>1170</v>
       </c>
@@ -51981,7 +52018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
         <v>1172</v>
       </c>
@@ -52016,7 +52053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>1175</v>
       </c>
@@ -52051,7 +52088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
         <v>1178</v>
       </c>
@@ -52086,7 +52123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
         <v>1180</v>
       </c>
@@ -52121,7 +52158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
         <v>1182</v>
       </c>
@@ -52156,7 +52193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>1184</v>
       </c>
@@ -52191,7 +52228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
         <v>1187</v>
       </c>
@@ -52226,7 +52263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
         <v>1189</v>
       </c>
@@ -52261,7 +52298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
         <v>1191</v>
       </c>
@@ -52296,7 +52333,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
         <v>1193</v>
       </c>
@@ -52331,7 +52368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
         <v>1193</v>
       </c>
@@ -52366,7 +52403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
         <v>1197</v>
       </c>
@@ -52401,7 +52438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
         <v>1200</v>
       </c>
@@ -52436,7 +52473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
         <v>1202</v>
       </c>
@@ -52471,7 +52508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
         <v>1202</v>
       </c>
@@ -52506,7 +52543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
         <v>1205</v>
       </c>
@@ -52541,7 +52578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
         <v>1208</v>
       </c>
@@ -52576,7 +52613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
         <v>1211</v>
       </c>
@@ -52611,7 +52648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
         <v>1214</v>
       </c>
@@ -52646,7 +52683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
         <v>1216</v>
       </c>
@@ -52681,7 +52718,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
         <v>1208</v>
       </c>
@@ -52716,7 +52753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>1211</v>
       </c>
@@ -52751,7 +52788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
         <v>1214</v>
       </c>
@@ -52786,7 +52823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
         <v>1219</v>
       </c>
@@ -52821,7 +52858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
         <v>1221</v>
       </c>
@@ -52856,7 +52893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
         <v>1205</v>
       </c>
@@ -52891,7 +52928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
         <v>1197</v>
       </c>
@@ -52926,7 +52963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
         <v>1216</v>
       </c>
@@ -52961,7 +52998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
         <v>1223</v>
       </c>
@@ -52996,7 +53033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
         <v>1225</v>
       </c>
@@ -53031,7 +53068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A398" s="5" t="s">
         <v>1227</v>
       </c>
@@ -53066,7 +53103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
         <v>1219</v>
       </c>
@@ -53101,7 +53138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
         <v>1223</v>
       </c>
@@ -53136,7 +53173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
         <v>1229</v>
       </c>
@@ -53171,7 +53208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
         <v>1227</v>
       </c>
@@ -53206,7 +53243,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
         <v>1231</v>
       </c>
@@ -53241,7 +53278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
         <v>1233</v>
       </c>
@@ -53276,7 +53313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
         <v>1235</v>
       </c>
@@ -53311,7 +53348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
         <v>1237</v>
       </c>
@@ -53346,7 +53383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
         <v>1200</v>
       </c>
@@ -53381,7 +53418,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
         <v>1221</v>
       </c>
@@ -53416,7 +53453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
         <v>1229</v>
       </c>
@@ -53451,7 +53488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
         <v>1225</v>
       </c>
@@ -53486,7 +53523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
         <v>1237</v>
       </c>
@@ -53521,7 +53558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
         <v>1231</v>
       </c>
@@ -53556,7 +53593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>1235</v>
       </c>
@@ -53591,7 +53628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
         <v>1233</v>
       </c>
@@ -53626,7 +53663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
         <v>1239</v>
       </c>
@@ -53661,7 +53698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
         <v>1242</v>
       </c>
@@ -53696,7 +53733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
         <v>1245</v>
       </c>
@@ -53731,7 +53768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
         <v>1248</v>
       </c>
@@ -53766,7 +53803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
         <v>1251</v>
       </c>
@@ -53801,7 +53838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
         <v>1254</v>
       </c>
@@ -53836,7 +53873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
         <v>1256</v>
       </c>
@@ -53871,7 +53908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
         <v>1258</v>
       </c>
@@ -53906,7 +53943,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
         <v>1260</v>
       </c>
@@ -53941,7 +53978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
         <v>1262</v>
       </c>
@@ -53976,7 +54013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
         <v>1264</v>
       </c>
@@ -54011,7 +54048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
         <v>1266</v>
       </c>
@@ -54046,7 +54083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
         <v>1268</v>
       </c>
@@ -54081,7 +54118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
         <v>1270</v>
       </c>
@@ -54116,7 +54153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
         <v>1272</v>
       </c>
@@ -54151,7 +54188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
         <v>1275</v>
       </c>
@@ -54186,7 +54223,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
         <v>1277</v>
       </c>
@@ -54221,7 +54258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
         <v>1279</v>
       </c>
@@ -54256,7 +54293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
         <v>1281</v>
       </c>
@@ -54291,7 +54328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
         <v>1283</v>
       </c>
@@ -54326,7 +54363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
         <v>1285</v>
       </c>
@@ -54361,7 +54398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
         <v>1288</v>
       </c>
@@ -54396,7 +54433,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>1291</v>
       </c>
@@ -54431,7 +54468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
         <v>1293</v>
       </c>
@@ -54466,7 +54503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
         <v>1296</v>
       </c>
@@ -54501,7 +54538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
         <v>1298</v>
       </c>
@@ -54536,7 +54573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
         <v>1300</v>
       </c>
@@ -54571,7 +54608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
         <v>1302</v>
       </c>
@@ -54606,7 +54643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
         <v>1304</v>
       </c>
@@ -54641,7 +54678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
         <v>1307</v>
       </c>
@@ -54676,7 +54713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
         <v>1310</v>
       </c>
@@ -54711,7 +54748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
         <v>1313</v>
       </c>
@@ -54746,7 +54783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
         <v>1315</v>
       </c>
@@ -54781,7 +54818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
         <v>1317</v>
       </c>
@@ -54816,7 +54853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
         <v>1320</v>
       </c>
@@ -54851,7 +54888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
         <v>1323</v>
       </c>
@@ -54886,7 +54923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
         <v>1326</v>
       </c>
@@ -54956,7 +54993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
         <v>1331</v>
       </c>
@@ -54991,7 +55028,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
         <v>1333</v>
       </c>
@@ -55026,7 +55063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>1336</v>
       </c>
@@ -55061,7 +55098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
         <v>1339</v>
       </c>
@@ -55096,7 +55133,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
         <v>1341</v>
       </c>
@@ -55131,7 +55168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
         <v>1344</v>
       </c>
@@ -55166,7 +55203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
         <v>1346</v>
       </c>
@@ -55201,7 +55238,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
         <v>1348</v>
       </c>
@@ -55236,7 +55273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
         <v>1351</v>
       </c>
@@ -55271,7 +55308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A462" s="5" t="s">
         <v>1353</v>
       </c>
@@ -55306,7 +55343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
         <v>1356</v>
       </c>
@@ -55341,7 +55378,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
         <v>1359</v>
       </c>
@@ -55376,7 +55413,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
         <v>1361</v>
       </c>
@@ -55411,7 +55448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
         <v>1364</v>
       </c>
@@ -55446,7 +55483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A467" s="5" t="s">
         <v>1366</v>
       </c>
@@ -55481,7 +55518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
         <v>1369</v>
       </c>
@@ -55551,7 +55588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A470" s="5" t="s">
         <v>1375</v>
       </c>
@@ -55586,7 +55623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A471" s="5" t="s">
         <v>1378</v>
       </c>
@@ -55621,7 +55658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A472" s="5" t="s">
         <v>1381</v>
       </c>
@@ -55656,7 +55693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A473" s="5" t="s">
         <v>1384</v>
       </c>
@@ -55691,7 +55728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A474" s="5" t="s">
         <v>1387</v>
       </c>
@@ -55726,7 +55763,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A475" s="5" t="s">
         <v>1390</v>
       </c>
@@ -55761,7 +55798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
         <v>1393</v>
       </c>
@@ -55796,7 +55833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A477" s="5" t="s">
         <v>1396</v>
       </c>
@@ -55831,7 +55868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A478" s="5" t="s">
         <v>1399</v>
       </c>
@@ -55866,7 +55903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
         <v>1402</v>
       </c>
@@ -55901,7 +55938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A480" s="5" t="s">
         <v>1405</v>
       </c>
@@ -55936,7 +55973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
         <v>1408</v>
       </c>
@@ -55971,7 +56008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A482" s="5" t="s">
         <v>1411</v>
       </c>
@@ -56006,7 +56043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
         <v>1413</v>
       </c>
@@ -56076,7 +56113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
         <v>1419</v>
       </c>
@@ -56111,7 +56148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
         <v>1422</v>
       </c>
@@ -56146,7 +56183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
         <v>1425</v>
       </c>
@@ -56181,7 +56218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
         <v>1428</v>
       </c>
@@ -56216,7 +56253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
         <v>1431</v>
       </c>
@@ -56251,7 +56288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
         <v>1434</v>
       </c>
@@ -56286,7 +56323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A491" s="5" t="s">
         <v>1437</v>
       </c>
@@ -56321,7 +56358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
         <v>1440</v>
       </c>
@@ -56356,7 +56393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A493" s="5" t="s">
         <v>1443</v>
       </c>
@@ -56391,7 +56428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A494" s="5" t="s">
         <v>1446</v>
       </c>
@@ -56426,7 +56463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
         <v>1449</v>
       </c>
@@ -56461,7 +56498,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A496" s="5" t="s">
         <v>1452</v>
       </c>
@@ -56531,7 +56568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
         <v>1458</v>
       </c>
@@ -56566,7 +56603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A499" s="5" t="s">
         <v>1461</v>
       </c>
@@ -56601,7 +56638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A500" s="5" t="s">
         <v>1464</v>
       </c>
@@ -56636,7 +56673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A501" s="5" t="s">
         <v>1467</v>
       </c>
@@ -56671,7 +56708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
         <v>1470</v>
       </c>
@@ -56706,7 +56743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
         <v>1473</v>
       </c>
@@ -56741,7 +56778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A504" s="5" t="s">
         <v>1476</v>
       </c>
@@ -56776,7 +56813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
         <v>1479</v>
       </c>
@@ -56811,7 +56848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
         <v>1482</v>
       </c>
@@ -56846,7 +56883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A507" s="5" t="s">
         <v>1485</v>
       </c>
@@ -56881,7 +56918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A508" s="5" t="s">
         <v>1488</v>
       </c>
@@ -56916,7 +56953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
         <v>1491</v>
       </c>
@@ -56951,7 +56988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A510" s="5" t="s">
         <v>1494</v>
       </c>
@@ -56986,7 +57023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A511" s="5" t="s">
         <v>1497</v>
       </c>
@@ -57021,7 +57058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A512" s="5" t="s">
         <v>1500</v>
       </c>
@@ -57056,7 +57093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A513" s="5" t="s">
         <v>1503</v>
       </c>
@@ -57091,7 +57128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A514" s="5" t="s">
         <v>1505</v>
       </c>
@@ -57126,7 +57163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A515" s="5" t="s">
         <v>1508</v>
       </c>
@@ -57161,7 +57198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A516" s="5" t="s">
         <v>1511</v>
       </c>
@@ -57196,7 +57233,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
         <v>1514</v>
       </c>
@@ -57231,7 +57268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="518" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A518" s="5" t="s">
         <v>1517</v>
       </c>
@@ -57266,7 +57303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="519" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A519" s="5" t="s">
         <v>1520</v>
       </c>
@@ -57301,7 +57338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="520" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A520" s="5" t="s">
         <v>1523</v>
       </c>
@@ -57336,7 +57373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
         <v>1525</v>
       </c>
@@ -57371,7 +57408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A522" s="5" t="s">
         <v>1527</v>
       </c>
@@ -57406,7 +57443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A523" s="5" t="s">
         <v>1529</v>
       </c>
@@ -57441,7 +57478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A524" s="5" t="s">
         <v>1531</v>
       </c>
@@ -57476,7 +57513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
         <v>1533</v>
       </c>
@@ -57511,7 +57548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A526" s="5" t="s">
         <v>1535</v>
       </c>
@@ -57546,7 +57583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A527" s="5" t="s">
         <v>1537</v>
       </c>
@@ -57581,7 +57618,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A528" s="5" t="s">
         <v>1539</v>
       </c>
@@ -57616,7 +57653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A529" s="5" t="s">
         <v>1540</v>
       </c>
@@ -57651,7 +57688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A530" s="5" t="s">
         <v>1541</v>
       </c>
@@ -57686,7 +57723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="531" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
         <v>1544</v>
       </c>
@@ -57721,7 +57758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="532" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A532" s="5" t="s">
         <v>1547</v>
       </c>
@@ -57756,7 +57793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="533" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A533" s="5" t="s">
         <v>1549</v>
       </c>
@@ -57791,7 +57828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A534" s="5" t="s">
         <v>1551</v>
       </c>
@@ -57826,7 +57863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A535" s="5" t="s">
         <v>1553</v>
       </c>
@@ -57861,7 +57898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A536" s="5" t="s">
         <v>1555</v>
       </c>
@@ -57896,7 +57933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A537" s="5" t="s">
         <v>1557</v>
       </c>
@@ -57931,7 +57968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A538" s="5" t="s">
         <v>1559</v>
       </c>
@@ -57966,7 +58003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A539" s="5" t="s">
         <v>1562</v>
       </c>
@@ -58001,7 +58038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A540" s="5" t="s">
         <v>1564</v>
       </c>
@@ -58036,7 +58073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A541" s="5" t="s">
         <v>1566</v>
       </c>
@@ -58071,7 +58108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A542" s="5" t="s">
         <v>1569</v>
       </c>
@@ -58106,7 +58143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
         <v>1571</v>
       </c>
@@ -58141,7 +58178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A544" s="5" t="s">
         <v>1574</v>
       </c>
@@ -58176,7 +58213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A545" s="5" t="s">
         <v>1576</v>
       </c>
@@ -58211,7 +58248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A546" s="5" t="s">
         <v>1578</v>
       </c>
@@ -58246,7 +58283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A547" s="5" t="s">
         <v>1581</v>
       </c>
@@ -58281,7 +58318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A548" s="5" t="s">
         <v>1583</v>
       </c>
@@ -58316,7 +58353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A549" s="5" t="s">
         <v>1585</v>
       </c>
@@ -58351,7 +58388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A550" s="5" t="s">
         <v>1587</v>
       </c>
@@ -58386,7 +58423,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A551" s="5" t="s">
         <v>1589</v>
       </c>
@@ -58421,7 +58458,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A552" s="5" t="s">
         <v>1591</v>
       </c>
@@ -58456,7 +58493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A553" s="5" t="s">
         <v>1593</v>
       </c>
@@ -58526,7 +58563,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A555" s="5" t="s">
         <v>1593</v>
       </c>
@@ -58561,7 +58598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A556" s="5" t="s">
         <v>1599</v>
       </c>
@@ -58596,7 +58633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
         <v>1601</v>
       </c>
@@ -58631,7 +58668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A558" s="5" t="s">
         <v>1603</v>
       </c>
@@ -58666,7 +58703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A559" s="5" t="s">
         <v>1606</v>
       </c>
@@ -58701,7 +58738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A560" s="5" t="s">
         <v>1608</v>
       </c>
@@ -58736,7 +58773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="561" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A561" s="5" t="s">
         <v>1610</v>
       </c>
@@ -58771,7 +58808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="562" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A562" s="5" t="s">
         <v>1599</v>
       </c>
@@ -58806,7 +58843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="563" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A563" s="5" t="s">
         <v>1601</v>
       </c>
@@ -58841,7 +58878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="564" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A564" s="5" t="s">
         <v>1614</v>
       </c>
@@ -58876,7 +58913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="565" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A565" s="5" t="s">
         <v>1608</v>
       </c>
@@ -58911,7 +58948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="566" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A566" s="5" t="s">
         <v>1610</v>
       </c>
@@ -58946,7 +58983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="567" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A567" s="5" t="s">
         <v>1614</v>
       </c>
@@ -58981,7 +59018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="568" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A568" s="5" t="s">
         <v>1606</v>
       </c>
@@ -59016,7 +59053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="569" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A569" s="5" t="s">
         <v>1603</v>
       </c>
@@ -59086,7 +59123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="571" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A571" s="5" t="s">
         <v>1619</v>
       </c>
@@ -59121,7 +59158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="572" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A572" s="5" t="s">
         <v>1621</v>
       </c>
@@ -59156,7 +59193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A573" s="5" t="s">
         <v>1623</v>
       </c>
@@ -59191,7 +59228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="574" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A574" s="5" t="s">
         <v>1619</v>
       </c>
@@ -59226,7 +59263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="575" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A575" s="5" t="s">
         <v>1621</v>
       </c>
@@ -59261,7 +59298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="576" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A576" s="5" t="s">
         <v>1623</v>
       </c>
@@ -59296,7 +59333,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="577" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A577" s="5" t="s">
         <v>1626</v>
       </c>
@@ -59331,7 +59368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="578" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A578" s="5" t="s">
         <v>1628</v>
       </c>
@@ -59366,7 +59403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="579" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A579" s="5" t="s">
         <v>1631</v>
       </c>
@@ -59401,7 +59438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="580" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A580" s="5" t="s">
         <v>1632</v>
       </c>
@@ -59436,7 +59473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A581" s="5" t="s">
         <v>1633</v>
       </c>
@@ -59471,7 +59508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A582" s="5" t="s">
         <v>1634</v>
       </c>
@@ -59506,7 +59543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A583" s="5" t="s">
         <v>1637</v>
       </c>
@@ -59541,7 +59578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A584" s="5" t="s">
         <v>1639</v>
       </c>
@@ -59576,7 +59613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="585" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A585" s="5" t="s">
         <v>1631</v>
       </c>
@@ -59611,7 +59648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="586" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A586" s="5" t="s">
         <v>1632</v>
       </c>
@@ -59646,7 +59683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A587" s="5" t="s">
         <v>1633</v>
       </c>
@@ -59681,7 +59718,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="588" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A588" s="5" t="s">
         <v>1626</v>
       </c>
@@ -59716,7 +59753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="589" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A589" s="5" t="s">
         <v>1628</v>
       </c>
@@ -59786,7 +59823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="591" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A591" s="5" t="s">
         <v>1634</v>
       </c>
@@ -59821,7 +59858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="592" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A592" s="5" t="s">
         <v>1637</v>
       </c>
@@ -59856,7 +59893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="593" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A593" s="5" t="s">
         <v>1639</v>
       </c>
@@ -59926,7 +59963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A595" s="5" t="s">
         <v>1647</v>
       </c>
@@ -59961,7 +59998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="596" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A596" s="5" t="s">
         <v>1648</v>
       </c>
@@ -59996,7 +60033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="597" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A597" s="5" t="s">
         <v>1649</v>
       </c>
@@ -60031,7 +60068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="598" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A598" s="5" t="s">
         <v>1650</v>
       </c>
@@ -60066,7 +60103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A599" s="5" t="s">
         <v>1651</v>
       </c>
@@ -60101,7 +60138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A600" s="5" t="s">
         <v>1652</v>
       </c>
@@ -60136,7 +60173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A601" s="5" t="s">
         <v>1647</v>
       </c>
@@ -60171,7 +60208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="602" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A602" s="5" t="s">
         <v>1648</v>
       </c>
@@ -60206,7 +60243,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="603" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A603" s="5" t="s">
         <v>1649</v>
       </c>
@@ -60241,7 +60278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A604" s="5" t="s">
         <v>1650</v>
       </c>
@@ -60276,7 +60313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A605" s="5" t="s">
         <v>1651</v>
       </c>
@@ -60311,7 +60348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A606" s="5" t="s">
         <v>1652</v>
       </c>
@@ -60346,7 +60383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="607" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A607" s="5" t="s">
         <v>1659</v>
       </c>
@@ -60381,7 +60418,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="608" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A608" s="5" t="s">
         <v>1662</v>
       </c>
@@ -60416,7 +60453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="609" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A609" s="5" t="s">
         <v>1665</v>
       </c>
@@ -60451,7 +60488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="610" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A610" s="5" t="s">
         <v>1667</v>
       </c>
@@ -60486,7 +60523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A611" s="5" t="s">
         <v>1670</v>
       </c>
@@ -60530,7 +60567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -60648,6 +60685,115 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1900" windowWidth="31040" windowHeight="17960" tabRatio="723" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="1300" yWindow="2420" windowWidth="31040" windowHeight="17960" tabRatio="723" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="DamageFunctions" sheetId="14" r:id="rId12"/>
     <sheet name="BusinessTypes" sheetId="15" r:id="rId13"/>
     <sheet name="Business Functions" sheetId="16" r:id="rId14"/>
+    <sheet name="NOTES" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15527" uniqueCount="1839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15521" uniqueCount="1844">
   <si>
     <t>LocationID</t>
   </si>
@@ -5557,6 +5558,21 @@
   </si>
   <si>
     <t>Panama_City_Panama</t>
+  </si>
+  <si>
+    <t>Carbon price</t>
+  </si>
+  <si>
+    <t>The value associated the carbon-price DF for a given facility is the annual CO2 emissions in Mtonnes.</t>
+  </si>
+  <si>
+    <t>HP in 2013 CDP data has Scope 1 and 2 emissions of 246,000 and 1,643,000 tons.  For 15 locations, this is approximately 0.13 Mtonnes per location.</t>
+  </si>
+  <si>
+    <t>Micron has 8 locations.  Using the Intel emissions from the 2013 CDP data (794,759 and 2,331,048 tons), this gives 0.38 Mtonnes per location.</t>
+  </si>
+  <si>
+    <t>FEMSA reported 675,832 Tons Scope 1 and 957,954 Tons Scope 2 in 2013 to CDP (https://data.cdp.net/w/u7vf-xpa4/hh8z-a6hj?cur=OSq3T8g8eii&amp;from=root).  Across 48 sites, this is 0.034 Mtonnes per facility</t>
   </si>
 </sst>
 </file>
@@ -37686,10 +37702,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40576,7 +40592,7 @@
         <v>80</v>
       </c>
       <c r="G90">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H90" t="s">
         <v>55</v>
@@ -40608,7 +40624,7 @@
         <v>80</v>
       </c>
       <c r="G91">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H91" t="s">
         <v>55</v>
@@ -40640,7 +40656,7 @@
         <v>80</v>
       </c>
       <c r="G92">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H92" t="s">
         <v>55</v>
@@ -40672,7 +40688,7 @@
         <v>80</v>
       </c>
       <c r="G93">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H93" t="s">
         <v>55</v>
@@ -40704,7 +40720,7 @@
         <v>80</v>
       </c>
       <c r="G94">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H94" t="s">
         <v>55</v>
@@ -40736,7 +40752,7 @@
         <v>80</v>
       </c>
       <c r="G95">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H95" t="s">
         <v>55</v>
@@ -40768,7 +40784,7 @@
         <v>80</v>
       </c>
       <c r="G96">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H96" t="s">
         <v>55</v>
@@ -40800,7 +40816,7 @@
         <v>80</v>
       </c>
       <c r="G97">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H97" t="s">
         <v>55</v>
@@ -40832,7 +40848,7 @@
         <v>80</v>
       </c>
       <c r="G98">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H98" t="s">
         <v>55</v>
@@ -40864,7 +40880,7 @@
         <v>80</v>
       </c>
       <c r="G99">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H99" t="s">
         <v>55</v>
@@ -40896,7 +40912,7 @@
         <v>80</v>
       </c>
       <c r="G100">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H100" t="s">
         <v>55</v>
@@ -40928,7 +40944,7 @@
         <v>80</v>
       </c>
       <c r="G101">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H101" t="s">
         <v>55</v>
@@ -40960,7 +40976,7 @@
         <v>80</v>
       </c>
       <c r="G102">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H102" t="s">
         <v>55</v>
@@ -40992,7 +41008,7 @@
         <v>80</v>
       </c>
       <c r="G103">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H103" t="s">
         <v>55</v>
@@ -41024,7 +41040,7 @@
         <v>80</v>
       </c>
       <c r="G104">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H104" t="s">
         <v>55</v>
@@ -41056,7 +41072,7 @@
         <v>80</v>
       </c>
       <c r="G105">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H105" t="s">
         <v>55</v>
@@ -41088,7 +41104,7 @@
         <v>80</v>
       </c>
       <c r="G106">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H106" t="s">
         <v>55</v>
@@ -41120,7 +41136,7 @@
         <v>80</v>
       </c>
       <c r="G107">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H107" t="s">
         <v>55</v>
@@ -41152,7 +41168,7 @@
         <v>80</v>
       </c>
       <c r="G108">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H108" t="s">
         <v>55</v>
@@ -41184,7 +41200,7 @@
         <v>80</v>
       </c>
       <c r="G109">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H109" t="s">
         <v>55</v>
@@ -41216,7 +41232,7 @@
         <v>80</v>
       </c>
       <c r="G110">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H110" t="s">
         <v>55</v>
@@ -41248,7 +41264,7 @@
         <v>80</v>
       </c>
       <c r="G111">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H111" t="s">
         <v>55</v>
@@ -41280,7 +41296,7 @@
         <v>80</v>
       </c>
       <c r="G112">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H112" t="s">
         <v>55</v>
@@ -41312,7 +41328,7 @@
         <v>80</v>
       </c>
       <c r="G113">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H113" t="s">
         <v>55</v>
@@ -41332,7 +41348,7 @@
       </c>
       <c r="C114" t="str">
         <f>Location!C114</f>
-        <v>Apizaco_Mexico</v>
+        <v>Morelia_Mexico</v>
       </c>
       <c r="D114">
         <v>100</v>
@@ -41344,7 +41360,7 @@
         <v>80</v>
       </c>
       <c r="G114">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H114" t="s">
         <v>55</v>
@@ -41364,7 +41380,7 @@
       </c>
       <c r="C115" t="str">
         <f>Location!C115</f>
-        <v>Morelia_Mexico</v>
+        <v>Cuajimalpa_de_Morelos_Mexico</v>
       </c>
       <c r="D115">
         <v>100</v>
@@ -41376,7 +41392,7 @@
         <v>80</v>
       </c>
       <c r="G115">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H115" t="s">
         <v>55</v>
@@ -41396,7 +41412,7 @@
       </c>
       <c r="C116" t="str">
         <f>Location!C116</f>
-        <v>Cuajimalpa_de_Morelos_Mexico</v>
+        <v>Toluca_Mexico</v>
       </c>
       <c r="D116">
         <v>100</v>
@@ -41408,7 +41424,7 @@
         <v>80</v>
       </c>
       <c r="G116">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H116" t="s">
         <v>55</v>
@@ -41428,7 +41444,7 @@
       </c>
       <c r="C117" t="str">
         <f>Location!C117</f>
-        <v>Toluca_Mexico</v>
+        <v>Tocancipa_Colombia</v>
       </c>
       <c r="D117">
         <v>100</v>
@@ -41440,7 +41456,7 @@
         <v>80</v>
       </c>
       <c r="G117">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H117" t="s">
         <v>55</v>
@@ -41460,7 +41476,7 @@
       </c>
       <c r="C118" t="str">
         <f>Location!C118</f>
-        <v>Tocancipa_Colombia</v>
+        <v>Manantial_Colombia</v>
       </c>
       <c r="D118">
         <v>100</v>
@@ -41472,7 +41488,7 @@
         <v>80</v>
       </c>
       <c r="G118">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H118" t="s">
         <v>55</v>
@@ -41492,7 +41508,7 @@
       </c>
       <c r="C119" t="str">
         <f>Location!C119</f>
-        <v>Manantial_Colombia</v>
+        <v>Barranquilla_Colombia</v>
       </c>
       <c r="D119">
         <v>100</v>
@@ -41504,7 +41520,7 @@
         <v>80</v>
       </c>
       <c r="G119">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H119" t="s">
         <v>55</v>
@@ -41524,7 +41540,7 @@
       </c>
       <c r="C120" t="str">
         <f>Location!C120</f>
-        <v>Barranquilla_Colombia</v>
+        <v>Bucaramanga_Colombia</v>
       </c>
       <c r="D120">
         <v>100</v>
@@ -41536,7 +41552,7 @@
         <v>80</v>
       </c>
       <c r="G120">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H120" t="s">
         <v>55</v>
@@ -41556,7 +41572,7 @@
       </c>
       <c r="C121" t="str">
         <f>Location!C121</f>
-        <v>Bucaramanga_Colombia</v>
+        <v>Medellin_Colombia</v>
       </c>
       <c r="D121">
         <v>100</v>
@@ -41568,7 +41584,7 @@
         <v>80</v>
       </c>
       <c r="G121">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H121" t="s">
         <v>55</v>
@@ -41588,7 +41604,7 @@
       </c>
       <c r="C122" t="str">
         <f>Location!C122</f>
-        <v>Medellin_Colombia</v>
+        <v>Santiago_de_Cali_Colombia</v>
       </c>
       <c r="D122">
         <v>100</v>
@@ -41600,7 +41616,7 @@
         <v>80</v>
       </c>
       <c r="G122">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H122" t="s">
         <v>55</v>
@@ -41620,7 +41636,7 @@
       </c>
       <c r="C123" t="str">
         <f>Location!C123</f>
-        <v>Santiago_de_Cali_Colombia</v>
+        <v>Bogota_Colombia</v>
       </c>
       <c r="D123">
         <v>100</v>
@@ -41632,7 +41648,7 @@
         <v>80</v>
       </c>
       <c r="G123">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H123" t="s">
         <v>55</v>
@@ -41652,7 +41668,7 @@
       </c>
       <c r="C124" t="str">
         <f>Location!C124</f>
-        <v>Bogota_Colombia</v>
+        <v>Ilocos_Philippines</v>
       </c>
       <c r="D124">
         <v>100</v>
@@ -41664,7 +41680,7 @@
         <v>80</v>
       </c>
       <c r="G124">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H124" t="s">
         <v>55</v>
@@ -41684,7 +41700,7 @@
       </c>
       <c r="C125" t="str">
         <f>Location!C125</f>
-        <v>Ilocos_Philippines</v>
+        <v>Ilagan_Philippines</v>
       </c>
       <c r="D125">
         <v>100</v>
@@ -41696,7 +41712,7 @@
         <v>80</v>
       </c>
       <c r="G125">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H125" t="s">
         <v>55</v>
@@ -41716,7 +41732,7 @@
       </c>
       <c r="C126" t="str">
         <f>Location!C126</f>
-        <v>Ilagan_Philippines</v>
+        <v>San_Fernando_Philippines</v>
       </c>
       <c r="D126">
         <v>100</v>
@@ -41728,7 +41744,7 @@
         <v>80</v>
       </c>
       <c r="G126">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H126" t="s">
         <v>55</v>
@@ -41748,7 +41764,7 @@
       </c>
       <c r="C127" t="str">
         <f>Location!C127</f>
-        <v>San_Fernando_Philippines</v>
+        <v>Meycauayan_Philippines</v>
       </c>
       <c r="D127">
         <v>100</v>
@@ -41760,7 +41776,7 @@
         <v>80</v>
       </c>
       <c r="G127">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H127" t="s">
         <v>55</v>
@@ -41780,7 +41796,7 @@
       </c>
       <c r="C128" t="str">
         <f>Location!C128</f>
-        <v>Meycauayan_Philippines</v>
+        <v>Naga_Philippines</v>
       </c>
       <c r="D128">
         <v>100</v>
@@ -41792,7 +41808,7 @@
         <v>80</v>
       </c>
       <c r="G128">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H128" t="s">
         <v>55</v>
@@ -41812,7 +41828,7 @@
       </c>
       <c r="C129" t="str">
         <f>Location!C129</f>
-        <v>Naga_Philippines</v>
+        <v>Tacloban_Philippines</v>
       </c>
       <c r="D129">
         <v>100</v>
@@ -41824,7 +41840,7 @@
         <v>80</v>
       </c>
       <c r="G129">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H129" t="s">
         <v>55</v>
@@ -41844,7 +41860,7 @@
       </c>
       <c r="C130" t="str">
         <f>Location!C130</f>
-        <v>Tacloban_Philippines</v>
+        <v>Mandaue_Philippines</v>
       </c>
       <c r="D130">
         <v>100</v>
@@ -41856,7 +41872,7 @@
         <v>80</v>
       </c>
       <c r="G130">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H130" t="s">
         <v>55</v>
@@ -41876,7 +41892,7 @@
       </c>
       <c r="C131" t="str">
         <f>Location!C131</f>
-        <v>Mandaue_Philippines</v>
+        <v>Bacolod_Philippines</v>
       </c>
       <c r="D131">
         <v>100</v>
@@ -41888,7 +41904,7 @@
         <v>80</v>
       </c>
       <c r="G131">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H131" t="s">
         <v>55</v>
@@ -41908,7 +41924,7 @@
       </c>
       <c r="C132" t="str">
         <f>Location!C132</f>
-        <v>Bacolod_Philippines</v>
+        <v>Iloilo_Philippines</v>
       </c>
       <c r="D132">
         <v>100</v>
@@ -41920,7 +41936,7 @@
         <v>80</v>
       </c>
       <c r="G132">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H132" t="s">
         <v>55</v>
@@ -41940,7 +41956,7 @@
       </c>
       <c r="C133" t="str">
         <f>Location!C133</f>
-        <v>Iloilo_Philippines</v>
+        <v>Tagbilaran_Philippines</v>
       </c>
       <c r="D133">
         <v>100</v>
@@ -41952,7 +41968,7 @@
         <v>80</v>
       </c>
       <c r="G133">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H133" t="s">
         <v>55</v>
@@ -41972,7 +41988,7 @@
       </c>
       <c r="C134" t="str">
         <f>Location!C134</f>
-        <v>Tagbilaran_Philippines</v>
+        <v>Misasmis_Oriental_Philippines</v>
       </c>
       <c r="D134">
         <v>100</v>
@@ -41984,7 +42000,7 @@
         <v>80</v>
       </c>
       <c r="G134">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H134" t="s">
         <v>55</v>
@@ -42004,7 +42020,7 @@
       </c>
       <c r="C135" t="str">
         <f>Location!C135</f>
-        <v>Misasmis_Oriental_Philippines</v>
+        <v>Davao_Philippines</v>
       </c>
       <c r="D135">
         <v>100</v>
@@ -42016,7 +42032,7 @@
         <v>80</v>
       </c>
       <c r="G135">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H135" t="s">
         <v>55</v>
@@ -42036,7 +42052,7 @@
       </c>
       <c r="C136" t="str">
         <f>Location!C136</f>
-        <v>Davao_Philippines</v>
+        <v>Zamboanga_Philippines</v>
       </c>
       <c r="D136">
         <v>100</v>
@@ -42048,7 +42064,7 @@
         <v>80</v>
       </c>
       <c r="G136">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H136" t="s">
         <v>55</v>
@@ -42068,7 +42084,7 @@
       </c>
       <c r="C137" t="str">
         <f>Location!C137</f>
-        <v>Zamboanga_Philippines</v>
+        <v>Imus_Philippines</v>
       </c>
       <c r="D137">
         <v>100</v>
@@ -42080,7 +42096,7 @@
         <v>80</v>
       </c>
       <c r="G137">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H137" t="s">
         <v>55</v>
@@ -42100,7 +42116,7 @@
       </c>
       <c r="C138" t="str">
         <f>Location!C138</f>
-        <v>Imus_Philippines</v>
+        <v>Santa_Rosa_Philippines</v>
       </c>
       <c r="D138">
         <v>100</v>
@@ -42112,7 +42128,7 @@
         <v>80</v>
       </c>
       <c r="G138">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H138" t="s">
         <v>55</v>
@@ -42132,7 +42148,7 @@
       </c>
       <c r="C139" t="str">
         <f>Location!C139</f>
-        <v>Santa_Rosa_Philippines</v>
+        <v>Calamba_Philippines</v>
       </c>
       <c r="D139">
         <v>100</v>
@@ -42144,7 +42160,7 @@
         <v>80</v>
       </c>
       <c r="G139">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H139" t="s">
         <v>55</v>
@@ -42164,7 +42180,7 @@
       </c>
       <c r="C140" t="str">
         <f>Location!C140</f>
-        <v>Calamba_Philippines</v>
+        <v>Monte_Grande_Argentina</v>
       </c>
       <c r="D140">
         <v>100</v>
@@ -42176,7 +42192,7 @@
         <v>80</v>
       </c>
       <c r="G140">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H140" t="s">
         <v>55</v>
@@ -42196,7 +42212,7 @@
       </c>
       <c r="C141" t="str">
         <f>Location!C141</f>
-        <v>Monte_Grande_Argentina</v>
+        <v>Maracaibo_Venezuela</v>
       </c>
       <c r="D141">
         <v>100</v>
@@ -42208,7 +42224,7 @@
         <v>80</v>
       </c>
       <c r="G141">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H141" t="s">
         <v>55</v>
@@ -42228,7 +42244,7 @@
       </c>
       <c r="C142" t="str">
         <f>Location!C142</f>
-        <v>Maracaibo_Venezuela</v>
+        <v>Valencia_Venezuela</v>
       </c>
       <c r="D142">
         <v>100</v>
@@ -42240,7 +42256,7 @@
         <v>80</v>
       </c>
       <c r="G142">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H142" t="s">
         <v>55</v>
@@ -42260,7 +42276,7 @@
       </c>
       <c r="C143" t="str">
         <f>Location!C143</f>
-        <v>Valencia_Venezuela</v>
+        <v>Antimano_Venezuela</v>
       </c>
       <c r="D143">
         <v>100</v>
@@ -42272,7 +42288,7 @@
         <v>80</v>
       </c>
       <c r="G143">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H143" t="s">
         <v>55</v>
@@ -42292,7 +42308,7 @@
       </c>
       <c r="C144" t="str">
         <f>Location!C144</f>
-        <v>Antimano_Venezuela</v>
+        <v>Barcelona_Venezuela</v>
       </c>
       <c r="D144">
         <v>100</v>
@@ -42304,7 +42320,7 @@
         <v>80</v>
       </c>
       <c r="G144">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H144" t="s">
         <v>55</v>
@@ -42324,7 +42340,7 @@
       </c>
       <c r="C145" t="str">
         <f>Location!C145</f>
-        <v>Barcelona_Venezuela</v>
+        <v>San_Jose_Costa_Rica</v>
       </c>
       <c r="D145">
         <v>100</v>
@@ -42336,7 +42352,7 @@
         <v>80</v>
       </c>
       <c r="G145">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H145" t="s">
         <v>55</v>
@@ -42356,7 +42372,7 @@
       </c>
       <c r="C146" t="str">
         <f>Location!C146</f>
-        <v>San_Jose_Costa_Rica</v>
+        <v>Coronado_Costa_Rica</v>
       </c>
       <c r="D146">
         <v>100</v>
@@ -42368,7 +42384,7 @@
         <v>80</v>
       </c>
       <c r="G146">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H146" t="s">
         <v>55</v>
@@ -42388,7 +42404,7 @@
       </c>
       <c r="C147" t="str">
         <f>Location!C147</f>
-        <v>Coronado_Costa_Rica</v>
+        <v>Panama_City_Panama</v>
       </c>
       <c r="D147">
         <v>100</v>
@@ -42400,44 +42416,12 @@
         <v>80</v>
       </c>
       <c r="G147">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H147" t="s">
         <v>55</v>
       </c>
       <c r="I147" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <f>Location!A148</f>
-        <v>147</v>
-      </c>
-      <c r="B148">
-        <f>Location!B148</f>
-        <v>7</v>
-      </c>
-      <c r="C148" t="str">
-        <f>Location!C148</f>
-        <v>Panama_City_Panama</v>
-      </c>
-      <c r="D148">
-        <v>100</v>
-      </c>
-      <c r="E148">
-        <v>90</v>
-      </c>
-      <c r="F148">
-        <v>80</v>
-      </c>
-      <c r="G148">
-        <v>0.1</v>
-      </c>
-      <c r="H148" t="s">
-        <v>55</v>
-      </c>
-      <c r="I148" t="s">
         <v>55</v>
       </c>
     </row>
@@ -64099,6 +64083,46 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="2.5" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
@@ -65767,10 +65791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="O94" sqref="O94"/>
+    <sheetView topLeftCell="A105" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141:E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69488,11 +69512,11 @@
       <c r="C90" t="s">
         <v>1782</v>
       </c>
-      <c r="D90">
-        <v>-54.646389999999997</v>
-      </c>
-      <c r="E90">
-        <v>-20.442779999999999</v>
+      <c r="D90" s="4">
+        <v>-54.599297</v>
+      </c>
+      <c r="E90" s="4">
+        <v>-20.498802000000001</v>
       </c>
       <c r="F90" t="s">
         <v>1782</v>
@@ -69698,11 +69722,11 @@
       <c r="C95" t="s">
         <v>1749</v>
       </c>
-      <c r="D95">
-        <v>-46.636110000000002</v>
-      </c>
-      <c r="E95">
-        <v>-23.547499999999999</v>
+      <c r="D95" s="4">
+        <v>-46.696429100000003</v>
+      </c>
+      <c r="E95" s="4">
+        <v>-23.671403300000001</v>
       </c>
       <c r="F95" t="s">
         <v>1749</v>
@@ -70034,11 +70058,11 @@
       <c r="C103" t="s">
         <v>1794</v>
       </c>
-      <c r="D103">
-        <v>-97.459460000000007</v>
-      </c>
-      <c r="E103">
-        <v>20.533149999999999</v>
+      <c r="D103" s="4">
+        <v>-97.460137000000003</v>
+      </c>
+      <c r="E103" s="4">
+        <v>20.501138000000001</v>
       </c>
       <c r="F103" t="s">
         <v>1794</v>
@@ -70328,11 +70352,11 @@
       <c r="C110" t="s">
         <v>1801</v>
       </c>
-      <c r="D110">
-        <v>-110.31270000000001</v>
-      </c>
-      <c r="E110">
-        <v>24.142299999999999</v>
+      <c r="D110" s="4">
+        <v>-98.977176999999998</v>
+      </c>
+      <c r="E110" s="4">
+        <v>19.358535</v>
       </c>
       <c r="F110" t="s">
         <v>1801</v>
@@ -70403,7 +70427,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="14">
-        <f t="shared" ref="A112:A148" si="1">A111+1</f>
+        <f t="shared" ref="A112:A147" si="1">A111+1</f>
         <v>111</v>
       </c>
       <c r="B112" s="14">
@@ -70454,11 +70478,11 @@
       <c r="C113" t="s">
         <v>1804</v>
       </c>
-      <c r="D113">
-        <v>-97.939530000000005</v>
-      </c>
-      <c r="E113">
-        <v>22.393219999999999</v>
+      <c r="D113" s="4">
+        <v>-97.891381999999993</v>
+      </c>
+      <c r="E113" s="4">
+        <v>22.375734000000001</v>
       </c>
       <c r="F113" t="s">
         <v>1804</v>
@@ -70494,16 +70518,16 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="D114">
-        <v>-98.14358</v>
+        <v>-101.18443000000001</v>
       </c>
       <c r="E114">
-        <v>19.413329999999998</v>
+        <v>19.700780000000002</v>
       </c>
       <c r="F114" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="G114" t="s">
         <v>52</v>
@@ -70536,16 +70560,16 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="D115">
-        <v>-101.18443000000001</v>
+        <v>-99.293880000000001</v>
       </c>
       <c r="E115">
-        <v>19.700780000000002</v>
+        <v>19.359929999999999</v>
       </c>
       <c r="F115" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="G115" t="s">
         <v>52</v>
@@ -70578,16 +70602,16 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D116">
-        <v>-99.293880000000001</v>
+        <v>-99.653239999999997</v>
       </c>
       <c r="E116">
-        <v>19.359929999999999</v>
+        <v>19.287859999999998</v>
       </c>
       <c r="F116" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="G116" t="s">
         <v>52</v>
@@ -70620,16 +70644,16 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D117">
-        <v>-99.653239999999997</v>
+        <v>-73.91301</v>
       </c>
       <c r="E117">
-        <v>19.287859999999998</v>
+        <v>4.9653099999999997</v>
       </c>
       <c r="F117" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G117" t="s">
         <v>52</v>
@@ -70662,16 +70686,16 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D118">
-        <v>-73.91301</v>
+        <v>-74.05</v>
       </c>
       <c r="E118">
-        <v>4.9653099999999997</v>
+        <v>9.3333300000000001</v>
       </c>
       <c r="F118" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="G118" t="s">
         <v>52</v>
@@ -70704,16 +70728,16 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D119">
-        <v>-74.05</v>
+        <v>-74.781319999999994</v>
       </c>
       <c r="E119">
-        <v>9.3333300000000001</v>
+        <v>10.968540000000001</v>
       </c>
       <c r="F119" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="G119" t="s">
         <v>52</v>
@@ -70746,16 +70770,16 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D120">
-        <v>-74.781319999999994</v>
+        <v>-73.119799999999998</v>
       </c>
       <c r="E120">
-        <v>10.968540000000001</v>
+        <v>7.1253900000000003</v>
       </c>
       <c r="F120" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="G120" t="s">
         <v>52</v>
@@ -70788,16 +70812,16 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D121">
-        <v>-73.119799999999998</v>
+        <v>-75.563590000000005</v>
       </c>
       <c r="E121">
-        <v>7.1253900000000003</v>
+        <v>6.2518399999999996</v>
       </c>
       <c r="F121" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="G121" t="s">
         <v>52</v>
@@ -70830,16 +70854,16 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D122">
-        <v>-75.563590000000005</v>
+        <v>-76.522499999999994</v>
       </c>
       <c r="E122">
-        <v>6.2518399999999996</v>
+        <v>3.4372199999999999</v>
       </c>
       <c r="F122" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="G122" t="s">
         <v>52</v>
@@ -70872,16 +70896,16 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D123">
-        <v>-76.522499999999994</v>
+        <v>-74.08175</v>
       </c>
       <c r="E123">
-        <v>3.4372199999999999</v>
+        <v>4.6097099999999998</v>
       </c>
       <c r="F123" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="G123" t="s">
         <v>52</v>
@@ -70914,16 +70938,16 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D124">
-        <v>-74.08175</v>
+        <v>120.52079999999999</v>
       </c>
       <c r="E124">
-        <v>4.6097099999999998</v>
+        <v>16.97917</v>
       </c>
       <c r="F124" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="G124" t="s">
         <v>52</v>
@@ -70956,16 +70980,16 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D125">
-        <v>120.52079999999999</v>
+        <v>122.06667</v>
       </c>
       <c r="E125">
-        <v>16.97917</v>
+        <v>17.16667</v>
       </c>
       <c r="F125" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="G125" t="s">
         <v>52</v>
@@ -70998,16 +71022,16 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D126">
-        <v>122.06667</v>
+        <v>120.68980000000001</v>
       </c>
       <c r="E126">
-        <v>17.16667</v>
+        <v>15.028600000000001</v>
       </c>
       <c r="F126" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="G126" t="s">
         <v>52</v>
@@ -71040,16 +71064,16 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D127">
-        <v>120.68980000000001</v>
+        <v>120.96083</v>
       </c>
       <c r="E127">
-        <v>15.028600000000001</v>
+        <v>14.736940000000001</v>
       </c>
       <c r="F127" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="G127" t="s">
         <v>52</v>
@@ -71082,16 +71106,16 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D128">
-        <v>120.96083</v>
+        <v>123.18333</v>
       </c>
       <c r="E128">
-        <v>14.736940000000001</v>
+        <v>13.616669999999999</v>
       </c>
       <c r="F128" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="G128" t="s">
         <v>52</v>
@@ -71124,16 +71148,16 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D129">
-        <v>123.18333</v>
+        <v>125</v>
       </c>
       <c r="E129">
-        <v>13.616669999999999</v>
+        <v>11.25</v>
       </c>
       <c r="F129" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="G129" t="s">
         <v>52</v>
@@ -71166,16 +71190,16 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D130">
-        <v>125</v>
+        <v>123.93333</v>
       </c>
       <c r="E130">
-        <v>11.25</v>
+        <v>10.33333</v>
       </c>
       <c r="F130" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="G130" t="s">
         <v>52</v>
@@ -71208,16 +71232,16 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D131">
-        <v>123.93333</v>
+        <v>122.95</v>
       </c>
       <c r="E131">
-        <v>10.33333</v>
+        <v>10.66667</v>
       </c>
       <c r="F131" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G131" t="s">
         <v>52</v>
@@ -71250,16 +71274,16 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D132">
-        <v>122.95</v>
+        <v>122.56440000000001</v>
       </c>
       <c r="E132">
-        <v>10.66667</v>
+        <v>10.69694</v>
       </c>
       <c r="F132" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="G132" t="s">
         <v>52</v>
@@ -71292,16 +71316,16 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D133">
-        <v>122.56440000000001</v>
+        <v>123.85218999999999</v>
       </c>
       <c r="E133">
-        <v>10.69694</v>
+        <v>9.6555599999999995</v>
       </c>
       <c r="F133" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="G133" t="s">
         <v>52</v>
@@ -71334,16 +71358,16 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="D134">
-        <v>123.85218999999999</v>
+        <v>125</v>
       </c>
       <c r="E134">
-        <v>9.6555599999999995</v>
+        <v>8.75</v>
       </c>
       <c r="F134" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="G134" t="s">
         <v>52</v>
@@ -71376,16 +71400,16 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D135">
-        <v>125</v>
+        <v>125.59845</v>
       </c>
       <c r="E135">
-        <v>8.75</v>
+        <v>7.0695499999999996</v>
       </c>
       <c r="F135" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="G135" t="s">
         <v>52</v>
@@ -71418,16 +71442,16 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D136">
-        <v>125.59845</v>
+        <v>122.66667</v>
       </c>
       <c r="E136">
-        <v>7.0695499999999996</v>
+        <v>8</v>
       </c>
       <c r="F136" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="G136" t="s">
         <v>52</v>
@@ -71460,16 +71484,16 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D137">
-        <v>122.66667</v>
+        <v>120.93667000000001</v>
       </c>
       <c r="E137">
-        <v>8</v>
+        <v>14.42972</v>
       </c>
       <c r="F137" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="G137" t="s">
         <v>52</v>
@@ -71502,16 +71526,16 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="D138">
-        <v>120.93667000000001</v>
+        <v>121.11139</v>
       </c>
       <c r="E138">
-        <v>14.42972</v>
+        <v>14.31222</v>
       </c>
       <c r="F138" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="G138" t="s">
         <v>52</v>
@@ -71544,16 +71568,16 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="D139">
-        <v>121.11139</v>
+        <v>121.16528</v>
       </c>
       <c r="E139">
-        <v>14.31222</v>
+        <v>14.21167</v>
       </c>
       <c r="F139" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="G139" t="s">
         <v>52</v>
@@ -71586,16 +71610,16 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D140">
-        <v>121.16528</v>
+        <v>-58.456249999999997</v>
       </c>
       <c r="E140">
-        <v>14.21167</v>
+        <v>-34.818440000000002</v>
       </c>
       <c r="F140" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="G140" t="s">
         <v>52</v>
@@ -71628,16 +71652,16 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D141">
-        <v>-58.456249999999997</v>
-      </c>
-      <c r="E141">
-        <v>-34.818440000000002</v>
+        <v>1832</v>
+      </c>
+      <c r="D141" s="4">
+        <v>-71.638041000000001</v>
+      </c>
+      <c r="E141" s="4">
+        <v>10.718417000000001</v>
       </c>
       <c r="F141" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="G141" t="s">
         <v>52</v>
@@ -71670,16 +71694,16 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D142">
-        <v>-71.640559999999994</v>
+        <v>-68.007649999999998</v>
       </c>
       <c r="E142">
-        <v>10.63167</v>
+        <v>10.16202</v>
       </c>
       <c r="F142" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="G142" t="s">
         <v>52</v>
@@ -71712,16 +71736,16 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D143">
-        <v>-68.007649999999998</v>
+        <v>-66.974260000000001</v>
       </c>
       <c r="E143">
-        <v>10.16202</v>
+        <v>10.466419999999999</v>
       </c>
       <c r="F143" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="G143" t="s">
         <v>52</v>
@@ -71754,16 +71778,16 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D144">
-        <v>-66.974260000000001</v>
+        <v>-64.7</v>
       </c>
       <c r="E144">
-        <v>10.466419999999999</v>
+        <v>10.133330000000001</v>
       </c>
       <c r="F144" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="G144" t="s">
         <v>52</v>
@@ -71796,16 +71820,16 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D145">
-        <v>-64.7</v>
+        <v>-84.083330000000004</v>
       </c>
       <c r="E145">
-        <v>10.133330000000001</v>
+        <v>9.9333299999999998</v>
       </c>
       <c r="F145" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="G145" t="s">
         <v>52</v>
@@ -71838,16 +71862,16 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D146">
-        <v>-84.083330000000004</v>
+        <v>-83.619190000000003</v>
       </c>
       <c r="E146">
-        <v>9.9333299999999998</v>
+        <v>9.0460799999999999</v>
       </c>
       <c r="F146" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="G146" t="s">
         <v>52</v>
@@ -71880,16 +71904,16 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D147">
-        <v>-83.619190000000003</v>
+        <v>-79.519729999999996</v>
       </c>
       <c r="E147">
-        <v>9.0460799999999999</v>
+        <v>8.9936000000000007</v>
       </c>
       <c r="F147" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="G147" t="s">
         <v>52</v>
@@ -71910,48 +71934,6 @@
         <v>55</v>
       </c>
       <c r="M147" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A148" s="14">
-        <f t="shared" si="1"/>
-        <v>147</v>
-      </c>
-      <c r="B148" s="14">
-        <v>7</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D148">
-        <v>-79.519729999999996</v>
-      </c>
-      <c r="E148">
-        <v>8.9936000000000007</v>
-      </c>
-      <c r="F148" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G148" t="s">
-        <v>52</v>
-      </c>
-      <c r="H148" t="s">
-        <v>53</v>
-      </c>
-      <c r="I148" t="s">
-        <v>54</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K148" t="s">
-        <v>55</v>
-      </c>
-      <c r="L148" t="s">
-        <v>55</v>
-      </c>
-      <c r="M148" t="s">
         <v>55</v>
       </c>
     </row>
@@ -72279,7 +72261,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="2420" windowWidth="31040" windowHeight="17960" tabRatio="723" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="1420" yWindow="2340" windowWidth="31040" windowHeight="17960" tabRatio="723" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15521" uniqueCount="1844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15576" uniqueCount="1849">
   <si>
     <t>LocationID</t>
   </si>
@@ -5573,6 +5573,21 @@
   </si>
   <si>
     <t>FEMSA reported 675,832 Tons Scope 1 and 957,954 Tons Scope 2 in 2013 to CDP (https://data.cdp.net/w/u7vf-xpa4/hh8z-a6hj?cur=OSq3T8g8eii&amp;from=root).  Across 48 sites, this is 0.034 Mtonnes per facility</t>
+  </si>
+  <si>
+    <t>SUP_Celestica_Malaysia</t>
+  </si>
+  <si>
+    <t>SUP_Flex_Brazil</t>
+  </si>
+  <si>
+    <t>SUP_Flex_Malaysia</t>
+  </si>
+  <si>
+    <t>SUP_Jabil_Circuit_NL</t>
+  </si>
+  <si>
+    <t>SUP_Venture_Malaysia</t>
   </si>
 </sst>
 </file>
@@ -37702,10 +37717,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39194,162 +39209,162 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+      <c r="A47">
         <f>Location!A47</f>
         <v>46</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47">
         <f>Location!B47</f>
-        <v>4</v>
-      </c>
-      <c r="C47" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C47" t="str">
         <f>Location!C47</f>
-        <v>Indooroopilly_Shopping_Centre</v>
-      </c>
-      <c r="D47" s="13">
+        <v>SUP_Celestica_Malaysia</v>
+      </c>
+      <c r="D47">
         <v>100</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47">
         <v>90</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47">
         <v>80</v>
       </c>
-      <c r="G47" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I47" s="13" t="s">
+      <c r="G47">
+        <v>0.13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+      <c r="A48">
         <f>Location!A48</f>
         <v>47</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48">
         <f>Location!B48</f>
-        <v>4</v>
-      </c>
-      <c r="C48" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C48" t="str">
         <f>Location!C48</f>
-        <v>Pacific_Fair</v>
-      </c>
-      <c r="D48" s="13">
+        <v>SUP_Flex_Brazil</v>
+      </c>
+      <c r="D48">
         <v>100</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48">
         <v>90</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48">
         <v>80</v>
       </c>
-      <c r="G48" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I48" s="13" t="s">
+      <c r="G48">
+        <v>0.13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
+      <c r="A49">
         <f>Location!A49</f>
         <v>48</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49">
         <f>Location!B49</f>
-        <v>4</v>
-      </c>
-      <c r="C49" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C49" t="str">
         <f>Location!C49</f>
-        <v>Stanley_Plaza</v>
-      </c>
-      <c r="D49" s="13">
+        <v>SUP_Flex_Malaysia</v>
+      </c>
+      <c r="D49">
         <v>100</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49">
         <v>90</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49">
         <v>80</v>
       </c>
-      <c r="G49" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I49" s="13" t="s">
+      <c r="G49">
+        <v>0.13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+      <c r="A50">
         <f>Location!A50</f>
         <v>49</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50">
         <f>Location!B50</f>
-        <v>4</v>
-      </c>
-      <c r="C50" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C50" t="str">
         <f>Location!C50</f>
-        <v>Coronation_Drive_Office_Park</v>
-      </c>
-      <c r="D50" s="13">
+        <v>SUP_Jabil_Circuit_NL</v>
+      </c>
+      <c r="D50">
         <v>100</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50">
         <v>90</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50">
         <v>80</v>
       </c>
-      <c r="G50" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I50" s="13" t="s">
+      <c r="G50">
+        <v>0.13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
+      <c r="A51">
         <f>Location!A51</f>
         <v>50</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51">
         <f>Location!B51</f>
-        <v>4</v>
-      </c>
-      <c r="C51" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C51" t="str">
         <f>Location!C51</f>
-        <v>Macquarie_Centre</v>
-      </c>
-      <c r="D51" s="13">
+        <v>SUP_Venture_Malaysia</v>
+      </c>
+      <c r="D51">
         <v>100</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51">
         <v>90</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51">
         <v>80</v>
       </c>
-      <c r="G51" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I51" s="13" t="s">
+      <c r="G51">
+        <v>0.13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -39364,7 +39379,7 @@
       </c>
       <c r="C52" s="13" t="str">
         <f>Location!C52</f>
-        <v>AMP_Building</v>
+        <v>Indooroopilly_Shopping_Centre</v>
       </c>
       <c r="D52" s="13">
         <v>100</v>
@@ -39396,7 +39411,7 @@
       </c>
       <c r="C53" s="13" t="str">
         <f>Location!C53</f>
-        <v>NAB_Headquarters</v>
+        <v>Pacific_Fair</v>
       </c>
       <c r="D53" s="13">
         <v>100</v>
@@ -39428,7 +39443,7 @@
       </c>
       <c r="C54" s="13" t="str">
         <f>Location!C54</f>
-        <v>Malvern_Central</v>
+        <v>Stanley_Plaza</v>
       </c>
       <c r="D54" s="13">
         <v>100</v>
@@ -39460,7 +39475,7 @@
       </c>
       <c r="C55" s="13" t="str">
         <f>Location!C55</f>
-        <v>Exchange_Tower</v>
+        <v>Coronation_Drive_Office_Park</v>
       </c>
       <c r="D55" s="13">
         <v>100</v>
@@ -39492,7 +39507,7 @@
       </c>
       <c r="C56" s="13" t="str">
         <f>Location!C56</f>
-        <v>Garden_City</v>
+        <v>Macquarie_Centre</v>
       </c>
       <c r="D56" s="13">
         <v>100</v>
@@ -39524,7 +39539,7 @@
       </c>
       <c r="C57" s="13" t="str">
         <f>Location!C57</f>
-        <v>The_Palms_NZ</v>
+        <v>AMP_Building</v>
       </c>
       <c r="D57" s="13">
         <v>100</v>
@@ -39546,130 +39561,130 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="13">
         <f>Location!A58</f>
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="13">
         <f>Location!B58</f>
-        <v>5</v>
-      </c>
-      <c r="C58" t="str">
+        <v>4</v>
+      </c>
+      <c r="C58" s="13" t="str">
         <f>Location!C58</f>
-        <v>Gridley_IL</v>
-      </c>
-      <c r="D58">
+        <v>NAB_Headquarters</v>
+      </c>
+      <c r="D58" s="13">
         <v>100</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="13">
         <v>90</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="13">
         <v>80</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="13">
         <v>0.1</v>
       </c>
-      <c r="H58" t="s">
-        <v>55</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="H58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="13">
         <f>Location!A59</f>
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="13">
         <f>Location!B59</f>
-        <v>5</v>
-      </c>
-      <c r="C59" t="str">
+        <v>4</v>
+      </c>
+      <c r="C59" s="13" t="str">
         <f>Location!C59</f>
-        <v>Blue_Earth_MN</v>
-      </c>
-      <c r="D59">
+        <v>Malvern_Central</v>
+      </c>
+      <c r="D59" s="13">
         <v>100</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="13">
         <v>90</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="13">
         <v>80</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="13">
         <v>0.1</v>
       </c>
-      <c r="H59" t="s">
-        <v>55</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="H59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="13">
         <f>Location!A60</f>
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="13">
         <f>Location!B60</f>
-        <v>5</v>
-      </c>
-      <c r="C60" t="str">
+        <v>4</v>
+      </c>
+      <c r="C60" s="13" t="str">
         <f>Location!C60</f>
-        <v>Bakersfield_CA</v>
-      </c>
-      <c r="D60">
+        <v>Exchange_Tower</v>
+      </c>
+      <c r="D60" s="13">
         <v>100</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="13">
         <v>90</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="13">
         <v>80</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="13">
         <v>0.1</v>
       </c>
-      <c r="H60" t="s">
-        <v>55</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="H60" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="13">
         <f>Location!A61</f>
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="13">
         <f>Location!B61</f>
-        <v>5</v>
-      </c>
-      <c r="C61" t="str">
+        <v>4</v>
+      </c>
+      <c r="C61" s="13" t="str">
         <f>Location!C61</f>
-        <v>Foley_MN</v>
-      </c>
-      <c r="D61">
+        <v>Garden_City</v>
+      </c>
+      <c r="D61" s="13">
         <v>100</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="13">
         <v>90</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="13">
         <v>80</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="13">
         <v>0.1</v>
       </c>
-      <c r="H61" t="s">
-        <v>55</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="H61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I61" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -39680,11 +39695,11 @@
       </c>
       <c r="B62" s="13">
         <f>Location!B62</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" s="13" t="str">
         <f>Location!C62</f>
-        <v>Mobile_AL_USA</v>
+        <v>The_Palms_NZ</v>
       </c>
       <c r="D62" s="13">
         <v>100</v>
@@ -39706,130 +39721,130 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
+      <c r="A63">
         <f>Location!A63</f>
         <v>62</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63">
         <f>Location!B63</f>
-        <v>6</v>
-      </c>
-      <c r="C63" s="13" t="str">
+        <v>5</v>
+      </c>
+      <c r="C63" t="str">
         <f>Location!C63</f>
-        <v>Columbus_MS_USA</v>
-      </c>
-      <c r="D63" s="13">
+        <v>Gridley_IL</v>
+      </c>
+      <c r="D63">
         <v>100</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63">
         <v>90</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63">
         <v>80</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63">
         <v>0.1</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I63" s="13" t="s">
+      <c r="H63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I63" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
+      <c r="A64">
         <f>Location!A64</f>
         <v>63</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64">
         <f>Location!B64</f>
-        <v>6</v>
-      </c>
-      <c r="C64" s="13" t="str">
+        <v>5</v>
+      </c>
+      <c r="C64" t="str">
         <f>Location!C64</f>
-        <v>Grand_Prairie_TX_USA</v>
-      </c>
-      <c r="D64" s="13">
+        <v>Blue_Earth_MN</v>
+      </c>
+      <c r="D64">
         <v>100</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64">
         <v>90</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64">
         <v>80</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64">
         <v>0.1</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I64" s="13" t="s">
+      <c r="H64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
+      <c r="A65">
         <f>Location!A65</f>
         <v>64</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65">
         <f>Location!B65</f>
-        <v>6</v>
-      </c>
-      <c r="C65" s="13" t="str">
+        <v>5</v>
+      </c>
+      <c r="C65" t="str">
         <f>Location!C65</f>
-        <v>Atlanta_GA_USA</v>
-      </c>
-      <c r="D65" s="13">
+        <v>Bakersfield_CA</v>
+      </c>
+      <c r="D65">
         <v>100</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65">
         <v>90</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65">
         <v>80</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65">
         <v>0.1</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I65" s="13" t="s">
+      <c r="H65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
+      <c r="A66">
         <f>Location!A66</f>
         <v>65</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66">
         <f>Location!B66</f>
-        <v>6</v>
-      </c>
-      <c r="C66" s="13" t="str">
+        <v>5</v>
+      </c>
+      <c r="C66" t="str">
         <f>Location!C66</f>
-        <v>Miami_FL_USA</v>
-      </c>
-      <c r="D66" s="13">
+        <v>Foley_MN</v>
+      </c>
+      <c r="D66">
         <v>100</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66">
         <v>90</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66">
         <v>80</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66">
         <v>0.1</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I66" s="13" t="s">
+      <c r="H66" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" t="s">
         <v>55</v>
       </c>
     </row>
@@ -39844,7 +39859,7 @@
       </c>
       <c r="C67" s="13" t="str">
         <f>Location!C67</f>
-        <v>Ashburn_VA_USA</v>
+        <v>Mobile_AL_USA</v>
       </c>
       <c r="D67" s="13">
         <v>100</v>
@@ -39876,7 +39891,7 @@
       </c>
       <c r="C68" s="13" t="str">
         <f>Location!C68</f>
-        <v>Hamburg_Germany</v>
+        <v>Columbus_MS_USA</v>
       </c>
       <c r="D68" s="13">
         <v>100</v>
@@ -39908,7 +39923,7 @@
       </c>
       <c r="C69" s="13" t="str">
         <f>Location!C69</f>
-        <v>Tianjin_China</v>
+        <v>Grand_Prairie_TX_USA</v>
       </c>
       <c r="D69" s="13">
         <v>100</v>
@@ -39940,7 +39955,7 @@
       </c>
       <c r="C70" s="13" t="str">
         <f>Location!C70</f>
-        <v>Toulouse_France</v>
+        <v>Atlanta_GA_USA</v>
       </c>
       <c r="D70" s="13">
         <v>100</v>
@@ -39972,7 +39987,7 @@
       </c>
       <c r="C71" s="13" t="str">
         <f>Location!C71</f>
-        <v>Queretaro_Mexico</v>
+        <v>Miami_FL_USA</v>
       </c>
       <c r="D71" s="13">
         <v>100</v>
@@ -40004,7 +40019,7 @@
       </c>
       <c r="C72" s="13" t="str">
         <f>Location!C72</f>
-        <v>Itajuba_Minas_Gerais_Brazil</v>
+        <v>Ashburn_VA_USA</v>
       </c>
       <c r="D72" s="13">
         <v>100</v>
@@ -40036,7 +40051,7 @@
       </c>
       <c r="C73" s="13" t="str">
         <f>Location!C73</f>
-        <v>Sao_Paulo_Brazil</v>
+        <v>Hamburg_Germany</v>
       </c>
       <c r="D73" s="13">
         <v>100</v>
@@ -40068,7 +40083,7 @@
       </c>
       <c r="C74" s="13" t="str">
         <f>Location!C74</f>
-        <v>Rio_de_Janeiro_Brazil</v>
+        <v>Tianjin_China</v>
       </c>
       <c r="D74" s="13">
         <v>100</v>
@@ -40100,7 +40115,7 @@
       </c>
       <c r="C75" s="13" t="str">
         <f>Location!C75</f>
-        <v>Brasilia_Brazil</v>
+        <v>Toulouse_France</v>
       </c>
       <c r="D75" s="13">
         <v>100</v>
@@ -40132,7 +40147,7 @@
       </c>
       <c r="C76" s="13" t="str">
         <f>Location!C76</f>
-        <v>Broughton_UK</v>
+        <v>Queretaro_Mexico</v>
       </c>
       <c r="D76" s="13">
         <v>100</v>
@@ -40164,7 +40179,7 @@
       </c>
       <c r="C77" s="13" t="str">
         <f>Location!C77</f>
-        <v>Bristol_UK</v>
+        <v>Itajuba_Minas_Gerais_Brazil</v>
       </c>
       <c r="D77" s="13">
         <v>100</v>
@@ -40196,7 +40211,7 @@
       </c>
       <c r="C78" s="13" t="str">
         <f>Location!C78</f>
-        <v>Stade_Germany</v>
+        <v>Sao_Paulo_Brazil</v>
       </c>
       <c r="D78" s="13">
         <v>100</v>
@@ -40228,7 +40243,7 @@
       </c>
       <c r="C79" s="13" t="str">
         <f>Location!C79</f>
-        <v>Bremen_Germany</v>
+        <v>Rio_de_Janeiro_Brazil</v>
       </c>
       <c r="D79" s="13">
         <v>100</v>
@@ -40260,7 +40275,7 @@
       </c>
       <c r="C80" s="13" t="str">
         <f>Location!C80</f>
-        <v>Donauworth_Germany</v>
+        <v>Brasilia_Brazil</v>
       </c>
       <c r="D80" s="13">
         <v>100</v>
@@ -40292,7 +40307,7 @@
       </c>
       <c r="C81" s="13" t="str">
         <f>Location!C81</f>
-        <v>Nantes_France</v>
+        <v>Broughton_UK</v>
       </c>
       <c r="D81" s="13">
         <v>100</v>
@@ -40324,7 +40339,7 @@
       </c>
       <c r="C82" s="13" t="str">
         <f>Location!C82</f>
-        <v>Marignane_France</v>
+        <v>Bristol_UK</v>
       </c>
       <c r="D82" s="13">
         <v>100</v>
@@ -40356,7 +40371,7 @@
       </c>
       <c r="C83" s="13" t="str">
         <f>Location!C83</f>
-        <v>Madrid_Spain</v>
+        <v>Stade_Germany</v>
       </c>
       <c r="D83" s="13">
         <v>100</v>
@@ -40388,7 +40403,7 @@
       </c>
       <c r="C84" s="13" t="str">
         <f>Location!C84</f>
-        <v>Sevilla_Spain</v>
+        <v>Bremen_Germany</v>
       </c>
       <c r="D84" s="13">
         <v>100</v>
@@ -40420,7 +40435,7 @@
       </c>
       <c r="C85" s="13" t="str">
         <f>Location!C85</f>
-        <v>Casablanca_Morocco</v>
+        <v>Donauworth_Germany</v>
       </c>
       <c r="D85" s="13">
         <v>100</v>
@@ -40452,7 +40467,7 @@
       </c>
       <c r="C86" s="13" t="str">
         <f>Location!C86</f>
-        <v>Blenheim_New_Zealand</v>
+        <v>Nantes_France</v>
       </c>
       <c r="D86" s="13">
         <v>100</v>
@@ -40484,7 +40499,7 @@
       </c>
       <c r="C87" s="13" t="str">
         <f>Location!C87</f>
-        <v>Brisbane_Australia</v>
+        <v>Marignane_France</v>
       </c>
       <c r="D87" s="13">
         <v>100</v>
@@ -40516,7 +40531,7 @@
       </c>
       <c r="C88" s="13" t="str">
         <f>Location!C88</f>
-        <v>Riyadh_Saudi_Arabia</v>
+        <v>Madrid_Spain</v>
       </c>
       <c r="D88" s="13">
         <v>100</v>
@@ -40548,7 +40563,7 @@
       </c>
       <c r="C89" s="13" t="str">
         <f>Location!C89</f>
-        <v>Jubail_Saudi_Arabia</v>
+        <v>Sevilla_Spain</v>
       </c>
       <c r="D89" s="13">
         <v>100</v>
@@ -40570,162 +40585,162 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="13">
         <f>Location!A90</f>
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="13">
         <f>Location!B90</f>
-        <v>7</v>
-      </c>
-      <c r="C90" t="str">
+        <v>6</v>
+      </c>
+      <c r="C90" s="13" t="str">
         <f>Location!C90</f>
-        <v>Campo_Grande_Brazil</v>
-      </c>
-      <c r="D90">
+        <v>Casablanca_Morocco</v>
+      </c>
+      <c r="D90" s="13">
         <v>100</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="13">
         <v>90</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="13">
         <v>80</v>
       </c>
-      <c r="G90">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H90" t="s">
-        <v>55</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="G90" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="13">
         <f>Location!A91</f>
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="13">
         <f>Location!B91</f>
-        <v>7</v>
-      </c>
-      <c r="C91" t="str">
+        <v>6</v>
+      </c>
+      <c r="C91" s="13" t="str">
         <f>Location!C91</f>
-        <v>Belo_Horizonte_Brazil</v>
-      </c>
-      <c r="D91">
+        <v>Blenheim_New_Zealand</v>
+      </c>
+      <c r="D91" s="13">
         <v>100</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="13">
         <v>90</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="13">
         <v>80</v>
       </c>
-      <c r="G91">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H91" t="s">
-        <v>55</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="G91" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I91" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="13">
         <f>Location!A92</f>
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="13">
         <f>Location!B92</f>
-        <v>7</v>
-      </c>
-      <c r="C92" t="str">
+        <v>6</v>
+      </c>
+      <c r="C92" s="13" t="str">
         <f>Location!C92</f>
-        <v>Porto_Real_Brazil</v>
-      </c>
-      <c r="D92">
+        <v>Brisbane_Australia</v>
+      </c>
+      <c r="D92" s="13">
         <v>100</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="13">
         <v>90</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="13">
         <v>80</v>
       </c>
-      <c r="G92">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H92" t="s">
-        <v>55</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="G92" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I92" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="13">
         <f>Location!A93</f>
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="13">
         <f>Location!B93</f>
-        <v>7</v>
-      </c>
-      <c r="C93" t="str">
+        <v>6</v>
+      </c>
+      <c r="C93" s="13" t="str">
         <f>Location!C93</f>
-        <v>Mogi_das_Cruzes_Brazil</v>
-      </c>
-      <c r="D93">
+        <v>Riyadh_Saudi_Arabia</v>
+      </c>
+      <c r="D93" s="13">
         <v>100</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="13">
         <v>90</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="13">
         <v>80</v>
       </c>
-      <c r="G93">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H93" t="s">
-        <v>55</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="G93" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I93" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="13">
         <f>Location!A94</f>
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="13">
         <f>Location!B94</f>
-        <v>7</v>
-      </c>
-      <c r="C94" t="str">
+        <v>6</v>
+      </c>
+      <c r="C94" s="13" t="str">
         <f>Location!C94</f>
-        <v>Jundiai_Brazil</v>
-      </c>
-      <c r="D94">
+        <v>Jubail_Saudi_Arabia</v>
+      </c>
+      <c r="D94" s="13">
         <v>100</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="13">
         <v>90</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="13">
         <v>80</v>
       </c>
-      <c r="G94">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H94" t="s">
-        <v>55</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="G94" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I94" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -40740,7 +40755,7 @@
       </c>
       <c r="C95" t="str">
         <f>Location!C95</f>
-        <v>Sao_Paulo_Brazil</v>
+        <v>Campo_Grande_Brazil</v>
       </c>
       <c r="D95">
         <v>100</v>
@@ -40772,7 +40787,7 @@
       </c>
       <c r="C96" t="str">
         <f>Location!C96</f>
-        <v>Curitiba_Brazil</v>
+        <v>Belo_Horizonte_Brazil</v>
       </c>
       <c r="D96">
         <v>100</v>
@@ -40804,7 +40819,7 @@
       </c>
       <c r="C97" t="str">
         <f>Location!C97</f>
-        <v>Maringa_Brazil</v>
+        <v>Porto_Real_Brazil</v>
       </c>
       <c r="D97">
         <v>100</v>
@@ -40836,7 +40851,7 @@
       </c>
       <c r="C98" t="str">
         <f>Location!C98</f>
-        <v>Marilia_Brazil</v>
+        <v>Mogi_das_Cruzes_Brazil</v>
       </c>
       <c r="D98">
         <v>100</v>
@@ -40868,7 +40883,7 @@
       </c>
       <c r="C99" t="str">
         <f>Location!C99</f>
-        <v>Bauru_Brazil</v>
+        <v>Jundiai_Brazil</v>
       </c>
       <c r="D99">
         <v>100</v>
@@ -40900,7 +40915,7 @@
       </c>
       <c r="C100" t="str">
         <f>Location!C100</f>
-        <v>San_Cristobal_de_las_Casas_Mexico</v>
+        <v>Sao_Paulo_Brazil</v>
       </c>
       <c r="D100">
         <v>100</v>
@@ -40932,7 +40947,7 @@
       </c>
       <c r="C101" t="str">
         <f>Location!C101</f>
-        <v>Tabasco_Mexico</v>
+        <v>Curitiba_Brazil</v>
       </c>
       <c r="D101">
         <v>100</v>
@@ -40964,7 +40979,7 @@
       </c>
       <c r="C102" t="str">
         <f>Location!C102</f>
-        <v>Coatepec_Mexico</v>
+        <v>Maringa_Brazil</v>
       </c>
       <c r="D102">
         <v>100</v>
@@ -40996,7 +41011,7 @@
       </c>
       <c r="C103" t="str">
         <f>Location!C103</f>
-        <v>Poza_Rica_Mexico</v>
+        <v>Marilia_Brazil</v>
       </c>
       <c r="D103">
         <v>100</v>
@@ -41028,7 +41043,7 @@
       </c>
       <c r="C104" t="str">
         <f>Location!C104</f>
-        <v>Apizaco_Mexico</v>
+        <v>Bauru_Brazil</v>
       </c>
       <c r="D104">
         <v>100</v>
@@ -41060,7 +41075,7 @@
       </c>
       <c r="C105" t="str">
         <f>Location!C105</f>
-        <v>Leon_Mexico</v>
+        <v>San_Cristobal_de_las_Casas_Mexico</v>
       </c>
       <c r="D105">
         <v>100</v>
@@ -41092,7 +41107,7 @@
       </c>
       <c r="C106" t="str">
         <f>Location!C106</f>
-        <v>Santiago_deA_Queretaro_Mexico</v>
+        <v>Tabasco_Mexico</v>
       </c>
       <c r="D106">
         <v>100</v>
@@ -41124,7 +41139,7 @@
       </c>
       <c r="C107" t="str">
         <f>Location!C107</f>
-        <v>Zinacantepec_Mexico</v>
+        <v>Coatepec_Mexico</v>
       </c>
       <c r="D107">
         <v>100</v>
@@ -41156,7 +41171,7 @@
       </c>
       <c r="C108" t="str">
         <f>Location!C108</f>
-        <v>Pinotepa_Nacional_Mexico</v>
+        <v>Poza_Rica_Mexico</v>
       </c>
       <c r="D108">
         <v>100</v>
@@ -41188,7 +41203,7 @@
       </c>
       <c r="C109" t="str">
         <f>Location!C109</f>
-        <v>Cuernavaca_Mexico</v>
+        <v>Apizaco_Mexico</v>
       </c>
       <c r="D109">
         <v>100</v>
@@ -41220,7 +41235,7 @@
       </c>
       <c r="C110" t="str">
         <f>Location!C110</f>
-        <v>Los_Reyes_Acaquilpan_Mexico</v>
+        <v>Leon_Mexico</v>
       </c>
       <c r="D110">
         <v>100</v>
@@ -41252,7 +41267,7 @@
       </c>
       <c r="C111" t="str">
         <f>Location!C111</f>
-        <v>Cuautitlan_Izcalli_Mexico</v>
+        <v>Santiago_deA_Queretaro_Mexico</v>
       </c>
       <c r="D111">
         <v>100</v>
@@ -41284,7 +41299,7 @@
       </c>
       <c r="C112" t="str">
         <f>Location!C112</f>
-        <v>Tepotzotlan_Mexico</v>
+        <v>Zinacantepec_Mexico</v>
       </c>
       <c r="D112">
         <v>100</v>
@@ -41316,7 +41331,7 @@
       </c>
       <c r="C113" t="str">
         <f>Location!C113</f>
-        <v>Altamira_Mexico</v>
+        <v>Pinotepa_Nacional_Mexico</v>
       </c>
       <c r="D113">
         <v>100</v>
@@ -41348,7 +41363,7 @@
       </c>
       <c r="C114" t="str">
         <f>Location!C114</f>
-        <v>Morelia_Mexico</v>
+        <v>Cuernavaca_Mexico</v>
       </c>
       <c r="D114">
         <v>100</v>
@@ -41380,7 +41395,7 @@
       </c>
       <c r="C115" t="str">
         <f>Location!C115</f>
-        <v>Cuajimalpa_de_Morelos_Mexico</v>
+        <v>Los_Reyes_Acaquilpan_Mexico</v>
       </c>
       <c r="D115">
         <v>100</v>
@@ -41412,7 +41427,7 @@
       </c>
       <c r="C116" t="str">
         <f>Location!C116</f>
-        <v>Toluca_Mexico</v>
+        <v>Cuautitlan_Izcalli_Mexico</v>
       </c>
       <c r="D116">
         <v>100</v>
@@ -41444,7 +41459,7 @@
       </c>
       <c r="C117" t="str">
         <f>Location!C117</f>
-        <v>Tocancipa_Colombia</v>
+        <v>Tepotzotlan_Mexico</v>
       </c>
       <c r="D117">
         <v>100</v>
@@ -41476,7 +41491,7 @@
       </c>
       <c r="C118" t="str">
         <f>Location!C118</f>
-        <v>Manantial_Colombia</v>
+        <v>Altamira_Mexico</v>
       </c>
       <c r="D118">
         <v>100</v>
@@ -41508,7 +41523,7 @@
       </c>
       <c r="C119" t="str">
         <f>Location!C119</f>
-        <v>Barranquilla_Colombia</v>
+        <v>Morelia_Mexico</v>
       </c>
       <c r="D119">
         <v>100</v>
@@ -41540,7 +41555,7 @@
       </c>
       <c r="C120" t="str">
         <f>Location!C120</f>
-        <v>Bucaramanga_Colombia</v>
+        <v>Cuajimalpa_de_Morelos_Mexico</v>
       </c>
       <c r="D120">
         <v>100</v>
@@ -41572,7 +41587,7 @@
       </c>
       <c r="C121" t="str">
         <f>Location!C121</f>
-        <v>Medellin_Colombia</v>
+        <v>Toluca_Mexico</v>
       </c>
       <c r="D121">
         <v>100</v>
@@ -41604,7 +41619,7 @@
       </c>
       <c r="C122" t="str">
         <f>Location!C122</f>
-        <v>Santiago_de_Cali_Colombia</v>
+        <v>Tocancipa_Colombia</v>
       </c>
       <c r="D122">
         <v>100</v>
@@ -41636,7 +41651,7 @@
       </c>
       <c r="C123" t="str">
         <f>Location!C123</f>
-        <v>Bogota_Colombia</v>
+        <v>Manantial_Colombia</v>
       </c>
       <c r="D123">
         <v>100</v>
@@ -41668,7 +41683,7 @@
       </c>
       <c r="C124" t="str">
         <f>Location!C124</f>
-        <v>Ilocos_Philippines</v>
+        <v>Barranquilla_Colombia</v>
       </c>
       <c r="D124">
         <v>100</v>
@@ -41700,7 +41715,7 @@
       </c>
       <c r="C125" t="str">
         <f>Location!C125</f>
-        <v>Ilagan_Philippines</v>
+        <v>Bucaramanga_Colombia</v>
       </c>
       <c r="D125">
         <v>100</v>
@@ -41732,7 +41747,7 @@
       </c>
       <c r="C126" t="str">
         <f>Location!C126</f>
-        <v>San_Fernando_Philippines</v>
+        <v>Medellin_Colombia</v>
       </c>
       <c r="D126">
         <v>100</v>
@@ -41764,7 +41779,7 @@
       </c>
       <c r="C127" t="str">
         <f>Location!C127</f>
-        <v>Meycauayan_Philippines</v>
+        <v>Santiago_de_Cali_Colombia</v>
       </c>
       <c r="D127">
         <v>100</v>
@@ -41796,7 +41811,7 @@
       </c>
       <c r="C128" t="str">
         <f>Location!C128</f>
-        <v>Naga_Philippines</v>
+        <v>Bogota_Colombia</v>
       </c>
       <c r="D128">
         <v>100</v>
@@ -41828,7 +41843,7 @@
       </c>
       <c r="C129" t="str">
         <f>Location!C129</f>
-        <v>Tacloban_Philippines</v>
+        <v>Ilocos_Philippines</v>
       </c>
       <c r="D129">
         <v>100</v>
@@ -41860,7 +41875,7 @@
       </c>
       <c r="C130" t="str">
         <f>Location!C130</f>
-        <v>Mandaue_Philippines</v>
+        <v>Ilagan_Philippines</v>
       </c>
       <c r="D130">
         <v>100</v>
@@ -41892,7 +41907,7 @@
       </c>
       <c r="C131" t="str">
         <f>Location!C131</f>
-        <v>Bacolod_Philippines</v>
+        <v>San_Fernando_Philippines</v>
       </c>
       <c r="D131">
         <v>100</v>
@@ -41924,7 +41939,7 @@
       </c>
       <c r="C132" t="str">
         <f>Location!C132</f>
-        <v>Iloilo_Philippines</v>
+        <v>Meycauayan_Philippines</v>
       </c>
       <c r="D132">
         <v>100</v>
@@ -41956,7 +41971,7 @@
       </c>
       <c r="C133" t="str">
         <f>Location!C133</f>
-        <v>Tagbilaran_Philippines</v>
+        <v>Naga_Philippines</v>
       </c>
       <c r="D133">
         <v>100</v>
@@ -41988,7 +42003,7 @@
       </c>
       <c r="C134" t="str">
         <f>Location!C134</f>
-        <v>Misasmis_Oriental_Philippines</v>
+        <v>Tacloban_Philippines</v>
       </c>
       <c r="D134">
         <v>100</v>
@@ -42020,7 +42035,7 @@
       </c>
       <c r="C135" t="str">
         <f>Location!C135</f>
-        <v>Davao_Philippines</v>
+        <v>Mandaue_Philippines</v>
       </c>
       <c r="D135">
         <v>100</v>
@@ -42052,7 +42067,7 @@
       </c>
       <c r="C136" t="str">
         <f>Location!C136</f>
-        <v>Zamboanga_Philippines</v>
+        <v>Bacolod_Philippines</v>
       </c>
       <c r="D136">
         <v>100</v>
@@ -42084,7 +42099,7 @@
       </c>
       <c r="C137" t="str">
         <f>Location!C137</f>
-        <v>Imus_Philippines</v>
+        <v>Iloilo_Philippines</v>
       </c>
       <c r="D137">
         <v>100</v>
@@ -42116,7 +42131,7 @@
       </c>
       <c r="C138" t="str">
         <f>Location!C138</f>
-        <v>Santa_Rosa_Philippines</v>
+        <v>Tagbilaran_Philippines</v>
       </c>
       <c r="D138">
         <v>100</v>
@@ -42148,7 +42163,7 @@
       </c>
       <c r="C139" t="str">
         <f>Location!C139</f>
-        <v>Calamba_Philippines</v>
+        <v>Misasmis_Oriental_Philippines</v>
       </c>
       <c r="D139">
         <v>100</v>
@@ -42180,7 +42195,7 @@
       </c>
       <c r="C140" t="str">
         <f>Location!C140</f>
-        <v>Monte_Grande_Argentina</v>
+        <v>Davao_Philippines</v>
       </c>
       <c r="D140">
         <v>100</v>
@@ -42212,7 +42227,7 @@
       </c>
       <c r="C141" t="str">
         <f>Location!C141</f>
-        <v>Maracaibo_Venezuela</v>
+        <v>Zamboanga_Philippines</v>
       </c>
       <c r="D141">
         <v>100</v>
@@ -42244,7 +42259,7 @@
       </c>
       <c r="C142" t="str">
         <f>Location!C142</f>
-        <v>Valencia_Venezuela</v>
+        <v>Imus_Philippines</v>
       </c>
       <c r="D142">
         <v>100</v>
@@ -42276,7 +42291,7 @@
       </c>
       <c r="C143" t="str">
         <f>Location!C143</f>
-        <v>Antimano_Venezuela</v>
+        <v>Santa_Rosa_Philippines</v>
       </c>
       <c r="D143">
         <v>100</v>
@@ -42308,7 +42323,7 @@
       </c>
       <c r="C144" t="str">
         <f>Location!C144</f>
-        <v>Barcelona_Venezuela</v>
+        <v>Calamba_Philippines</v>
       </c>
       <c r="D144">
         <v>100</v>
@@ -42340,7 +42355,7 @@
       </c>
       <c r="C145" t="str">
         <f>Location!C145</f>
-        <v>San_Jose_Costa_Rica</v>
+        <v>Monte_Grande_Argentina</v>
       </c>
       <c r="D145">
         <v>100</v>
@@ -42372,7 +42387,7 @@
       </c>
       <c r="C146" t="str">
         <f>Location!C146</f>
-        <v>Coronado_Costa_Rica</v>
+        <v>Maracaibo_Venezuela</v>
       </c>
       <c r="D146">
         <v>100</v>
@@ -42404,7 +42419,7 @@
       </c>
       <c r="C147" t="str">
         <f>Location!C147</f>
-        <v>Panama_City_Panama</v>
+        <v>Valencia_Venezuela</v>
       </c>
       <c r="D147">
         <v>100</v>
@@ -42422,6 +42437,166 @@
         <v>55</v>
       </c>
       <c r="I147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f>Location!A148</f>
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <f>Location!B148</f>
+        <v>7</v>
+      </c>
+      <c r="C148" t="str">
+        <f>Location!C148</f>
+        <v>Antimano_Venezuela</v>
+      </c>
+      <c r="D148">
+        <v>100</v>
+      </c>
+      <c r="E148">
+        <v>90</v>
+      </c>
+      <c r="F148">
+        <v>80</v>
+      </c>
+      <c r="G148">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H148" t="s">
+        <v>55</v>
+      </c>
+      <c r="I148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f>Location!A149</f>
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <f>Location!B149</f>
+        <v>7</v>
+      </c>
+      <c r="C149" t="str">
+        <f>Location!C149</f>
+        <v>Barcelona_Venezuela</v>
+      </c>
+      <c r="D149">
+        <v>100</v>
+      </c>
+      <c r="E149">
+        <v>90</v>
+      </c>
+      <c r="F149">
+        <v>80</v>
+      </c>
+      <c r="G149">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H149" t="s">
+        <v>55</v>
+      </c>
+      <c r="I149" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f>Location!A150</f>
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <f>Location!B150</f>
+        <v>7</v>
+      </c>
+      <c r="C150" t="str">
+        <f>Location!C150</f>
+        <v>San_Jose_Costa_Rica</v>
+      </c>
+      <c r="D150">
+        <v>100</v>
+      </c>
+      <c r="E150">
+        <v>90</v>
+      </c>
+      <c r="F150">
+        <v>80</v>
+      </c>
+      <c r="G150">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H150" t="s">
+        <v>55</v>
+      </c>
+      <c r="I150" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f>Location!A151</f>
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <f>Location!B151</f>
+        <v>7</v>
+      </c>
+      <c r="C151" t="str">
+        <f>Location!C151</f>
+        <v>Coronado_Costa_Rica</v>
+      </c>
+      <c r="D151">
+        <v>100</v>
+      </c>
+      <c r="E151">
+        <v>90</v>
+      </c>
+      <c r="F151">
+        <v>80</v>
+      </c>
+      <c r="G151">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H151" t="s">
+        <v>55</v>
+      </c>
+      <c r="I151" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f>Location!A152</f>
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <f>Location!B152</f>
+        <v>7</v>
+      </c>
+      <c r="C152" t="str">
+        <f>Location!C152</f>
+        <v>Panama_City_Panama</v>
+      </c>
+      <c r="D152">
+        <v>100</v>
+      </c>
+      <c r="E152">
+        <v>90</v>
+      </c>
+      <c r="F152">
+        <v>80</v>
+      </c>
+      <c r="G152">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H152" t="s">
+        <v>55</v>
+      </c>
+      <c r="I152" t="s">
         <v>55</v>
       </c>
     </row>
@@ -64087,7 +64262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -65791,10 +65966,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141:E141"/>
+    <sheetView topLeftCell="A43" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65893,6 +66068,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3">
@@ -65934,6 +66110,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -65975,6 +66152,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -66016,6 +66194,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -66057,6 +66236,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -66098,6 +66278,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -66139,6 +66320,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -66180,6 +66362,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="13">
@@ -66221,6 +66404,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="13">
@@ -66262,6 +66446,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="13">
@@ -66303,6 +66488,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="13">
@@ -66344,6 +66530,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="13">
@@ -66385,6 +66572,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="13">
@@ -66426,6 +66614,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="13">
@@ -66467,6 +66656,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="13">
@@ -66508,6 +66698,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="13">
@@ -66549,6 +66740,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="13">
@@ -66590,6 +66782,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="13">
@@ -66631,6 +66824,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="13">
@@ -66672,6 +66866,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="13">
@@ -66713,6 +66908,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="13">
@@ -66754,6 +66950,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="13">
@@ -66795,6 +66992,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="13">
@@ -66836,6 +67034,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="13">
@@ -66877,6 +67076,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="13">
@@ -66918,6 +67118,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="13">
@@ -66959,6 +67160,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="13">
@@ -67000,6 +67202,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="13">
@@ -67041,6 +67244,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="13">
@@ -67082,6 +67286,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32">
@@ -67117,12 +67322,13 @@
       <c r="L32" t="s">
         <v>55</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33">
@@ -67158,12 +67364,13 @@
       <c r="L33" t="s">
         <v>55</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34">
@@ -67199,12 +67406,13 @@
       <c r="L34" t="s">
         <v>55</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35">
@@ -67240,12 +67448,13 @@
       <c r="L35" t="s">
         <v>55</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36">
@@ -67281,12 +67490,13 @@
       <c r="L36" t="s">
         <v>55</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37">
@@ -67322,12 +67532,13 @@
       <c r="L37" t="s">
         <v>55</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38">
@@ -67363,12 +67574,13 @@
       <c r="L38" t="s">
         <v>55</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39">
@@ -67404,12 +67616,13 @@
       <c r="L39" t="s">
         <v>55</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40">
@@ -67445,12 +67658,13 @@
       <c r="L40" t="s">
         <v>55</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41">
@@ -67486,12 +67700,13 @@
       <c r="L41" t="s">
         <v>55</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42">
@@ -67527,12 +67742,13 @@
       <c r="L42" t="s">
         <v>55</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43">
@@ -67568,12 +67784,13 @@
       <c r="L43" t="s">
         <v>55</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44">
@@ -67609,12 +67826,13 @@
       <c r="L44" t="s">
         <v>55</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M44" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45">
@@ -67650,12 +67868,13 @@
       <c r="L45" t="s">
         <v>55</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46">
@@ -67691,217 +67910,217 @@
       <c r="L46" t="s">
         <v>55</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="M46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
-        <f>A46+1</f>
+      <c r="A47">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="13">
-        <v>4</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D47" s="13">
-        <v>152.97045510000001</v>
-      </c>
-      <c r="E47" s="13">
-        <v>-27.499605800000001</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>1698</v>
-      </c>
-      <c r="G47" s="13" t="s">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D47">
+        <v>103.5973</v>
+      </c>
+      <c r="E47">
+        <v>1.6446000000000001</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G47" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I47" s="13" t="s">
+      <c r="H47" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" t="s">
         <v>1680</v>
       </c>
-      <c r="K47" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M47" s="13" t="s">
+      <c r="K47" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
-        <f t="shared" ref="A48:A111" si="0">A47+1</f>
+      <c r="A48">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="13">
-        <v>4</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D48" s="13">
-        <v>153.4258423</v>
-      </c>
-      <c r="E48" s="13">
-        <v>-28.036514</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G48" s="13" t="s">
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D48">
+        <v>-38.6</v>
+      </c>
+      <c r="E48">
+        <v>-7.516667</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G48" t="s">
         <v>52</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J48" s="13" t="s">
+      <c r="H48" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" t="s">
         <v>1680</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M48" s="13" t="s">
+      <c r="K48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
+      <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="13">
-        <v>4</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D49" s="13">
-        <v>153.02070330000001</v>
-      </c>
-      <c r="E49" s="13">
-        <v>-27.4786392</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>1700</v>
-      </c>
-      <c r="G49" s="13" t="s">
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D49">
+        <v>103.6439</v>
+      </c>
+      <c r="E49">
+        <v>1.5014000000000001</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G49" t="s">
         <v>52</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" s="13" t="s">
+      <c r="H49" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" t="s">
         <v>1680</v>
       </c>
-      <c r="K49" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M49" s="13" t="s">
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+      <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="13">
-        <v>4</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D50" s="13">
-        <v>153.00675190000001</v>
-      </c>
-      <c r="E50" s="13">
-        <v>-27.4695483</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>1701</v>
-      </c>
-      <c r="G50" s="13" t="s">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D50">
+        <v>5.9749999999999996</v>
+      </c>
+      <c r="E50">
+        <v>51.524999999999999</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G50" t="s">
         <v>52</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I50" s="13" t="s">
+      <c r="H50" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" t="s">
         <v>1680</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M50" s="13" t="s">
+      <c r="K50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
+      <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="13">
-        <v>4</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D51" s="13">
-        <v>151.11832659999999</v>
-      </c>
-      <c r="E51" s="13">
-        <v>-33.776747299999997</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>1702</v>
-      </c>
-      <c r="G51" s="13" t="s">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D51">
+        <v>103.75</v>
+      </c>
+      <c r="E51">
+        <v>1.4666669999999999</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G51" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I51" s="13" t="s">
+      <c r="H51" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="13" t="s">
+      <c r="J51" t="s">
         <v>1680</v>
       </c>
-      <c r="K51" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M51" s="13" t="s">
+      <c r="K51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -67914,16 +68133,16 @@
         <v>4</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="D52" s="13">
-        <v>151.20993540000001</v>
+        <v>152.97045510000001</v>
       </c>
       <c r="E52" s="13">
-        <v>-33.862573900000001</v>
+        <v>-27.499605800000001</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>52</v>
@@ -67932,7 +68151,7 @@
         <v>53</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J52" s="13" t="s">
         <v>1680</v>
@@ -67956,16 +68175,16 @@
         <v>4</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="D53" s="13">
-        <v>144.94720839999999</v>
+        <v>153.4258423</v>
       </c>
       <c r="E53" s="13">
-        <v>-37.817371000000001</v>
+        <v>-28.036514</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>52</v>
@@ -67998,16 +68217,16 @@
         <v>4</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="D54" s="13">
-        <v>145.02497679999999</v>
+        <v>153.02070330000001</v>
       </c>
       <c r="E54" s="13">
-        <v>-37.862842499999999</v>
+        <v>-27.4786392</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>52</v>
@@ -68040,16 +68259,16 @@
         <v>4</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="D55" s="13">
-        <v>115.8564435</v>
+        <v>153.00675190000001</v>
       </c>
       <c r="E55" s="13">
-        <v>-31.956254000000001</v>
+        <v>-27.4695483</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>52</v>
@@ -68058,7 +68277,7 @@
         <v>53</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J55" s="13" t="s">
         <v>1680</v>
@@ -68082,16 +68301,16 @@
         <v>4</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="D56" s="13">
-        <v>115.83374139999999</v>
+        <v>151.11832659999999</v>
       </c>
       <c r="E56" s="13">
-        <v>-32.0339551</v>
+        <v>-33.776747299999997</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>52</v>
@@ -68100,7 +68319,7 @@
         <v>53</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J56" s="13" t="s">
         <v>1680</v>
@@ -68124,16 +68343,16 @@
         <v>4</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="D57" s="13">
-        <v>172.66268930000001</v>
+        <v>151.20993540000001</v>
       </c>
       <c r="E57" s="13">
-        <v>-43.507471099999997</v>
+        <v>-33.862573900000001</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>52</v>
@@ -68142,7 +68361,7 @@
         <v>53</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J57" s="13" t="s">
         <v>1680</v>
@@ -68158,170 +68377,170 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="13">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D58">
-        <v>-88.881460000000004</v>
-      </c>
-      <c r="E58">
-        <v>40.743369999999999</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1740</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="B58" s="13">
+        <v>4</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D58" s="13">
+        <v>144.94720839999999</v>
+      </c>
+      <c r="E58" s="13">
+        <v>-37.817371000000001</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G58" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I58" t="s">
-        <v>54</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="I58" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="K58" t="s">
-        <v>55</v>
-      </c>
-      <c r="L58" t="s">
-        <v>55</v>
-      </c>
-      <c r="M58" t="s">
+      <c r="K58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M58" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="13">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>5</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D59">
-        <v>-94.067030000000003</v>
-      </c>
-      <c r="E59">
-        <v>44.034590000000001</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>1741</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="B59" s="13">
+        <v>4</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D59" s="13">
+        <v>145.02497679999999</v>
+      </c>
+      <c r="E59" s="13">
+        <v>-37.862842499999999</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="K59" t="s">
-        <v>55</v>
-      </c>
-      <c r="L59" t="s">
-        <v>55</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="K59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M59" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="13">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>5</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D60">
-        <v>-119.01871</v>
-      </c>
-      <c r="E60">
-        <v>35.373289999999997</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>1742</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="B60" s="13">
+        <v>4</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D60" s="13">
+        <v>115.8564435</v>
+      </c>
+      <c r="E60" s="13">
+        <v>-31.956254000000001</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I60" t="s">
-        <v>54</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="I60" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="K60" t="s">
-        <v>55</v>
-      </c>
-      <c r="L60" t="s">
-        <v>55</v>
-      </c>
-      <c r="M60" t="s">
+      <c r="K60" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M60" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>1739</v>
-      </c>
-      <c r="D61">
-        <v>-93.909700000000001</v>
-      </c>
-      <c r="E61">
-        <v>45.66469</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>1743</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="B61" s="13">
+        <v>4</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D61" s="13">
+        <v>115.83374139999999</v>
+      </c>
+      <c r="E61" s="13">
+        <v>-32.0339551</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G61" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I61" t="s">
-        <v>54</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="I61" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="K61" t="s">
-        <v>55</v>
-      </c>
-      <c r="L61" t="s">
-        <v>55</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="K61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M61" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -68331,19 +68550,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>1763</v>
+        <v>1691</v>
       </c>
       <c r="D62" s="13">
-        <v>-88.043049999999994</v>
+        <v>172.66268930000001</v>
       </c>
       <c r="E62" s="13">
-        <v>30.69436</v>
+        <v>-43.507471099999997</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>1763</v>
+        <v>1708</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>52</v>
@@ -68368,170 +68587,170 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
+      <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="13">
-        <v>6</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D63" s="13">
-        <v>-88.427260000000004</v>
-      </c>
-      <c r="E63" s="13">
-        <v>33.495669999999997</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G63" s="13" t="s">
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D63">
+        <v>-88.881460000000004</v>
+      </c>
+      <c r="E63">
+        <v>40.743369999999999</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G63" t="s">
         <v>52</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" t="s">
         <v>53</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="I63" t="s">
         <v>54</v>
       </c>
-      <c r="J63" s="13" t="s">
+      <c r="J63" t="s">
         <v>1680</v>
       </c>
-      <c r="K63" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M63" s="13" t="s">
+      <c r="K63" t="s">
+        <v>55</v>
+      </c>
+      <c r="L63" t="s">
+        <v>55</v>
+      </c>
+      <c r="M63" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
+      <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="13">
-        <v>6</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D64" s="13">
-        <v>-96.997780000000006</v>
-      </c>
-      <c r="E64" s="13">
-        <v>32.745959999999997</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>1765</v>
-      </c>
-      <c r="G64" s="13" t="s">
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D64">
+        <v>-94.067030000000003</v>
+      </c>
+      <c r="E64">
+        <v>44.034590000000001</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G64" t="s">
         <v>52</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" t="s">
         <v>53</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" t="s">
         <v>54</v>
       </c>
-      <c r="J64" s="13" t="s">
+      <c r="J64" t="s">
         <v>1680</v>
       </c>
-      <c r="K64" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L64" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M64" s="13" t="s">
+      <c r="K64" t="s">
+        <v>55</v>
+      </c>
+      <c r="L64" t="s">
+        <v>55</v>
+      </c>
+      <c r="M64" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
+      <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="13">
-        <v>6</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D65" s="13">
-        <v>-84.387979999999999</v>
-      </c>
-      <c r="E65" s="13">
-        <v>33.749000000000002</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>1766</v>
-      </c>
-      <c r="G65" s="13" t="s">
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D65">
+        <v>-119.01871</v>
+      </c>
+      <c r="E65">
+        <v>35.373289999999997</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G65" t="s">
         <v>52</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H65" t="s">
         <v>53</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" t="s">
         <v>54</v>
       </c>
-      <c r="J65" s="13" t="s">
+      <c r="J65" t="s">
         <v>1680</v>
       </c>
-      <c r="K65" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L65" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M65" s="13" t="s">
+      <c r="K65" t="s">
+        <v>55</v>
+      </c>
+      <c r="L65" t="s">
+        <v>55</v>
+      </c>
+      <c r="M65" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
+      <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="13">
-        <v>6</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D66" s="13">
-        <v>-80.193659999999994</v>
-      </c>
-      <c r="E66" s="13">
-        <v>25.774270000000001</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>1767</v>
-      </c>
-      <c r="G66" s="13" t="s">
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D66">
+        <v>-93.909700000000001</v>
+      </c>
+      <c r="E66">
+        <v>45.66469</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>1743</v>
+      </c>
+      <c r="G66" t="s">
         <v>52</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" t="s">
         <v>53</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" t="s">
         <v>54</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="J66" t="s">
         <v>1680</v>
       </c>
-      <c r="K66" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L66" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M66" s="13" t="s">
+      <c r="K66" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M66" t="s">
         <v>55</v>
       </c>
     </row>
@@ -68544,16 +68763,16 @@
         <v>6</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="D67" s="13">
-        <v>-77.487489999999994</v>
+        <v>-88.043049999999994</v>
       </c>
       <c r="E67" s="13">
-        <v>39.04372</v>
+        <v>30.69436</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>52</v>
@@ -68579,23 +68798,23 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="13">
         <v>6</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="D68" s="13">
-        <v>10.01534</v>
+        <v>-88.427260000000004</v>
       </c>
       <c r="E68" s="13">
-        <v>53.575319999999998</v>
+        <v>33.495669999999997</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>52</v>
@@ -68621,23 +68840,23 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="13">
         <v>6</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="D69" s="13">
-        <v>117.17667</v>
+        <v>-96.997780000000006</v>
       </c>
       <c r="E69" s="13">
-        <v>39.142220000000002</v>
+        <v>32.745959999999997</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>52</v>
@@ -68663,23 +68882,23 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="13">
         <v>6</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="D70" s="13">
-        <v>1.44367</v>
+        <v>-84.387979999999999</v>
       </c>
       <c r="E70" s="13">
-        <v>43.604259999999996</v>
+        <v>33.749000000000002</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>52</v>
@@ -68705,23 +68924,23 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="13">
         <v>6</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="D71" s="13">
-        <v>-100.38333</v>
+        <v>-80.193659999999994</v>
       </c>
       <c r="E71" s="13">
-        <v>20.6</v>
+        <v>25.774270000000001</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>52</v>
@@ -68747,23 +68966,23 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="13">
         <v>6</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
       <c r="D72" s="13">
-        <v>-45.452779999999997</v>
+        <v>-77.487489999999994</v>
       </c>
       <c r="E72" s="13">
-        <v>-22.425560000000001</v>
+        <v>39.04372</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>52</v>
@@ -68789,23 +69008,23 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="13">
         <v>6</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="D73" s="13">
-        <v>-46.636110000000002</v>
+        <v>10.01534</v>
       </c>
       <c r="E73" s="13">
-        <v>-23.547499999999999</v>
+        <v>53.575319999999998</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>52</v>
@@ -68831,23 +69050,23 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="13">
         <v>6</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="D74" s="13">
-        <v>-43.207500000000003</v>
+        <v>117.17667</v>
       </c>
       <c r="E74" s="13">
-        <v>-22.90278</v>
+        <v>39.142220000000002</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>52</v>
@@ -68873,23 +69092,23 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="13">
         <v>6</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
       <c r="D75" s="13">
-        <v>-47.75</v>
+        <v>1.44367</v>
       </c>
       <c r="E75" s="13">
-        <v>-15.75</v>
+        <v>43.604259999999996</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>52</v>
@@ -68915,23 +69134,23 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="13">
         <v>6</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="D76" s="13">
-        <v>-0.76666999999999996</v>
+        <v>-100.38333</v>
       </c>
       <c r="E76" s="13">
-        <v>52.366669999999999</v>
+        <v>20.6</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>52</v>
@@ -68957,23 +69176,23 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="13">
         <v>6</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="D77" s="13">
-        <v>-2.5966499999999999</v>
+        <v>-45.452779999999997</v>
       </c>
       <c r="E77" s="13">
-        <v>51.45523</v>
+        <v>-22.425560000000001</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>52</v>
@@ -68999,23 +69218,23 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="13">
         <v>6</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="D78" s="13">
-        <v>9.4762900000000005</v>
+        <v>-46.636110000000002</v>
       </c>
       <c r="E78" s="13">
-        <v>53.59337</v>
+        <v>-23.547499999999999</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>52</v>
@@ -69041,23 +69260,23 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="13">
         <v>6</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D79" s="13">
-        <v>8.7906300000000002</v>
+        <v>-43.207500000000003</v>
       </c>
       <c r="E79" s="13">
-        <v>53.088909999999998</v>
+        <v>-22.90278</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>52</v>
@@ -69083,23 +69302,23 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="13">
         <v>6</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>1755</v>
+        <v>1762</v>
       </c>
       <c r="D80" s="13">
-        <v>10.779299999999999</v>
+        <v>-47.75</v>
       </c>
       <c r="E80" s="13">
-        <v>48.718040000000002</v>
+        <v>-15.75</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>1755</v>
+        <v>1762</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>52</v>
@@ -69125,23 +69344,23 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="13">
         <v>6</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="D81" s="13">
-        <v>-1.5533600000000001</v>
+        <v>-0.76666999999999996</v>
       </c>
       <c r="E81" s="13">
-        <v>47.21725</v>
+        <v>52.366669999999999</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>52</v>
@@ -69167,23 +69386,23 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="13">
         <v>6</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="D82" s="13">
-        <v>5.2145299999999999</v>
+        <v>-2.5966499999999999</v>
       </c>
       <c r="E82" s="13">
-        <v>43.416040000000002</v>
+        <v>51.45523</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>52</v>
@@ -69209,23 +69428,23 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="13">
         <v>6</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="D83" s="13">
-        <v>-3.7025600000000001</v>
+        <v>9.4762900000000005</v>
       </c>
       <c r="E83" s="13">
-        <v>40.416499999999999</v>
+        <v>53.59337</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>52</v>
@@ -69251,23 +69470,23 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="13">
         <v>6</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="D84" s="13">
-        <v>-5.9761300000000004</v>
+        <v>8.7906300000000002</v>
       </c>
       <c r="E84" s="13">
-        <v>37.38241</v>
+        <v>53.088909999999998</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>52</v>
@@ -69293,23 +69512,23 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="13">
         <v>6</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="D85" s="13">
-        <v>-7.6113799999999996</v>
+        <v>10.779299999999999</v>
       </c>
       <c r="E85" s="13">
-        <v>33.58831</v>
+        <v>48.718040000000002</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>52</v>
@@ -69335,23 +69554,23 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="13">
         <v>6</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>1775</v>
+        <v>1756</v>
       </c>
       <c r="D86" s="13">
-        <v>173.9528</v>
+        <v>-1.5533600000000001</v>
       </c>
       <c r="E86" s="13">
-        <v>-41.516030000000001</v>
+        <v>47.21725</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>1775</v>
+        <v>1756</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>52</v>
@@ -69377,23 +69596,23 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="13">
         <v>6</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="D87" s="13">
-        <v>153.02808999999999</v>
+        <v>5.2145299999999999</v>
       </c>
       <c r="E87" s="13">
-        <v>-27.467939999999999</v>
+        <v>43.416040000000002</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>52</v>
@@ -69419,23 +69638,23 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="13">
         <v>6</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>1776</v>
+        <v>1758</v>
       </c>
       <c r="D88" s="13">
-        <v>46.721850000000003</v>
+        <v>-3.7025600000000001</v>
       </c>
       <c r="E88" s="13">
-        <v>24.687729999999998</v>
+        <v>40.416499999999999</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>1776</v>
+        <v>1758</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>52</v>
@@ -69461,23 +69680,23 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="13">
         <v>6</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>1777</v>
+        <v>1759</v>
       </c>
       <c r="D89" s="13">
-        <v>49.658259999999999</v>
+        <v>-5.9761300000000004</v>
       </c>
       <c r="E89" s="13">
-        <v>27.011220000000002</v>
+        <v>37.38241</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>1777</v>
+        <v>1759</v>
       </c>
       <c r="G89" s="13" t="s">
         <v>52</v>
@@ -69502,234 +69721,234 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="14">
-        <f t="shared" si="0"/>
+      <c r="A90" s="13">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B90" s="14">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D90" s="4">
-        <v>-54.599297</v>
-      </c>
-      <c r="E90" s="4">
-        <v>-20.498802000000001</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1782</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="B90" s="13">
+        <v>6</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D90" s="13">
+        <v>-7.6113799999999996</v>
+      </c>
+      <c r="E90" s="13">
+        <v>33.58831</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G90" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="K90" t="s">
-        <v>55</v>
-      </c>
-      <c r="L90" t="s">
-        <v>55</v>
-      </c>
-      <c r="M90" t="s">
+      <c r="K90" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L90" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M90" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="14">
-        <f t="shared" si="0"/>
+      <c r="A91" s="13">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="14">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D91">
-        <v>-43.937779999999997</v>
-      </c>
-      <c r="E91">
-        <v>-19.920829999999999</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1783</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="B91" s="13">
+        <v>6</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D91" s="13">
+        <v>173.9528</v>
+      </c>
+      <c r="E91" s="13">
+        <v>-41.516030000000001</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G91" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="K91" t="s">
-        <v>55</v>
-      </c>
-      <c r="L91" t="s">
-        <v>55</v>
-      </c>
-      <c r="M91" t="s">
+      <c r="K91" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M91" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="14">
-        <f t="shared" si="0"/>
+      <c r="A92" s="13">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="14">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D92">
-        <v>-44.290280000000003</v>
-      </c>
-      <c r="E92">
-        <v>-22.419720000000002</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1784</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="B92" s="13">
+        <v>6</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D92" s="13">
+        <v>153.02808999999999</v>
+      </c>
+      <c r="E92" s="13">
+        <v>-27.467939999999999</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G92" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="K92" t="s">
-        <v>55</v>
-      </c>
-      <c r="L92" t="s">
-        <v>55</v>
-      </c>
-      <c r="M92" t="s">
+      <c r="K92" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M92" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="14">
-        <f t="shared" si="0"/>
+      <c r="A93" s="13">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93" s="14">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D93">
-        <v>-46.188330000000001</v>
-      </c>
-      <c r="E93">
-        <v>-23.522780000000001</v>
-      </c>
-      <c r="F93" t="s">
-        <v>1785</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="B93" s="13">
+        <v>6</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D93" s="13">
+        <v>46.721850000000003</v>
+      </c>
+      <c r="E93" s="13">
+        <v>24.687729999999998</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G93" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="K93" t="s">
-        <v>55</v>
-      </c>
-      <c r="L93" t="s">
-        <v>55</v>
-      </c>
-      <c r="M93" t="s">
+      <c r="K93" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L93" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M93" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="14">
-        <f t="shared" si="0"/>
+      <c r="A94" s="13">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B94" s="14">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1786</v>
-      </c>
-      <c r="D94">
-        <v>-46.884169999999997</v>
-      </c>
-      <c r="E94">
-        <v>-23.186389999999999</v>
-      </c>
-      <c r="F94" t="s">
-        <v>1786</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="B94" s="13">
+        <v>6</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D94" s="13">
+        <v>49.658259999999999</v>
+      </c>
+      <c r="E94" s="13">
+        <v>27.011220000000002</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G94" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="K94" t="s">
-        <v>55</v>
-      </c>
-      <c r="L94" t="s">
-        <v>55</v>
-      </c>
-      <c r="M94" t="s">
+      <c r="K94" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M94" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="14">
-        <f t="shared" si="0"/>
+      <c r="A95">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="14">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>1749</v>
+        <v>1782</v>
       </c>
       <c r="D95" s="4">
-        <v>-46.696429100000003</v>
+        <v>-54.599297</v>
       </c>
       <c r="E95" s="4">
-        <v>-23.671403300000001</v>
+        <v>-20.498802000000001</v>
       </c>
       <c r="F95" t="s">
-        <v>1749</v>
+        <v>1782</v>
       </c>
       <c r="G95" t="s">
         <v>52</v>
@@ -69754,24 +69973,24 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="14">
-        <f t="shared" si="0"/>
+      <c r="A96">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="14">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="D96">
-        <v>-49.273060000000001</v>
+        <v>-43.937779999999997</v>
       </c>
       <c r="E96">
-        <v>-25.427779999999998</v>
+        <v>-19.920829999999999</v>
       </c>
       <c r="F96" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="G96" t="s">
         <v>52</v>
@@ -69796,24 +70015,24 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="14">
-        <f t="shared" si="0"/>
+      <c r="A97">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="14">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="D97">
-        <v>-51.938609999999997</v>
+        <v>-44.290280000000003</v>
       </c>
       <c r="E97">
-        <v>-23.425280000000001</v>
+        <v>-22.419720000000002</v>
       </c>
       <c r="F97" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="G97" t="s">
         <v>52</v>
@@ -69838,24 +70057,24 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="14">
-        <f t="shared" si="0"/>
+      <c r="A98">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="14">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="D98">
-        <v>-49.945830000000001</v>
+        <v>-46.188330000000001</v>
       </c>
       <c r="E98">
-        <v>-22.213889999999999</v>
+        <v>-23.522780000000001</v>
       </c>
       <c r="F98" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="G98" t="s">
         <v>52</v>
@@ -69880,24 +70099,24 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="14">
-        <f t="shared" si="0"/>
+      <c r="A99">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="14">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="D99">
-        <v>-49.060560000000002</v>
+        <v>-46.884169999999997</v>
       </c>
       <c r="E99">
-        <v>-22.314720000000001</v>
+        <v>-23.186389999999999</v>
       </c>
       <c r="F99" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="G99" t="s">
         <v>52</v>
@@ -69922,24 +70141,24 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="14">
-        <f t="shared" si="0"/>
+      <c r="A100">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="14">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D100">
-        <v>-92.638189999999994</v>
-      </c>
-      <c r="E100">
-        <v>16.737880000000001</v>
+        <v>1749</v>
+      </c>
+      <c r="D100" s="4">
+        <v>-46.696429100000003</v>
+      </c>
+      <c r="E100" s="4">
+        <v>-23.671403300000001</v>
       </c>
       <c r="F100" t="s">
-        <v>1791</v>
+        <v>1749</v>
       </c>
       <c r="G100" t="s">
         <v>52</v>
@@ -69964,24 +70183,24 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="14">
-        <f t="shared" si="0"/>
+      <c r="A101">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="14">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="D101">
-        <v>-92.930279999999996</v>
+        <v>-49.273060000000001</v>
       </c>
       <c r="E101">
-        <v>17.986889999999999</v>
+        <v>-25.427779999999998</v>
       </c>
       <c r="F101" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="G101" t="s">
         <v>52</v>
@@ -70006,24 +70225,24 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="14">
-        <f t="shared" si="0"/>
+      <c r="A102">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="14">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="D102">
-        <v>-96.960260000000005</v>
+        <v>-51.938609999999997</v>
       </c>
       <c r="E102">
-        <v>19.453790000000001</v>
+        <v>-23.425280000000001</v>
       </c>
       <c r="F102" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="G102" t="s">
         <v>52</v>
@@ -70048,24 +70267,24 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="14">
-        <f t="shared" si="0"/>
+      <c r="A103">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="14">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D103" s="4">
-        <v>-97.460137000000003</v>
-      </c>
-      <c r="E103" s="4">
-        <v>20.501138000000001</v>
+        <v>1789</v>
+      </c>
+      <c r="D103">
+        <v>-49.945830000000001</v>
+      </c>
+      <c r="E103">
+        <v>-22.213889999999999</v>
       </c>
       <c r="F103" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="G103" t="s">
         <v>52</v>
@@ -70090,24 +70309,24 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="14">
-        <f t="shared" si="0"/>
+      <c r="A104">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="14">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="D104">
-        <v>-98.14358</v>
+        <v>-49.060560000000002</v>
       </c>
       <c r="E104">
-        <v>19.413329999999998</v>
+        <v>-22.314720000000001</v>
       </c>
       <c r="F104" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="G104" t="s">
         <v>52</v>
@@ -70132,24 +70351,24 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" s="14">
-        <f t="shared" si="0"/>
+      <c r="A105">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="14">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="D105">
-        <v>-101.66801</v>
+        <v>-92.638189999999994</v>
       </c>
       <c r="E105">
-        <v>21.121310000000001</v>
+        <v>16.737880000000001</v>
       </c>
       <c r="F105" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="G105" t="s">
         <v>52</v>
@@ -70174,24 +70393,24 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="14">
-        <f t="shared" si="0"/>
+      <c r="A106">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="14">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="D106">
-        <v>-100.38330000000001</v>
+        <v>-92.930279999999996</v>
       </c>
       <c r="E106">
-        <v>20.6</v>
+        <v>17.986889999999999</v>
       </c>
       <c r="F106" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="G106" t="s">
         <v>52</v>
@@ -70216,24 +70435,24 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="14">
-        <f t="shared" si="0"/>
+      <c r="A107">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="14">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="D107">
-        <v>-99.734780000000001</v>
+        <v>-96.960260000000005</v>
       </c>
       <c r="E107">
-        <v>19.28501</v>
+        <v>19.453790000000001</v>
       </c>
       <c r="F107" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="G107" t="s">
         <v>52</v>
@@ -70258,24 +70477,24 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="14">
-        <f t="shared" si="0"/>
+      <c r="A108">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="14">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D108">
-        <v>-98.055319999999995</v>
-      </c>
-      <c r="E108">
-        <v>16.338470000000001</v>
+        <v>1794</v>
+      </c>
+      <c r="D108" s="4">
+        <v>-97.460137000000003</v>
+      </c>
+      <c r="E108" s="4">
+        <v>20.501138000000001</v>
       </c>
       <c r="F108" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="G108" t="s">
         <v>52</v>
@@ -70300,24 +70519,24 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="14">
-        <f t="shared" si="0"/>
+      <c r="A109">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="14">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="D109">
-        <v>-99.226460000000003</v>
+        <v>-98.14358</v>
       </c>
       <c r="E109">
-        <v>18.94201</v>
+        <v>19.413329999999998</v>
       </c>
       <c r="F109" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="G109" t="s">
         <v>52</v>
@@ -70342,24 +70561,24 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="14">
-        <f t="shared" si="0"/>
+      <c r="A110">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="14">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D110" s="4">
-        <v>-98.977176999999998</v>
-      </c>
-      <c r="E110" s="4">
-        <v>19.358535</v>
+        <v>1796</v>
+      </c>
+      <c r="D110">
+        <v>-101.66801</v>
+      </c>
+      <c r="E110">
+        <v>21.121310000000001</v>
       </c>
       <c r="F110" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="G110" t="s">
         <v>52</v>
@@ -70384,24 +70603,24 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="14">
-        <f t="shared" si="0"/>
+      <c r="A111">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" s="14">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="D111">
-        <v>-99.215980000000002</v>
+        <v>-100.38330000000001</v>
       </c>
       <c r="E111">
-        <v>19.643879999999999</v>
+        <v>20.6</v>
       </c>
       <c r="F111" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="G111" t="s">
         <v>52</v>
@@ -70426,24 +70645,24 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="14">
-        <f t="shared" ref="A112:A147" si="1">A111+1</f>
+      <c r="A112">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112" s="14">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="D112">
-        <v>-99.223699999999994</v>
+        <v>-99.734780000000001</v>
       </c>
       <c r="E112">
-        <v>19.719809999999999</v>
+        <v>19.28501</v>
       </c>
       <c r="F112" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="G112" t="s">
         <v>52</v>
@@ -70468,7 +70687,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" s="14">
+      <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
@@ -70476,16 +70695,16 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>1804</v>
-      </c>
-      <c r="D113" s="4">
-        <v>-97.891381999999993</v>
-      </c>
-      <c r="E113" s="4">
-        <v>22.375734000000001</v>
+        <v>1799</v>
+      </c>
+      <c r="D113">
+        <v>-98.055319999999995</v>
+      </c>
+      <c r="E113">
+        <v>16.338470000000001</v>
       </c>
       <c r="F113" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="G113" t="s">
         <v>52</v>
@@ -70510,7 +70729,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114" s="14">
+      <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
@@ -70518,16 +70737,16 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="D114">
-        <v>-101.18443000000001</v>
+        <v>-99.226460000000003</v>
       </c>
       <c r="E114">
-        <v>19.700780000000002</v>
+        <v>18.94201</v>
       </c>
       <c r="F114" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="G114" t="s">
         <v>52</v>
@@ -70552,7 +70771,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" s="14">
+      <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
@@ -70560,16 +70779,16 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D115">
-        <v>-99.293880000000001</v>
-      </c>
-      <c r="E115">
-        <v>19.359929999999999</v>
+        <v>1801</v>
+      </c>
+      <c r="D115" s="4">
+        <v>-98.977176999999998</v>
+      </c>
+      <c r="E115" s="4">
+        <v>19.358535</v>
       </c>
       <c r="F115" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="G115" t="s">
         <v>52</v>
@@ -70594,7 +70813,7 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="14">
+      <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
@@ -70602,16 +70821,16 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="D116">
-        <v>-99.653239999999997</v>
+        <v>-99.215980000000002</v>
       </c>
       <c r="E116">
-        <v>19.287859999999998</v>
+        <v>19.643879999999999</v>
       </c>
       <c r="F116" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="G116" t="s">
         <v>52</v>
@@ -70636,7 +70855,7 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" s="14">
+      <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
@@ -70644,16 +70863,16 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="D117">
-        <v>-73.91301</v>
+        <v>-99.223699999999994</v>
       </c>
       <c r="E117">
-        <v>4.9653099999999997</v>
+        <v>19.719809999999999</v>
       </c>
       <c r="F117" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="G117" t="s">
         <v>52</v>
@@ -70678,7 +70897,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="14">
+      <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
@@ -70686,16 +70905,16 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>1809</v>
-      </c>
-      <c r="D118">
-        <v>-74.05</v>
-      </c>
-      <c r="E118">
-        <v>9.3333300000000001</v>
+        <v>1804</v>
+      </c>
+      <c r="D118" s="4">
+        <v>-97.891381999999993</v>
+      </c>
+      <c r="E118" s="4">
+        <v>22.375734000000001</v>
       </c>
       <c r="F118" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="G118" t="s">
         <v>52</v>
@@ -70720,7 +70939,7 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A119" s="14">
+      <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
@@ -70728,16 +70947,16 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="D119">
-        <v>-74.781319999999994</v>
+        <v>-101.18443000000001</v>
       </c>
       <c r="E119">
-        <v>10.968540000000001</v>
+        <v>19.700780000000002</v>
       </c>
       <c r="F119" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="G119" t="s">
         <v>52</v>
@@ -70762,7 +70981,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" s="14">
+      <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
@@ -70770,16 +70989,16 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="D120">
-        <v>-73.119799999999998</v>
+        <v>-99.293880000000001</v>
       </c>
       <c r="E120">
-        <v>7.1253900000000003</v>
+        <v>19.359929999999999</v>
       </c>
       <c r="F120" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="G120" t="s">
         <v>52</v>
@@ -70804,7 +71023,7 @@
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121" s="14">
+      <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -70812,16 +71031,16 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="D121">
-        <v>-75.563590000000005</v>
+        <v>-99.653239999999997</v>
       </c>
       <c r="E121">
-        <v>6.2518399999999996</v>
+        <v>19.287859999999998</v>
       </c>
       <c r="F121" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="G121" t="s">
         <v>52</v>
@@ -70846,7 +71065,7 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A122" s="14">
+      <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
@@ -70854,16 +71073,16 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="D122">
-        <v>-76.522499999999994</v>
+        <v>-73.91301</v>
       </c>
       <c r="E122">
-        <v>3.4372199999999999</v>
+        <v>4.9653099999999997</v>
       </c>
       <c r="F122" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="G122" t="s">
         <v>52</v>
@@ -70888,7 +71107,7 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" s="14">
+      <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
@@ -70896,16 +71115,16 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="D123">
-        <v>-74.08175</v>
+        <v>-74.05</v>
       </c>
       <c r="E123">
-        <v>4.6097099999999998</v>
+        <v>9.3333300000000001</v>
       </c>
       <c r="F123" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="G123" t="s">
         <v>52</v>
@@ -70930,7 +71149,7 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124" s="14">
+      <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
@@ -70938,16 +71157,16 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="D124">
-        <v>120.52079999999999</v>
+        <v>-74.781319999999994</v>
       </c>
       <c r="E124">
-        <v>16.97917</v>
+        <v>10.968540000000001</v>
       </c>
       <c r="F124" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="G124" t="s">
         <v>52</v>
@@ -70972,7 +71191,7 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" s="14">
+      <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
@@ -70980,16 +71199,16 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="D125">
-        <v>122.06667</v>
+        <v>-73.119799999999998</v>
       </c>
       <c r="E125">
-        <v>17.16667</v>
+        <v>7.1253900000000003</v>
       </c>
       <c r="F125" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="G125" t="s">
         <v>52</v>
@@ -71014,7 +71233,7 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="14">
+      <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -71022,16 +71241,16 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="D126">
-        <v>120.68980000000001</v>
+        <v>-75.563590000000005</v>
       </c>
       <c r="E126">
-        <v>15.028600000000001</v>
+        <v>6.2518399999999996</v>
       </c>
       <c r="F126" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="G126" t="s">
         <v>52</v>
@@ -71056,7 +71275,7 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127" s="14">
+      <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
@@ -71064,16 +71283,16 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="D127">
-        <v>120.96083</v>
+        <v>-76.522499999999994</v>
       </c>
       <c r="E127">
-        <v>14.736940000000001</v>
+        <v>3.4372199999999999</v>
       </c>
       <c r="F127" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="G127" t="s">
         <v>52</v>
@@ -71098,7 +71317,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128" s="14">
+      <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
@@ -71106,16 +71325,16 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="D128">
-        <v>123.18333</v>
+        <v>-74.08175</v>
       </c>
       <c r="E128">
-        <v>13.616669999999999</v>
+        <v>4.6097099999999998</v>
       </c>
       <c r="F128" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="G128" t="s">
         <v>52</v>
@@ -71140,7 +71359,7 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A129" s="14">
+      <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
@@ -71148,16 +71367,16 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="D129">
-        <v>125</v>
+        <v>120.52079999999999</v>
       </c>
       <c r="E129">
-        <v>11.25</v>
+        <v>16.97917</v>
       </c>
       <c r="F129" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="G129" t="s">
         <v>52</v>
@@ -71182,7 +71401,7 @@
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="14">
+      <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
@@ -71190,16 +71409,16 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="D130">
-        <v>123.93333</v>
+        <v>122.06667</v>
       </c>
       <c r="E130">
-        <v>10.33333</v>
+        <v>17.16667</v>
       </c>
       <c r="F130" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="G130" t="s">
         <v>52</v>
@@ -71224,7 +71443,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="14">
+      <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
@@ -71232,16 +71451,16 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="D131">
-        <v>122.95</v>
+        <v>120.68980000000001</v>
       </c>
       <c r="E131">
-        <v>10.66667</v>
+        <v>15.028600000000001</v>
       </c>
       <c r="F131" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="G131" t="s">
         <v>52</v>
@@ -71266,24 +71485,24 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A132" s="14">
-        <f t="shared" si="1"/>
+      <c r="A132">
+        <f t="shared" ref="A132:A152" si="2">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" s="14">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="D132">
-        <v>122.56440000000001</v>
+        <v>120.96083</v>
       </c>
       <c r="E132">
-        <v>10.69694</v>
+        <v>14.736940000000001</v>
       </c>
       <c r="F132" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="G132" t="s">
         <v>52</v>
@@ -71308,24 +71527,24 @@
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="14">
-        <f t="shared" si="1"/>
+      <c r="A133">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B133" s="14">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="D133">
-        <v>123.85218999999999</v>
+        <v>123.18333</v>
       </c>
       <c r="E133">
-        <v>9.6555599999999995</v>
+        <v>13.616669999999999</v>
       </c>
       <c r="F133" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="G133" t="s">
         <v>52</v>
@@ -71350,24 +71569,24 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" s="14">
-        <f t="shared" si="1"/>
+      <c r="A134">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B134" s="14">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="D134">
         <v>125</v>
       </c>
       <c r="E134">
-        <v>8.75</v>
+        <v>11.25</v>
       </c>
       <c r="F134" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="G134" t="s">
         <v>52</v>
@@ -71392,24 +71611,24 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135" s="14">
-        <f t="shared" si="1"/>
+      <c r="A135">
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B135" s="14">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="D135">
-        <v>125.59845</v>
+        <v>123.93333</v>
       </c>
       <c r="E135">
-        <v>7.0695499999999996</v>
+        <v>10.33333</v>
       </c>
       <c r="F135" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="G135" t="s">
         <v>52</v>
@@ -71434,24 +71653,24 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A136" s="14">
-        <f t="shared" si="1"/>
+      <c r="A136">
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B136" s="14">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="D136">
-        <v>122.66667</v>
+        <v>122.95</v>
       </c>
       <c r="E136">
-        <v>8</v>
+        <v>10.66667</v>
       </c>
       <c r="F136" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="G136" t="s">
         <v>52</v>
@@ -71476,24 +71695,24 @@
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137" s="14">
-        <f t="shared" si="1"/>
+      <c r="A137">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B137" s="14">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="D137">
-        <v>120.93667000000001</v>
+        <v>122.56440000000001</v>
       </c>
       <c r="E137">
-        <v>14.42972</v>
+        <v>10.69694</v>
       </c>
       <c r="F137" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="G137" t="s">
         <v>52</v>
@@ -71518,24 +71737,24 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="14">
-        <f t="shared" si="1"/>
+      <c r="A138">
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B138" s="14">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="D138">
-        <v>121.11139</v>
+        <v>123.85218999999999</v>
       </c>
       <c r="E138">
-        <v>14.31222</v>
+        <v>9.6555599999999995</v>
       </c>
       <c r="F138" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="G138" t="s">
         <v>52</v>
@@ -71560,24 +71779,24 @@
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A139" s="14">
-        <f t="shared" si="1"/>
+      <c r="A139">
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139" s="14">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="D139">
-        <v>121.16528</v>
+        <v>125</v>
       </c>
       <c r="E139">
-        <v>14.21167</v>
+        <v>8.75</v>
       </c>
       <c r="F139" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="G139" t="s">
         <v>52</v>
@@ -71602,24 +71821,24 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140" s="14">
-        <f t="shared" si="1"/>
+      <c r="A140">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140" s="14">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="D140">
-        <v>-58.456249999999997</v>
+        <v>125.59845</v>
       </c>
       <c r="E140">
-        <v>-34.818440000000002</v>
+        <v>7.0695499999999996</v>
       </c>
       <c r="F140" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="G140" t="s">
         <v>52</v>
@@ -71644,24 +71863,24 @@
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A141" s="14">
-        <f t="shared" si="1"/>
+      <c r="A141">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141" s="14">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D141" s="4">
-        <v>-71.638041000000001</v>
-      </c>
-      <c r="E141" s="4">
-        <v>10.718417000000001</v>
+        <v>1827</v>
+      </c>
+      <c r="D141">
+        <v>122.66667</v>
+      </c>
+      <c r="E141">
+        <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="G141" t="s">
         <v>52</v>
@@ -71686,24 +71905,24 @@
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142" s="14">
-        <f t="shared" si="1"/>
+      <c r="A142">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142" s="14">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="D142">
-        <v>-68.007649999999998</v>
+        <v>120.93667000000001</v>
       </c>
       <c r="E142">
-        <v>10.16202</v>
+        <v>14.42972</v>
       </c>
       <c r="F142" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="G142" t="s">
         <v>52</v>
@@ -71728,24 +71947,24 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A143" s="14">
-        <f t="shared" si="1"/>
+      <c r="A143">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143" s="14">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="D143">
-        <v>-66.974260000000001</v>
+        <v>121.11139</v>
       </c>
       <c r="E143">
-        <v>10.466419999999999</v>
+        <v>14.31222</v>
       </c>
       <c r="F143" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="G143" t="s">
         <v>52</v>
@@ -71770,24 +71989,24 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A144" s="14">
-        <f t="shared" si="1"/>
+      <c r="A144">
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B144" s="14">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="D144">
-        <v>-64.7</v>
+        <v>121.16528</v>
       </c>
       <c r="E144">
-        <v>10.133330000000001</v>
+        <v>14.21167</v>
       </c>
       <c r="F144" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="G144" t="s">
         <v>52</v>
@@ -71812,24 +72031,24 @@
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A145" s="14">
-        <f t="shared" si="1"/>
+      <c r="A145">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B145" s="14">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="D145">
-        <v>-84.083330000000004</v>
+        <v>-58.456249999999997</v>
       </c>
       <c r="E145">
-        <v>9.9333299999999998</v>
+        <v>-34.818440000000002</v>
       </c>
       <c r="F145" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="G145" t="s">
         <v>52</v>
@@ -71854,24 +72073,24 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A146" s="14">
-        <f t="shared" si="1"/>
+      <c r="A146">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B146" s="14">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D146">
-        <v>-83.619190000000003</v>
-      </c>
-      <c r="E146">
-        <v>9.0460799999999999</v>
+        <v>1832</v>
+      </c>
+      <c r="D146" s="4">
+        <v>-71.638041000000001</v>
+      </c>
+      <c r="E146" s="4">
+        <v>10.718417000000001</v>
       </c>
       <c r="F146" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="G146" t="s">
         <v>52</v>
@@ -71896,24 +72115,24 @@
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A147" s="14">
-        <f t="shared" si="1"/>
+      <c r="A147">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B147" s="14">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="D147">
-        <v>-79.519729999999996</v>
+        <v>-68.007649999999998</v>
       </c>
       <c r="E147">
-        <v>8.9936000000000007</v>
+        <v>10.16202</v>
       </c>
       <c r="F147" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="G147" t="s">
         <v>52</v>
@@ -71934,6 +72153,216 @@
         <v>55</v>
       </c>
       <c r="M147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="14">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D148">
+        <v>-66.974260000000001</v>
+      </c>
+      <c r="E148">
+        <v>10.466419999999999</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G148" t="s">
+        <v>52</v>
+      </c>
+      <c r="H148" t="s">
+        <v>53</v>
+      </c>
+      <c r="I148" t="s">
+        <v>54</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1680</v>
+      </c>
+      <c r="K148" t="s">
+        <v>55</v>
+      </c>
+      <c r="L148" t="s">
+        <v>55</v>
+      </c>
+      <c r="M148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="14">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D149">
+        <v>-64.7</v>
+      </c>
+      <c r="E149">
+        <v>10.133330000000001</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G149" t="s">
+        <v>52</v>
+      </c>
+      <c r="H149" t="s">
+        <v>53</v>
+      </c>
+      <c r="I149" t="s">
+        <v>54</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1680</v>
+      </c>
+      <c r="K149" t="s">
+        <v>55</v>
+      </c>
+      <c r="L149" t="s">
+        <v>55</v>
+      </c>
+      <c r="M149" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="14">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D150">
+        <v>-84.083330000000004</v>
+      </c>
+      <c r="E150">
+        <v>9.9333299999999998</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G150" t="s">
+        <v>52</v>
+      </c>
+      <c r="H150" t="s">
+        <v>53</v>
+      </c>
+      <c r="I150" t="s">
+        <v>54</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1680</v>
+      </c>
+      <c r="K150" t="s">
+        <v>55</v>
+      </c>
+      <c r="L150" t="s">
+        <v>55</v>
+      </c>
+      <c r="M150" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B151" s="14">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D151">
+        <v>-83.619190000000003</v>
+      </c>
+      <c r="E151">
+        <v>9.0460799999999999</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G151" t="s">
+        <v>52</v>
+      </c>
+      <c r="H151" t="s">
+        <v>53</v>
+      </c>
+      <c r="I151" t="s">
+        <v>54</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1680</v>
+      </c>
+      <c r="K151" t="s">
+        <v>55</v>
+      </c>
+      <c r="L151" t="s">
+        <v>55</v>
+      </c>
+      <c r="M151" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="14">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D152">
+        <v>-79.519729999999996</v>
+      </c>
+      <c r="E152">
+        <v>8.9936000000000007</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G152" t="s">
+        <v>52</v>
+      </c>
+      <c r="H152" t="s">
+        <v>53</v>
+      </c>
+      <c r="I152" t="s">
+        <v>54</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1680</v>
+      </c>
+      <c r="K152" t="s">
+        <v>55</v>
+      </c>
+      <c r="L152" t="s">
+        <v>55</v>
+      </c>
+      <c r="M152" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="2340" windowWidth="31040" windowHeight="17960" tabRatio="723" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="1420" yWindow="2340" windowWidth="31040" windowHeight="17960" tabRatio="723" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -5738,7 +5738,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5768,6 +5768,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -37719,7 +37722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
@@ -65968,8 +65971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67967,11 +67970,11 @@
       <c r="C48" t="s">
         <v>1845</v>
       </c>
-      <c r="D48">
-        <v>-38.6</v>
-      </c>
-      <c r="E48">
-        <v>-7.516667</v>
+      <c r="D48" s="15">
+        <v>-47.368454999999997</v>
+      </c>
+      <c r="E48" s="15">
+        <v>-23.427205000000001</v>
       </c>
       <c r="F48" t="s">
         <v>1845</v>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="31040" windowHeight="17960" tabRatio="723" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="31460" windowHeight="17980" tabRatio="723" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15800" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15843" uniqueCount="1894">
   <si>
     <t>LocationID</t>
   </si>
@@ -5696,6 +5696,33 @@
   </si>
   <si>
     <t>Pontevedra_Spain</t>
+  </si>
+  <si>
+    <t>Ginza_1_Chome_Ginza_Japan</t>
+  </si>
+  <si>
+    <t>Xanadu_Centre_Madrid_Spain</t>
+  </si>
+  <si>
+    <t>801_Brickell_Miami_USA</t>
+  </si>
+  <si>
+    <t>TH Real Estate</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>THRE</t>
+  </si>
+  <si>
+    <t>thre</t>
+  </si>
+  <si>
+    <t>Tokyo_Japan</t>
+  </si>
+  <si>
+    <t>Ginza_1_Chome_Tokyo_Japan</t>
   </si>
 </sst>
 </file>
@@ -37655,10 +37682,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37911,6 +37938,23 @@
         <v>1871</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -37918,10 +37962,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView topLeftCell="A155" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42803,7 +42847,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="16">
-        <f t="shared" ref="A153:A164" si="0">A152+1</f>
+        <f t="shared" ref="A153:A167" si="0">A152+1</f>
         <v>152</v>
       </c>
       <c r="B153" s="16">
@@ -43158,6 +43202,96 @@
         <v>55</v>
       </c>
       <c r="I164" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="14">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D165">
+        <v>100</v>
+      </c>
+      <c r="E165">
+        <v>90</v>
+      </c>
+      <c r="F165">
+        <v>80</v>
+      </c>
+      <c r="G165">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H165" t="s">
+        <v>55</v>
+      </c>
+      <c r="I165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="14">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D166">
+        <v>100</v>
+      </c>
+      <c r="E166">
+        <v>90</v>
+      </c>
+      <c r="F166">
+        <v>80</v>
+      </c>
+      <c r="G166">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H166" t="s">
+        <v>55</v>
+      </c>
+      <c r="I166" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="14">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D167">
+        <v>100</v>
+      </c>
+      <c r="E167">
+        <v>90</v>
+      </c>
+      <c r="F167">
+        <v>80</v>
+      </c>
+      <c r="G167">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H167" t="s">
+        <v>55</v>
+      </c>
+      <c r="I167" t="s">
         <v>55</v>
       </c>
     </row>
@@ -43170,7 +43304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -66737,10 +66871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="H169" sqref="H169"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -72257,7 +72391,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
-        <f t="shared" ref="A132:A164" si="2">A131+1</f>
+        <f t="shared" ref="A132:A167" si="2">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" s="14">
@@ -73640,6 +73774,135 @@
       <c r="M164" s="16" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="14">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D165">
+        <v>-80.192154599999995</v>
+      </c>
+      <c r="E165">
+        <v>25.7657679</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G165" t="s">
+        <v>52</v>
+      </c>
+      <c r="H165" t="s">
+        <v>53</v>
+      </c>
+      <c r="I165" t="s">
+        <v>54</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K165" t="s">
+        <v>55</v>
+      </c>
+      <c r="L165" t="s">
+        <v>55</v>
+      </c>
+      <c r="M165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="14">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D166">
+        <v>-3.9283784000000002</v>
+      </c>
+      <c r="E166">
+        <v>40.299783599999998</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G166" t="s">
+        <v>52</v>
+      </c>
+      <c r="H166" t="s">
+        <v>53</v>
+      </c>
+      <c r="I166" t="s">
+        <v>54</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K166" t="s">
+        <v>55</v>
+      </c>
+      <c r="L166" t="s">
+        <v>55</v>
+      </c>
+      <c r="M166" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="14">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D167">
+        <v>139.7675366</v>
+      </c>
+      <c r="E167">
+        <v>35.673938900000003</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G167" t="s">
+        <v>52</v>
+      </c>
+      <c r="H167" t="s">
+        <v>53</v>
+      </c>
+      <c r="I167" t="s">
+        <v>54</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K167" t="s">
+        <v>55</v>
+      </c>
+      <c r="L167" t="s">
+        <v>55</v>
+      </c>
+      <c r="M167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+      <c r="C170" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -73649,10 +73912,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -73786,6 +74049,20 @@
       </c>
       <c r="D9" t="s">
         <v>1872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1890</v>
       </c>
     </row>
   </sheetData>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="31460" windowHeight="17980" tabRatio="723" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="1240" yWindow="1440" windowWidth="31460" windowHeight="17980" tabRatio="723" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="DamageFunctions" sheetId="14" r:id="rId12"/>
     <sheet name="BusinessTypes" sheetId="15" r:id="rId13"/>
     <sheet name="Business Functions" sheetId="16" r:id="rId14"/>
-    <sheet name="NOTES" sheetId="17" r:id="rId15"/>
+    <sheet name="Portfolios" sheetId="18" r:id="rId15"/>
+    <sheet name="NOTES" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15843" uniqueCount="1894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16565" uniqueCount="1971">
   <si>
     <t>LocationID</t>
   </si>
@@ -5698,9 +5699,6 @@
     <t>Pontevedra_Spain</t>
   </si>
   <si>
-    <t>Ginza_1_Chome_Ginza_Japan</t>
-  </si>
-  <si>
     <t>Xanadu_Centre_Madrid_Spain</t>
   </si>
   <si>
@@ -5723,13 +5721,247 @@
   </si>
   <si>
     <t>Ginza_1_Chome_Tokyo_Japan</t>
+  </si>
+  <si>
+    <t>Berkeley_County_SC</t>
+  </si>
+  <si>
+    <t>Council_Bluffs_Iowa</t>
+  </si>
+  <si>
+    <t>Douglas_County_Georgia</t>
+  </si>
+  <si>
+    <t>Jackson_County_Alabama</t>
+  </si>
+  <si>
+    <t>Lenoir_NC</t>
+  </si>
+  <si>
+    <t>Mayes_County_Oklahoma</t>
+  </si>
+  <si>
+    <t>Montgomery_County_TN</t>
+  </si>
+  <si>
+    <t>The_Dalles_Oregon</t>
+  </si>
+  <si>
+    <t>Quilicura_Chile</t>
+  </si>
+  <si>
+    <t>Eemshaven_Netherlands</t>
+  </si>
+  <si>
+    <t>Hamina_Finland</t>
+  </si>
+  <si>
+    <t>St_Ghislain_Belgium</t>
+  </si>
+  <si>
+    <t>Changhua_County,_Taiwan</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>Ashburn_VA</t>
+  </si>
+  <si>
+    <t>Highlands_Ranch_CO</t>
+  </si>
+  <si>
+    <t>London_UK</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>visa</t>
+  </si>
+  <si>
+    <t>Hong_Kong</t>
+  </si>
+  <si>
+    <t>Melbourne_Australia</t>
+  </si>
+  <si>
+    <t>Saitama_Japan</t>
+  </si>
+  <si>
+    <t>Osaka_Japan</t>
+  </si>
+  <si>
+    <t>Ashburn_Virginia</t>
+  </si>
+  <si>
+    <t>Chicago_Illinois</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>APPL</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>Prineville_Oregon</t>
+  </si>
+  <si>
+    <t>Reno_NV</t>
+  </si>
+  <si>
+    <t>Maiden_NC</t>
+  </si>
+  <si>
+    <t>Santa_Clara_CA</t>
+  </si>
+  <si>
+    <t>Mesa_AZ</t>
+  </si>
+  <si>
+    <t>Waukee_Iowa</t>
+  </si>
+  <si>
+    <t>Viborg_Denmark</t>
+  </si>
+  <si>
+    <t>Aabenraa_Denmark</t>
+  </si>
+  <si>
+    <t>Ulanqab_China</t>
+  </si>
+  <si>
+    <t>Guizhou_China</t>
+  </si>
+  <si>
+    <t>Changhua_County_Taiwan</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>ClearPath_1</t>
+  </si>
+  <si>
+    <t>Puebla_Mexico</t>
+  </si>
+  <si>
+    <t>Uitenhage_South_Africa</t>
+  </si>
+  <si>
+    <t>Chattanooga_TN</t>
+  </si>
+  <si>
+    <t>Pamela_Portugal</t>
+  </si>
+  <si>
+    <t>Chakan_India</t>
+  </si>
+  <si>
+    <t>Taubate_Brazil</t>
+  </si>
+  <si>
+    <t>Sao_Bernardo_Brazil</t>
+  </si>
+  <si>
+    <t>Sao_Jose_dos_Pinhais_Brazil</t>
+  </si>
+  <si>
+    <t>Cordoba_Argentina</t>
+  </si>
+  <si>
+    <t>Pacheco_Argentina</t>
+  </si>
+  <si>
+    <t>Braunschweig_Germany</t>
+  </si>
+  <si>
+    <t>Chemnitz_Germany</t>
+  </si>
+  <si>
+    <t>Dresden_Germany</t>
+  </si>
+  <si>
+    <t>Emden_Germany</t>
+  </si>
+  <si>
+    <t>Hannover_Germany</t>
+  </si>
+  <si>
+    <t>Kassel_Germany</t>
+  </si>
+  <si>
+    <t>Osnabruck_Germany</t>
+  </si>
+  <si>
+    <t>Salzgitter_Germany</t>
+  </si>
+  <si>
+    <t>Wolfsburg_Germany</t>
+  </si>
+  <si>
+    <t>Zwickau_Germany</t>
+  </si>
+  <si>
+    <t>Los_Angeles_CA</t>
+  </si>
+  <si>
+    <t>Richmond_VA</t>
+  </si>
+  <si>
+    <t>Richardson_TX</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>VOW</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>vw</t>
+  </si>
+  <si>
+    <t>boa</t>
+  </si>
+  <si>
+    <t>Sao_Carlos_Brazil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5772,6 +6004,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF041427"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5873,7 +6112,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5908,6 +6147,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -37682,10 +37924,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37940,19 +38182,121 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D15" s="3">
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1888</v>
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D17" s="3">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D18" s="3">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D19" s="3">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D20" s="3">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D21" s="3">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1966</v>
       </c>
     </row>
   </sheetData>
@@ -37962,10 +38306,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView topLeftCell="A204" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="J205" sqref="J205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42846,15 +43190,17 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="16">
-        <f t="shared" ref="A153:A167" si="0">A152+1</f>
+      <c r="A153" s="13">
+        <f>Location!A153</f>
         <v>152</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B153" s="13">
+        <f>Location!B153</f>
         <v>8</v>
       </c>
-      <c r="C153" s="16" t="s">
-        <v>1875</v>
+      <c r="C153" s="13" t="str">
+        <f>Location!C153</f>
+        <v>Kerry_Ireland</v>
       </c>
       <c r="D153" s="13">
         <v>100</v>
@@ -42876,15 +43222,17 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="16">
-        <f t="shared" si="0"/>
+      <c r="A154" s="13">
+        <f>Location!A154</f>
         <v>153</v>
       </c>
-      <c r="B154" s="16">
+      <c r="B154" s="13">
+        <f>Location!B154</f>
         <v>8</v>
       </c>
-      <c r="C154" s="16" t="s">
-        <v>1876</v>
+      <c r="C154" s="13" t="str">
+        <f>Location!C154</f>
+        <v>Grasse_France</v>
       </c>
       <c r="D154" s="13">
         <v>100</v>
@@ -42906,15 +43254,17 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="16">
-        <f t="shared" si="0"/>
+      <c r="A155" s="13">
+        <f>Location!A155</f>
         <v>154</v>
       </c>
-      <c r="B155" s="16">
+      <c r="B155" s="13">
+        <f>Location!B155</f>
         <v>8</v>
       </c>
-      <c r="C155" s="16" t="s">
-        <v>1874</v>
+      <c r="C155" s="13" t="str">
+        <f>Location!C155</f>
+        <v>Guanajuato_Mexico</v>
       </c>
       <c r="D155" s="13">
         <v>100</v>
@@ -42936,15 +43286,17 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="16">
-        <f t="shared" si="0"/>
+      <c r="A156" s="13">
+        <f>Location!A156</f>
         <v>155</v>
       </c>
-      <c r="B156" s="16">
+      <c r="B156" s="13">
+        <f>Location!B156</f>
         <v>8</v>
       </c>
-      <c r="C156" s="16" t="s">
-        <v>1877</v>
+      <c r="C156" s="13" t="str">
+        <f>Location!C156</f>
+        <v>LapulapuCity_Cebu_Philipines</v>
       </c>
       <c r="D156" s="13">
         <v>100</v>
@@ -42966,15 +43318,17 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="16">
-        <f t="shared" si="0"/>
+      <c r="A157" s="13">
+        <f>Location!A157</f>
         <v>156</v>
       </c>
-      <c r="B157" s="16">
+      <c r="B157" s="13">
+        <f>Location!B157</f>
         <v>8</v>
       </c>
-      <c r="C157" s="16" t="s">
-        <v>60</v>
+      <c r="C157" s="13" t="str">
+        <f>Location!C157</f>
+        <v>Singapore</v>
       </c>
       <c r="D157" s="13">
         <v>100</v>
@@ -42996,15 +43350,17 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158" s="16">
-        <f t="shared" si="0"/>
+      <c r="A158" s="13">
+        <f>Location!A158</f>
         <v>157</v>
       </c>
-      <c r="B158" s="16">
+      <c r="B158" s="13">
+        <f>Location!B158</f>
         <v>8</v>
       </c>
-      <c r="C158" s="16" t="s">
-        <v>1878</v>
+      <c r="C158" s="13" t="str">
+        <f>Location!C158</f>
+        <v>Lake_Zuirich_Illinois_USA</v>
       </c>
       <c r="D158" s="13">
         <v>100</v>
@@ -43026,15 +43382,17 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" s="16">
-        <f t="shared" si="0"/>
+      <c r="A159" s="13">
+        <f>Location!A159</f>
         <v>158</v>
       </c>
-      <c r="B159" s="16">
+      <c r="B159" s="13">
+        <f>Location!B159</f>
         <v>8</v>
       </c>
-      <c r="C159" s="16" t="s">
-        <v>1879</v>
+      <c r="C159" s="13" t="str">
+        <f>Location!C159</f>
+        <v>Manaus_Brazil</v>
       </c>
       <c r="D159" s="13">
         <v>100</v>
@@ -43056,15 +43414,17 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="16">
-        <f t="shared" si="0"/>
+      <c r="A160" s="13">
+        <f>Location!A160</f>
         <v>159</v>
       </c>
-      <c r="B160" s="16">
+      <c r="B160" s="13">
+        <f>Location!B160</f>
         <v>8</v>
       </c>
-      <c r="C160" s="16" t="s">
-        <v>1880</v>
+      <c r="C160" s="13" t="str">
+        <f>Location!C160</f>
+        <v>Western_Cape_South_Africa</v>
       </c>
       <c r="D160" s="13">
         <v>100</v>
@@ -43086,15 +43446,17 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="16">
-        <f t="shared" si="0"/>
+      <c r="A161" s="13">
+        <f>Location!A161</f>
         <v>160</v>
       </c>
-      <c r="B161" s="16">
+      <c r="B161" s="13">
+        <f>Location!B161</f>
         <v>8</v>
       </c>
-      <c r="C161" s="16" t="s">
-        <v>1881</v>
+      <c r="C161" s="13" t="str">
+        <f>Location!C161</f>
+        <v>Sydney_Australia</v>
       </c>
       <c r="D161" s="13">
         <v>100</v>
@@ -43116,15 +43478,17 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="16">
-        <f t="shared" si="0"/>
+      <c r="A162" s="13">
+        <f>Location!A162</f>
         <v>161</v>
       </c>
-      <c r="B162" s="16">
+      <c r="B162" s="13">
+        <f>Location!B162</f>
         <v>8</v>
       </c>
-      <c r="C162" s="16" t="s">
-        <v>1882</v>
+      <c r="C162" s="13" t="str">
+        <f>Location!C162</f>
+        <v>Bangalore_india</v>
       </c>
       <c r="D162" s="13">
         <v>100</v>
@@ -43146,15 +43510,17 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="16">
-        <f t="shared" si="0"/>
+      <c r="A163" s="13">
+        <f>Location!A163</f>
         <v>162</v>
       </c>
-      <c r="B163" s="16">
+      <c r="B163" s="13">
+        <f>Location!B163</f>
         <v>8</v>
       </c>
-      <c r="C163" s="16" t="s">
-        <v>1883</v>
+      <c r="C163" s="13" t="str">
+        <f>Location!C163</f>
+        <v>Los_Angeles_USA</v>
       </c>
       <c r="D163" s="13">
         <v>100</v>
@@ -43176,15 +43542,17 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="16">
-        <f t="shared" si="0"/>
+      <c r="A164" s="13">
+        <f>Location!A164</f>
         <v>163</v>
       </c>
-      <c r="B164" s="16">
+      <c r="B164" s="13">
+        <f>Location!B164</f>
         <v>8</v>
       </c>
-      <c r="C164" s="16" t="s">
-        <v>1884</v>
+      <c r="C164" s="13" t="str">
+        <f>Location!C164</f>
+        <v>Pontevedra_Spain</v>
       </c>
       <c r="D164" s="13">
         <v>100</v>
@@ -43207,14 +43575,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
-        <f t="shared" si="0"/>
+        <f>Location!A165</f>
         <v>164</v>
       </c>
-      <c r="B165" s="14">
+      <c r="B165">
+        <f>Location!B165</f>
         <v>9</v>
       </c>
-      <c r="C165" t="s">
-        <v>1887</v>
+      <c r="C165" t="str">
+        <f>Location!C165</f>
+        <v>801_Brickell_Miami_USA</v>
       </c>
       <c r="D165">
         <v>100</v>
@@ -43237,14 +43607,16 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
-        <f t="shared" si="0"/>
+        <f>Location!A166</f>
         <v>165</v>
       </c>
-      <c r="B166" s="14">
+      <c r="B166">
+        <f>Location!B166</f>
         <v>9</v>
       </c>
-      <c r="C166" t="s">
-        <v>1886</v>
+      <c r="C166" t="str">
+        <f>Location!C166</f>
+        <v>Xanadu_Centre_Madrid_Spain</v>
       </c>
       <c r="D166">
         <v>100</v>
@@ -43267,14 +43639,16 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
-        <f t="shared" si="0"/>
+        <f>Location!A167</f>
         <v>166</v>
       </c>
-      <c r="B167" s="14">
+      <c r="B167">
+        <f>Location!B167</f>
         <v>9</v>
       </c>
-      <c r="C167" t="s">
-        <v>1885</v>
+      <c r="C167" t="str">
+        <f>Location!C167</f>
+        <v>Ginza_1_Chome_Tokyo_Japan</v>
       </c>
       <c r="D167">
         <v>100</v>
@@ -43292,6 +43666,2022 @@
         <v>55</v>
       </c>
       <c r="I167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="13">
+        <f>Location!A168</f>
+        <v>167</v>
+      </c>
+      <c r="B168" s="13">
+        <f>Location!B168</f>
+        <v>10</v>
+      </c>
+      <c r="C168" s="13" t="str">
+        <f>Location!C168</f>
+        <v>Berkeley_County_SC</v>
+      </c>
+      <c r="D168" s="13">
+        <v>100</v>
+      </c>
+      <c r="E168" s="13">
+        <v>90</v>
+      </c>
+      <c r="F168" s="13">
+        <v>80</v>
+      </c>
+      <c r="G168" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I168" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="13">
+        <f>Location!A169</f>
+        <v>168</v>
+      </c>
+      <c r="B169" s="13">
+        <f>Location!B169</f>
+        <v>10</v>
+      </c>
+      <c r="C169" s="13" t="str">
+        <f>Location!C169</f>
+        <v>Council_Bluffs_Iowa</v>
+      </c>
+      <c r="D169" s="13">
+        <v>100</v>
+      </c>
+      <c r="E169" s="13">
+        <v>90</v>
+      </c>
+      <c r="F169" s="13">
+        <v>80</v>
+      </c>
+      <c r="G169" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I169" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="13">
+        <f>Location!A170</f>
+        <v>169</v>
+      </c>
+      <c r="B170" s="13">
+        <f>Location!B170</f>
+        <v>10</v>
+      </c>
+      <c r="C170" s="13" t="str">
+        <f>Location!C170</f>
+        <v>Douglas_County_Georgia</v>
+      </c>
+      <c r="D170" s="13">
+        <v>100</v>
+      </c>
+      <c r="E170" s="13">
+        <v>90</v>
+      </c>
+      <c r="F170" s="13">
+        <v>80</v>
+      </c>
+      <c r="G170" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H170" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I170" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="13">
+        <f>Location!A171</f>
+        <v>170</v>
+      </c>
+      <c r="B171" s="13">
+        <f>Location!B171</f>
+        <v>10</v>
+      </c>
+      <c r="C171" s="13" t="str">
+        <f>Location!C171</f>
+        <v>Jackson_County_Alabama</v>
+      </c>
+      <c r="D171" s="13">
+        <v>100</v>
+      </c>
+      <c r="E171" s="13">
+        <v>90</v>
+      </c>
+      <c r="F171" s="13">
+        <v>80</v>
+      </c>
+      <c r="G171" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H171" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I171" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="13">
+        <f>Location!A172</f>
+        <v>171</v>
+      </c>
+      <c r="B172" s="13">
+        <f>Location!B172</f>
+        <v>10</v>
+      </c>
+      <c r="C172" s="13" t="str">
+        <f>Location!C172</f>
+        <v>Lenoir_NC</v>
+      </c>
+      <c r="D172" s="13">
+        <v>100</v>
+      </c>
+      <c r="E172" s="13">
+        <v>90</v>
+      </c>
+      <c r="F172" s="13">
+        <v>80</v>
+      </c>
+      <c r="G172" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H172" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I172" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="13">
+        <f>Location!A173</f>
+        <v>172</v>
+      </c>
+      <c r="B173" s="13">
+        <f>Location!B173</f>
+        <v>10</v>
+      </c>
+      <c r="C173" s="13" t="str">
+        <f>Location!C173</f>
+        <v>Mayes_County_Oklahoma</v>
+      </c>
+      <c r="D173" s="13">
+        <v>100</v>
+      </c>
+      <c r="E173" s="13">
+        <v>90</v>
+      </c>
+      <c r="F173" s="13">
+        <v>80</v>
+      </c>
+      <c r="G173" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H173" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I173" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="13">
+        <f>Location!A174</f>
+        <v>173</v>
+      </c>
+      <c r="B174" s="13">
+        <f>Location!B174</f>
+        <v>10</v>
+      </c>
+      <c r="C174" s="13" t="str">
+        <f>Location!C174</f>
+        <v>Montgomery_County_TN</v>
+      </c>
+      <c r="D174" s="13">
+        <v>100</v>
+      </c>
+      <c r="E174" s="13">
+        <v>90</v>
+      </c>
+      <c r="F174" s="13">
+        <v>80</v>
+      </c>
+      <c r="G174" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H174" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I174" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="13">
+        <f>Location!A175</f>
+        <v>174</v>
+      </c>
+      <c r="B175" s="13">
+        <f>Location!B175</f>
+        <v>10</v>
+      </c>
+      <c r="C175" s="13" t="str">
+        <f>Location!C175</f>
+        <v>The_Dalles_Oregon</v>
+      </c>
+      <c r="D175" s="13">
+        <v>100</v>
+      </c>
+      <c r="E175" s="13">
+        <v>90</v>
+      </c>
+      <c r="F175" s="13">
+        <v>80</v>
+      </c>
+      <c r="G175" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H175" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="13">
+        <f>Location!A176</f>
+        <v>175</v>
+      </c>
+      <c r="B176" s="13">
+        <f>Location!B176</f>
+        <v>10</v>
+      </c>
+      <c r="C176" s="13" t="str">
+        <f>Location!C176</f>
+        <v>Quilicura_Chile</v>
+      </c>
+      <c r="D176" s="13">
+        <v>100</v>
+      </c>
+      <c r="E176" s="13">
+        <v>90</v>
+      </c>
+      <c r="F176" s="13">
+        <v>80</v>
+      </c>
+      <c r="G176" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H176" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I176" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="13">
+        <f>Location!A177</f>
+        <v>176</v>
+      </c>
+      <c r="B177" s="13">
+        <f>Location!B177</f>
+        <v>10</v>
+      </c>
+      <c r="C177" s="13" t="str">
+        <f>Location!C177</f>
+        <v>Dublin_Ireland</v>
+      </c>
+      <c r="D177" s="13">
+        <v>100</v>
+      </c>
+      <c r="E177" s="13">
+        <v>90</v>
+      </c>
+      <c r="F177" s="13">
+        <v>80</v>
+      </c>
+      <c r="G177" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H177" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="13">
+        <f>Location!A178</f>
+        <v>177</v>
+      </c>
+      <c r="B178" s="13">
+        <f>Location!B178</f>
+        <v>10</v>
+      </c>
+      <c r="C178" s="13" t="str">
+        <f>Location!C178</f>
+        <v>Eemshaven_Netherlands</v>
+      </c>
+      <c r="D178" s="13">
+        <v>100</v>
+      </c>
+      <c r="E178" s="13">
+        <v>90</v>
+      </c>
+      <c r="F178" s="13">
+        <v>80</v>
+      </c>
+      <c r="G178" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H178" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I178" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="13">
+        <f>Location!A179</f>
+        <v>178</v>
+      </c>
+      <c r="B179" s="13">
+        <f>Location!B179</f>
+        <v>10</v>
+      </c>
+      <c r="C179" s="13" t="str">
+        <f>Location!C179</f>
+        <v>Hamina_Finland</v>
+      </c>
+      <c r="D179" s="13">
+        <v>100</v>
+      </c>
+      <c r="E179" s="13">
+        <v>90</v>
+      </c>
+      <c r="F179" s="13">
+        <v>80</v>
+      </c>
+      <c r="G179" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H179" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I179" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="13">
+        <f>Location!A180</f>
+        <v>179</v>
+      </c>
+      <c r="B180" s="13">
+        <f>Location!B180</f>
+        <v>10</v>
+      </c>
+      <c r="C180" s="13" t="str">
+        <f>Location!C180</f>
+        <v>St_Ghislain_Belgium</v>
+      </c>
+      <c r="D180" s="13">
+        <v>100</v>
+      </c>
+      <c r="E180" s="13">
+        <v>90</v>
+      </c>
+      <c r="F180" s="13">
+        <v>80</v>
+      </c>
+      <c r="G180" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H180" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I180" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="13">
+        <f>Location!A181</f>
+        <v>180</v>
+      </c>
+      <c r="B181" s="13">
+        <f>Location!B181</f>
+        <v>10</v>
+      </c>
+      <c r="C181" s="13" t="str">
+        <f>Location!C181</f>
+        <v>Changhua_County_Taiwan</v>
+      </c>
+      <c r="D181" s="13">
+        <v>100</v>
+      </c>
+      <c r="E181" s="13">
+        <v>90</v>
+      </c>
+      <c r="F181" s="13">
+        <v>80</v>
+      </c>
+      <c r="G181" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H181" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I181" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="13">
+        <f>Location!A182</f>
+        <v>181</v>
+      </c>
+      <c r="B182" s="13">
+        <f>Location!B182</f>
+        <v>10</v>
+      </c>
+      <c r="C182" s="13" t="str">
+        <f>Location!C182</f>
+        <v>Singapore</v>
+      </c>
+      <c r="D182" s="13">
+        <v>100</v>
+      </c>
+      <c r="E182" s="13">
+        <v>90</v>
+      </c>
+      <c r="F182" s="13">
+        <v>80</v>
+      </c>
+      <c r="G182" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="H182" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I182" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f>Location!A183</f>
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <f>Location!B183</f>
+        <v>11</v>
+      </c>
+      <c r="C183" t="str">
+        <f>Location!C183</f>
+        <v>Ashburn_VA</v>
+      </c>
+      <c r="D183" s="14">
+        <v>100</v>
+      </c>
+      <c r="E183" s="14">
+        <v>90</v>
+      </c>
+      <c r="F183" s="14">
+        <v>80</v>
+      </c>
+      <c r="G183" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="H183" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I183" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f>Location!A184</f>
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <f>Location!B184</f>
+        <v>11</v>
+      </c>
+      <c r="C184" t="str">
+        <f>Location!C184</f>
+        <v>Highlands_Ranch_CO</v>
+      </c>
+      <c r="D184" s="14">
+        <v>100</v>
+      </c>
+      <c r="E184" s="14">
+        <v>90</v>
+      </c>
+      <c r="F184" s="14">
+        <v>80</v>
+      </c>
+      <c r="G184" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="H184" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I184" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f>Location!A185</f>
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <f>Location!B185</f>
+        <v>11</v>
+      </c>
+      <c r="C185" t="str">
+        <f>Location!C185</f>
+        <v>London_UK</v>
+      </c>
+      <c r="D185" s="14">
+        <v>100</v>
+      </c>
+      <c r="E185" s="14">
+        <v>90</v>
+      </c>
+      <c r="F185" s="14">
+        <v>80</v>
+      </c>
+      <c r="G185" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="H185" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I185" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f>Location!A186</f>
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <f>Location!B186</f>
+        <v>11</v>
+      </c>
+      <c r="C186" t="str">
+        <f>Location!C186</f>
+        <v>Singapore</v>
+      </c>
+      <c r="D186" s="14">
+        <v>100</v>
+      </c>
+      <c r="E186" s="14">
+        <v>90</v>
+      </c>
+      <c r="F186" s="14">
+        <v>80</v>
+      </c>
+      <c r="G186" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="H186" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I186" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="13">
+        <f>Location!A187</f>
+        <v>186</v>
+      </c>
+      <c r="B187" s="13">
+        <f>Location!B187</f>
+        <v>12</v>
+      </c>
+      <c r="C187" s="13" t="str">
+        <f>Location!C187</f>
+        <v>Singapore</v>
+      </c>
+      <c r="D187" s="16">
+        <v>100</v>
+      </c>
+      <c r="E187" s="16">
+        <v>90</v>
+      </c>
+      <c r="F187" s="16">
+        <v>80</v>
+      </c>
+      <c r="G187" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H187" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I187" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="13">
+        <f>Location!A188</f>
+        <v>187</v>
+      </c>
+      <c r="B188" s="13">
+        <f>Location!B188</f>
+        <v>12</v>
+      </c>
+      <c r="C188" s="13" t="str">
+        <f>Location!C188</f>
+        <v>Hong_Kong</v>
+      </c>
+      <c r="D188" s="16">
+        <v>100</v>
+      </c>
+      <c r="E188" s="16">
+        <v>90</v>
+      </c>
+      <c r="F188" s="16">
+        <v>80</v>
+      </c>
+      <c r="G188" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H188" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I188" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="13">
+        <f>Location!A189</f>
+        <v>188</v>
+      </c>
+      <c r="B189" s="13">
+        <f>Location!B189</f>
+        <v>12</v>
+      </c>
+      <c r="C189" s="13" t="str">
+        <f>Location!C189</f>
+        <v>Melbourne_Australia</v>
+      </c>
+      <c r="D189" s="16">
+        <v>100</v>
+      </c>
+      <c r="E189" s="16">
+        <v>90</v>
+      </c>
+      <c r="F189" s="16">
+        <v>80</v>
+      </c>
+      <c r="G189" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H189" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I189" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="13">
+        <f>Location!A190</f>
+        <v>189</v>
+      </c>
+      <c r="B190" s="13">
+        <f>Location!B190</f>
+        <v>12</v>
+      </c>
+      <c r="C190" s="13" t="str">
+        <f>Location!C190</f>
+        <v>Sydney_Australia</v>
+      </c>
+      <c r="D190" s="16">
+        <v>100</v>
+      </c>
+      <c r="E190" s="16">
+        <v>90</v>
+      </c>
+      <c r="F190" s="16">
+        <v>80</v>
+      </c>
+      <c r="G190" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H190" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I190" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="13">
+        <f>Location!A191</f>
+        <v>190</v>
+      </c>
+      <c r="B191" s="13">
+        <f>Location!B191</f>
+        <v>12</v>
+      </c>
+      <c r="C191" s="13" t="str">
+        <f>Location!C191</f>
+        <v>Sao_Paulo_Brazil</v>
+      </c>
+      <c r="D191" s="16">
+        <v>100</v>
+      </c>
+      <c r="E191" s="16">
+        <v>90</v>
+      </c>
+      <c r="F191" s="16">
+        <v>80</v>
+      </c>
+      <c r="G191" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H191" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I191" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="13">
+        <f>Location!A192</f>
+        <v>191</v>
+      </c>
+      <c r="B192" s="13">
+        <f>Location!B192</f>
+        <v>12</v>
+      </c>
+      <c r="C192" s="13" t="str">
+        <f>Location!C192</f>
+        <v>Saitama_Japan</v>
+      </c>
+      <c r="D192" s="16">
+        <v>100</v>
+      </c>
+      <c r="E192" s="16">
+        <v>90</v>
+      </c>
+      <c r="F192" s="16">
+        <v>80</v>
+      </c>
+      <c r="G192" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H192" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I192" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="13">
+        <f>Location!A193</f>
+        <v>192</v>
+      </c>
+      <c r="B193" s="13">
+        <f>Location!B193</f>
+        <v>12</v>
+      </c>
+      <c r="C193" s="13" t="str">
+        <f>Location!C193</f>
+        <v>Osaka_Japan</v>
+      </c>
+      <c r="D193" s="16">
+        <v>100</v>
+      </c>
+      <c r="E193" s="16">
+        <v>90</v>
+      </c>
+      <c r="F193" s="16">
+        <v>80</v>
+      </c>
+      <c r="G193" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H193" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I193" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="13">
+        <f>Location!A194</f>
+        <v>193</v>
+      </c>
+      <c r="B194" s="13">
+        <f>Location!B194</f>
+        <v>12</v>
+      </c>
+      <c r="C194" s="13" t="str">
+        <f>Location!C194</f>
+        <v>Dublin_Ireland</v>
+      </c>
+      <c r="D194" s="16">
+        <v>100</v>
+      </c>
+      <c r="E194" s="16">
+        <v>90</v>
+      </c>
+      <c r="F194" s="16">
+        <v>80</v>
+      </c>
+      <c r="G194" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H194" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I194" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="13">
+        <f>Location!A195</f>
+        <v>194</v>
+      </c>
+      <c r="B195" s="13">
+        <f>Location!B195</f>
+        <v>12</v>
+      </c>
+      <c r="C195" s="13" t="str">
+        <f>Location!C195</f>
+        <v>Ashburn_Virginia</v>
+      </c>
+      <c r="D195" s="16">
+        <v>100</v>
+      </c>
+      <c r="E195" s="16">
+        <v>90</v>
+      </c>
+      <c r="F195" s="16">
+        <v>80</v>
+      </c>
+      <c r="G195" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H195" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I195" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="13">
+        <f>Location!A196</f>
+        <v>195</v>
+      </c>
+      <c r="B196" s="13">
+        <f>Location!B196</f>
+        <v>12</v>
+      </c>
+      <c r="C196" s="13" t="str">
+        <f>Location!C196</f>
+        <v>Chicago_Illinois</v>
+      </c>
+      <c r="D196" s="16">
+        <v>100</v>
+      </c>
+      <c r="E196" s="16">
+        <v>90</v>
+      </c>
+      <c r="F196" s="16">
+        <v>80</v>
+      </c>
+      <c r="G196" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H196" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I196" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f>Location!A197</f>
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <f>Location!B197</f>
+        <v>13</v>
+      </c>
+      <c r="C197" t="str">
+        <f>Location!C197</f>
+        <v>Prineville_Oregon</v>
+      </c>
+      <c r="D197" s="19">
+        <v>100</v>
+      </c>
+      <c r="E197" s="19">
+        <v>90</v>
+      </c>
+      <c r="F197" s="19">
+        <v>80</v>
+      </c>
+      <c r="G197" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H197" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I197" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f>Location!A198</f>
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <f>Location!B198</f>
+        <v>13</v>
+      </c>
+      <c r="C198" t="str">
+        <f>Location!C198</f>
+        <v>Reno_NV</v>
+      </c>
+      <c r="D198" s="19">
+        <v>100</v>
+      </c>
+      <c r="E198" s="19">
+        <v>90</v>
+      </c>
+      <c r="F198" s="19">
+        <v>80</v>
+      </c>
+      <c r="G198" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H198" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I198" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f>Location!A199</f>
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <f>Location!B199</f>
+        <v>13</v>
+      </c>
+      <c r="C199" t="str">
+        <f>Location!C199</f>
+        <v>Maiden_NC</v>
+      </c>
+      <c r="D199" s="19">
+        <v>100</v>
+      </c>
+      <c r="E199" s="19">
+        <v>90</v>
+      </c>
+      <c r="F199" s="19">
+        <v>80</v>
+      </c>
+      <c r="G199" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H199" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I199" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f>Location!A200</f>
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <f>Location!B200</f>
+        <v>13</v>
+      </c>
+      <c r="C200" t="str">
+        <f>Location!C200</f>
+        <v>Santa_Clara_CA</v>
+      </c>
+      <c r="D200" s="19">
+        <v>100</v>
+      </c>
+      <c r="E200" s="19">
+        <v>90</v>
+      </c>
+      <c r="F200" s="19">
+        <v>80</v>
+      </c>
+      <c r="G200" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H200" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I200" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f>Location!A201</f>
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <f>Location!B201</f>
+        <v>13</v>
+      </c>
+      <c r="C201" t="str">
+        <f>Location!C201</f>
+        <v>Mesa_AZ</v>
+      </c>
+      <c r="D201" s="19">
+        <v>100</v>
+      </c>
+      <c r="E201" s="19">
+        <v>90</v>
+      </c>
+      <c r="F201" s="19">
+        <v>80</v>
+      </c>
+      <c r="G201" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H201" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I201" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f>Location!A202</f>
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <f>Location!B202</f>
+        <v>13</v>
+      </c>
+      <c r="C202" t="str">
+        <f>Location!C202</f>
+        <v>Waukee_Iowa</v>
+      </c>
+      <c r="D202" s="19">
+        <v>100</v>
+      </c>
+      <c r="E202" s="19">
+        <v>90</v>
+      </c>
+      <c r="F202" s="19">
+        <v>80</v>
+      </c>
+      <c r="G202" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H202" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I202" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f>Location!A203</f>
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <f>Location!B203</f>
+        <v>13</v>
+      </c>
+      <c r="C203" t="str">
+        <f>Location!C203</f>
+        <v>Viborg_Denmark</v>
+      </c>
+      <c r="D203" s="19">
+        <v>100</v>
+      </c>
+      <c r="E203" s="19">
+        <v>90</v>
+      </c>
+      <c r="F203" s="19">
+        <v>80</v>
+      </c>
+      <c r="G203" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H203" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I203" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f>Location!A204</f>
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <f>Location!B204</f>
+        <v>13</v>
+      </c>
+      <c r="C204" t="str">
+        <f>Location!C204</f>
+        <v>Aabenraa_Denmark</v>
+      </c>
+      <c r="D204" s="19">
+        <v>100</v>
+      </c>
+      <c r="E204" s="19">
+        <v>90</v>
+      </c>
+      <c r="F204" s="19">
+        <v>80</v>
+      </c>
+      <c r="G204" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H204" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I204" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f>Location!A205</f>
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <f>Location!B205</f>
+        <v>13</v>
+      </c>
+      <c r="C205" t="str">
+        <f>Location!C205</f>
+        <v>Ulanqab_China</v>
+      </c>
+      <c r="D205" s="19">
+        <v>100</v>
+      </c>
+      <c r="E205" s="19">
+        <v>90</v>
+      </c>
+      <c r="F205" s="19">
+        <v>80</v>
+      </c>
+      <c r="G205" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H205" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I205" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f>Location!A206</f>
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <f>Location!B206</f>
+        <v>13</v>
+      </c>
+      <c r="C206" t="str">
+        <f>Location!C206</f>
+        <v>Guizhou_China</v>
+      </c>
+      <c r="D206" s="19">
+        <v>100</v>
+      </c>
+      <c r="E206" s="19">
+        <v>90</v>
+      </c>
+      <c r="F206" s="19">
+        <v>80</v>
+      </c>
+      <c r="G206" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H206" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I206" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" s="13">
+        <f>Location!A207</f>
+        <v>206</v>
+      </c>
+      <c r="B207" s="13">
+        <f>Location!B207</f>
+        <v>14</v>
+      </c>
+      <c r="C207" s="13" t="str">
+        <f>Location!C207</f>
+        <v>Puebla_Mexico</v>
+      </c>
+      <c r="D207" s="16">
+        <v>100</v>
+      </c>
+      <c r="E207" s="16">
+        <v>90</v>
+      </c>
+      <c r="F207" s="16">
+        <v>80</v>
+      </c>
+      <c r="G207" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H207" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I207" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" s="13">
+        <f>Location!A208</f>
+        <v>207</v>
+      </c>
+      <c r="B208" s="13">
+        <f>Location!B208</f>
+        <v>14</v>
+      </c>
+      <c r="C208" s="13" t="str">
+        <f>Location!C208</f>
+        <v>Uitenhage_South_Africa</v>
+      </c>
+      <c r="D208" s="16">
+        <v>100</v>
+      </c>
+      <c r="E208" s="16">
+        <v>90</v>
+      </c>
+      <c r="F208" s="16">
+        <v>80</v>
+      </c>
+      <c r="G208" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H208" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I208" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="13">
+        <f>Location!A209</f>
+        <v>208</v>
+      </c>
+      <c r="B209" s="13">
+        <f>Location!B209</f>
+        <v>14</v>
+      </c>
+      <c r="C209" s="13" t="str">
+        <f>Location!C209</f>
+        <v>Chattanooga_TN</v>
+      </c>
+      <c r="D209" s="16">
+        <v>100</v>
+      </c>
+      <c r="E209" s="16">
+        <v>90</v>
+      </c>
+      <c r="F209" s="16">
+        <v>80</v>
+      </c>
+      <c r="G209" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H209" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I209" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="13">
+        <f>Location!A210</f>
+        <v>209</v>
+      </c>
+      <c r="B210" s="13">
+        <f>Location!B210</f>
+        <v>14</v>
+      </c>
+      <c r="C210" s="13" t="str">
+        <f>Location!C210</f>
+        <v>Pamela_Portugal</v>
+      </c>
+      <c r="D210" s="16">
+        <v>100</v>
+      </c>
+      <c r="E210" s="16">
+        <v>90</v>
+      </c>
+      <c r="F210" s="16">
+        <v>80</v>
+      </c>
+      <c r="G210" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H210" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I210" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="13">
+        <f>Location!A211</f>
+        <v>210</v>
+      </c>
+      <c r="B211" s="13">
+        <f>Location!B211</f>
+        <v>14</v>
+      </c>
+      <c r="C211" s="13" t="str">
+        <f>Location!C211</f>
+        <v>Chakan_India</v>
+      </c>
+      <c r="D211" s="16">
+        <v>100</v>
+      </c>
+      <c r="E211" s="16">
+        <v>90</v>
+      </c>
+      <c r="F211" s="16">
+        <v>80</v>
+      </c>
+      <c r="G211" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H211" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I211" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="13">
+        <f>Location!A212</f>
+        <v>211</v>
+      </c>
+      <c r="B212" s="13">
+        <f>Location!B212</f>
+        <v>14</v>
+      </c>
+      <c r="C212" s="13" t="str">
+        <f>Location!C212</f>
+        <v>Taubate_Brazil</v>
+      </c>
+      <c r="D212" s="16">
+        <v>100</v>
+      </c>
+      <c r="E212" s="16">
+        <v>90</v>
+      </c>
+      <c r="F212" s="16">
+        <v>80</v>
+      </c>
+      <c r="G212" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H212" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I212" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="13">
+        <f>Location!A213</f>
+        <v>212</v>
+      </c>
+      <c r="B213" s="13">
+        <f>Location!B213</f>
+        <v>14</v>
+      </c>
+      <c r="C213" s="13" t="str">
+        <f>Location!C213</f>
+        <v>Sao_Bernardo_Brazil</v>
+      </c>
+      <c r="D213" s="16">
+        <v>100</v>
+      </c>
+      <c r="E213" s="16">
+        <v>90</v>
+      </c>
+      <c r="F213" s="16">
+        <v>80</v>
+      </c>
+      <c r="G213" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H213" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I213" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="13">
+        <f>Location!A214</f>
+        <v>213</v>
+      </c>
+      <c r="B214" s="13">
+        <f>Location!B214</f>
+        <v>14</v>
+      </c>
+      <c r="C214" s="13" t="str">
+        <f>Location!C214</f>
+        <v>Sao_Jose_dos_Pinhais_Brazil</v>
+      </c>
+      <c r="D214" s="16">
+        <v>100</v>
+      </c>
+      <c r="E214" s="16">
+        <v>90</v>
+      </c>
+      <c r="F214" s="16">
+        <v>80</v>
+      </c>
+      <c r="G214" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H214" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I214" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="13">
+        <f>Location!A215</f>
+        <v>214</v>
+      </c>
+      <c r="B215" s="13">
+        <f>Location!B215</f>
+        <v>14</v>
+      </c>
+      <c r="C215" s="13" t="str">
+        <f>Location!C215</f>
+        <v>Sao_Carlos_Brazil</v>
+      </c>
+      <c r="D215" s="16">
+        <v>100</v>
+      </c>
+      <c r="E215" s="16">
+        <v>90</v>
+      </c>
+      <c r="F215" s="16">
+        <v>80</v>
+      </c>
+      <c r="G215" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H215" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I215" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="13">
+        <f>Location!A216</f>
+        <v>215</v>
+      </c>
+      <c r="B216" s="13">
+        <f>Location!B216</f>
+        <v>14</v>
+      </c>
+      <c r="C216" s="13" t="str">
+        <f>Location!C216</f>
+        <v>Cordoba_Argentina</v>
+      </c>
+      <c r="D216" s="16">
+        <v>100</v>
+      </c>
+      <c r="E216" s="16">
+        <v>90</v>
+      </c>
+      <c r="F216" s="16">
+        <v>80</v>
+      </c>
+      <c r="G216" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H216" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I216" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="13">
+        <f>Location!A217</f>
+        <v>216</v>
+      </c>
+      <c r="B217" s="13">
+        <f>Location!B217</f>
+        <v>14</v>
+      </c>
+      <c r="C217" s="13" t="str">
+        <f>Location!C217</f>
+        <v>Pacheco_Argentina</v>
+      </c>
+      <c r="D217" s="16">
+        <v>100</v>
+      </c>
+      <c r="E217" s="16">
+        <v>90</v>
+      </c>
+      <c r="F217" s="16">
+        <v>80</v>
+      </c>
+      <c r="G217" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H217" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I217" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="13">
+        <f>Location!A218</f>
+        <v>217</v>
+      </c>
+      <c r="B218" s="13">
+        <f>Location!B218</f>
+        <v>14</v>
+      </c>
+      <c r="C218" s="13" t="str">
+        <f>Location!C218</f>
+        <v>Braunschweig_Germany</v>
+      </c>
+      <c r="D218" s="16">
+        <v>100</v>
+      </c>
+      <c r="E218" s="16">
+        <v>90</v>
+      </c>
+      <c r="F218" s="16">
+        <v>80</v>
+      </c>
+      <c r="G218" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H218" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I218" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="13">
+        <f>Location!A219</f>
+        <v>218</v>
+      </c>
+      <c r="B219" s="13">
+        <f>Location!B219</f>
+        <v>14</v>
+      </c>
+      <c r="C219" s="13" t="str">
+        <f>Location!C219</f>
+        <v>Chemnitz_Germany</v>
+      </c>
+      <c r="D219" s="16">
+        <v>100</v>
+      </c>
+      <c r="E219" s="16">
+        <v>90</v>
+      </c>
+      <c r="F219" s="16">
+        <v>80</v>
+      </c>
+      <c r="G219" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H219" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I219" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="13">
+        <f>Location!A220</f>
+        <v>219</v>
+      </c>
+      <c r="B220" s="13">
+        <f>Location!B220</f>
+        <v>14</v>
+      </c>
+      <c r="C220" s="13" t="str">
+        <f>Location!C220</f>
+        <v>Dresden_Germany</v>
+      </c>
+      <c r="D220" s="16">
+        <v>100</v>
+      </c>
+      <c r="E220" s="16">
+        <v>90</v>
+      </c>
+      <c r="F220" s="16">
+        <v>80</v>
+      </c>
+      <c r="G220" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H220" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I220" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="13">
+        <f>Location!A221</f>
+        <v>220</v>
+      </c>
+      <c r="B221" s="13">
+        <f>Location!B221</f>
+        <v>14</v>
+      </c>
+      <c r="C221" s="13" t="str">
+        <f>Location!C221</f>
+        <v>Emden_Germany</v>
+      </c>
+      <c r="D221" s="16">
+        <v>100</v>
+      </c>
+      <c r="E221" s="16">
+        <v>90</v>
+      </c>
+      <c r="F221" s="16">
+        <v>80</v>
+      </c>
+      <c r="G221" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H221" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I221" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="13">
+        <f>Location!A222</f>
+        <v>221</v>
+      </c>
+      <c r="B222" s="13">
+        <f>Location!B222</f>
+        <v>14</v>
+      </c>
+      <c r="C222" s="13" t="str">
+        <f>Location!C222</f>
+        <v>Hannover_Germany</v>
+      </c>
+      <c r="D222" s="16">
+        <v>100</v>
+      </c>
+      <c r="E222" s="16">
+        <v>90</v>
+      </c>
+      <c r="F222" s="16">
+        <v>80</v>
+      </c>
+      <c r="G222" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H222" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I222" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="13">
+        <f>Location!A223</f>
+        <v>222</v>
+      </c>
+      <c r="B223" s="13">
+        <f>Location!B223</f>
+        <v>14</v>
+      </c>
+      <c r="C223" s="13" t="str">
+        <f>Location!C223</f>
+        <v>Kassel_Germany</v>
+      </c>
+      <c r="D223" s="16">
+        <v>100</v>
+      </c>
+      <c r="E223" s="16">
+        <v>90</v>
+      </c>
+      <c r="F223" s="16">
+        <v>80</v>
+      </c>
+      <c r="G223" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H223" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I223" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="13">
+        <f>Location!A224</f>
+        <v>223</v>
+      </c>
+      <c r="B224" s="13">
+        <f>Location!B224</f>
+        <v>14</v>
+      </c>
+      <c r="C224" s="13" t="str">
+        <f>Location!C224</f>
+        <v>Osnabruck_Germany</v>
+      </c>
+      <c r="D224" s="16">
+        <v>100</v>
+      </c>
+      <c r="E224" s="16">
+        <v>90</v>
+      </c>
+      <c r="F224" s="16">
+        <v>80</v>
+      </c>
+      <c r="G224" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H224" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I224" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" s="13">
+        <f>Location!A225</f>
+        <v>224</v>
+      </c>
+      <c r="B225" s="13">
+        <f>Location!B225</f>
+        <v>14</v>
+      </c>
+      <c r="C225" s="13" t="str">
+        <f>Location!C225</f>
+        <v>Salzgitter_Germany</v>
+      </c>
+      <c r="D225" s="16">
+        <v>100</v>
+      </c>
+      <c r="E225" s="16">
+        <v>90</v>
+      </c>
+      <c r="F225" s="16">
+        <v>80</v>
+      </c>
+      <c r="G225" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H225" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I225" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" s="13">
+        <f>Location!A226</f>
+        <v>225</v>
+      </c>
+      <c r="B226" s="13">
+        <f>Location!B226</f>
+        <v>14</v>
+      </c>
+      <c r="C226" s="13" t="str">
+        <f>Location!C226</f>
+        <v>Wolfsburg_Germany</v>
+      </c>
+      <c r="D226" s="16">
+        <v>100</v>
+      </c>
+      <c r="E226" s="16">
+        <v>90</v>
+      </c>
+      <c r="F226" s="16">
+        <v>80</v>
+      </c>
+      <c r="G226" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H226" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I226" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" s="13">
+        <f>Location!A227</f>
+        <v>226</v>
+      </c>
+      <c r="B227" s="13">
+        <f>Location!B227</f>
+        <v>14</v>
+      </c>
+      <c r="C227" s="13" t="str">
+        <f>Location!C227</f>
+        <v>Zwickau_Germany</v>
+      </c>
+      <c r="D227" s="16">
+        <v>100</v>
+      </c>
+      <c r="E227" s="16">
+        <v>90</v>
+      </c>
+      <c r="F227" s="16">
+        <v>80</v>
+      </c>
+      <c r="G227" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H227" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I227" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f>Location!A228</f>
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <f>Location!B228</f>
+        <v>15</v>
+      </c>
+      <c r="C228" t="str">
+        <f>Location!C228</f>
+        <v>Los_Angeles_CA</v>
+      </c>
+      <c r="D228" s="19">
+        <v>100</v>
+      </c>
+      <c r="E228" s="19">
+        <v>90</v>
+      </c>
+      <c r="F228" s="19">
+        <v>80</v>
+      </c>
+      <c r="G228" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H228" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I228" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f>Location!A229</f>
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <f>Location!B229</f>
+        <v>15</v>
+      </c>
+      <c r="C229" t="str">
+        <f>Location!C229</f>
+        <v>Richmond_VA</v>
+      </c>
+      <c r="D229" s="19">
+        <v>100</v>
+      </c>
+      <c r="E229" s="19">
+        <v>90</v>
+      </c>
+      <c r="F229" s="19">
+        <v>80</v>
+      </c>
+      <c r="G229" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H229" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I229" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f>Location!A230</f>
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <f>Location!B230</f>
+        <v>15</v>
+      </c>
+      <c r="C230" t="str">
+        <f>Location!C230</f>
+        <v>Richardson_TX</v>
+      </c>
+      <c r="D230" s="19">
+        <v>100</v>
+      </c>
+      <c r="E230" s="19">
+        <v>90</v>
+      </c>
+      <c r="F230" s="19">
+        <v>80</v>
+      </c>
+      <c r="G230" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H230" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I230" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -43304,7 +45694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -65164,6 +67554,405 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>ParentCorp!A1</f>
+        <v>ParentCorpID</v>
+      </c>
+      <c r="B1" t="str">
+        <f>ParentCorp!B1</f>
+        <v>ParentCorpName</v>
+      </c>
+      <c r="C1" t="str">
+        <f>ParentCorp!C1</f>
+        <v>Exchange</v>
+      </c>
+      <c r="D1" t="str">
+        <f>ParentCorp!D1</f>
+        <v>TickerSymbol</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>ParentCorp!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>ParentCorp!B2</f>
+        <v>Micron Technology, Inc.</v>
+      </c>
+      <c r="C2" t="str">
+        <f>ParentCorp!C2</f>
+        <v>NYSE</v>
+      </c>
+      <c r="D2" t="str">
+        <f>ParentCorp!D2</f>
+        <v>MU</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>ParentCorp!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>ParentCorp!B3</f>
+        <v>IDACORP, Inc</v>
+      </c>
+      <c r="C3" t="str">
+        <f>ParentCorp!C3</f>
+        <v>NYSE</v>
+      </c>
+      <c r="D3" t="str">
+        <f>ParentCorp!D3</f>
+        <v>IDA</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>ParentCorp!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>ParentCorp!B4</f>
+        <v>HP Inc.</v>
+      </c>
+      <c r="C4" t="str">
+        <f>ParentCorp!C4</f>
+        <v>NYSE</v>
+      </c>
+      <c r="D4" t="str">
+        <f>ParentCorp!D4</f>
+        <v>HPQ</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>ParentCorp!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>ParentCorp!B5</f>
+        <v>AMP Capital</v>
+      </c>
+      <c r="C5" t="str">
+        <f>ParentCorp!C5</f>
+        <v>ASX</v>
+      </c>
+      <c r="D5" t="str">
+        <f>ParentCorp!D5</f>
+        <v>AMP</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>ParentCorp!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>ParentCorp!B6</f>
+        <v>Happy Family Brands</v>
+      </c>
+      <c r="C6" t="str">
+        <f>ParentCorp!C6</f>
+        <v>NYSE</v>
+      </c>
+      <c r="D6" t="str">
+        <f>ParentCorp!D6</f>
+        <v>HFB</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>ParentCorp!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>ParentCorp!B7</f>
+        <v>Airbus SE</v>
+      </c>
+      <c r="C7" t="str">
+        <f>ParentCorp!C7</f>
+        <v>Paris</v>
+      </c>
+      <c r="D7" t="str">
+        <f>ParentCorp!D7</f>
+        <v>AIRBUS_SE</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>ParentCorp!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>ParentCorp!B8</f>
+        <v>Coca-Cola FEMSA</v>
+      </c>
+      <c r="C8" t="str">
+        <f>ParentCorp!C8</f>
+        <v>NYSE</v>
+      </c>
+      <c r="D8" t="str">
+        <f>ParentCorp!D8</f>
+        <v>FMX</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>ParentCorp!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>ParentCorp!B9</f>
+        <v>Kerry Group</v>
+      </c>
+      <c r="C9" t="str">
+        <f>ParentCorp!C9</f>
+        <v>Dublin</v>
+      </c>
+      <c r="D9" t="str">
+        <f>ParentCorp!D9</f>
+        <v>KYG</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>ParentCorp!A10</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>ParentCorp!B10</f>
+        <v>TH Real Estate</v>
+      </c>
+      <c r="C10" t="str">
+        <f>ParentCorp!C10</f>
+        <v>London</v>
+      </c>
+      <c r="D10" t="str">
+        <f>ParentCorp!D10</f>
+        <v>THRE</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>ParentCorp!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>ParentCorp!B11</f>
+        <v>Google</v>
+      </c>
+      <c r="C11" t="str">
+        <f>ParentCorp!C11</f>
+        <v>NYSE</v>
+      </c>
+      <c r="D11" t="str">
+        <f>ParentCorp!D11</f>
+        <v>GOOGL</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>ParentCorp!A12</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>ParentCorp!B12</f>
+        <v>Visa</v>
+      </c>
+      <c r="C12" t="str">
+        <f>ParentCorp!C12</f>
+        <v>NYSE</v>
+      </c>
+      <c r="D12" t="str">
+        <f>ParentCorp!D12</f>
+        <v>VISA</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>ParentCorp!A13</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>ParentCorp!B13</f>
+        <v>Microsoft</v>
+      </c>
+      <c r="C13" t="str">
+        <f>ParentCorp!C13</f>
+        <v>NYSE</v>
+      </c>
+      <c r="D13" t="str">
+        <f>ParentCorp!D13</f>
+        <v>MSFT</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>ParentCorp!A14</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>ParentCorp!B14</f>
+        <v>Apple</v>
+      </c>
+      <c r="C14" t="str">
+        <f>ParentCorp!C14</f>
+        <v>NYSE</v>
+      </c>
+      <c r="D14" t="str">
+        <f>ParentCorp!D14</f>
+        <v>APPL</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>ParentCorp!A15</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>ParentCorp!B15</f>
+        <v>Volkswagen</v>
+      </c>
+      <c r="C15" t="str">
+        <f>ParentCorp!C15</f>
+        <v>Frankfurt</v>
+      </c>
+      <c r="D15" t="str">
+        <f>ParentCorp!D15</f>
+        <v>VOW</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>ParentCorp!A16</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>ParentCorp!B16</f>
+        <v>Bank of America</v>
+      </c>
+      <c r="C16" t="str">
+        <f>ParentCorp!C16</f>
+        <v>NYSE</v>
+      </c>
+      <c r="D16" t="str">
+        <f>ParentCorp!D16</f>
+        <v>BAC</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F3"/>
   <sheetViews>
@@ -66871,10 +69660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView topLeftCell="A198" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -72391,7 +75180,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
-        <f t="shared" ref="A132:A167" si="2">A131+1</f>
+        <f t="shared" ref="A132:A198" si="2">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" s="14">
@@ -73784,7 +76573,7 @@
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D165">
         <v>-80.192154599999995</v>
@@ -73799,7 +76588,7 @@
         <v>52</v>
       </c>
       <c r="H165" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I165" t="s">
         <v>54</v>
@@ -73826,7 +76615,7 @@
         <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D166">
         <v>-3.9283784000000002</v>
@@ -73841,7 +76630,7 @@
         <v>52</v>
       </c>
       <c r="H166" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I166" t="s">
         <v>54</v>
@@ -73868,7 +76657,7 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D167">
         <v>139.7675366</v>
@@ -73877,13 +76666,13 @@
         <v>35.673938900000003</v>
       </c>
       <c r="F167" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G167" t="s">
         <v>52</v>
       </c>
       <c r="H167" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I167" t="s">
         <v>54</v>
@@ -73901,8 +76690,2651 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="23" x14ac:dyDescent="0.25">
-      <c r="C170" s="11"/>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="16">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="16">
+        <v>10</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D168" s="16">
+        <v>-80.038901999999993</v>
+      </c>
+      <c r="E168" s="16">
+        <v>33.072608000000002</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G168" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H168" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I168" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J168" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K168" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L168" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M168" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="16">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="16">
+        <v>10</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D169" s="16">
+        <v>-95.863950000000003</v>
+      </c>
+      <c r="E169" s="16">
+        <v>41.221155000000003</v>
+      </c>
+      <c r="F169" s="16" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H169" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I169" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J169" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K169" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L169" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M169" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="16">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="16">
+        <v>10</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D170" s="16">
+        <v>-84.584430999999995</v>
+      </c>
+      <c r="E170" s="16">
+        <v>33.749440999999997</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H170" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I170" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J170" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K170" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L170" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M170" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" s="16">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="16">
+        <v>10</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D171" s="16">
+        <v>-85.754999999999995</v>
+      </c>
+      <c r="E171" s="16">
+        <v>34.884166</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H171" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I171" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J171" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K171" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L171" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M171" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="16">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="16">
+        <v>10</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D172" s="16">
+        <v>-81.547392000000002</v>
+      </c>
+      <c r="E172" s="16">
+        <v>35.898338000000003</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G172" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H172" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I172" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J172" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K172" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L172" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M172" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="16">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="16">
+        <v>10</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D173" s="16">
+        <v>-95.289139000000006</v>
+      </c>
+      <c r="E173" s="16">
+        <v>36.247011999999998</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H173" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I173" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J173" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K173" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L173" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M173" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="16">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="16">
+        <v>10</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D174" s="16">
+        <v>-87.263902999999999</v>
+      </c>
+      <c r="E174" s="16">
+        <v>36.619557999999998</v>
+      </c>
+      <c r="F174" s="16" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G174" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H174" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I174" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J174" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K174" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L174" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M174" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="16">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="16">
+        <v>10</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D175" s="16">
+        <v>-121.201007</v>
+      </c>
+      <c r="E175" s="16">
+        <v>45.632204999999999</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>1900</v>
+      </c>
+      <c r="G175" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H175" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I175" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J175" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K175" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L175" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M175" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="16">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="16">
+        <v>10</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D176" s="16">
+        <v>-70.697789999999998</v>
+      </c>
+      <c r="E176" s="16">
+        <v>-33.358657000000001</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G176" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H176" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I176" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J176" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K176" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L176" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M176" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A177" s="16">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B177" s="16">
+        <v>10</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D177" s="16">
+        <v>-6.4509059999999998</v>
+      </c>
+      <c r="E177" s="16">
+        <v>53.314867999999997</v>
+      </c>
+      <c r="F177" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G177" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H177" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I177" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J177" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K177" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L177" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M177" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A178" s="16">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="16">
+        <v>10</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D178" s="16">
+        <v>6.860144</v>
+      </c>
+      <c r="E178" s="16">
+        <v>53.425260999999999</v>
+      </c>
+      <c r="F178" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G178" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H178" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I178" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J178" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K178" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L178" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M178" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A179" s="16">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="16">
+        <v>10</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D179" s="16">
+        <v>27.124637</v>
+      </c>
+      <c r="E179" s="16">
+        <v>60.540053</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G179" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H179" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I179" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J179" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K179" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L179" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M179" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A180" s="16">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="16">
+        <v>10</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D180" s="16">
+        <v>3.8654389999999998</v>
+      </c>
+      <c r="E180" s="16">
+        <v>50.469327999999997</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G180" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H180" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I180" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J180" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K180" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L180" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M180" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A181" s="16">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="16">
+        <v>10</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D181" s="16">
+        <v>120.42546299999999</v>
+      </c>
+      <c r="E181" s="16">
+        <v>24.139119999999998</v>
+      </c>
+      <c r="F181" s="16" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G181" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H181" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I181" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J181" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K181" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L181" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M181" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A182" s="16">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="16">
+        <v>10</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D182" s="16">
+        <v>103.709625</v>
+      </c>
+      <c r="E182" s="16">
+        <v>1.351458</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G182" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H182" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I182" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J182" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K182" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L182" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M182" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="14">
+        <v>11</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D183" s="18">
+        <v>-77.445670000000007</v>
+      </c>
+      <c r="E183" s="18">
+        <v>39.050527000000002</v>
+      </c>
+      <c r="F183" s="18" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G183" t="s">
+        <v>52</v>
+      </c>
+      <c r="H183" t="s">
+        <v>53</v>
+      </c>
+      <c r="I183" t="s">
+        <v>54</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K183" t="s">
+        <v>55</v>
+      </c>
+      <c r="L183" t="s">
+        <v>55</v>
+      </c>
+      <c r="M183" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="14">
+        <v>11</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D184" s="18">
+        <v>-104.994438</v>
+      </c>
+      <c r="E184" s="18">
+        <v>39.553727000000002</v>
+      </c>
+      <c r="F184" s="18" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G184" t="s">
+        <v>52</v>
+      </c>
+      <c r="H184" t="s">
+        <v>53</v>
+      </c>
+      <c r="I184" t="s">
+        <v>54</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K184" t="s">
+        <v>55</v>
+      </c>
+      <c r="L184" t="s">
+        <v>55</v>
+      </c>
+      <c r="M184" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="14">
+        <v>11</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D185" s="18">
+        <v>-1.8950999999999999E-2</v>
+      </c>
+      <c r="E185" s="18">
+        <v>51.496930999999996</v>
+      </c>
+      <c r="F185" s="18" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G185" t="s">
+        <v>52</v>
+      </c>
+      <c r="H185" t="s">
+        <v>53</v>
+      </c>
+      <c r="I185" t="s">
+        <v>54</v>
+      </c>
+      <c r="J185" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K185" t="s">
+        <v>55</v>
+      </c>
+      <c r="L185" t="s">
+        <v>55</v>
+      </c>
+      <c r="M185" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="14">
+        <v>11</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D186" s="18">
+        <v>103.96843800000001</v>
+      </c>
+      <c r="E186" s="18">
+        <v>1.3707940000000001</v>
+      </c>
+      <c r="F186" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G186" t="s">
+        <v>52</v>
+      </c>
+      <c r="H186" t="s">
+        <v>53</v>
+      </c>
+      <c r="I186" t="s">
+        <v>54</v>
+      </c>
+      <c r="J186" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K186" t="s">
+        <v>55</v>
+      </c>
+      <c r="L186" t="s">
+        <v>55</v>
+      </c>
+      <c r="M186" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A187" s="16">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="16">
+        <v>12</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D187" s="16">
+        <v>103.852436</v>
+      </c>
+      <c r="E187" s="16">
+        <v>1.2825260000000001</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G187" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H187" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I187" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J187" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K187" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L187" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M187" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A188" s="16">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="16">
+        <v>12</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D188" s="16">
+        <v>114.118611</v>
+      </c>
+      <c r="E188" s="16">
+        <v>22.367843000000001</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G188" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H188" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I188" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J188" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K188" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L188" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M188" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A189" s="16">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="16">
+        <v>12</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D189" s="16">
+        <v>144.96332699999999</v>
+      </c>
+      <c r="E189" s="16">
+        <v>-37.813620999999998</v>
+      </c>
+      <c r="F189" s="16" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G189" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H189" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I189" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J189" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K189" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L189" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M189" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A190" s="16">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="16">
+        <v>12</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D190" s="16">
+        <v>151.20902000000001</v>
+      </c>
+      <c r="E190" s="16">
+        <v>-33.868665999999997</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G190" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H190" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I190" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J190" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K190" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L190" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M190" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A191" s="16">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B191" s="16">
+        <v>12</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D191" s="16">
+        <v>-46.696733000000002</v>
+      </c>
+      <c r="E191" s="16">
+        <v>-23.607880000000002</v>
+      </c>
+      <c r="F191" s="16" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G191" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H191" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I191" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J191" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K191" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L191" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M191" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A192" s="16">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B192" s="16">
+        <v>12</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D192" s="16">
+        <v>139.649396</v>
+      </c>
+      <c r="E192" s="16">
+        <v>35.858136000000002</v>
+      </c>
+      <c r="F192" s="16" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G192" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H192" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I192" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J192" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K192" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L192" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M192" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A193" s="16">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B193" s="16">
+        <v>12</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D193" s="16">
+        <v>135.50190799999999</v>
+      </c>
+      <c r="E193" s="16">
+        <v>34.693984999999998</v>
+      </c>
+      <c r="F193" s="16" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G193" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H193" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I193" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J193" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K193" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L193" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M193" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A194" s="16">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B194" s="16">
+        <v>12</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D194" s="16">
+        <v>-6.1966099999999997</v>
+      </c>
+      <c r="E194" s="16">
+        <v>53.269382</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G194" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H194" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I194" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J194" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K194" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L194" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M194" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A195" s="16">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="B195" s="16">
+        <v>12</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D195" s="16">
+        <v>-77.471339999999998</v>
+      </c>
+      <c r="E195" s="16">
+        <v>39.011470000000003</v>
+      </c>
+      <c r="F195" s="16" t="s">
+        <v>1919</v>
+      </c>
+      <c r="G195" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H195" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I195" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J195" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K195" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L195" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M195" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A196" s="16">
+        <f t="shared" ref="A196" si="3">A195+1</f>
+        <v>195</v>
+      </c>
+      <c r="B196" s="16">
+        <v>12</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D196" s="16">
+        <v>-87.618343999999993</v>
+      </c>
+      <c r="E196" s="16">
+        <v>41.853766999999998</v>
+      </c>
+      <c r="F196" s="16" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G196" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H196" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I196" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J196" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K196" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L196" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M196" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A197" s="18">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="19">
+        <v>13</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D197" s="18">
+        <v>-120.875123</v>
+      </c>
+      <c r="E197" s="18">
+        <v>44.289467999999999</v>
+      </c>
+      <c r="F197" s="18" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G197" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H197" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I197" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J197" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K197" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L197" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M197" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A198" s="18">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="19">
+        <v>13</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D198" s="18">
+        <v>-119.548556</v>
+      </c>
+      <c r="E198" s="18">
+        <v>39.567252000000003</v>
+      </c>
+      <c r="F198" s="18" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G198" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H198" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I198" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J198" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K198" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L198" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M198" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" s="18">
+        <f t="shared" ref="A199:A230" si="4">A198+1</f>
+        <v>198</v>
+      </c>
+      <c r="B199" s="19">
+        <v>13</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D199" s="18">
+        <v>-81.257733999999999</v>
+      </c>
+      <c r="E199" s="18">
+        <v>35.589244999999998</v>
+      </c>
+      <c r="F199" s="18" t="s">
+        <v>1929</v>
+      </c>
+      <c r="G199" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H199" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I199" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J199" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K199" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L199" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M199" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A200" s="18">
+        <f t="shared" si="4"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="19">
+        <v>13</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D200" s="18">
+        <v>-121.943483</v>
+      </c>
+      <c r="E200" s="12">
+        <v>37.360923</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G200" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H200" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I200" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J200" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K200" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L200" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M200" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A201" s="18">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="19">
+        <v>13</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D201" s="18">
+        <v>-111.604145</v>
+      </c>
+      <c r="E201" s="12">
+        <v>33.347119999999997</v>
+      </c>
+      <c r="F201" s="18" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G201" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H201" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I201" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J201" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K201" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L201" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M201" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A202" s="18">
+        <f t="shared" si="4"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="19">
+        <v>13</v>
+      </c>
+      <c r="C202" s="18" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D202" s="18">
+        <v>-93.930997000000005</v>
+      </c>
+      <c r="E202" s="12">
+        <v>41.611735000000003</v>
+      </c>
+      <c r="F202" s="18" t="s">
+        <v>1932</v>
+      </c>
+      <c r="G202" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H202" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I202" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J202" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K202" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L202" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M202" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A203" s="18">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="19">
+        <v>13</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D203" s="18">
+        <v>9.5708819999999992</v>
+      </c>
+      <c r="E203" s="18">
+        <v>56.482218000000003</v>
+      </c>
+      <c r="F203" s="18" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G203" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H203" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I203" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J203" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K203" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L203" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M203" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A204" s="18">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="19">
+        <v>13</v>
+      </c>
+      <c r="C204" s="20" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D204" s="18">
+        <v>9.1635229999999996</v>
+      </c>
+      <c r="E204" s="18">
+        <v>55.036608000000001</v>
+      </c>
+      <c r="F204" s="20" t="s">
+        <v>1934</v>
+      </c>
+      <c r="G204" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H204" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I204" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J204" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K204" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L204" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M204" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A205" s="18">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="19">
+        <v>13</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D205" s="18">
+        <v>113.16920500000001</v>
+      </c>
+      <c r="E205" s="18">
+        <v>41.016269000000001</v>
+      </c>
+      <c r="F205" s="18" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G205" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H205" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I205" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J205" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K205" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L205" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M205" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A206" s="18">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="19">
+        <v>13</v>
+      </c>
+      <c r="C206" s="20" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D206" s="18">
+        <v>106.66086</v>
+      </c>
+      <c r="E206" s="18">
+        <v>26.422518</v>
+      </c>
+      <c r="F206" s="20" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G206" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H206" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I206" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J206" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K206" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L206" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M206" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A207" s="16">
+        <f t="shared" si="4"/>
+        <v>206</v>
+      </c>
+      <c r="B207" s="16">
+        <v>14</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D207" s="13">
+        <v>-98.252285000000001</v>
+      </c>
+      <c r="E207" s="13">
+        <v>19.123754000000002</v>
+      </c>
+      <c r="F207" s="13" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G207" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H207" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I207" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J207" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K207" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L207" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M207" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A208" s="16">
+        <f t="shared" si="4"/>
+        <v>207</v>
+      </c>
+      <c r="B208" s="16">
+        <v>14</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D208" s="13">
+        <v>25.419024</v>
+      </c>
+      <c r="E208" s="13">
+        <v>-33.786427000000003</v>
+      </c>
+      <c r="F208" s="13" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G208" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H208" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I208" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J208" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K208" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L208" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M208" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A209" s="16">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+      <c r="B209" s="16">
+        <v>14</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D209" s="13">
+        <v>-85.134298999999999</v>
+      </c>
+      <c r="E209" s="13">
+        <v>35.079014000000001</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G209" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H209" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I209" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J209" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K209" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L209" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M209" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A210" s="16">
+        <f t="shared" si="4"/>
+        <v>209</v>
+      </c>
+      <c r="B210" s="16">
+        <v>14</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D210" s="13">
+        <v>-8.9868000000000006</v>
+      </c>
+      <c r="E210" s="13">
+        <v>38.583533000000003</v>
+      </c>
+      <c r="F210" s="13" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G210" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H210" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I210" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J210" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K210" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L210" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M210" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A211" s="16">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="B211" s="16">
+        <v>14</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D211" s="13">
+        <v>73.81944</v>
+      </c>
+      <c r="E211" s="13">
+        <v>18.747464999999998</v>
+      </c>
+      <c r="F211" s="13" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G211" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H211" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I211" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J211" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K211" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L211" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M211" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A212" s="16">
+        <f t="shared" si="4"/>
+        <v>211</v>
+      </c>
+      <c r="B212" s="16">
+        <v>14</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D212" s="13">
+        <v>-45.635584000000001</v>
+      </c>
+      <c r="E212" s="13">
+        <v>-23.058838999999999</v>
+      </c>
+      <c r="F212" s="13" t="s">
+        <v>1945</v>
+      </c>
+      <c r="G212" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H212" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I212" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J212" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K212" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L212" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M212" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A213" s="16">
+        <f t="shared" si="4"/>
+        <v>212</v>
+      </c>
+      <c r="B213" s="16">
+        <v>14</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D213" s="13">
+        <v>-46.547063000000001</v>
+      </c>
+      <c r="E213" s="13">
+        <v>-23.736335</v>
+      </c>
+      <c r="F213" s="13" t="s">
+        <v>1946</v>
+      </c>
+      <c r="G213" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H213" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I213" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J213" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K213" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L213" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M213" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A214" s="16">
+        <f t="shared" si="4"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="16">
+        <v>14</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D214" s="13">
+        <v>-49.176682999999997</v>
+      </c>
+      <c r="E214" s="13">
+        <v>-25.667687999999998</v>
+      </c>
+      <c r="F214" s="13" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G214" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H214" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I214" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J214" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K214" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L214" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M214" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A215" s="16">
+        <f t="shared" si="4"/>
+        <v>214</v>
+      </c>
+      <c r="B215" s="16">
+        <v>14</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D215" s="13">
+        <v>-47.872120000000002</v>
+      </c>
+      <c r="E215" s="13">
+        <v>-22.063891999999999</v>
+      </c>
+      <c r="F215" s="13" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G215" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H215" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I215" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J215" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K215" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L215" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M215" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A216" s="16">
+        <f t="shared" si="4"/>
+        <v>215</v>
+      </c>
+      <c r="B216" s="16">
+        <v>14</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D216" s="13">
+        <v>-64.166239000000004</v>
+      </c>
+      <c r="E216" s="13">
+        <v>-31.464431000000001</v>
+      </c>
+      <c r="F216" s="13" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G216" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H216" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I216" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J216" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K216" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L216" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M216" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A217" s="16">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="B217" s="16">
+        <v>14</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D217" s="13">
+        <v>-58.691611000000002</v>
+      </c>
+      <c r="E217" s="13">
+        <v>-34.442712999999998</v>
+      </c>
+      <c r="F217" s="13" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G217" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H217" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I217" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J217" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K217" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L217" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M217" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A218" s="16">
+        <f t="shared" si="4"/>
+        <v>217</v>
+      </c>
+      <c r="B218" s="16">
+        <v>14</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D218" s="13">
+        <v>10.522778000000001</v>
+      </c>
+      <c r="E218" s="13">
+        <v>52.293326999999998</v>
+      </c>
+      <c r="F218" s="13" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G218" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H218" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I218" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J218" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K218" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L218" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M218" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A219" s="16">
+        <f t="shared" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="B219" s="16">
+        <v>14</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D219" s="13">
+        <v>12.906514</v>
+      </c>
+      <c r="E219" s="13">
+        <v>50.803994000000003</v>
+      </c>
+      <c r="F219" s="13" t="s">
+        <v>1951</v>
+      </c>
+      <c r="G219" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H219" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I219" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J219" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K219" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L219" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M219" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A220" s="16">
+        <f t="shared" si="4"/>
+        <v>219</v>
+      </c>
+      <c r="B220" s="16">
+        <v>14</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D220" s="13">
+        <v>13.755827</v>
+      </c>
+      <c r="E220" s="13">
+        <v>51.044463</v>
+      </c>
+      <c r="F220" s="13" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G220" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H220" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I220" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J220" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K220" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L220" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M220" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A221" s="16">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="B221" s="16">
+        <v>14</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D221" s="13">
+        <v>7.1582319999999999</v>
+      </c>
+      <c r="E221" s="13">
+        <v>53.348044999999999</v>
+      </c>
+      <c r="F221" s="13" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G221" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H221" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I221" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J221" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K221" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L221" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M221" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A222" s="16">
+        <f t="shared" si="4"/>
+        <v>221</v>
+      </c>
+      <c r="B222" s="16">
+        <v>14</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D222" s="13">
+        <v>9.6686040000000002</v>
+      </c>
+      <c r="E222" s="13">
+        <v>52.417808000000001</v>
+      </c>
+      <c r="F222" s="13" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G222" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H222" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I222" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J222" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K222" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L222" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M222" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A223" s="16">
+        <f t="shared" si="4"/>
+        <v>222</v>
+      </c>
+      <c r="B223" s="16">
+        <v>14</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D223" s="13">
+        <v>9.4341000000000008</v>
+      </c>
+      <c r="E223" s="13">
+        <v>51.257674999999999</v>
+      </c>
+      <c r="F223" s="13" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G223" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H223" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I223" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J223" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K223" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L223" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M223" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A224" s="16">
+        <f t="shared" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="B224" s="16">
+        <v>14</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D224" s="13">
+        <v>8.0779069999999997</v>
+      </c>
+      <c r="E224" s="13">
+        <v>52.265776000000002</v>
+      </c>
+      <c r="F224" s="13" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G224" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H224" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I224" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J224" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K224" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L224" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M224" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A225" s="16">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="B225" s="16">
+        <v>14</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D225" s="13">
+        <v>10.444815999999999</v>
+      </c>
+      <c r="E225" s="13">
+        <v>52.181466</v>
+      </c>
+      <c r="F225" s="13" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G225" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H225" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I225" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J225" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K225" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L225" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M225" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A226" s="16">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="B226" s="16">
+        <v>14</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D226" s="13">
+        <v>10.775997</v>
+      </c>
+      <c r="E226" s="13">
+        <v>52.434187000000001</v>
+      </c>
+      <c r="F226" s="13" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G226" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H226" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I226" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J226" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K226" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L226" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M226" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A227" s="16">
+        <f t="shared" si="4"/>
+        <v>226</v>
+      </c>
+      <c r="B227" s="16">
+        <v>14</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D227" s="13">
+        <v>12.475315999999999</v>
+      </c>
+      <c r="E227" s="13">
+        <v>50.731333999999997</v>
+      </c>
+      <c r="F227" s="13" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G227" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H227" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I227" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J227" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K227" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L227" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M227" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A228" s="18">
+        <f t="shared" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="B228" s="19">
+        <v>15</v>
+      </c>
+      <c r="C228" s="18" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D228" s="18">
+        <v>-118.25099950000001</v>
+      </c>
+      <c r="E228" s="18">
+        <v>34.062198600000002</v>
+      </c>
+      <c r="F228" s="18" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G228" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H228" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I228" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J228" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K228" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L228" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M228" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" s="18">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+      <c r="B229" s="19">
+        <v>15</v>
+      </c>
+      <c r="C229" s="18" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D229" s="18">
+        <v>-77.464630999999997</v>
+      </c>
+      <c r="E229" s="18">
+        <v>37.630817999999998</v>
+      </c>
+      <c r="F229" s="18" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G229" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H229" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I229" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J229" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K229" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L229" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M229" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A230" s="18">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+      <c r="B230" s="19">
+        <v>15</v>
+      </c>
+      <c r="C230" s="18" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D230" s="18">
+        <v>-96.707159000000004</v>
+      </c>
+      <c r="E230" s="18">
+        <v>32.985838000000001</v>
+      </c>
+      <c r="F230" s="18" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G230" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H230" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I230" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J230" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K230" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L230" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M230" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -73912,10 +79344,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -73923,6 +79355,7 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -74056,13 +79489,97 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C10" t="s">
         <v>1888</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1889</v>
       </c>
-      <c r="D10" t="s">
-        <v>1890</v>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1967</v>
       </c>
     </row>
   </sheetData>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1440" windowWidth="31460" windowHeight="17980" tabRatio="723" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="880" yWindow="2940" windowWidth="31460" windowHeight="17980" tabRatio="723" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16565" uniqueCount="1971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17121" uniqueCount="2058">
   <si>
     <t>LocationID</t>
   </si>
@@ -5955,6 +5955,267 @@
   </si>
   <si>
     <t>Sao_Carlos_Brazil</t>
+  </si>
+  <si>
+    <t>GrandPrairie_TX</t>
+  </si>
+  <si>
+    <t>CostaMesa_CA</t>
+  </si>
+  <si>
+    <t>Everett_WA</t>
+  </si>
+  <si>
+    <t>Walton_KY</t>
+  </si>
+  <si>
+    <t>Toronto_Canada</t>
+  </si>
+  <si>
+    <t>Bedford_NH</t>
+  </si>
+  <si>
+    <t>Rochester_NH</t>
+  </si>
+  <si>
+    <t>Chihuahua_Mexico</t>
+  </si>
+  <si>
+    <t>Xerem_Brazil</t>
+  </si>
+  <si>
+    <t>SaoJose_dosCampos_Brazil</t>
+  </si>
+  <si>
+    <t>Bankstown_Australia</t>
+  </si>
+  <si>
+    <t>Singapore_LandingSystems</t>
+  </si>
+  <si>
+    <t>Singapore_HeloEngines</t>
+  </si>
+  <si>
+    <t>Komsomolsk_Russia</t>
+  </si>
+  <si>
+    <t>Beijing_China</t>
+  </si>
+  <si>
+    <t>Suzhou_China_LandingSystems</t>
+  </si>
+  <si>
+    <t>Suzhou_China_AircraftEngines</t>
+  </si>
+  <si>
+    <t>Temara_Morocco</t>
+  </si>
+  <si>
+    <t>Burnley_UK</t>
+  </si>
+  <si>
+    <t>Gloucester_UK</t>
+  </si>
+  <si>
+    <t>Pitstone_Green_UK</t>
+  </si>
+  <si>
+    <t>Fareham_UK</t>
+  </si>
+  <si>
+    <t>Herstal_Belgium</t>
+  </si>
+  <si>
+    <t>Commercy_France</t>
+  </si>
+  <si>
+    <t>Florange_France</t>
+  </si>
+  <si>
+    <t>Molsheim_France</t>
+  </si>
+  <si>
+    <t>Vernon_France</t>
+  </si>
+  <si>
+    <t>Buchelay_France</t>
+  </si>
+  <si>
+    <t>Mantes_La_Ville_France</t>
+  </si>
+  <si>
+    <t>Eragny_France</t>
+  </si>
+  <si>
+    <t>Gennevilliers_France</t>
+  </si>
+  <si>
+    <t>Saint_Quentin_France</t>
+  </si>
+  <si>
+    <t>Massy_France</t>
+  </si>
+  <si>
+    <t>Fougeres_France</t>
+  </si>
+  <si>
+    <t>Montflucon_France</t>
+  </si>
+  <si>
+    <t>Chatellerault_France</t>
+  </si>
+  <si>
+    <t>Poitiers_France</t>
+  </si>
+  <si>
+    <t>Villeurbanne_France</t>
+  </si>
+  <si>
+    <t>Valence_France</t>
+  </si>
+  <si>
+    <t>Istres_France</t>
+  </si>
+  <si>
+    <t>Colomiers_France</t>
+  </si>
+  <si>
+    <t>Tarnos_France</t>
+  </si>
+  <si>
+    <t>Bidos_France</t>
+  </si>
+  <si>
+    <t>Hamburg_Germany_HeloEngines</t>
+  </si>
+  <si>
+    <t>Hamburg_Germany_Nacelles</t>
+  </si>
+  <si>
+    <t>GrandPrairie_TX_Helicopter_Engines</t>
+  </si>
+  <si>
+    <t>CostaMesa_CA_Avionics</t>
+  </si>
+  <si>
+    <t>Everett_WA_LandingSystems</t>
+  </si>
+  <si>
+    <t>Walton_KY_LandingSystems</t>
+  </si>
+  <si>
+    <t>Ashburn_VA_Vectronix</t>
+  </si>
+  <si>
+    <t>Toronto_Canada_LandingSystems</t>
+  </si>
+  <si>
+    <t>Bedfore_NH_Vectronix</t>
+  </si>
+  <si>
+    <t>Rochester_NH_AeroComposites</t>
+  </si>
+  <si>
+    <t>Queretaro_Mexico_LandingSystems</t>
+  </si>
+  <si>
+    <t>Chihuahua_Mexico_Eletrical_Power</t>
+  </si>
+  <si>
+    <t>Xerem_Brazil_Helicopter_Engines</t>
+  </si>
+  <si>
+    <t>Bankstown_Australia_Helicopter_Engines</t>
+  </si>
+  <si>
+    <t>Beijing_China_HeloEngines</t>
+  </si>
+  <si>
+    <t>Temara_Morocco_Power</t>
+  </si>
+  <si>
+    <t>Gloucester_UK_LandingSystems</t>
+  </si>
+  <si>
+    <t>Pitstone_Green_UK_Power</t>
+  </si>
+  <si>
+    <t>Fareham_UK_HeloEngines</t>
+  </si>
+  <si>
+    <t>Herstal_Belgium_AeroBoosters</t>
+  </si>
+  <si>
+    <t>Commercy_France_AeroComposite</t>
+  </si>
+  <si>
+    <t>Florange_France_Aerostructures</t>
+  </si>
+  <si>
+    <t>Molsheim_France_LandingSystems</t>
+  </si>
+  <si>
+    <t>Vernon_France_AcftEngines</t>
+  </si>
+  <si>
+    <t>Buchelay_France_HeloEngines</t>
+  </si>
+  <si>
+    <t>Gennevilliers_France_AcftEngines</t>
+  </si>
+  <si>
+    <t>Saint_Quentin_France_AcftEngines</t>
+  </si>
+  <si>
+    <t>Massy_France_Electronics</t>
+  </si>
+  <si>
+    <t>Fougeres_France_Electronics</t>
+  </si>
+  <si>
+    <t>Montflucon_France_Electronics</t>
+  </si>
+  <si>
+    <t>Chatellerault_France_AcftEngines</t>
+  </si>
+  <si>
+    <t>Poitiers_France_Electronics</t>
+  </si>
+  <si>
+    <t>Villeurbanne_France_LandingSystems</t>
+  </si>
+  <si>
+    <t>Valence_France_Electronics</t>
+  </si>
+  <si>
+    <t>Istres_France_AcftEngines</t>
+  </si>
+  <si>
+    <t>Colomiers_France_Nacelles</t>
+  </si>
+  <si>
+    <t>Tarnos_France_HeloEngines</t>
+  </si>
+  <si>
+    <t>Bidos_France_LandingSystems</t>
+  </si>
+  <si>
+    <t>Safran</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>Euronext Paris</t>
+  </si>
+  <si>
+    <t>safran</t>
+  </si>
+  <si>
+    <t>Negeri_Sembilan_Malaysia</t>
+  </si>
+  <si>
+    <t>Negeri_Sembilan_Malaysia_LandingSystems</t>
   </si>
 </sst>
 </file>
@@ -37924,7 +38185,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
@@ -38299,6 +38560,24 @@
         <v>1966</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D22" s="3">
+        <v>16</v>
+      </c>
+      <c r="E22" t="str">
+        <f>ParentCorp!B17</f>
+        <v>Safran</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -38306,10 +38585,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView topLeftCell="A204" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="J205" sqref="J205"/>
+    <sheetView topLeftCell="A273" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="J234" sqref="J234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45682,6 +45961,1606 @@
         <v>55</v>
       </c>
       <c r="I230" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" s="13">
+        <f>Location!A231</f>
+        <v>230</v>
+      </c>
+      <c r="B231" s="13">
+        <f>Location!B231</f>
+        <v>16</v>
+      </c>
+      <c r="C231" s="13" t="str">
+        <f>Location!C231</f>
+        <v>GrandPrairie_TX</v>
+      </c>
+      <c r="D231" s="16">
+        <v>100</v>
+      </c>
+      <c r="E231" s="16">
+        <v>90</v>
+      </c>
+      <c r="F231" s="16">
+        <v>80</v>
+      </c>
+      <c r="G231" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H231" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I231" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="13">
+        <f>Location!A232</f>
+        <v>231</v>
+      </c>
+      <c r="B232" s="13">
+        <f>Location!B232</f>
+        <v>16</v>
+      </c>
+      <c r="C232" s="13" t="str">
+        <f>Location!C232</f>
+        <v>CostaMesa_CA</v>
+      </c>
+      <c r="D232" s="16">
+        <v>100</v>
+      </c>
+      <c r="E232" s="16">
+        <v>90</v>
+      </c>
+      <c r="F232" s="16">
+        <v>80</v>
+      </c>
+      <c r="G232" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H232" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I232" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" s="13">
+        <f>Location!A233</f>
+        <v>232</v>
+      </c>
+      <c r="B233" s="13">
+        <f>Location!B233</f>
+        <v>16</v>
+      </c>
+      <c r="C233" s="13" t="str">
+        <f>Location!C233</f>
+        <v>Everett_WA</v>
+      </c>
+      <c r="D233" s="16">
+        <v>100</v>
+      </c>
+      <c r="E233" s="16">
+        <v>90</v>
+      </c>
+      <c r="F233" s="16">
+        <v>80</v>
+      </c>
+      <c r="G233" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H233" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I233" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" s="13">
+        <f>Location!A234</f>
+        <v>233</v>
+      </c>
+      <c r="B234" s="13">
+        <f>Location!B234</f>
+        <v>16</v>
+      </c>
+      <c r="C234" s="13" t="str">
+        <f>Location!C234</f>
+        <v>Walton_KY</v>
+      </c>
+      <c r="D234" s="16">
+        <v>100</v>
+      </c>
+      <c r="E234" s="16">
+        <v>90</v>
+      </c>
+      <c r="F234" s="16">
+        <v>80</v>
+      </c>
+      <c r="G234" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H234" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I234" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" s="13">
+        <f>Location!A235</f>
+        <v>234</v>
+      </c>
+      <c r="B235" s="13">
+        <f>Location!B235</f>
+        <v>16</v>
+      </c>
+      <c r="C235" s="13" t="str">
+        <f>Location!C235</f>
+        <v>Ashburn_VA</v>
+      </c>
+      <c r="D235" s="16">
+        <v>100</v>
+      </c>
+      <c r="E235" s="16">
+        <v>90</v>
+      </c>
+      <c r="F235" s="16">
+        <v>80</v>
+      </c>
+      <c r="G235" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H235" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I235" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" s="13">
+        <f>Location!A236</f>
+        <v>235</v>
+      </c>
+      <c r="B236" s="13">
+        <f>Location!B236</f>
+        <v>16</v>
+      </c>
+      <c r="C236" s="13" t="str">
+        <f>Location!C236</f>
+        <v>Toronto_Canada</v>
+      </c>
+      <c r="D236" s="16">
+        <v>100</v>
+      </c>
+      <c r="E236" s="16">
+        <v>90</v>
+      </c>
+      <c r="F236" s="16">
+        <v>80</v>
+      </c>
+      <c r="G236" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H236" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I236" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" s="13">
+        <f>Location!A237</f>
+        <v>236</v>
+      </c>
+      <c r="B237" s="13">
+        <f>Location!B237</f>
+        <v>16</v>
+      </c>
+      <c r="C237" s="13" t="str">
+        <f>Location!C237</f>
+        <v>Bedford_NH</v>
+      </c>
+      <c r="D237" s="16">
+        <v>100</v>
+      </c>
+      <c r="E237" s="16">
+        <v>90</v>
+      </c>
+      <c r="F237" s="16">
+        <v>80</v>
+      </c>
+      <c r="G237" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H237" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I237" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" s="13">
+        <f>Location!A238</f>
+        <v>237</v>
+      </c>
+      <c r="B238" s="13">
+        <f>Location!B238</f>
+        <v>16</v>
+      </c>
+      <c r="C238" s="13" t="str">
+        <f>Location!C238</f>
+        <v>Rochester_NH</v>
+      </c>
+      <c r="D238" s="16">
+        <v>100</v>
+      </c>
+      <c r="E238" s="16">
+        <v>90</v>
+      </c>
+      <c r="F238" s="16">
+        <v>80</v>
+      </c>
+      <c r="G238" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H238" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I238" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" s="13">
+        <f>Location!A239</f>
+        <v>238</v>
+      </c>
+      <c r="B239" s="13">
+        <f>Location!B239</f>
+        <v>16</v>
+      </c>
+      <c r="C239" s="13" t="str">
+        <f>Location!C239</f>
+        <v>Queretaro_Mexico</v>
+      </c>
+      <c r="D239" s="16">
+        <v>100</v>
+      </c>
+      <c r="E239" s="16">
+        <v>90</v>
+      </c>
+      <c r="F239" s="16">
+        <v>80</v>
+      </c>
+      <c r="G239" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H239" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I239" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" s="13">
+        <f>Location!A240</f>
+        <v>239</v>
+      </c>
+      <c r="B240" s="13">
+        <f>Location!B240</f>
+        <v>16</v>
+      </c>
+      <c r="C240" s="13" t="str">
+        <f>Location!C240</f>
+        <v>Chihuahua_Mexico</v>
+      </c>
+      <c r="D240" s="16">
+        <v>100</v>
+      </c>
+      <c r="E240" s="16">
+        <v>90</v>
+      </c>
+      <c r="F240" s="16">
+        <v>80</v>
+      </c>
+      <c r="G240" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H240" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I240" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" s="13">
+        <f>Location!A241</f>
+        <v>240</v>
+      </c>
+      <c r="B241" s="13">
+        <f>Location!B241</f>
+        <v>16</v>
+      </c>
+      <c r="C241" s="13" t="str">
+        <f>Location!C241</f>
+        <v>Xerem_Brazil</v>
+      </c>
+      <c r="D241" s="16">
+        <v>100</v>
+      </c>
+      <c r="E241" s="16">
+        <v>90</v>
+      </c>
+      <c r="F241" s="16">
+        <v>80</v>
+      </c>
+      <c r="G241" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H241" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I241" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" s="13">
+        <f>Location!A242</f>
+        <v>241</v>
+      </c>
+      <c r="B242" s="13">
+        <f>Location!B242</f>
+        <v>16</v>
+      </c>
+      <c r="C242" s="13" t="str">
+        <f>Location!C242</f>
+        <v>SaoJose_dosCampos_Brazil</v>
+      </c>
+      <c r="D242" s="16">
+        <v>100</v>
+      </c>
+      <c r="E242" s="16">
+        <v>90</v>
+      </c>
+      <c r="F242" s="16">
+        <v>80</v>
+      </c>
+      <c r="G242" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H242" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I242" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" s="13">
+        <f>Location!A243</f>
+        <v>242</v>
+      </c>
+      <c r="B243" s="13">
+        <f>Location!B243</f>
+        <v>16</v>
+      </c>
+      <c r="C243" s="13" t="str">
+        <f>Location!C243</f>
+        <v>Bankstown_Australia</v>
+      </c>
+      <c r="D243" s="16">
+        <v>100</v>
+      </c>
+      <c r="E243" s="16">
+        <v>90</v>
+      </c>
+      <c r="F243" s="16">
+        <v>80</v>
+      </c>
+      <c r="G243" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H243" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I243" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" s="13">
+        <f>Location!A244</f>
+        <v>243</v>
+      </c>
+      <c r="B244" s="13">
+        <f>Location!B244</f>
+        <v>16</v>
+      </c>
+      <c r="C244" s="13" t="str">
+        <f>Location!C244</f>
+        <v>Singapore_LandingSystems</v>
+      </c>
+      <c r="D244" s="16">
+        <v>100</v>
+      </c>
+      <c r="E244" s="16">
+        <v>90</v>
+      </c>
+      <c r="F244" s="16">
+        <v>80</v>
+      </c>
+      <c r="G244" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H244" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I244" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" s="13">
+        <f>Location!A245</f>
+        <v>244</v>
+      </c>
+      <c r="B245" s="13">
+        <f>Location!B245</f>
+        <v>16</v>
+      </c>
+      <c r="C245" s="13" t="str">
+        <f>Location!C245</f>
+        <v>Singapore_HeloEngines</v>
+      </c>
+      <c r="D245" s="16">
+        <v>100</v>
+      </c>
+      <c r="E245" s="16">
+        <v>90</v>
+      </c>
+      <c r="F245" s="16">
+        <v>80</v>
+      </c>
+      <c r="G245" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H245" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I245" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" s="13">
+        <f>Location!A246</f>
+        <v>245</v>
+      </c>
+      <c r="B246" s="13">
+        <f>Location!B246</f>
+        <v>16</v>
+      </c>
+      <c r="C246" s="13" t="str">
+        <f>Location!C246</f>
+        <v>Negeri_Sembilan_Malaysia</v>
+      </c>
+      <c r="D246" s="16">
+        <v>100</v>
+      </c>
+      <c r="E246" s="16">
+        <v>90</v>
+      </c>
+      <c r="F246" s="16">
+        <v>80</v>
+      </c>
+      <c r="G246" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H246" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I246" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" s="13">
+        <f>Location!A247</f>
+        <v>246</v>
+      </c>
+      <c r="B247" s="13">
+        <f>Location!B247</f>
+        <v>16</v>
+      </c>
+      <c r="C247" s="13" t="str">
+        <f>Location!C247</f>
+        <v>Komsomolsk_Russia</v>
+      </c>
+      <c r="D247" s="16">
+        <v>100</v>
+      </c>
+      <c r="E247" s="16">
+        <v>90</v>
+      </c>
+      <c r="F247" s="16">
+        <v>80</v>
+      </c>
+      <c r="G247" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H247" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I247" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" s="13">
+        <f>Location!A248</f>
+        <v>247</v>
+      </c>
+      <c r="B248" s="13">
+        <f>Location!B248</f>
+        <v>16</v>
+      </c>
+      <c r="C248" s="13" t="str">
+        <f>Location!C248</f>
+        <v>Beijing_China</v>
+      </c>
+      <c r="D248" s="16">
+        <v>100</v>
+      </c>
+      <c r="E248" s="16">
+        <v>90</v>
+      </c>
+      <c r="F248" s="16">
+        <v>80</v>
+      </c>
+      <c r="G248" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H248" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I248" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" s="13">
+        <f>Location!A249</f>
+        <v>248</v>
+      </c>
+      <c r="B249" s="13">
+        <f>Location!B249</f>
+        <v>16</v>
+      </c>
+      <c r="C249" s="13" t="str">
+        <f>Location!C249</f>
+        <v>Guizhou_China</v>
+      </c>
+      <c r="D249" s="16">
+        <v>100</v>
+      </c>
+      <c r="E249" s="16">
+        <v>90</v>
+      </c>
+      <c r="F249" s="16">
+        <v>80</v>
+      </c>
+      <c r="G249" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H249" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I249" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" s="13">
+        <f>Location!A250</f>
+        <v>249</v>
+      </c>
+      <c r="B250" s="13">
+        <f>Location!B250</f>
+        <v>16</v>
+      </c>
+      <c r="C250" s="13" t="str">
+        <f>Location!C250</f>
+        <v>Suzhou_China_LandingSystems</v>
+      </c>
+      <c r="D250" s="16">
+        <v>100</v>
+      </c>
+      <c r="E250" s="16">
+        <v>90</v>
+      </c>
+      <c r="F250" s="16">
+        <v>80</v>
+      </c>
+      <c r="G250" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H250" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I250" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" s="13">
+        <f>Location!A251</f>
+        <v>250</v>
+      </c>
+      <c r="B251" s="13">
+        <f>Location!B251</f>
+        <v>16</v>
+      </c>
+      <c r="C251" s="13" t="str">
+        <f>Location!C251</f>
+        <v>Suzhou_China_AircraftEngines</v>
+      </c>
+      <c r="D251" s="16">
+        <v>100</v>
+      </c>
+      <c r="E251" s="16">
+        <v>90</v>
+      </c>
+      <c r="F251" s="16">
+        <v>80</v>
+      </c>
+      <c r="G251" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H251" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I251" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252" s="13">
+        <f>Location!A252</f>
+        <v>251</v>
+      </c>
+      <c r="B252" s="13">
+        <f>Location!B252</f>
+        <v>16</v>
+      </c>
+      <c r="C252" s="13" t="str">
+        <f>Location!C252</f>
+        <v>Temara_Morocco</v>
+      </c>
+      <c r="D252" s="16">
+        <v>100</v>
+      </c>
+      <c r="E252" s="16">
+        <v>90</v>
+      </c>
+      <c r="F252" s="16">
+        <v>80</v>
+      </c>
+      <c r="G252" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H252" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I252" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" s="13">
+        <f>Location!A253</f>
+        <v>252</v>
+      </c>
+      <c r="B253" s="13">
+        <f>Location!B253</f>
+        <v>16</v>
+      </c>
+      <c r="C253" s="13" t="str">
+        <f>Location!C253</f>
+        <v>Casablanca_Morocco</v>
+      </c>
+      <c r="D253" s="16">
+        <v>100</v>
+      </c>
+      <c r="E253" s="16">
+        <v>90</v>
+      </c>
+      <c r="F253" s="16">
+        <v>80</v>
+      </c>
+      <c r="G253" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H253" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I253" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254" s="13">
+        <f>Location!A254</f>
+        <v>253</v>
+      </c>
+      <c r="B254" s="13">
+        <f>Location!B254</f>
+        <v>16</v>
+      </c>
+      <c r="C254" s="13" t="str">
+        <f>Location!C254</f>
+        <v>Burnley_UK</v>
+      </c>
+      <c r="D254" s="16">
+        <v>100</v>
+      </c>
+      <c r="E254" s="16">
+        <v>90</v>
+      </c>
+      <c r="F254" s="16">
+        <v>80</v>
+      </c>
+      <c r="G254" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H254" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I254" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" s="13">
+        <f>Location!A255</f>
+        <v>254</v>
+      </c>
+      <c r="B255" s="13">
+        <f>Location!B255</f>
+        <v>16</v>
+      </c>
+      <c r="C255" s="13" t="str">
+        <f>Location!C255</f>
+        <v>Gloucester_UK</v>
+      </c>
+      <c r="D255" s="16">
+        <v>100</v>
+      </c>
+      <c r="E255" s="16">
+        <v>90</v>
+      </c>
+      <c r="F255" s="16">
+        <v>80</v>
+      </c>
+      <c r="G255" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H255" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I255" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" s="13">
+        <f>Location!A256</f>
+        <v>255</v>
+      </c>
+      <c r="B256" s="13">
+        <f>Location!B256</f>
+        <v>16</v>
+      </c>
+      <c r="C256" s="13" t="str">
+        <f>Location!C256</f>
+        <v>Pitstone_Green_UK</v>
+      </c>
+      <c r="D256" s="16">
+        <v>100</v>
+      </c>
+      <c r="E256" s="16">
+        <v>90</v>
+      </c>
+      <c r="F256" s="16">
+        <v>80</v>
+      </c>
+      <c r="G256" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H256" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I256" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" s="13">
+        <f>Location!A257</f>
+        <v>256</v>
+      </c>
+      <c r="B257" s="13">
+        <f>Location!B257</f>
+        <v>16</v>
+      </c>
+      <c r="C257" s="13" t="str">
+        <f>Location!C257</f>
+        <v>Fareham_UK</v>
+      </c>
+      <c r="D257" s="16">
+        <v>100</v>
+      </c>
+      <c r="E257" s="16">
+        <v>90</v>
+      </c>
+      <c r="F257" s="16">
+        <v>80</v>
+      </c>
+      <c r="G257" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H257" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I257" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" s="13">
+        <f>Location!A258</f>
+        <v>257</v>
+      </c>
+      <c r="B258" s="13">
+        <f>Location!B258</f>
+        <v>16</v>
+      </c>
+      <c r="C258" s="13" t="str">
+        <f>Location!C258</f>
+        <v>Hamburg_Germany_HeloEngines</v>
+      </c>
+      <c r="D258" s="16">
+        <v>100</v>
+      </c>
+      <c r="E258" s="16">
+        <v>90</v>
+      </c>
+      <c r="F258" s="16">
+        <v>80</v>
+      </c>
+      <c r="G258" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H258" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I258" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" s="13">
+        <f>Location!A259</f>
+        <v>258</v>
+      </c>
+      <c r="B259" s="13">
+        <f>Location!B259</f>
+        <v>16</v>
+      </c>
+      <c r="C259" s="13" t="str">
+        <f>Location!C259</f>
+        <v>Hamburg_Germany_Nacelles</v>
+      </c>
+      <c r="D259" s="16">
+        <v>100</v>
+      </c>
+      <c r="E259" s="16">
+        <v>90</v>
+      </c>
+      <c r="F259" s="16">
+        <v>80</v>
+      </c>
+      <c r="G259" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H259" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I259" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260" s="13">
+        <f>Location!A260</f>
+        <v>259</v>
+      </c>
+      <c r="B260" s="13">
+        <f>Location!B260</f>
+        <v>16</v>
+      </c>
+      <c r="C260" s="13" t="str">
+        <f>Location!C260</f>
+        <v>Herstal_Belgium</v>
+      </c>
+      <c r="D260" s="16">
+        <v>100</v>
+      </c>
+      <c r="E260" s="16">
+        <v>90</v>
+      </c>
+      <c r="F260" s="16">
+        <v>80</v>
+      </c>
+      <c r="G260" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H260" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I260" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261" s="13">
+        <f>Location!A261</f>
+        <v>260</v>
+      </c>
+      <c r="B261" s="13">
+        <f>Location!B261</f>
+        <v>16</v>
+      </c>
+      <c r="C261" s="13" t="str">
+        <f>Location!C261</f>
+        <v>Commercy_France</v>
+      </c>
+      <c r="D261" s="16">
+        <v>100</v>
+      </c>
+      <c r="E261" s="16">
+        <v>90</v>
+      </c>
+      <c r="F261" s="16">
+        <v>80</v>
+      </c>
+      <c r="G261" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H261" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I261" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262" s="13">
+        <f>Location!A262</f>
+        <v>261</v>
+      </c>
+      <c r="B262" s="13">
+        <f>Location!B262</f>
+        <v>16</v>
+      </c>
+      <c r="C262" s="13" t="str">
+        <f>Location!C262</f>
+        <v>Florange_France</v>
+      </c>
+      <c r="D262" s="16">
+        <v>100</v>
+      </c>
+      <c r="E262" s="16">
+        <v>90</v>
+      </c>
+      <c r="F262" s="16">
+        <v>80</v>
+      </c>
+      <c r="G262" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H262" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I262" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263" s="13">
+        <f>Location!A263</f>
+        <v>262</v>
+      </c>
+      <c r="B263" s="13">
+        <f>Location!B263</f>
+        <v>16</v>
+      </c>
+      <c r="C263" s="13" t="str">
+        <f>Location!C263</f>
+        <v>Molsheim_France</v>
+      </c>
+      <c r="D263" s="16">
+        <v>100</v>
+      </c>
+      <c r="E263" s="16">
+        <v>90</v>
+      </c>
+      <c r="F263" s="16">
+        <v>80</v>
+      </c>
+      <c r="G263" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H263" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I263" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264" s="13">
+        <f>Location!A264</f>
+        <v>263</v>
+      </c>
+      <c r="B264" s="13">
+        <f>Location!B264</f>
+        <v>16</v>
+      </c>
+      <c r="C264" s="13" t="str">
+        <f>Location!C264</f>
+        <v>Vernon_France</v>
+      </c>
+      <c r="D264" s="16">
+        <v>100</v>
+      </c>
+      <c r="E264" s="16">
+        <v>90</v>
+      </c>
+      <c r="F264" s="16">
+        <v>80</v>
+      </c>
+      <c r="G264" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H264" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I264" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265" s="13">
+        <f>Location!A265</f>
+        <v>264</v>
+      </c>
+      <c r="B265" s="13">
+        <f>Location!B265</f>
+        <v>16</v>
+      </c>
+      <c r="C265" s="13" t="str">
+        <f>Location!C265</f>
+        <v>Buchelay_France</v>
+      </c>
+      <c r="D265" s="16">
+        <v>100</v>
+      </c>
+      <c r="E265" s="16">
+        <v>90</v>
+      </c>
+      <c r="F265" s="16">
+        <v>80</v>
+      </c>
+      <c r="G265" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H265" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I265" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266" s="13">
+        <f>Location!A266</f>
+        <v>265</v>
+      </c>
+      <c r="B266" s="13">
+        <f>Location!B266</f>
+        <v>16</v>
+      </c>
+      <c r="C266" s="13" t="str">
+        <f>Location!C266</f>
+        <v>Mantes_La_Ville_France</v>
+      </c>
+      <c r="D266" s="16">
+        <v>100</v>
+      </c>
+      <c r="E266" s="16">
+        <v>90</v>
+      </c>
+      <c r="F266" s="16">
+        <v>80</v>
+      </c>
+      <c r="G266" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H266" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I266" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" s="13">
+        <f>Location!A267</f>
+        <v>266</v>
+      </c>
+      <c r="B267" s="13">
+        <f>Location!B267</f>
+        <v>16</v>
+      </c>
+      <c r="C267" s="13" t="str">
+        <f>Location!C267</f>
+        <v>Eragny_France</v>
+      </c>
+      <c r="D267" s="16">
+        <v>100</v>
+      </c>
+      <c r="E267" s="16">
+        <v>90</v>
+      </c>
+      <c r="F267" s="16">
+        <v>80</v>
+      </c>
+      <c r="G267" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H267" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I267" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268" s="13">
+        <f>Location!A268</f>
+        <v>267</v>
+      </c>
+      <c r="B268" s="13">
+        <f>Location!B268</f>
+        <v>16</v>
+      </c>
+      <c r="C268" s="13" t="str">
+        <f>Location!C268</f>
+        <v>Gennevilliers_France</v>
+      </c>
+      <c r="D268" s="16">
+        <v>100</v>
+      </c>
+      <c r="E268" s="16">
+        <v>90</v>
+      </c>
+      <c r="F268" s="16">
+        <v>80</v>
+      </c>
+      <c r="G268" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H268" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I268" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269" s="13">
+        <f>Location!A269</f>
+        <v>268</v>
+      </c>
+      <c r="B269" s="13">
+        <f>Location!B269</f>
+        <v>16</v>
+      </c>
+      <c r="C269" s="13" t="str">
+        <f>Location!C269</f>
+        <v>Saint_Quentin_France</v>
+      </c>
+      <c r="D269" s="16">
+        <v>100</v>
+      </c>
+      <c r="E269" s="16">
+        <v>90</v>
+      </c>
+      <c r="F269" s="16">
+        <v>80</v>
+      </c>
+      <c r="G269" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H269" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I269" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" s="13">
+        <f>Location!A270</f>
+        <v>269</v>
+      </c>
+      <c r="B270" s="13">
+        <f>Location!B270</f>
+        <v>16</v>
+      </c>
+      <c r="C270" s="13" t="str">
+        <f>Location!C270</f>
+        <v>Massy_France</v>
+      </c>
+      <c r="D270" s="16">
+        <v>100</v>
+      </c>
+      <c r="E270" s="16">
+        <v>90</v>
+      </c>
+      <c r="F270" s="16">
+        <v>80</v>
+      </c>
+      <c r="G270" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H270" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I270" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271" s="13">
+        <f>Location!A271</f>
+        <v>270</v>
+      </c>
+      <c r="B271" s="13">
+        <f>Location!B271</f>
+        <v>16</v>
+      </c>
+      <c r="C271" s="13" t="str">
+        <f>Location!C271</f>
+        <v>Fougeres_France</v>
+      </c>
+      <c r="D271" s="16">
+        <v>100</v>
+      </c>
+      <c r="E271" s="16">
+        <v>90</v>
+      </c>
+      <c r="F271" s="16">
+        <v>80</v>
+      </c>
+      <c r="G271" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H271" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I271" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" s="13">
+        <f>Location!A272</f>
+        <v>271</v>
+      </c>
+      <c r="B272" s="13">
+        <f>Location!B272</f>
+        <v>16</v>
+      </c>
+      <c r="C272" s="13" t="str">
+        <f>Location!C272</f>
+        <v>Montflucon_France</v>
+      </c>
+      <c r="D272" s="16">
+        <v>100</v>
+      </c>
+      <c r="E272" s="16">
+        <v>90</v>
+      </c>
+      <c r="F272" s="16">
+        <v>80</v>
+      </c>
+      <c r="G272" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H272" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I272" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" s="13">
+        <f>Location!A273</f>
+        <v>272</v>
+      </c>
+      <c r="B273" s="13">
+        <f>Location!B273</f>
+        <v>16</v>
+      </c>
+      <c r="C273" s="13" t="str">
+        <f>Location!C273</f>
+        <v>Chatellerault_France</v>
+      </c>
+      <c r="D273" s="16">
+        <v>100</v>
+      </c>
+      <c r="E273" s="16">
+        <v>90</v>
+      </c>
+      <c r="F273" s="16">
+        <v>80</v>
+      </c>
+      <c r="G273" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H273" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I273" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274" s="13">
+        <f>Location!A274</f>
+        <v>273</v>
+      </c>
+      <c r="B274" s="13">
+        <f>Location!B274</f>
+        <v>16</v>
+      </c>
+      <c r="C274" s="13" t="str">
+        <f>Location!C274</f>
+        <v>Poitiers_France</v>
+      </c>
+      <c r="D274" s="16">
+        <v>100</v>
+      </c>
+      <c r="E274" s="16">
+        <v>90</v>
+      </c>
+      <c r="F274" s="16">
+        <v>80</v>
+      </c>
+      <c r="G274" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H274" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I274" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275" s="13">
+        <f>Location!A275</f>
+        <v>274</v>
+      </c>
+      <c r="B275" s="13">
+        <f>Location!B275</f>
+        <v>16</v>
+      </c>
+      <c r="C275" s="13" t="str">
+        <f>Location!C275</f>
+        <v>Villeurbanne_France</v>
+      </c>
+      <c r="D275" s="16">
+        <v>100</v>
+      </c>
+      <c r="E275" s="16">
+        <v>90</v>
+      </c>
+      <c r="F275" s="16">
+        <v>80</v>
+      </c>
+      <c r="G275" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H275" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I275" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276" s="13">
+        <f>Location!A276</f>
+        <v>275</v>
+      </c>
+      <c r="B276" s="13">
+        <f>Location!B276</f>
+        <v>16</v>
+      </c>
+      <c r="C276" s="13" t="str">
+        <f>Location!C276</f>
+        <v>Valence_France</v>
+      </c>
+      <c r="D276" s="16">
+        <v>100</v>
+      </c>
+      <c r="E276" s="16">
+        <v>90</v>
+      </c>
+      <c r="F276" s="16">
+        <v>80</v>
+      </c>
+      <c r="G276" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H276" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I276" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277" s="13">
+        <f>Location!A277</f>
+        <v>276</v>
+      </c>
+      <c r="B277" s="13">
+        <f>Location!B277</f>
+        <v>16</v>
+      </c>
+      <c r="C277" s="13" t="str">
+        <f>Location!C277</f>
+        <v>Istres_France</v>
+      </c>
+      <c r="D277" s="16">
+        <v>100</v>
+      </c>
+      <c r="E277" s="16">
+        <v>90</v>
+      </c>
+      <c r="F277" s="16">
+        <v>80</v>
+      </c>
+      <c r="G277" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H277" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I277" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278" s="13">
+        <f>Location!A278</f>
+        <v>277</v>
+      </c>
+      <c r="B278" s="13">
+        <f>Location!B278</f>
+        <v>16</v>
+      </c>
+      <c r="C278" s="13" t="str">
+        <f>Location!C278</f>
+        <v>Colomiers_France</v>
+      </c>
+      <c r="D278" s="16">
+        <v>100</v>
+      </c>
+      <c r="E278" s="16">
+        <v>90</v>
+      </c>
+      <c r="F278" s="16">
+        <v>80</v>
+      </c>
+      <c r="G278" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H278" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I278" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279" s="13">
+        <f>Location!A279</f>
+        <v>278</v>
+      </c>
+      <c r="B279" s="13">
+        <f>Location!B279</f>
+        <v>16</v>
+      </c>
+      <c r="C279" s="13" t="str">
+        <f>Location!C279</f>
+        <v>Tarnos_France</v>
+      </c>
+      <c r="D279" s="16">
+        <v>100</v>
+      </c>
+      <c r="E279" s="16">
+        <v>90</v>
+      </c>
+      <c r="F279" s="16">
+        <v>80</v>
+      </c>
+      <c r="G279" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H279" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I279" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280" s="13">
+        <f>Location!A280</f>
+        <v>279</v>
+      </c>
+      <c r="B280" s="13">
+        <f>Location!B280</f>
+        <v>16</v>
+      </c>
+      <c r="C280" s="13" t="str">
+        <f>Location!C280</f>
+        <v>Bidos_France</v>
+      </c>
+      <c r="D280" s="16">
+        <v>100</v>
+      </c>
+      <c r="E280" s="16">
+        <v>90</v>
+      </c>
+      <c r="F280" s="16">
+        <v>80</v>
+      </c>
+      <c r="G280" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="H280" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I280" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -67555,10 +69434,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67728,7 +69607,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -67824,7 +69703,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -67896,7 +69775,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -67944,6 +69823,30 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>ParentCorp!A17</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>ParentCorp!B17</f>
+        <v>Safran</v>
+      </c>
+      <c r="C17" t="str">
+        <f>ParentCorp!C17</f>
+        <v>Euronext Paris</v>
+      </c>
+      <c r="D17" t="str">
+        <f>ParentCorp!D17</f>
+        <v>SAF</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
@@ -69660,10 +71563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M230"/>
+  <dimension ref="A1:M280"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="F232" sqref="F232"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -77994,7 +79897,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
-        <f t="shared" ref="A199:A230" si="4">A198+1</f>
+        <f t="shared" ref="A199:A262" si="4">A198+1</f>
         <v>198</v>
       </c>
       <c r="B199" s="19">
@@ -79333,6 +81236,2106 @@
         <v>55</v>
       </c>
       <c r="M230" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A231" s="16">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="B231" s="16">
+        <v>16</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D231" s="16">
+        <v>-97.052869999999999</v>
+      </c>
+      <c r="E231" s="16">
+        <v>32.699784999999999</v>
+      </c>
+      <c r="F231" s="16" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G231" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H231" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I231" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J231" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K231" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L231" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M231" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A232" s="16">
+        <f t="shared" si="4"/>
+        <v>231</v>
+      </c>
+      <c r="B232" s="16">
+        <v>16</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D232" s="16">
+        <v>-117.872625</v>
+      </c>
+      <c r="E232" s="16">
+        <v>33.684592000000002</v>
+      </c>
+      <c r="F232" s="16" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G232" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H232" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I232" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J232" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K232" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L232" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M232" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A233" s="16">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="B233" s="16">
+        <v>16</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D233" s="16">
+        <v>-122.24647899999999</v>
+      </c>
+      <c r="E233" s="16">
+        <v>47.930019000000001</v>
+      </c>
+      <c r="F233" s="16" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G233" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H233" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I233" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J233" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K233" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L233" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M233" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A234" s="16">
+        <f t="shared" si="4"/>
+        <v>233</v>
+      </c>
+      <c r="B234" s="16">
+        <v>16</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D234" s="16">
+        <v>-84.609566999999998</v>
+      </c>
+      <c r="E234" s="16">
+        <v>38.923580000000001</v>
+      </c>
+      <c r="F234" s="16" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G234" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H234" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I234" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J234" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K234" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L234" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M234" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A235" s="16">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="B235" s="16">
+        <v>16</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D235" s="16">
+        <v>-77.487328000000005</v>
+      </c>
+      <c r="E235" s="16">
+        <v>39.069634999999998</v>
+      </c>
+      <c r="F235" s="16" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G235" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H235" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I235" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J235" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K235" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L235" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M235" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A236" s="16">
+        <f t="shared" si="4"/>
+        <v>235</v>
+      </c>
+      <c r="B236" s="16">
+        <v>16</v>
+      </c>
+      <c r="C236" s="16" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D236" s="16">
+        <v>-79.024158</v>
+      </c>
+      <c r="E236" s="16">
+        <v>43.835935999999997</v>
+      </c>
+      <c r="F236" s="16" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G236" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H236" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I236" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J236" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K236" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L236" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M236" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A237" s="16">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="B237" s="16">
+        <v>16</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D237" s="16">
+        <v>-71.508251000000001</v>
+      </c>
+      <c r="E237" s="16">
+        <v>42.961101999999997</v>
+      </c>
+      <c r="F237" s="16" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G237" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H237" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I237" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J237" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K237" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L237" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M237" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A238" s="16">
+        <f t="shared" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="B238" s="16">
+        <v>16</v>
+      </c>
+      <c r="C238" s="16" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D238" s="16">
+        <v>-70.914761999999996</v>
+      </c>
+      <c r="E238" s="16">
+        <v>43.282378000000001</v>
+      </c>
+      <c r="F238" s="16" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G238" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H238" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I238" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J238" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K238" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L238" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M238" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A239" s="16">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="B239" s="16">
+        <v>16</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D239" s="16">
+        <v>-100.167277</v>
+      </c>
+      <c r="E239" s="16">
+        <v>20.618442999999999</v>
+      </c>
+      <c r="F239" s="16" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G239" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H239" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I239" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J239" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K239" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L239" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M239" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A240" s="16">
+        <f t="shared" si="4"/>
+        <v>239</v>
+      </c>
+      <c r="B240" s="16">
+        <v>16</v>
+      </c>
+      <c r="C240" s="16" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D240" s="16">
+        <v>-106.11589600000001</v>
+      </c>
+      <c r="E240" s="16">
+        <v>28.715803999999999</v>
+      </c>
+      <c r="F240" s="16" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G240" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H240" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I240" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J240" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K240" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L240" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M240" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A241" s="16">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="B241" s="16">
+        <v>16</v>
+      </c>
+      <c r="C241" s="16" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D241" s="16">
+        <v>-43.300623999999999</v>
+      </c>
+      <c r="E241" s="16">
+        <v>-22.61393</v>
+      </c>
+      <c r="F241" s="16" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G241" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H241" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I241" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J241" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K241" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L241" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M241" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242" s="16">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="B242" s="16">
+        <v>16</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D242" s="16">
+        <v>-45.952769000000004</v>
+      </c>
+      <c r="E242" s="16">
+        <v>-23.208466999999999</v>
+      </c>
+      <c r="F242" s="16" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G242" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H242" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I242" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J242" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K242" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L242" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M242" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A243" s="16">
+        <f t="shared" si="4"/>
+        <v>242</v>
+      </c>
+      <c r="B243" s="16">
+        <v>16</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D243" s="16">
+        <v>150.99613500000001</v>
+      </c>
+      <c r="E243" s="16">
+        <v>-33.923194000000002</v>
+      </c>
+      <c r="F243" s="16" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G243" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H243" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I243" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J243" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K243" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L243" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M243" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244" s="16">
+        <f t="shared" si="4"/>
+        <v>243</v>
+      </c>
+      <c r="B244" s="16">
+        <v>16</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D244" s="16">
+        <v>103.9708</v>
+      </c>
+      <c r="E244" s="16">
+        <v>1.3827210000000001</v>
+      </c>
+      <c r="F244" s="16" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G244" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H244" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I244" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J244" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K244" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L244" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M244" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" s="16">
+        <f t="shared" si="4"/>
+        <v>244</v>
+      </c>
+      <c r="B245" s="16">
+        <v>16</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D245" s="16">
+        <v>103.857985</v>
+      </c>
+      <c r="E245" s="16">
+        <v>1.4028670000000001</v>
+      </c>
+      <c r="F245" s="16" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G245" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H245" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I245" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J245" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K245" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L245" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M245" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246" s="16">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="B246" s="16">
+        <v>16</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D246" s="16">
+        <v>101.831389</v>
+      </c>
+      <c r="E246" s="16">
+        <v>2.6761219999999999</v>
+      </c>
+      <c r="F246" s="16" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G246" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H246" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I246" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J246" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K246" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L246" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M246" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A247" s="16">
+        <f t="shared" si="4"/>
+        <v>246</v>
+      </c>
+      <c r="B247" s="16">
+        <v>16</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D247" s="16">
+        <v>137.03008600000001</v>
+      </c>
+      <c r="E247" s="16">
+        <v>50.538521000000003</v>
+      </c>
+      <c r="F247" s="16" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G247" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H247" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I247" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J247" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K247" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L247" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M247" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A248" s="16">
+        <f t="shared" si="4"/>
+        <v>247</v>
+      </c>
+      <c r="B248" s="16">
+        <v>16</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D248" s="16">
+        <v>116.460798</v>
+      </c>
+      <c r="E248" s="16">
+        <v>39.950358999999999</v>
+      </c>
+      <c r="F248" s="16" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G248" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H248" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I248" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J248" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K248" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L248" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M248" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A249" s="16">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="B249" s="16">
+        <v>16</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D249" s="16">
+        <v>106.628068</v>
+      </c>
+      <c r="E249" s="16">
+        <v>26.618995999999999</v>
+      </c>
+      <c r="F249" s="16" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G249" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H249" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I249" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J249" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K249" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L249" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M249" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250" s="16">
+        <f t="shared" si="4"/>
+        <v>249</v>
+      </c>
+      <c r="B250" s="16">
+        <v>16</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D250" s="16">
+        <v>120.836454</v>
+      </c>
+      <c r="E250" s="16">
+        <v>31.339154000000001</v>
+      </c>
+      <c r="F250" s="16" t="s">
+        <v>1986</v>
+      </c>
+      <c r="G250" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H250" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I250" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J250" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K250" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L250" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M250" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251" s="16">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="B251" s="16">
+        <v>16</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D251" s="16">
+        <v>120.33216899999999</v>
+      </c>
+      <c r="E251" s="16">
+        <v>31.586589</v>
+      </c>
+      <c r="F251" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G251" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H251" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I251" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J251" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K251" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L251" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M251" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A252" s="16">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="B252" s="16">
+        <v>16</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D252" s="16">
+        <v>-6.8972420000000003</v>
+      </c>
+      <c r="E252" s="16">
+        <v>33.930509000000001</v>
+      </c>
+      <c r="F252" s="16" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G252" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H252" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I252" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J252" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K252" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L252" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M252" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A253" s="16">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="B253" s="16">
+        <v>16</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D253" s="16">
+        <v>-7.5748610000000003</v>
+      </c>
+      <c r="E253" s="16">
+        <v>33.368747999999997</v>
+      </c>
+      <c r="F253" s="16" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G253" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H253" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I253" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J253" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K253" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L253" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M253" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A254" s="16">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="B254" s="16">
+        <v>16</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D254" s="16">
+        <v>-2.21936</v>
+      </c>
+      <c r="E254" s="16">
+        <v>53.801454</v>
+      </c>
+      <c r="F254" s="16" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G254" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H254" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I254" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J254" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K254" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L254" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M254" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255" s="16">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="B255" s="16">
+        <v>16</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D255" s="16">
+        <v>-2.1738179999999998</v>
+      </c>
+      <c r="E255" s="16">
+        <v>51.898057000000001</v>
+      </c>
+      <c r="F255" s="16" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G255" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H255" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I255" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J255" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K255" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L255" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M255" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A256" s="16">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="B256" s="16">
+        <v>16</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D256" s="16">
+        <v>-0.64873499999999995</v>
+      </c>
+      <c r="E256" s="16">
+        <v>51.828142999999997</v>
+      </c>
+      <c r="F256" s="16" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G256" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H256" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I256" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J256" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K256" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L256" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M256" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257" s="16">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="B257" s="16">
+        <v>16</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D257" s="16">
+        <v>-1.248904</v>
+      </c>
+      <c r="E257" s="16">
+        <v>50.871502999999997</v>
+      </c>
+      <c r="F257" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G257" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H257" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I257" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J257" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K257" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L257" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M257" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258" s="16">
+        <f t="shared" si="4"/>
+        <v>257</v>
+      </c>
+      <c r="B258" s="16">
+        <v>16</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D258" s="16">
+        <v>9.9832900000000002</v>
+      </c>
+      <c r="E258" s="16">
+        <v>53.604832999999999</v>
+      </c>
+      <c r="F258" s="16" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G258" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H258" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I258" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J258" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K258" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L258" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M258" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A259" s="16">
+        <f t="shared" si="4"/>
+        <v>258</v>
+      </c>
+      <c r="B259" s="16">
+        <v>16</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D259" s="16">
+        <v>9.9061859999999999</v>
+      </c>
+      <c r="E259" s="16">
+        <v>53.478997999999997</v>
+      </c>
+      <c r="F259" s="16" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G259" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H259" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I259" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J259" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K259" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L259" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M259" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A260" s="16">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="B260" s="16">
+        <v>16</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D260" s="16">
+        <v>5.5824860000000003</v>
+      </c>
+      <c r="E260" s="16">
+        <v>50.686290999999997</v>
+      </c>
+      <c r="F260" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G260" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H260" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I260" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J260" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K260" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L260" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M260" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A261" s="16">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="B261" s="16">
+        <v>16</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D261" s="16">
+        <v>5.600193</v>
+      </c>
+      <c r="E261" s="16">
+        <v>48.748761000000002</v>
+      </c>
+      <c r="F261" s="16" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G261" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H261" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I261" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J261" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K261" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L261" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M261" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A262" s="16">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="B262" s="16">
+        <v>16</v>
+      </c>
+      <c r="C262" s="16" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D262" s="16">
+        <v>6.1279640000000004</v>
+      </c>
+      <c r="E262" s="16">
+        <v>49.314391000000001</v>
+      </c>
+      <c r="F262" s="16" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G262" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H262" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I262" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J262" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K262" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L262" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M262" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A263" s="16">
+        <f t="shared" ref="A263:A280" si="5">A262+1</f>
+        <v>262</v>
+      </c>
+      <c r="B263" s="16">
+        <v>16</v>
+      </c>
+      <c r="C263" s="16" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D263" s="16">
+        <v>7.5030140000000003</v>
+      </c>
+      <c r="E263" s="16">
+        <v>48.531860000000002</v>
+      </c>
+      <c r="F263" s="16" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G263" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H263" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I263" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J263" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K263" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L263" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M263" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A264" s="16">
+        <f t="shared" si="5"/>
+        <v>263</v>
+      </c>
+      <c r="B264" s="16">
+        <v>16</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D264" s="16">
+        <v>1.497584</v>
+      </c>
+      <c r="E264" s="16">
+        <v>49.110956999999999</v>
+      </c>
+      <c r="F264" s="16" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G264" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H264" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I264" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J264" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K264" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L264" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M264" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A265" s="16">
+        <f t="shared" si="5"/>
+        <v>264</v>
+      </c>
+      <c r="B265" s="16">
+        <v>16</v>
+      </c>
+      <c r="C265" s="16" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D265" s="16">
+        <v>1.6670259999999999</v>
+      </c>
+      <c r="E265" s="16">
+        <v>48.990408000000002</v>
+      </c>
+      <c r="F265" s="16" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G265" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H265" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I265" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J265" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K265" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L265" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M265" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A266" s="16">
+        <f t="shared" si="5"/>
+        <v>265</v>
+      </c>
+      <c r="B266" s="16">
+        <v>16</v>
+      </c>
+      <c r="C266" s="16" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D266" s="16">
+        <v>1.7081360000000001</v>
+      </c>
+      <c r="E266" s="16">
+        <v>48.982239</v>
+      </c>
+      <c r="F266" s="16" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G266" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H266" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I266" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J266" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K266" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L266" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M266" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A267" s="16">
+        <f t="shared" si="5"/>
+        <v>266</v>
+      </c>
+      <c r="B267" s="16">
+        <v>16</v>
+      </c>
+      <c r="C267" s="16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D267" s="16">
+        <v>2.111132</v>
+      </c>
+      <c r="E267" s="16">
+        <v>49.026496000000002</v>
+      </c>
+      <c r="F267" s="16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G267" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H267" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I267" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J267" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K267" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L267" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M267" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A268" s="16">
+        <f t="shared" si="5"/>
+        <v>267</v>
+      </c>
+      <c r="B268" s="16">
+        <v>16</v>
+      </c>
+      <c r="C268" s="16" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D268" s="16">
+        <v>2.2572420000000002</v>
+      </c>
+      <c r="E268" s="16">
+        <v>48.937874000000001</v>
+      </c>
+      <c r="F268" s="16" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G268" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H268" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I268" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J268" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K268" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L268" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M268" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A269" s="16">
+        <f t="shared" si="5"/>
+        <v>268</v>
+      </c>
+      <c r="B269" s="16">
+        <v>16</v>
+      </c>
+      <c r="C269" s="16" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D269" s="16">
+        <v>2.0669759999999999</v>
+      </c>
+      <c r="E269" s="16">
+        <v>48.754483</v>
+      </c>
+      <c r="F269" s="16" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G269" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H269" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I269" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J269" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K269" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L269" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M269" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A270" s="16">
+        <f t="shared" si="5"/>
+        <v>269</v>
+      </c>
+      <c r="B270" s="16">
+        <v>16</v>
+      </c>
+      <c r="C270" s="16" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D270" s="16">
+        <v>2.2665130000000002</v>
+      </c>
+      <c r="E270" s="16">
+        <v>48.724623000000001</v>
+      </c>
+      <c r="F270" s="16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G270" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H270" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I270" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J270" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K270" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L270" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M270" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A271" s="16">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="B271" s="16">
+        <v>16</v>
+      </c>
+      <c r="C271" s="16" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D271" s="16">
+        <v>-1.1792</v>
+      </c>
+      <c r="E271" s="16">
+        <v>48.341538</v>
+      </c>
+      <c r="F271" s="16" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G271" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H271" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I271" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J271" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K271" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L271" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M271" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A272" s="16">
+        <f t="shared" si="5"/>
+        <v>271</v>
+      </c>
+      <c r="B272" s="16">
+        <v>16</v>
+      </c>
+      <c r="C272" s="16" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D272" s="16">
+        <v>2.5782180000000001</v>
+      </c>
+      <c r="E272" s="16">
+        <v>46.364280000000001</v>
+      </c>
+      <c r="F272" s="16" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G272" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H272" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I272" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J272" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K272" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L272" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M272" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A273" s="16">
+        <f t="shared" si="5"/>
+        <v>272</v>
+      </c>
+      <c r="B273" s="16">
+        <v>16</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D273" s="16">
+        <v>0.54775700000000005</v>
+      </c>
+      <c r="E273" s="16">
+        <v>46.847375999999997</v>
+      </c>
+      <c r="F273" s="16" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G273" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H273" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I273" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J273" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K273" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L273" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M273" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A274" s="16">
+        <f t="shared" si="5"/>
+        <v>273</v>
+      </c>
+      <c r="B274" s="16">
+        <v>16</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D274" s="16">
+        <v>0.33130100000000001</v>
+      </c>
+      <c r="E274" s="16">
+        <v>46.551630000000003</v>
+      </c>
+      <c r="F274" s="16" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G274" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H274" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I274" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J274" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K274" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L274" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M274" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A275" s="16">
+        <f t="shared" si="5"/>
+        <v>274</v>
+      </c>
+      <c r="B275" s="16">
+        <v>16</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D275" s="16">
+        <v>4.9124780000000001</v>
+      </c>
+      <c r="E275" s="16">
+        <v>45.757010999999999</v>
+      </c>
+      <c r="F275" s="16" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G275" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H275" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I275" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J275" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K275" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L275" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M275" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A276" s="16">
+        <f t="shared" si="5"/>
+        <v>275</v>
+      </c>
+      <c r="B276" s="16">
+        <v>16</v>
+      </c>
+      <c r="C276" s="16" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D276" s="16">
+        <v>4.9202700000000004</v>
+      </c>
+      <c r="E276" s="16">
+        <v>44.939267000000001</v>
+      </c>
+      <c r="F276" s="16" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G276" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H276" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I276" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J276" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K276" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L276" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M276" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A277" s="16">
+        <f t="shared" si="5"/>
+        <v>276</v>
+      </c>
+      <c r="B277" s="16">
+        <v>16</v>
+      </c>
+      <c r="C277" s="16" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D277" s="16">
+        <v>4.9298409999999997</v>
+      </c>
+      <c r="E277" s="16">
+        <v>43.524590000000003</v>
+      </c>
+      <c r="F277" s="16" t="s">
+        <v>2048</v>
+      </c>
+      <c r="G277" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H277" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I277" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J277" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K277" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L277" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M277" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A278" s="16">
+        <f t="shared" si="5"/>
+        <v>277</v>
+      </c>
+      <c r="B278" s="16">
+        <v>16</v>
+      </c>
+      <c r="C278" s="16" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D278" s="16">
+        <v>1.3462460000000001</v>
+      </c>
+      <c r="E278" s="16">
+        <v>43.624940000000002</v>
+      </c>
+      <c r="F278" s="16" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G278" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H278" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I278" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J278" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K278" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L278" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M278" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279" s="16">
+        <f t="shared" si="5"/>
+        <v>278</v>
+      </c>
+      <c r="B279" s="16">
+        <v>16</v>
+      </c>
+      <c r="C279" s="16" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D279" s="16">
+        <v>-1.494318</v>
+      </c>
+      <c r="E279" s="16">
+        <v>43.547445000000003</v>
+      </c>
+      <c r="F279" s="16" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G279" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H279" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I279" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J279" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K279" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L279" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M279" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A280" s="16">
+        <f t="shared" si="5"/>
+        <v>279</v>
+      </c>
+      <c r="B280" s="16">
+        <v>16</v>
+      </c>
+      <c r="C280" s="16" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D280" s="16">
+        <v>-0.60818099999999997</v>
+      </c>
+      <c r="E280" s="16">
+        <v>43.179895000000002</v>
+      </c>
+      <c r="F280" s="16" t="s">
+        <v>2051</v>
+      </c>
+      <c r="G280" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H280" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I280" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J280" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K280" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L280" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M280" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -79344,10 +83347,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79580,6 +83583,20 @@
       </c>
       <c r="D16" t="s">
         <v>1967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2053</v>
       </c>
     </row>
   </sheetData>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="2940" windowWidth="31460" windowHeight="17980" tabRatio="723" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="880" yWindow="2940" windowWidth="31460" windowHeight="17980" tabRatio="723" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17121" uniqueCount="2058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17138" uniqueCount="2060">
   <si>
     <t>LocationID</t>
   </si>
@@ -5072,9 +5072,6 @@
     <t>0;500;1000;1500;2000;2500;3000;3500;4000;4500;5000</t>
   </si>
   <si>
-    <t>asset value for this DF is scope1-3 total emissions in tons</t>
-  </si>
-  <si>
     <t>df_carbonprice</t>
   </si>
   <si>
@@ -5861,9 +5858,6 @@
     <t>HMC</t>
   </si>
   <si>
-    <t>ClearPath_1</t>
-  </si>
-  <si>
     <t>Puebla_Mexico</t>
   </si>
   <si>
@@ -6216,6 +6210,18 @@
   </si>
   <si>
     <t>Negeri_Sembilan_Malaysia_LandingSystems</t>
+  </si>
+  <si>
+    <t>df_type</t>
+  </si>
+  <si>
+    <t>asset value for this DF is scope1-3 total emissions in Mtons</t>
+  </si>
+  <si>
+    <t>ClearPath_Core</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
 </sst>
 </file>
@@ -38251,13 +38257,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -38269,10 +38275,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>126</v>
@@ -38323,13 +38329,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
@@ -38341,234 +38347,234 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D10" s="3">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C11" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1768</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1769</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D13" s="3">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D15" s="3">
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C16" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D17" s="3">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D18" s="3">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D19" s="3">
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="D20" s="3">
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="D21" s="3">
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
@@ -38587,7 +38593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+    <sheetView topLeftCell="A156" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
       <selection activeCell="J234" sqref="J234"/>
     </sheetView>
   </sheetViews>
@@ -47573,8 +47579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47636,7 +47642,7 @@
         <v>191</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>192</v>
@@ -47671,7 +47677,7 @@
         <v>196</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>192</v>
@@ -47706,7 +47712,7 @@
         <v>198</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>192</v>
@@ -47732,16 +47738,16 @@
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>192</v>
@@ -47759,7 +47765,7 @@
         <v>194</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>55</v>
@@ -47767,16 +47773,16 @@
     </row>
     <row r="6" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>192</v>
@@ -47794,7 +47800,7 @@
         <v>194</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>55</v>
@@ -47826,7 +47832,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>203</v>
@@ -47861,7 +47867,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>205</v>
@@ -47896,7 +47902,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>207</v>
@@ -47907,13 +47913,13 @@
     </row>
     <row r="10" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>201</v>
@@ -47931,10 +47937,10 @@
         <v>9</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>55</v>
@@ -47942,13 +47948,13 @@
     </row>
     <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>201</v>
@@ -47966,10 +47972,10 @@
         <v>9</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>55</v>
@@ -48001,7 +48007,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>210</v>
@@ -48036,7 +48042,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>212</v>
@@ -48071,7 +48077,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>214</v>
@@ -48082,13 +48088,13 @@
     </row>
     <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>209</v>
@@ -48106,10 +48112,10 @@
         <v>12</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>55</v>
@@ -48117,13 +48123,13 @@
     </row>
     <row r="16" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>209</v>
@@ -48141,10 +48147,10 @@
         <v>12</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>55</v>
@@ -48292,7 +48298,7 @@
     </row>
     <row r="21" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>1671</v>
@@ -48307,7 +48313,7 @@
         <v>1674</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>1674</v>
@@ -48322,7 +48328,7 @@
         <v>1675</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1676</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="64" x14ac:dyDescent="0.2">
@@ -69205,10 +69211,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.25">
@@ -69216,7 +69222,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D2" s="11"/>
     </row>
@@ -69226,7 +69232,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -69235,7 +69241,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -69244,7 +69250,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -69253,7 +69259,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -69262,7 +69268,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -69271,7 +69277,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -69280,7 +69286,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -69289,7 +69295,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -69298,7 +69304,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -69307,7 +69313,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
   </sheetData>
@@ -69330,10 +69336,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1" t="s">
         <v>1719</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.25">
@@ -69342,7 +69348,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D2" s="11"/>
     </row>
@@ -69352,7 +69358,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -69361,7 +69367,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -69370,7 +69376,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -69379,7 +69385,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -69388,7 +69394,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -69397,7 +69403,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -69406,7 +69412,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -69415,7 +69421,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -69423,7 +69429,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
   </sheetData>
@@ -69434,15 +69440,18 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>ParentCorp!A1</f>
         <v>ParentCorpID</v>
@@ -69460,13 +69469,16 @@
         <v>TickerSymbol</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2058</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ParentCorp!A2</f>
         <v>1</v>
@@ -69489,8 +69501,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>ParentCorp!A3</f>
         <v>2</v>
@@ -69513,8 +69528,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>ParentCorp!A4</f>
         <v>3</v>
@@ -69537,8 +69555,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>ParentCorp!A5</f>
         <v>4</v>
@@ -69561,8 +69582,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>ParentCorp!A6</f>
         <v>5</v>
@@ -69585,8 +69609,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>ParentCorp!A7</f>
         <v>6</v>
@@ -69609,8 +69636,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>ParentCorp!A8</f>
         <v>7</v>
@@ -69633,8 +69663,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>ParentCorp!A9</f>
         <v>8</v>
@@ -69657,8 +69690,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>ParentCorp!A10</f>
         <v>9</v>
@@ -69681,8 +69717,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>ParentCorp!A11</f>
         <v>10</v>
@@ -69705,8 +69744,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>ParentCorp!A12</f>
         <v>11</v>
@@ -69729,8 +69771,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>ParentCorp!A13</f>
         <v>12</v>
@@ -69753,8 +69798,11 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>ParentCorp!A14</f>
         <v>13</v>
@@ -69777,8 +69825,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>ParentCorp!A15</f>
         <v>14</v>
@@ -69801,8 +69852,11 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>ParentCorp!A16</f>
         <v>15</v>
@@ -69825,8 +69879,11 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>ParentCorp!A17</f>
         <v>16</v>
@@ -69847,6 +69904,9 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
     </row>
@@ -69874,19 +69934,19 @@
   <sheetData>
     <row r="3" spans="1:6" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1835</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>1836</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>1837</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1849</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1838</v>
       </c>
     </row>
   </sheetData>
@@ -71565,7 +71625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView topLeftCell="A241" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
@@ -71610,7 +71670,7 @@
         <v>49</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>182</v>
@@ -71651,7 +71711,7 @@
         <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K2" t="s">
         <v>55</v>
@@ -71693,7 +71753,7 @@
         <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K3" t="s">
         <v>55</v>
@@ -71735,7 +71795,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K4" t="s">
         <v>55</v>
@@ -71777,7 +71837,7 @@
         <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K5" t="s">
         <v>55</v>
@@ -71819,7 +71879,7 @@
         <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K6" t="s">
         <v>55</v>
@@ -71861,7 +71921,7 @@
         <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K7" t="s">
         <v>55</v>
@@ -71903,7 +71963,7 @@
         <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K8" t="s">
         <v>55</v>
@@ -71945,7 +72005,7 @@
         <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K9" t="s">
         <v>55</v>
@@ -71987,7 +72047,7 @@
         <v>54</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>55</v>
@@ -72029,7 +72089,7 @@
         <v>54</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>55</v>
@@ -72071,7 +72131,7 @@
         <v>54</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>55</v>
@@ -72113,7 +72173,7 @@
         <v>54</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>55</v>
@@ -72155,7 +72215,7 @@
         <v>54</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>55</v>
@@ -72197,7 +72257,7 @@
         <v>54</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>55</v>
@@ -72239,7 +72299,7 @@
         <v>54</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>55</v>
@@ -72281,7 +72341,7 @@
         <v>54</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>55</v>
@@ -72323,7 +72383,7 @@
         <v>54</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>55</v>
@@ -72365,7 +72425,7 @@
         <v>54</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>55</v>
@@ -72407,7 +72467,7 @@
         <v>54</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>55</v>
@@ -72449,7 +72509,7 @@
         <v>54</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>55</v>
@@ -72491,7 +72551,7 @@
         <v>54</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>55</v>
@@ -72533,7 +72593,7 @@
         <v>54</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>55</v>
@@ -72575,7 +72635,7 @@
         <v>54</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>55</v>
@@ -72617,7 +72677,7 @@
         <v>54</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>55</v>
@@ -72659,7 +72719,7 @@
         <v>54</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>55</v>
@@ -72701,7 +72761,7 @@
         <v>54</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>55</v>
@@ -72743,7 +72803,7 @@
         <v>54</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>55</v>
@@ -72785,7 +72845,7 @@
         <v>54</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>55</v>
@@ -72827,7 +72887,7 @@
         <v>54</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>55</v>
@@ -72869,7 +72929,7 @@
         <v>54</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>55</v>
@@ -72911,7 +72971,7 @@
         <v>54</v>
       </c>
       <c r="J32" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K32" t="s">
         <v>55</v>
@@ -72953,7 +73013,7 @@
         <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K33" t="s">
         <v>55</v>
@@ -72995,7 +73055,7 @@
         <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K34" t="s">
         <v>55</v>
@@ -73037,7 +73097,7 @@
         <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K35" t="s">
         <v>55</v>
@@ -73079,7 +73139,7 @@
         <v>54</v>
       </c>
       <c r="J36" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K36" t="s">
         <v>55</v>
@@ -73121,7 +73181,7 @@
         <v>54</v>
       </c>
       <c r="J37" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K37" t="s">
         <v>55</v>
@@ -73163,7 +73223,7 @@
         <v>54</v>
       </c>
       <c r="J38" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K38" t="s">
         <v>55</v>
@@ -73205,7 +73265,7 @@
         <v>54</v>
       </c>
       <c r="J39" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K39" t="s">
         <v>55</v>
@@ -73247,7 +73307,7 @@
         <v>54</v>
       </c>
       <c r="J40" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K40" t="s">
         <v>55</v>
@@ -73289,7 +73349,7 @@
         <v>54</v>
       </c>
       <c r="J41" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K41" t="s">
         <v>55</v>
@@ -73331,7 +73391,7 @@
         <v>54</v>
       </c>
       <c r="J42" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K42" t="s">
         <v>55</v>
@@ -73373,7 +73433,7 @@
         <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K43" t="s">
         <v>55</v>
@@ -73415,7 +73475,7 @@
         <v>54</v>
       </c>
       <c r="J44" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K44" t="s">
         <v>55</v>
@@ -73457,7 +73517,7 @@
         <v>54</v>
       </c>
       <c r="J45" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K45" t="s">
         <v>55</v>
@@ -73499,7 +73559,7 @@
         <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K46" t="s">
         <v>55</v>
@@ -73520,7 +73580,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D47">
         <v>103.5973</v>
@@ -73529,7 +73589,7 @@
         <v>1.6446000000000001</v>
       </c>
       <c r="F47" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -73541,7 +73601,7 @@
         <v>54</v>
       </c>
       <c r="J47" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K47" t="s">
         <v>55</v>
@@ -73562,7 +73622,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D48" s="15">
         <v>-47.368454999999997</v>
@@ -73571,7 +73631,7 @@
         <v>-23.427205000000001</v>
       </c>
       <c r="F48" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
@@ -73583,7 +73643,7 @@
         <v>54</v>
       </c>
       <c r="J48" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K48" t="s">
         <v>55</v>
@@ -73604,7 +73664,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D49">
         <v>103.6439</v>
@@ -73613,7 +73673,7 @@
         <v>1.5014000000000001</v>
       </c>
       <c r="F49" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G49" t="s">
         <v>52</v>
@@ -73625,7 +73685,7 @@
         <v>54</v>
       </c>
       <c r="J49" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K49" t="s">
         <v>55</v>
@@ -73646,7 +73706,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D50">
         <v>5.9749999999999996</v>
@@ -73655,7 +73715,7 @@
         <v>51.524999999999999</v>
       </c>
       <c r="F50" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -73667,7 +73727,7 @@
         <v>54</v>
       </c>
       <c r="J50" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K50" t="s">
         <v>55</v>
@@ -73688,7 +73748,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D51">
         <v>103.75</v>
@@ -73697,7 +73757,7 @@
         <v>1.4666669999999999</v>
       </c>
       <c r="F51" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G51" t="s">
         <v>52</v>
@@ -73709,7 +73769,7 @@
         <v>54</v>
       </c>
       <c r="J51" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K51" t="s">
         <v>55</v>
@@ -73730,7 +73790,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D52" s="13">
         <v>152.97045510000001</v>
@@ -73739,7 +73799,7 @@
         <v>-27.499605800000001</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>52</v>
@@ -73751,7 +73811,7 @@
         <v>54</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K52" s="13" t="s">
         <v>55</v>
@@ -73772,7 +73832,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D53" s="13">
         <v>153.4258423</v>
@@ -73781,7 +73841,7 @@
         <v>-28.036514</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>52</v>
@@ -73793,7 +73853,7 @@
         <v>59</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K53" s="13" t="s">
         <v>55</v>
@@ -73814,7 +73874,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D54" s="13">
         <v>153.02070330000001</v>
@@ -73823,7 +73883,7 @@
         <v>-27.4786392</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>52</v>
@@ -73835,7 +73895,7 @@
         <v>54</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>55</v>
@@ -73856,7 +73916,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D55" s="13">
         <v>153.00675190000001</v>
@@ -73865,7 +73925,7 @@
         <v>-27.4695483</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>52</v>
@@ -73877,7 +73937,7 @@
         <v>54</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K55" s="13" t="s">
         <v>55</v>
@@ -73898,7 +73958,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D56" s="13">
         <v>151.11832659999999</v>
@@ -73907,7 +73967,7 @@
         <v>-33.776747299999997</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>52</v>
@@ -73919,7 +73979,7 @@
         <v>54</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K56" s="13" t="s">
         <v>55</v>
@@ -73940,7 +74000,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D57" s="13">
         <v>151.20993540000001</v>
@@ -73949,7 +74009,7 @@
         <v>-33.862573900000001</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>52</v>
@@ -73961,7 +74021,7 @@
         <v>59</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K57" s="13" t="s">
         <v>55</v>
@@ -73982,7 +74042,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D58" s="13">
         <v>144.94720839999999</v>
@@ -73991,7 +74051,7 @@
         <v>-37.817371000000001</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>52</v>
@@ -74003,7 +74063,7 @@
         <v>59</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>55</v>
@@ -74024,7 +74084,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D59" s="13">
         <v>145.02497679999999</v>
@@ -74033,7 +74093,7 @@
         <v>-37.862842499999999</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>52</v>
@@ -74045,7 +74105,7 @@
         <v>54</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>55</v>
@@ -74066,7 +74126,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D60" s="13">
         <v>115.8564435</v>
@@ -74075,7 +74135,7 @@
         <v>-31.956254000000001</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>52</v>
@@ -74087,7 +74147,7 @@
         <v>59</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K60" s="13" t="s">
         <v>55</v>
@@ -74108,7 +74168,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D61" s="13">
         <v>115.83374139999999</v>
@@ -74117,7 +74177,7 @@
         <v>-32.0339551</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>52</v>
@@ -74129,7 +74189,7 @@
         <v>59</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>55</v>
@@ -74150,7 +74210,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D62" s="13">
         <v>172.66268930000001</v>
@@ -74159,7 +74219,7 @@
         <v>-43.507471099999997</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>52</v>
@@ -74171,7 +74231,7 @@
         <v>54</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K62" s="13" t="s">
         <v>55</v>
@@ -74192,7 +74252,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D63">
         <v>-88.881460000000004</v>
@@ -74201,7 +74261,7 @@
         <v>40.743369999999999</v>
       </c>
       <c r="F63" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G63" t="s">
         <v>52</v>
@@ -74213,7 +74273,7 @@
         <v>54</v>
       </c>
       <c r="J63" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K63" t="s">
         <v>55</v>
@@ -74234,7 +74294,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D64">
         <v>-94.067030000000003</v>
@@ -74243,7 +74303,7 @@
         <v>44.034590000000001</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="G64" t="s">
         <v>52</v>
@@ -74255,7 +74315,7 @@
         <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K64" t="s">
         <v>55</v>
@@ -74276,7 +74336,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D65">
         <v>-119.01871</v>
@@ -74285,7 +74345,7 @@
         <v>35.373289999999997</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G65" t="s">
         <v>52</v>
@@ -74297,7 +74357,7 @@
         <v>54</v>
       </c>
       <c r="J65" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K65" t="s">
         <v>55</v>
@@ -74318,7 +74378,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D66">
         <v>-93.909700000000001</v>
@@ -74327,7 +74387,7 @@
         <v>45.66469</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G66" t="s">
         <v>52</v>
@@ -74339,7 +74399,7 @@
         <v>54</v>
       </c>
       <c r="J66" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K66" t="s">
         <v>55</v>
@@ -74360,7 +74420,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D67" s="4">
         <v>-88.070993000000001</v>
@@ -74369,7 +74429,7 @@
         <v>30.634657000000001</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>52</v>
@@ -74381,7 +74441,7 @@
         <v>54</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K67" s="13" t="s">
         <v>55</v>
@@ -74402,7 +74462,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D68" s="13">
         <v>-88.427260000000004</v>
@@ -74411,7 +74471,7 @@
         <v>33.495669999999997</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>52</v>
@@ -74423,7 +74483,7 @@
         <v>54</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K68" s="13" t="s">
         <v>55</v>
@@ -74444,7 +74504,7 @@
         <v>6</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D69" s="13">
         <v>-96.997780000000006</v>
@@ -74453,7 +74513,7 @@
         <v>32.745959999999997</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>52</v>
@@ -74465,7 +74525,7 @@
         <v>54</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>55</v>
@@ -74486,7 +74546,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D70" s="13">
         <v>-84.387979999999999</v>
@@ -74495,7 +74555,7 @@
         <v>33.749000000000002</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>52</v>
@@ -74507,7 +74567,7 @@
         <v>54</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K70" s="13" t="s">
         <v>55</v>
@@ -74528,7 +74588,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D71" s="4">
         <v>-80.268231</v>
@@ -74537,7 +74597,7 @@
         <v>25.809275</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>52</v>
@@ -74549,7 +74609,7 @@
         <v>54</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K71" s="13" t="s">
         <v>55</v>
@@ -74570,7 +74630,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D72" s="13">
         <v>-77.487489999999994</v>
@@ -74579,7 +74639,7 @@
         <v>39.04372</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>52</v>
@@ -74591,7 +74651,7 @@
         <v>54</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K72" s="13" t="s">
         <v>55</v>
@@ -74612,7 +74672,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D73" s="13">
         <v>10.01534</v>
@@ -74621,7 +74681,7 @@
         <v>53.575319999999998</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>52</v>
@@ -74633,7 +74693,7 @@
         <v>54</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K73" s="13" t="s">
         <v>55</v>
@@ -74654,7 +74714,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D74" s="13">
         <v>117.17667</v>
@@ -74663,7 +74723,7 @@
         <v>39.142220000000002</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>52</v>
@@ -74675,7 +74735,7 @@
         <v>54</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K74" s="13" t="s">
         <v>55</v>
@@ -74696,7 +74756,7 @@
         <v>6</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D75" s="13">
         <v>1.44367</v>
@@ -74705,7 +74765,7 @@
         <v>43.604259999999996</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>52</v>
@@ -74717,7 +74777,7 @@
         <v>54</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K75" s="13" t="s">
         <v>55</v>
@@ -74738,7 +74798,7 @@
         <v>6</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D76" s="13">
         <v>-100.38333</v>
@@ -74747,7 +74807,7 @@
         <v>20.6</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>52</v>
@@ -74759,7 +74819,7 @@
         <v>54</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>55</v>
@@ -74780,7 +74840,7 @@
         <v>6</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D77" s="13">
         <v>-45.452779999999997</v>
@@ -74789,7 +74849,7 @@
         <v>-22.425560000000001</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>52</v>
@@ -74801,7 +74861,7 @@
         <v>54</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K77" s="13" t="s">
         <v>55</v>
@@ -74822,7 +74882,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D78" s="13">
         <v>-46.636110000000002</v>
@@ -74831,7 +74891,7 @@
         <v>-23.547499999999999</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>52</v>
@@ -74843,7 +74903,7 @@
         <v>54</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K78" s="13" t="s">
         <v>55</v>
@@ -74864,7 +74924,7 @@
         <v>6</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D79" s="13">
         <v>-43.207500000000003</v>
@@ -74873,7 +74933,7 @@
         <v>-22.90278</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>52</v>
@@ -74885,7 +74945,7 @@
         <v>54</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K79" s="13" t="s">
         <v>55</v>
@@ -74906,7 +74966,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D80" s="13">
         <v>-47.75</v>
@@ -74915,7 +74975,7 @@
         <v>-15.75</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>52</v>
@@ -74927,7 +74987,7 @@
         <v>54</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K80" s="13" t="s">
         <v>55</v>
@@ -74948,7 +75008,7 @@
         <v>6</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D81" s="13">
         <v>-0.76666999999999996</v>
@@ -74957,7 +75017,7 @@
         <v>52.366669999999999</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>52</v>
@@ -74969,7 +75029,7 @@
         <v>54</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K81" s="13" t="s">
         <v>55</v>
@@ -74990,7 +75050,7 @@
         <v>6</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D82" s="13">
         <v>-2.5966499999999999</v>
@@ -74999,7 +75059,7 @@
         <v>51.45523</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>52</v>
@@ -75011,7 +75071,7 @@
         <v>54</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K82" s="13" t="s">
         <v>55</v>
@@ -75032,7 +75092,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D83" s="13">
         <v>9.4762900000000005</v>
@@ -75041,7 +75101,7 @@
         <v>53.59337</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>52</v>
@@ -75053,7 +75113,7 @@
         <v>54</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K83" s="13" t="s">
         <v>55</v>
@@ -75074,7 +75134,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D84" s="13">
         <v>8.7906300000000002</v>
@@ -75083,7 +75143,7 @@
         <v>53.088909999999998</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>52</v>
@@ -75095,7 +75155,7 @@
         <v>54</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K84" s="13" t="s">
         <v>55</v>
@@ -75116,7 +75176,7 @@
         <v>6</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D85" s="13">
         <v>10.779299999999999</v>
@@ -75125,7 +75185,7 @@
         <v>48.718040000000002</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>52</v>
@@ -75137,7 +75197,7 @@
         <v>54</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K85" s="13" t="s">
         <v>55</v>
@@ -75158,7 +75218,7 @@
         <v>6</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D86" s="13">
         <v>-1.5533600000000001</v>
@@ -75167,7 +75227,7 @@
         <v>47.21725</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>52</v>
@@ -75179,7 +75239,7 @@
         <v>54</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K86" s="13" t="s">
         <v>55</v>
@@ -75200,7 +75260,7 @@
         <v>6</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D87" s="4">
         <v>5.2327349999999999</v>
@@ -75209,7 +75269,7 @@
         <v>43.436746999999997</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>52</v>
@@ -75221,7 +75281,7 @@
         <v>54</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K87" s="13" t="s">
         <v>55</v>
@@ -75242,7 +75302,7 @@
         <v>6</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D88" s="4">
         <v>-3.7082769999999998</v>
@@ -75251,7 +75311,7 @@
         <v>40.303933000000001</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>52</v>
@@ -75263,7 +75323,7 @@
         <v>54</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>55</v>
@@ -75284,7 +75344,7 @@
         <v>6</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D89" s="13">
         <v>-5.9761300000000004</v>
@@ -75293,7 +75353,7 @@
         <v>37.38241</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G89" s="13" t="s">
         <v>52</v>
@@ -75305,7 +75365,7 @@
         <v>54</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K89" s="13" t="s">
         <v>55</v>
@@ -75326,7 +75386,7 @@
         <v>6</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D90" s="13">
         <v>-7.6113799999999996</v>
@@ -75335,7 +75395,7 @@
         <v>33.58831</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G90" s="13" t="s">
         <v>52</v>
@@ -75347,7 +75407,7 @@
         <v>54</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K90" s="13" t="s">
         <v>55</v>
@@ -75368,7 +75428,7 @@
         <v>6</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D91" s="13">
         <v>173.9528</v>
@@ -75377,7 +75437,7 @@
         <v>-41.516030000000001</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>52</v>
@@ -75389,7 +75449,7 @@
         <v>54</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K91" s="13" t="s">
         <v>55</v>
@@ -75410,7 +75470,7 @@
         <v>6</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D92" s="13">
         <v>153.02808999999999</v>
@@ -75419,7 +75479,7 @@
         <v>-27.467939999999999</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G92" s="13" t="s">
         <v>52</v>
@@ -75431,7 +75491,7 @@
         <v>54</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K92" s="13" t="s">
         <v>55</v>
@@ -75452,7 +75512,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D93" s="13">
         <v>46.721850000000003</v>
@@ -75461,7 +75521,7 @@
         <v>24.687729999999998</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G93" s="13" t="s">
         <v>52</v>
@@ -75473,7 +75533,7 @@
         <v>54</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K93" s="13" t="s">
         <v>55</v>
@@ -75494,7 +75554,7 @@
         <v>6</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D94" s="13">
         <v>49.658259999999999</v>
@@ -75503,7 +75563,7 @@
         <v>27.011220000000002</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G94" s="13" t="s">
         <v>52</v>
@@ -75515,7 +75575,7 @@
         <v>54</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K94" s="13" t="s">
         <v>55</v>
@@ -75536,7 +75596,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D95" s="4">
         <v>-54.599297</v>
@@ -75545,7 +75605,7 @@
         <v>-20.498802000000001</v>
       </c>
       <c r="F95" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G95" t="s">
         <v>52</v>
@@ -75557,7 +75617,7 @@
         <v>54</v>
       </c>
       <c r="J95" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K95" t="s">
         <v>55</v>
@@ -75578,7 +75638,7 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D96">
         <v>-43.937779999999997</v>
@@ -75587,7 +75647,7 @@
         <v>-19.920829999999999</v>
       </c>
       <c r="F96" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G96" t="s">
         <v>52</v>
@@ -75599,7 +75659,7 @@
         <v>54</v>
       </c>
       <c r="J96" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K96" t="s">
         <v>55</v>
@@ -75620,7 +75680,7 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D97">
         <v>-44.290280000000003</v>
@@ -75629,7 +75689,7 @@
         <v>-22.419720000000002</v>
       </c>
       <c r="F97" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G97" t="s">
         <v>52</v>
@@ -75641,7 +75701,7 @@
         <v>54</v>
       </c>
       <c r="J97" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K97" t="s">
         <v>55</v>
@@ -75662,7 +75722,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D98">
         <v>-46.188330000000001</v>
@@ -75671,7 +75731,7 @@
         <v>-23.522780000000001</v>
       </c>
       <c r="F98" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G98" t="s">
         <v>52</v>
@@ -75683,7 +75743,7 @@
         <v>54</v>
       </c>
       <c r="J98" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K98" t="s">
         <v>55</v>
@@ -75704,7 +75764,7 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D99">
         <v>-46.884169999999997</v>
@@ -75713,7 +75773,7 @@
         <v>-23.186389999999999</v>
       </c>
       <c r="F99" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="G99" t="s">
         <v>52</v>
@@ -75725,7 +75785,7 @@
         <v>54</v>
       </c>
       <c r="J99" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K99" t="s">
         <v>55</v>
@@ -75746,7 +75806,7 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D100" s="4">
         <v>-46.696429100000003</v>
@@ -75755,7 +75815,7 @@
         <v>-23.671403300000001</v>
       </c>
       <c r="F100" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G100" t="s">
         <v>52</v>
@@ -75767,7 +75827,7 @@
         <v>54</v>
       </c>
       <c r="J100" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K100" t="s">
         <v>55</v>
@@ -75788,7 +75848,7 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D101">
         <v>-49.273060000000001</v>
@@ -75797,7 +75857,7 @@
         <v>-25.427779999999998</v>
       </c>
       <c r="F101" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G101" t="s">
         <v>52</v>
@@ -75809,7 +75869,7 @@
         <v>54</v>
       </c>
       <c r="J101" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K101" t="s">
         <v>55</v>
@@ -75830,7 +75890,7 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D102">
         <v>-51.938609999999997</v>
@@ -75839,7 +75899,7 @@
         <v>-23.425280000000001</v>
       </c>
       <c r="F102" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G102" t="s">
         <v>52</v>
@@ -75851,7 +75911,7 @@
         <v>54</v>
       </c>
       <c r="J102" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K102" t="s">
         <v>55</v>
@@ -75872,7 +75932,7 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D103">
         <v>-49.945830000000001</v>
@@ -75881,7 +75941,7 @@
         <v>-22.213889999999999</v>
       </c>
       <c r="F103" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G103" t="s">
         <v>52</v>
@@ -75893,7 +75953,7 @@
         <v>54</v>
       </c>
       <c r="J103" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K103" t="s">
         <v>55</v>
@@ -75914,7 +75974,7 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D104">
         <v>-49.060560000000002</v>
@@ -75923,7 +75983,7 @@
         <v>-22.314720000000001</v>
       </c>
       <c r="F104" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G104" t="s">
         <v>52</v>
@@ -75935,7 +75995,7 @@
         <v>54</v>
       </c>
       <c r="J104" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K104" t="s">
         <v>55</v>
@@ -75956,7 +76016,7 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D105">
         <v>-92.638189999999994</v>
@@ -75965,7 +76025,7 @@
         <v>16.737880000000001</v>
       </c>
       <c r="F105" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G105" t="s">
         <v>52</v>
@@ -75977,7 +76037,7 @@
         <v>54</v>
       </c>
       <c r="J105" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K105" t="s">
         <v>55</v>
@@ -75998,7 +76058,7 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D106">
         <v>-92.930279999999996</v>
@@ -76007,7 +76067,7 @@
         <v>17.986889999999999</v>
       </c>
       <c r="F106" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G106" t="s">
         <v>52</v>
@@ -76019,7 +76079,7 @@
         <v>54</v>
       </c>
       <c r="J106" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K106" t="s">
         <v>55</v>
@@ -76040,7 +76100,7 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D107">
         <v>-96.960260000000005</v>
@@ -76049,7 +76109,7 @@
         <v>19.453790000000001</v>
       </c>
       <c r="F107" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G107" t="s">
         <v>52</v>
@@ -76061,7 +76121,7 @@
         <v>54</v>
       </c>
       <c r="J107" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K107" t="s">
         <v>55</v>
@@ -76082,7 +76142,7 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D108" s="4">
         <v>-97.460137000000003</v>
@@ -76091,7 +76151,7 @@
         <v>20.501138000000001</v>
       </c>
       <c r="F108" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G108" t="s">
         <v>52</v>
@@ -76103,7 +76163,7 @@
         <v>54</v>
       </c>
       <c r="J108" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K108" t="s">
         <v>55</v>
@@ -76124,7 +76184,7 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D109">
         <v>-98.14358</v>
@@ -76133,7 +76193,7 @@
         <v>19.413329999999998</v>
       </c>
       <c r="F109" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G109" t="s">
         <v>52</v>
@@ -76145,7 +76205,7 @@
         <v>54</v>
       </c>
       <c r="J109" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K109" t="s">
         <v>55</v>
@@ -76166,7 +76226,7 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D110">
         <v>-101.66801</v>
@@ -76175,7 +76235,7 @@
         <v>21.121310000000001</v>
       </c>
       <c r="F110" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G110" t="s">
         <v>52</v>
@@ -76187,7 +76247,7 @@
         <v>54</v>
       </c>
       <c r="J110" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K110" t="s">
         <v>55</v>
@@ -76208,7 +76268,7 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D111">
         <v>-100.38330000000001</v>
@@ -76217,7 +76277,7 @@
         <v>20.6</v>
       </c>
       <c r="F111" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G111" t="s">
         <v>52</v>
@@ -76229,7 +76289,7 @@
         <v>54</v>
       </c>
       <c r="J111" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K111" t="s">
         <v>55</v>
@@ -76250,7 +76310,7 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D112">
         <v>-99.734780000000001</v>
@@ -76259,7 +76319,7 @@
         <v>19.28501</v>
       </c>
       <c r="F112" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G112" t="s">
         <v>52</v>
@@ -76271,7 +76331,7 @@
         <v>54</v>
       </c>
       <c r="J112" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K112" t="s">
         <v>55</v>
@@ -76292,7 +76352,7 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D113">
         <v>-98.055319999999995</v>
@@ -76301,7 +76361,7 @@
         <v>16.338470000000001</v>
       </c>
       <c r="F113" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G113" t="s">
         <v>52</v>
@@ -76313,7 +76373,7 @@
         <v>54</v>
       </c>
       <c r="J113" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K113" t="s">
         <v>55</v>
@@ -76334,7 +76394,7 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D114">
         <v>-99.226460000000003</v>
@@ -76343,7 +76403,7 @@
         <v>18.94201</v>
       </c>
       <c r="F114" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G114" t="s">
         <v>52</v>
@@ -76355,7 +76415,7 @@
         <v>54</v>
       </c>
       <c r="J114" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K114" t="s">
         <v>55</v>
@@ -76376,7 +76436,7 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D115" s="4">
         <v>-98.977176999999998</v>
@@ -76385,7 +76445,7 @@
         <v>19.358535</v>
       </c>
       <c r="F115" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G115" t="s">
         <v>52</v>
@@ -76397,7 +76457,7 @@
         <v>54</v>
       </c>
       <c r="J115" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K115" t="s">
         <v>55</v>
@@ -76418,7 +76478,7 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D116">
         <v>-99.215980000000002</v>
@@ -76427,7 +76487,7 @@
         <v>19.643879999999999</v>
       </c>
       <c r="F116" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G116" t="s">
         <v>52</v>
@@ -76439,7 +76499,7 @@
         <v>54</v>
       </c>
       <c r="J116" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K116" t="s">
         <v>55</v>
@@ -76460,7 +76520,7 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D117">
         <v>-99.223699999999994</v>
@@ -76469,7 +76529,7 @@
         <v>19.719809999999999</v>
       </c>
       <c r="F117" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G117" t="s">
         <v>52</v>
@@ -76481,7 +76541,7 @@
         <v>54</v>
       </c>
       <c r="J117" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K117" t="s">
         <v>55</v>
@@ -76502,7 +76562,7 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D118" s="4">
         <v>-97.891381999999993</v>
@@ -76511,7 +76571,7 @@
         <v>22.375734000000001</v>
       </c>
       <c r="F118" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G118" t="s">
         <v>52</v>
@@ -76523,7 +76583,7 @@
         <v>54</v>
       </c>
       <c r="J118" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K118" t="s">
         <v>55</v>
@@ -76544,7 +76604,7 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D119">
         <v>-101.18443000000001</v>
@@ -76553,7 +76613,7 @@
         <v>19.700780000000002</v>
       </c>
       <c r="F119" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G119" t="s">
         <v>52</v>
@@ -76565,7 +76625,7 @@
         <v>54</v>
       </c>
       <c r="J119" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K119" t="s">
         <v>55</v>
@@ -76586,7 +76646,7 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D120">
         <v>-99.293880000000001</v>
@@ -76595,7 +76655,7 @@
         <v>19.359929999999999</v>
       </c>
       <c r="F120" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G120" t="s">
         <v>52</v>
@@ -76607,7 +76667,7 @@
         <v>54</v>
       </c>
       <c r="J120" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K120" t="s">
         <v>55</v>
@@ -76628,7 +76688,7 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D121">
         <v>-99.653239999999997</v>
@@ -76637,7 +76697,7 @@
         <v>19.287859999999998</v>
       </c>
       <c r="F121" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G121" t="s">
         <v>52</v>
@@ -76649,7 +76709,7 @@
         <v>54</v>
       </c>
       <c r="J121" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K121" t="s">
         <v>55</v>
@@ -76670,7 +76730,7 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D122">
         <v>-73.91301</v>
@@ -76679,7 +76739,7 @@
         <v>4.9653099999999997</v>
       </c>
       <c r="F122" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G122" t="s">
         <v>52</v>
@@ -76691,7 +76751,7 @@
         <v>54</v>
       </c>
       <c r="J122" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K122" t="s">
         <v>55</v>
@@ -76712,7 +76772,7 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D123">
         <v>-74.05</v>
@@ -76721,7 +76781,7 @@
         <v>9.3333300000000001</v>
       </c>
       <c r="F123" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G123" t="s">
         <v>52</v>
@@ -76733,7 +76793,7 @@
         <v>54</v>
       </c>
       <c r="J123" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K123" t="s">
         <v>55</v>
@@ -76754,7 +76814,7 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D124">
         <v>-74.781319999999994</v>
@@ -76763,7 +76823,7 @@
         <v>10.968540000000001</v>
       </c>
       <c r="F124" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G124" t="s">
         <v>52</v>
@@ -76775,7 +76835,7 @@
         <v>54</v>
       </c>
       <c r="J124" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K124" t="s">
         <v>55</v>
@@ -76796,7 +76856,7 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D125">
         <v>-73.119799999999998</v>
@@ -76805,7 +76865,7 @@
         <v>7.1253900000000003</v>
       </c>
       <c r="F125" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G125" t="s">
         <v>52</v>
@@ -76817,7 +76877,7 @@
         <v>54</v>
       </c>
       <c r="J125" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K125" t="s">
         <v>55</v>
@@ -76838,7 +76898,7 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D126">
         <v>-75.563590000000005</v>
@@ -76847,7 +76907,7 @@
         <v>6.2518399999999996</v>
       </c>
       <c r="F126" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G126" t="s">
         <v>52</v>
@@ -76859,7 +76919,7 @@
         <v>54</v>
       </c>
       <c r="J126" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K126" t="s">
         <v>55</v>
@@ -76880,7 +76940,7 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D127">
         <v>-76.522499999999994</v>
@@ -76889,7 +76949,7 @@
         <v>3.4372199999999999</v>
       </c>
       <c r="F127" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G127" t="s">
         <v>52</v>
@@ -76901,7 +76961,7 @@
         <v>54</v>
       </c>
       <c r="J127" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K127" t="s">
         <v>55</v>
@@ -76922,7 +76982,7 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D128">
         <v>-74.08175</v>
@@ -76931,7 +76991,7 @@
         <v>4.6097099999999998</v>
       </c>
       <c r="F128" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G128" t="s">
         <v>52</v>
@@ -76943,7 +77003,7 @@
         <v>54</v>
       </c>
       <c r="J128" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K128" t="s">
         <v>55</v>
@@ -76964,7 +77024,7 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D129">
         <v>120.52079999999999</v>
@@ -76973,7 +77033,7 @@
         <v>16.97917</v>
       </c>
       <c r="F129" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G129" t="s">
         <v>52</v>
@@ -76985,7 +77045,7 @@
         <v>54</v>
       </c>
       <c r="J129" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K129" t="s">
         <v>55</v>
@@ -77006,7 +77066,7 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D130">
         <v>122.06667</v>
@@ -77015,7 +77075,7 @@
         <v>17.16667</v>
       </c>
       <c r="F130" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G130" t="s">
         <v>52</v>
@@ -77027,7 +77087,7 @@
         <v>54</v>
       </c>
       <c r="J130" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K130" t="s">
         <v>55</v>
@@ -77048,7 +77108,7 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D131">
         <v>120.68980000000001</v>
@@ -77057,7 +77117,7 @@
         <v>15.028600000000001</v>
       </c>
       <c r="F131" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G131" t="s">
         <v>52</v>
@@ -77069,7 +77129,7 @@
         <v>54</v>
       </c>
       <c r="J131" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K131" t="s">
         <v>55</v>
@@ -77090,7 +77150,7 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D132">
         <v>120.96083</v>
@@ -77099,7 +77159,7 @@
         <v>14.736940000000001</v>
       </c>
       <c r="F132" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G132" t="s">
         <v>52</v>
@@ -77111,7 +77171,7 @@
         <v>54</v>
       </c>
       <c r="J132" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K132" t="s">
         <v>55</v>
@@ -77132,7 +77192,7 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D133">
         <v>123.18333</v>
@@ -77141,7 +77201,7 @@
         <v>13.616669999999999</v>
       </c>
       <c r="F133" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G133" t="s">
         <v>52</v>
@@ -77153,7 +77213,7 @@
         <v>54</v>
       </c>
       <c r="J133" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K133" t="s">
         <v>55</v>
@@ -77174,7 +77234,7 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D134" s="17">
         <v>125</v>
@@ -77183,7 +77243,7 @@
         <v>11.25</v>
       </c>
       <c r="F134" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G134" t="s">
         <v>52</v>
@@ -77195,7 +77255,7 @@
         <v>54</v>
       </c>
       <c r="J134" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K134" t="s">
         <v>55</v>
@@ -77216,7 +77276,7 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D135">
         <v>123.93333</v>
@@ -77225,7 +77285,7 @@
         <v>10.33333</v>
       </c>
       <c r="F135" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G135" t="s">
         <v>52</v>
@@ -77237,7 +77297,7 @@
         <v>54</v>
       </c>
       <c r="J135" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K135" t="s">
         <v>55</v>
@@ -77258,7 +77318,7 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D136">
         <v>122.95</v>
@@ -77267,7 +77327,7 @@
         <v>10.66667</v>
       </c>
       <c r="F136" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G136" t="s">
         <v>52</v>
@@ -77279,7 +77339,7 @@
         <v>54</v>
       </c>
       <c r="J136" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K136" t="s">
         <v>55</v>
@@ -77300,7 +77360,7 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D137">
         <v>122.56440000000001</v>
@@ -77309,7 +77369,7 @@
         <v>10.69694</v>
       </c>
       <c r="F137" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G137" t="s">
         <v>52</v>
@@ -77321,7 +77381,7 @@
         <v>54</v>
       </c>
       <c r="J137" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K137" t="s">
         <v>55</v>
@@ -77342,7 +77402,7 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D138">
         <v>123.85218999999999</v>
@@ -77351,7 +77411,7 @@
         <v>9.6555599999999995</v>
       </c>
       <c r="F138" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G138" t="s">
         <v>52</v>
@@ -77363,7 +77423,7 @@
         <v>54</v>
       </c>
       <c r="J138" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K138" t="s">
         <v>55</v>
@@ -77384,7 +77444,7 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D139" s="17">
         <v>125</v>
@@ -77393,7 +77453,7 @@
         <v>8.75</v>
       </c>
       <c r="F139" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G139" t="s">
         <v>52</v>
@@ -77405,7 +77465,7 @@
         <v>54</v>
       </c>
       <c r="J139" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K139" t="s">
         <v>55</v>
@@ -77426,7 +77486,7 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D140">
         <v>125.59845</v>
@@ -77435,7 +77495,7 @@
         <v>7.0695499999999996</v>
       </c>
       <c r="F140" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G140" t="s">
         <v>52</v>
@@ -77447,7 +77507,7 @@
         <v>54</v>
       </c>
       <c r="J140" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K140" t="s">
         <v>55</v>
@@ -77468,7 +77528,7 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D141">
         <v>122.66667</v>
@@ -77477,7 +77537,7 @@
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G141" t="s">
         <v>52</v>
@@ -77489,7 +77549,7 @@
         <v>54</v>
       </c>
       <c r="J141" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K141" t="s">
         <v>55</v>
@@ -77510,7 +77570,7 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D142">
         <v>120.93667000000001</v>
@@ -77519,7 +77579,7 @@
         <v>14.42972</v>
       </c>
       <c r="F142" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G142" t="s">
         <v>52</v>
@@ -77531,7 +77591,7 @@
         <v>54</v>
       </c>
       <c r="J142" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K142" t="s">
         <v>55</v>
@@ -77552,7 +77612,7 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D143">
         <v>121.11139</v>
@@ -77561,7 +77621,7 @@
         <v>14.31222</v>
       </c>
       <c r="F143" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G143" t="s">
         <v>52</v>
@@ -77573,7 +77633,7 @@
         <v>54</v>
       </c>
       <c r="J143" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K143" t="s">
         <v>55</v>
@@ -77594,7 +77654,7 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D144">
         <v>121.16528</v>
@@ -77603,7 +77663,7 @@
         <v>14.21167</v>
       </c>
       <c r="F144" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G144" t="s">
         <v>52</v>
@@ -77615,7 +77675,7 @@
         <v>54</v>
       </c>
       <c r="J144" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K144" t="s">
         <v>55</v>
@@ -77636,7 +77696,7 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D145">
         <v>-58.456249999999997</v>
@@ -77645,7 +77705,7 @@
         <v>-34.818440000000002</v>
       </c>
       <c r="F145" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="G145" t="s">
         <v>52</v>
@@ -77657,7 +77717,7 @@
         <v>54</v>
       </c>
       <c r="J145" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K145" t="s">
         <v>55</v>
@@ -77678,7 +77738,7 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D146" s="4">
         <v>-71.638041000000001</v>
@@ -77687,7 +77747,7 @@
         <v>10.718417000000001</v>
       </c>
       <c r="F146" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G146" t="s">
         <v>52</v>
@@ -77699,7 +77759,7 @@
         <v>54</v>
       </c>
       <c r="J146" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K146" t="s">
         <v>55</v>
@@ -77720,7 +77780,7 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D147">
         <v>-68.007649999999998</v>
@@ -77729,7 +77789,7 @@
         <v>10.16202</v>
       </c>
       <c r="F147" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G147" t="s">
         <v>52</v>
@@ -77741,7 +77801,7 @@
         <v>54</v>
       </c>
       <c r="J147" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K147" t="s">
         <v>55</v>
@@ -77762,7 +77822,7 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D148">
         <v>-66.974260000000001</v>
@@ -77771,7 +77831,7 @@
         <v>10.466419999999999</v>
       </c>
       <c r="F148" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G148" t="s">
         <v>52</v>
@@ -77783,7 +77843,7 @@
         <v>54</v>
       </c>
       <c r="J148" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K148" t="s">
         <v>55</v>
@@ -77804,7 +77864,7 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D149">
         <v>-64.7</v>
@@ -77813,7 +77873,7 @@
         <v>10.133330000000001</v>
       </c>
       <c r="F149" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G149" t="s">
         <v>52</v>
@@ -77825,7 +77885,7 @@
         <v>54</v>
       </c>
       <c r="J149" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K149" t="s">
         <v>55</v>
@@ -77846,7 +77906,7 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D150">
         <v>-84.083330000000004</v>
@@ -77855,7 +77915,7 @@
         <v>9.9333299999999998</v>
       </c>
       <c r="F150" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G150" t="s">
         <v>52</v>
@@ -77867,7 +77927,7 @@
         <v>54</v>
       </c>
       <c r="J150" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K150" t="s">
         <v>55</v>
@@ -77888,7 +77948,7 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D151">
         <v>-83.619190000000003</v>
@@ -77897,7 +77957,7 @@
         <v>9.0460799999999999</v>
       </c>
       <c r="F151" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G151" t="s">
         <v>52</v>
@@ -77909,7 +77969,7 @@
         <v>54</v>
       </c>
       <c r="J151" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K151" t="s">
         <v>55</v>
@@ -77930,7 +77990,7 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D152">
         <v>-79.519729999999996</v>
@@ -77939,7 +77999,7 @@
         <v>8.9936000000000007</v>
       </c>
       <c r="F152" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G152" t="s">
         <v>52</v>
@@ -77951,7 +78011,7 @@
         <v>54</v>
       </c>
       <c r="J152" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K152" t="s">
         <v>55</v>
@@ -77972,7 +78032,7 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D153" s="16">
         <v>-9.7117749999999994</v>
@@ -77981,7 +78041,7 @@
         <v>52.265487</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="G153" s="16" t="s">
         <v>52</v>
@@ -77993,7 +78053,7 @@
         <v>54</v>
       </c>
       <c r="J153" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K153" s="16" t="s">
         <v>55</v>
@@ -78014,7 +78074,7 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D154" s="16">
         <v>6.9496950000000002</v>
@@ -78023,7 +78083,7 @@
         <v>43.650097000000002</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="G154" s="16" t="s">
         <v>52</v>
@@ -78035,7 +78095,7 @@
         <v>54</v>
       </c>
       <c r="J154" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K154" s="16" t="s">
         <v>55</v>
@@ -78056,7 +78116,7 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D155" s="16">
         <v>-101.254407</v>
@@ -78065,7 +78125,7 @@
         <v>20.616848000000001</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="G155" s="16" t="s">
         <v>52</v>
@@ -78077,7 +78137,7 @@
         <v>54</v>
       </c>
       <c r="J155" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K155" s="16" t="s">
         <v>55</v>
@@ -78098,7 +78158,7 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D156" s="16">
         <v>123.98318399999999</v>
@@ -78107,7 +78167,7 @@
         <v>10.328115</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G156" s="16" t="s">
         <v>52</v>
@@ -78119,7 +78179,7 @@
         <v>54</v>
       </c>
       <c r="J156" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K156" s="16" t="s">
         <v>55</v>
@@ -78161,7 +78221,7 @@
         <v>54</v>
       </c>
       <c r="J157" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K157" s="16" t="s">
         <v>55</v>
@@ -78182,7 +78242,7 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D158" s="16">
         <v>-88.070693000000006</v>
@@ -78191,7 +78251,7 @@
         <v>42.209144999999999</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="G158" s="16" t="s">
         <v>52</v>
@@ -78203,7 +78263,7 @@
         <v>54</v>
       </c>
       <c r="J158" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K158" s="16" t="s">
         <v>55</v>
@@ -78224,7 +78284,7 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D159" s="16">
         <v>-60.065283999999998</v>
@@ -78233,7 +78293,7 @@
         <v>-3.0945119999999999</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>52</v>
@@ -78245,7 +78305,7 @@
         <v>54</v>
       </c>
       <c r="J159" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K159" s="16" t="s">
         <v>55</v>
@@ -78266,7 +78326,7 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D160" s="16">
         <v>18.5229</v>
@@ -78275,7 +78335,7 @@
         <v>-33.869436</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G160" s="16" t="s">
         <v>52</v>
@@ -78287,7 +78347,7 @@
         <v>54</v>
       </c>
       <c r="J160" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K160" s="16" t="s">
         <v>55</v>
@@ -78308,7 +78368,7 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D161" s="16">
         <v>151.05574100000001</v>
@@ -78317,7 +78377,7 @@
         <v>-33.832174999999999</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G161" s="16" t="s">
         <v>52</v>
@@ -78329,7 +78389,7 @@
         <v>54</v>
       </c>
       <c r="J161" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K161" s="16" t="s">
         <v>55</v>
@@ -78350,7 +78410,7 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D162" s="16">
         <v>77.682395999999997</v>
@@ -78359,7 +78419,7 @@
         <v>12.924847</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G162" s="16" t="s">
         <v>52</v>
@@ -78371,7 +78431,7 @@
         <v>54</v>
       </c>
       <c r="J162" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K162" s="16" t="s">
         <v>55</v>
@@ -78392,7 +78452,7 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D163" s="16">
         <v>-118.140261</v>
@@ -78401,7 +78461,7 @@
         <v>34.008066999999997</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>52</v>
@@ -78413,7 +78473,7 @@
         <v>54</v>
       </c>
       <c r="J163" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K163" s="16" t="s">
         <v>55</v>
@@ -78434,7 +78494,7 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D164" s="16">
         <v>-8.6253679999999999</v>
@@ -78443,7 +78503,7 @@
         <v>42.133887000000001</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G164" s="16" t="s">
         <v>52</v>
@@ -78455,7 +78515,7 @@
         <v>54</v>
       </c>
       <c r="J164" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K164" s="16" t="s">
         <v>55</v>
@@ -78476,7 +78536,7 @@
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D165">
         <v>-80.192154599999995</v>
@@ -78485,7 +78545,7 @@
         <v>25.7657679</v>
       </c>
       <c r="F165" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="G165" t="s">
         <v>52</v>
@@ -78497,7 +78557,7 @@
         <v>54</v>
       </c>
       <c r="J165" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K165" t="s">
         <v>55</v>
@@ -78518,7 +78578,7 @@
         <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D166">
         <v>-3.9283784000000002</v>
@@ -78527,7 +78587,7 @@
         <v>40.299783599999998</v>
       </c>
       <c r="F166" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G166" t="s">
         <v>52</v>
@@ -78539,7 +78599,7 @@
         <v>54</v>
       </c>
       <c r="J166" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K166" t="s">
         <v>55</v>
@@ -78560,7 +78620,7 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D167">
         <v>139.7675366</v>
@@ -78569,7 +78629,7 @@
         <v>35.673938900000003</v>
       </c>
       <c r="F167" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="G167" t="s">
         <v>52</v>
@@ -78581,7 +78641,7 @@
         <v>54</v>
       </c>
       <c r="J167" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K167" t="s">
         <v>55</v>
@@ -78602,7 +78662,7 @@
         <v>10</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D168" s="16">
         <v>-80.038901999999993</v>
@@ -78611,7 +78671,7 @@
         <v>33.072608000000002</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="G168" s="16" t="s">
         <v>52</v>
@@ -78623,7 +78683,7 @@
         <v>54</v>
       </c>
       <c r="J168" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K168" s="16" t="s">
         <v>55</v>
@@ -78644,7 +78704,7 @@
         <v>10</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D169" s="16">
         <v>-95.863950000000003</v>
@@ -78653,7 +78713,7 @@
         <v>41.221155000000003</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G169" s="16" t="s">
         <v>52</v>
@@ -78665,7 +78725,7 @@
         <v>54</v>
       </c>
       <c r="J169" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K169" s="16" t="s">
         <v>55</v>
@@ -78686,7 +78746,7 @@
         <v>10</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D170" s="16">
         <v>-84.584430999999995</v>
@@ -78695,7 +78755,7 @@
         <v>33.749440999999997</v>
       </c>
       <c r="F170" s="16" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G170" s="16" t="s">
         <v>52</v>
@@ -78707,7 +78767,7 @@
         <v>54</v>
       </c>
       <c r="J170" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K170" s="16" t="s">
         <v>55</v>
@@ -78728,7 +78788,7 @@
         <v>10</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D171" s="16">
         <v>-85.754999999999995</v>
@@ -78737,7 +78797,7 @@
         <v>34.884166</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="G171" s="16" t="s">
         <v>52</v>
@@ -78749,7 +78809,7 @@
         <v>54</v>
       </c>
       <c r="J171" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K171" s="16" t="s">
         <v>55</v>
@@ -78770,7 +78830,7 @@
         <v>10</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D172" s="16">
         <v>-81.547392000000002</v>
@@ -78779,7 +78839,7 @@
         <v>35.898338000000003</v>
       </c>
       <c r="F172" s="16" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G172" s="16" t="s">
         <v>52</v>
@@ -78791,7 +78851,7 @@
         <v>54</v>
       </c>
       <c r="J172" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K172" s="16" t="s">
         <v>55</v>
@@ -78812,7 +78872,7 @@
         <v>10</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D173" s="16">
         <v>-95.289139000000006</v>
@@ -78821,7 +78881,7 @@
         <v>36.247011999999998</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="G173" s="16" t="s">
         <v>52</v>
@@ -78833,7 +78893,7 @@
         <v>54</v>
       </c>
       <c r="J173" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K173" s="16" t="s">
         <v>55</v>
@@ -78854,7 +78914,7 @@
         <v>10</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D174" s="16">
         <v>-87.263902999999999</v>
@@ -78863,7 +78923,7 @@
         <v>36.619557999999998</v>
       </c>
       <c r="F174" s="16" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G174" s="16" t="s">
         <v>52</v>
@@ -78875,7 +78935,7 @@
         <v>54</v>
       </c>
       <c r="J174" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K174" s="16" t="s">
         <v>55</v>
@@ -78896,7 +78956,7 @@
         <v>10</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D175" s="16">
         <v>-121.201007</v>
@@ -78905,7 +78965,7 @@
         <v>45.632204999999999</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G175" s="16" t="s">
         <v>52</v>
@@ -78917,7 +78977,7 @@
         <v>54</v>
       </c>
       <c r="J175" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K175" s="16" t="s">
         <v>55</v>
@@ -78938,7 +78998,7 @@
         <v>10</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D176" s="16">
         <v>-70.697789999999998</v>
@@ -78947,7 +79007,7 @@
         <v>-33.358657000000001</v>
       </c>
       <c r="F176" s="16" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G176" s="16" t="s">
         <v>52</v>
@@ -78959,7 +79019,7 @@
         <v>54</v>
       </c>
       <c r="J176" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K176" s="16" t="s">
         <v>55</v>
@@ -79001,7 +79061,7 @@
         <v>54</v>
       </c>
       <c r="J177" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K177" s="16" t="s">
         <v>55</v>
@@ -79022,7 +79082,7 @@
         <v>10</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D178" s="16">
         <v>6.860144</v>
@@ -79031,7 +79091,7 @@
         <v>53.425260999999999</v>
       </c>
       <c r="F178" s="16" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G178" s="16" t="s">
         <v>52</v>
@@ -79043,7 +79103,7 @@
         <v>54</v>
       </c>
       <c r="J178" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K178" s="16" t="s">
         <v>55</v>
@@ -79064,7 +79124,7 @@
         <v>10</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D179" s="16">
         <v>27.124637</v>
@@ -79073,7 +79133,7 @@
         <v>60.540053</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G179" s="16" t="s">
         <v>52</v>
@@ -79085,7 +79145,7 @@
         <v>54</v>
       </c>
       <c r="J179" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K179" s="16" t="s">
         <v>55</v>
@@ -79106,7 +79166,7 @@
         <v>10</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D180" s="16">
         <v>3.8654389999999998</v>
@@ -79115,7 +79175,7 @@
         <v>50.469327999999997</v>
       </c>
       <c r="F180" s="16" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="G180" s="16" t="s">
         <v>52</v>
@@ -79127,7 +79187,7 @@
         <v>54</v>
       </c>
       <c r="J180" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K180" s="16" t="s">
         <v>55</v>
@@ -79148,7 +79208,7 @@
         <v>10</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D181" s="16">
         <v>120.42546299999999</v>
@@ -79157,7 +79217,7 @@
         <v>24.139119999999998</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>52</v>
@@ -79169,7 +79229,7 @@
         <v>54</v>
       </c>
       <c r="J181" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K181" s="16" t="s">
         <v>55</v>
@@ -79211,7 +79271,7 @@
         <v>54</v>
       </c>
       <c r="J182" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K182" s="16" t="s">
         <v>55</v>
@@ -79232,7 +79292,7 @@
         <v>11</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D183" s="18">
         <v>-77.445670000000007</v>
@@ -79241,7 +79301,7 @@
         <v>39.050527000000002</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="G183" t="s">
         <v>52</v>
@@ -79253,7 +79313,7 @@
         <v>54</v>
       </c>
       <c r="J183" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K183" t="s">
         <v>55</v>
@@ -79274,7 +79334,7 @@
         <v>11</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D184" s="18">
         <v>-104.994438</v>
@@ -79283,7 +79343,7 @@
         <v>39.553727000000002</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="G184" t="s">
         <v>52</v>
@@ -79295,7 +79355,7 @@
         <v>54</v>
       </c>
       <c r="J184" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K184" t="s">
         <v>55</v>
@@ -79316,7 +79376,7 @@
         <v>11</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D185" s="18">
         <v>-1.8950999999999999E-2</v>
@@ -79325,7 +79385,7 @@
         <v>51.496930999999996</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="G185" t="s">
         <v>52</v>
@@ -79337,7 +79397,7 @@
         <v>54</v>
       </c>
       <c r="J185" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K185" t="s">
         <v>55</v>
@@ -79379,7 +79439,7 @@
         <v>54</v>
       </c>
       <c r="J186" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K186" t="s">
         <v>55</v>
@@ -79421,7 +79481,7 @@
         <v>54</v>
       </c>
       <c r="J187" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K187" s="16" t="s">
         <v>55</v>
@@ -79442,7 +79502,7 @@
         <v>12</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D188" s="16">
         <v>114.118611</v>
@@ -79451,7 +79511,7 @@
         <v>22.367843000000001</v>
       </c>
       <c r="F188" s="16" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="G188" s="16" t="s">
         <v>52</v>
@@ -79463,7 +79523,7 @@
         <v>54</v>
       </c>
       <c r="J188" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K188" s="16" t="s">
         <v>55</v>
@@ -79484,7 +79544,7 @@
         <v>12</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D189" s="16">
         <v>144.96332699999999</v>
@@ -79493,7 +79553,7 @@
         <v>-37.813620999999998</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G189" s="16" t="s">
         <v>52</v>
@@ -79505,7 +79565,7 @@
         <v>54</v>
       </c>
       <c r="J189" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K189" s="16" t="s">
         <v>55</v>
@@ -79526,7 +79586,7 @@
         <v>12</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D190" s="16">
         <v>151.20902000000001</v>
@@ -79535,7 +79595,7 @@
         <v>-33.868665999999997</v>
       </c>
       <c r="F190" s="16" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G190" s="16" t="s">
         <v>52</v>
@@ -79547,7 +79607,7 @@
         <v>54</v>
       </c>
       <c r="J190" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K190" s="16" t="s">
         <v>55</v>
@@ -79568,7 +79628,7 @@
         <v>12</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D191" s="16">
         <v>-46.696733000000002</v>
@@ -79577,7 +79637,7 @@
         <v>-23.607880000000002</v>
       </c>
       <c r="F191" s="16" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G191" s="16" t="s">
         <v>52</v>
@@ -79589,7 +79649,7 @@
         <v>54</v>
       </c>
       <c r="J191" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K191" s="16" t="s">
         <v>55</v>
@@ -79610,7 +79670,7 @@
         <v>12</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D192" s="16">
         <v>139.649396</v>
@@ -79619,7 +79679,7 @@
         <v>35.858136000000002</v>
       </c>
       <c r="F192" s="16" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="G192" s="16" t="s">
         <v>52</v>
@@ -79631,7 +79691,7 @@
         <v>54</v>
       </c>
       <c r="J192" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K192" s="16" t="s">
         <v>55</v>
@@ -79652,7 +79712,7 @@
         <v>12</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D193" s="16">
         <v>135.50190799999999</v>
@@ -79661,7 +79721,7 @@
         <v>34.693984999999998</v>
       </c>
       <c r="F193" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G193" s="16" t="s">
         <v>52</v>
@@ -79673,7 +79733,7 @@
         <v>54</v>
       </c>
       <c r="J193" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K193" s="16" t="s">
         <v>55</v>
@@ -79715,7 +79775,7 @@
         <v>54</v>
       </c>
       <c r="J194" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K194" s="16" t="s">
         <v>55</v>
@@ -79736,7 +79796,7 @@
         <v>12</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D195" s="16">
         <v>-77.471339999999998</v>
@@ -79745,7 +79805,7 @@
         <v>39.011470000000003</v>
       </c>
       <c r="F195" s="16" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>52</v>
@@ -79757,7 +79817,7 @@
         <v>54</v>
       </c>
       <c r="J195" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K195" s="16" t="s">
         <v>55</v>
@@ -79778,7 +79838,7 @@
         <v>12</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D196" s="16">
         <v>-87.618343999999993</v>
@@ -79787,7 +79847,7 @@
         <v>41.853766999999998</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="G196" s="16" t="s">
         <v>52</v>
@@ -79799,7 +79859,7 @@
         <v>54</v>
       </c>
       <c r="J196" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K196" s="16" t="s">
         <v>55</v>
@@ -79820,7 +79880,7 @@
         <v>13</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D197" s="18">
         <v>-120.875123</v>
@@ -79829,7 +79889,7 @@
         <v>44.289467999999999</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="G197" s="18" t="s">
         <v>52</v>
@@ -79841,7 +79901,7 @@
         <v>54</v>
       </c>
       <c r="J197" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K197" s="18" t="s">
         <v>55</v>
@@ -79862,7 +79922,7 @@
         <v>13</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D198" s="18">
         <v>-119.548556</v>
@@ -79871,7 +79931,7 @@
         <v>39.567252000000003</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="G198" s="18" t="s">
         <v>52</v>
@@ -79883,7 +79943,7 @@
         <v>54</v>
       </c>
       <c r="J198" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K198" s="18" t="s">
         <v>55</v>
@@ -79904,7 +79964,7 @@
         <v>13</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D199" s="18">
         <v>-81.257733999999999</v>
@@ -79913,7 +79973,7 @@
         <v>35.589244999999998</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="G199" s="18" t="s">
         <v>52</v>
@@ -79925,7 +79985,7 @@
         <v>54</v>
       </c>
       <c r="J199" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K199" s="18" t="s">
         <v>55</v>
@@ -79946,7 +80006,7 @@
         <v>13</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D200" s="18">
         <v>-121.943483</v>
@@ -79955,7 +80015,7 @@
         <v>37.360923</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="G200" s="18" t="s">
         <v>52</v>
@@ -79967,7 +80027,7 @@
         <v>54</v>
       </c>
       <c r="J200" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K200" s="18" t="s">
         <v>55</v>
@@ -79988,7 +80048,7 @@
         <v>13</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D201" s="18">
         <v>-111.604145</v>
@@ -79997,7 +80057,7 @@
         <v>33.347119999999997</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="G201" s="18" t="s">
         <v>52</v>
@@ -80009,7 +80069,7 @@
         <v>54</v>
       </c>
       <c r="J201" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K201" s="18" t="s">
         <v>55</v>
@@ -80030,7 +80090,7 @@
         <v>13</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D202" s="18">
         <v>-93.930997000000005</v>
@@ -80039,7 +80099,7 @@
         <v>41.611735000000003</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="G202" s="18" t="s">
         <v>52</v>
@@ -80051,7 +80111,7 @@
         <v>54</v>
       </c>
       <c r="J202" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K202" s="18" t="s">
         <v>55</v>
@@ -80072,7 +80132,7 @@
         <v>13</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D203" s="18">
         <v>9.5708819999999992</v>
@@ -80081,7 +80141,7 @@
         <v>56.482218000000003</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="G203" s="18" t="s">
         <v>52</v>
@@ -80093,7 +80153,7 @@
         <v>54</v>
       </c>
       <c r="J203" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K203" s="18" t="s">
         <v>55</v>
@@ -80114,7 +80174,7 @@
         <v>13</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D204" s="18">
         <v>9.1635229999999996</v>
@@ -80123,7 +80183,7 @@
         <v>55.036608000000001</v>
       </c>
       <c r="F204" s="20" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="G204" s="18" t="s">
         <v>52</v>
@@ -80135,7 +80195,7 @@
         <v>54</v>
       </c>
       <c r="J204" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K204" s="18" t="s">
         <v>55</v>
@@ -80156,7 +80216,7 @@
         <v>13</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D205" s="18">
         <v>113.16920500000001</v>
@@ -80165,7 +80225,7 @@
         <v>41.016269000000001</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="G205" s="18" t="s">
         <v>52</v>
@@ -80177,7 +80237,7 @@
         <v>54</v>
       </c>
       <c r="J205" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K205" s="18" t="s">
         <v>55</v>
@@ -80198,7 +80258,7 @@
         <v>13</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D206" s="18">
         <v>106.66086</v>
@@ -80207,7 +80267,7 @@
         <v>26.422518</v>
       </c>
       <c r="F206" s="20" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G206" s="18" t="s">
         <v>52</v>
@@ -80219,7 +80279,7 @@
         <v>54</v>
       </c>
       <c r="J206" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K206" s="18" t="s">
         <v>55</v>
@@ -80240,7 +80300,7 @@
         <v>14</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="D207" s="13">
         <v>-98.252285000000001</v>
@@ -80249,7 +80309,7 @@
         <v>19.123754000000002</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="G207" s="16" t="s">
         <v>52</v>
@@ -80261,7 +80321,7 @@
         <v>54</v>
       </c>
       <c r="J207" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K207" s="16" t="s">
         <v>55</v>
@@ -80282,7 +80342,7 @@
         <v>14</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="D208" s="13">
         <v>25.419024</v>
@@ -80291,7 +80351,7 @@
         <v>-33.786427000000003</v>
       </c>
       <c r="F208" s="13" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="G208" s="16" t="s">
         <v>52</v>
@@ -80303,7 +80363,7 @@
         <v>54</v>
       </c>
       <c r="J208" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K208" s="16" t="s">
         <v>55</v>
@@ -80324,7 +80384,7 @@
         <v>14</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D209" s="13">
         <v>-85.134298999999999</v>
@@ -80333,7 +80393,7 @@
         <v>35.079014000000001</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="G209" s="16" t="s">
         <v>52</v>
@@ -80345,7 +80405,7 @@
         <v>54</v>
       </c>
       <c r="J209" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K209" s="16" t="s">
         <v>55</v>
@@ -80366,7 +80426,7 @@
         <v>14</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="D210" s="13">
         <v>-8.9868000000000006</v>
@@ -80375,7 +80435,7 @@
         <v>38.583533000000003</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="G210" s="16" t="s">
         <v>52</v>
@@ -80387,7 +80447,7 @@
         <v>54</v>
       </c>
       <c r="J210" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K210" s="16" t="s">
         <v>55</v>
@@ -80408,7 +80468,7 @@
         <v>14</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="D211" s="13">
         <v>73.81944</v>
@@ -80417,7 +80477,7 @@
         <v>18.747464999999998</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="G211" s="16" t="s">
         <v>52</v>
@@ -80429,7 +80489,7 @@
         <v>54</v>
       </c>
       <c r="J211" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K211" s="16" t="s">
         <v>55</v>
@@ -80450,7 +80510,7 @@
         <v>14</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="D212" s="13">
         <v>-45.635584000000001</v>
@@ -80459,7 +80519,7 @@
         <v>-23.058838999999999</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="G212" s="16" t="s">
         <v>52</v>
@@ -80471,7 +80531,7 @@
         <v>54</v>
       </c>
       <c r="J212" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K212" s="16" t="s">
         <v>55</v>
@@ -80492,7 +80552,7 @@
         <v>14</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="D213" s="13">
         <v>-46.547063000000001</v>
@@ -80501,7 +80561,7 @@
         <v>-23.736335</v>
       </c>
       <c r="F213" s="13" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="G213" s="16" t="s">
         <v>52</v>
@@ -80513,7 +80573,7 @@
         <v>54</v>
       </c>
       <c r="J213" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K213" s="16" t="s">
         <v>55</v>
@@ -80534,7 +80594,7 @@
         <v>14</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D214" s="13">
         <v>-49.176682999999997</v>
@@ -80543,7 +80603,7 @@
         <v>-25.667687999999998</v>
       </c>
       <c r="F214" s="13" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>52</v>
@@ -80555,7 +80615,7 @@
         <v>54</v>
       </c>
       <c r="J214" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K214" s="16" t="s">
         <v>55</v>
@@ -80576,7 +80636,7 @@
         <v>14</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D215" s="13">
         <v>-47.872120000000002</v>
@@ -80585,7 +80645,7 @@
         <v>-22.063891999999999</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="G215" s="16" t="s">
         <v>52</v>
@@ -80597,7 +80657,7 @@
         <v>54</v>
       </c>
       <c r="J215" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K215" s="16" t="s">
         <v>55</v>
@@ -80618,7 +80678,7 @@
         <v>14</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D216" s="13">
         <v>-64.166239000000004</v>
@@ -80627,7 +80687,7 @@
         <v>-31.464431000000001</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="G216" s="16" t="s">
         <v>52</v>
@@ -80639,7 +80699,7 @@
         <v>54</v>
       </c>
       <c r="J216" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K216" s="16" t="s">
         <v>55</v>
@@ -80660,7 +80720,7 @@
         <v>14</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="D217" s="13">
         <v>-58.691611000000002</v>
@@ -80669,7 +80729,7 @@
         <v>-34.442712999999998</v>
       </c>
       <c r="F217" s="13" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="G217" s="16" t="s">
         <v>52</v>
@@ -80681,7 +80741,7 @@
         <v>54</v>
       </c>
       <c r="J217" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K217" s="16" t="s">
         <v>55</v>
@@ -80702,7 +80762,7 @@
         <v>14</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D218" s="13">
         <v>10.522778000000001</v>
@@ -80711,7 +80771,7 @@
         <v>52.293326999999998</v>
       </c>
       <c r="F218" s="13" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="G218" s="16" t="s">
         <v>52</v>
@@ -80723,7 +80783,7 @@
         <v>54</v>
       </c>
       <c r="J218" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K218" s="16" t="s">
         <v>55</v>
@@ -80744,7 +80804,7 @@
         <v>14</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="D219" s="13">
         <v>12.906514</v>
@@ -80753,7 +80813,7 @@
         <v>50.803994000000003</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>52</v>
@@ -80765,7 +80825,7 @@
         <v>54</v>
       </c>
       <c r="J219" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K219" s="16" t="s">
         <v>55</v>
@@ -80786,7 +80846,7 @@
         <v>14</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D220" s="13">
         <v>13.755827</v>
@@ -80795,7 +80855,7 @@
         <v>51.044463</v>
       </c>
       <c r="F220" s="13" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="G220" s="16" t="s">
         <v>52</v>
@@ -80807,7 +80867,7 @@
         <v>54</v>
       </c>
       <c r="J220" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K220" s="16" t="s">
         <v>55</v>
@@ -80828,7 +80888,7 @@
         <v>14</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="D221" s="13">
         <v>7.1582319999999999</v>
@@ -80837,7 +80897,7 @@
         <v>53.348044999999999</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="G221" s="16" t="s">
         <v>52</v>
@@ -80849,7 +80909,7 @@
         <v>54</v>
       </c>
       <c r="J221" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K221" s="16" t="s">
         <v>55</v>
@@ -80870,7 +80930,7 @@
         <v>14</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="D222" s="13">
         <v>9.6686040000000002</v>
@@ -80879,7 +80939,7 @@
         <v>52.417808000000001</v>
       </c>
       <c r="F222" s="13" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="G222" s="16" t="s">
         <v>52</v>
@@ -80891,7 +80951,7 @@
         <v>54</v>
       </c>
       <c r="J222" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K222" s="16" t="s">
         <v>55</v>
@@ -80912,7 +80972,7 @@
         <v>14</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="D223" s="13">
         <v>9.4341000000000008</v>
@@ -80921,7 +80981,7 @@
         <v>51.257674999999999</v>
       </c>
       <c r="F223" s="13" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="G223" s="16" t="s">
         <v>52</v>
@@ -80933,7 +80993,7 @@
         <v>54</v>
       </c>
       <c r="J223" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K223" s="16" t="s">
         <v>55</v>
@@ -80954,7 +81014,7 @@
         <v>14</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="D224" s="13">
         <v>8.0779069999999997</v>
@@ -80963,7 +81023,7 @@
         <v>52.265776000000002</v>
       </c>
       <c r="F224" s="13" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="G224" s="16" t="s">
         <v>52</v>
@@ -80975,7 +81035,7 @@
         <v>54</v>
       </c>
       <c r="J224" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K224" s="16" t="s">
         <v>55</v>
@@ -80996,7 +81056,7 @@
         <v>14</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="D225" s="13">
         <v>10.444815999999999</v>
@@ -81005,7 +81065,7 @@
         <v>52.181466</v>
       </c>
       <c r="F225" s="13" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="G225" s="16" t="s">
         <v>52</v>
@@ -81017,7 +81077,7 @@
         <v>54</v>
       </c>
       <c r="J225" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K225" s="16" t="s">
         <v>55</v>
@@ -81038,7 +81098,7 @@
         <v>14</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D226" s="13">
         <v>10.775997</v>
@@ -81047,7 +81107,7 @@
         <v>52.434187000000001</v>
       </c>
       <c r="F226" s="13" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="G226" s="16" t="s">
         <v>52</v>
@@ -81059,7 +81119,7 @@
         <v>54</v>
       </c>
       <c r="J226" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K226" s="16" t="s">
         <v>55</v>
@@ -81080,7 +81140,7 @@
         <v>14</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D227" s="13">
         <v>12.475315999999999</v>
@@ -81089,7 +81149,7 @@
         <v>50.731333999999997</v>
       </c>
       <c r="F227" s="13" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G227" s="16" t="s">
         <v>52</v>
@@ -81101,7 +81161,7 @@
         <v>54</v>
       </c>
       <c r="J227" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K227" s="16" t="s">
         <v>55</v>
@@ -81122,7 +81182,7 @@
         <v>15</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D228" s="18">
         <v>-118.25099950000001</v>
@@ -81131,7 +81191,7 @@
         <v>34.062198600000002</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="G228" s="18" t="s">
         <v>52</v>
@@ -81143,7 +81203,7 @@
         <v>54</v>
       </c>
       <c r="J228" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K228" s="18" t="s">
         <v>55</v>
@@ -81164,7 +81224,7 @@
         <v>15</v>
       </c>
       <c r="C229" s="18" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="D229" s="18">
         <v>-77.464630999999997</v>
@@ -81173,7 +81233,7 @@
         <v>37.630817999999998</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="G229" s="18" t="s">
         <v>52</v>
@@ -81185,7 +81245,7 @@
         <v>54</v>
       </c>
       <c r="J229" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K229" s="18" t="s">
         <v>55</v>
@@ -81206,7 +81266,7 @@
         <v>15</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D230" s="18">
         <v>-96.707159000000004</v>
@@ -81215,7 +81275,7 @@
         <v>32.985838000000001</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="G230" s="18" t="s">
         <v>52</v>
@@ -81227,7 +81287,7 @@
         <v>54</v>
       </c>
       <c r="J230" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K230" s="18" t="s">
         <v>55</v>
@@ -81248,7 +81308,7 @@
         <v>16</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="D231" s="16">
         <v>-97.052869999999999</v>
@@ -81257,7 +81317,7 @@
         <v>32.699784999999999</v>
       </c>
       <c r="F231" s="16" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G231" s="16" t="s">
         <v>52</v>
@@ -81269,7 +81329,7 @@
         <v>54</v>
       </c>
       <c r="J231" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K231" s="16" t="s">
         <v>55</v>
@@ -81290,7 +81350,7 @@
         <v>16</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D232" s="16">
         <v>-117.872625</v>
@@ -81299,7 +81359,7 @@
         <v>33.684592000000002</v>
       </c>
       <c r="F232" s="16" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G232" s="16" t="s">
         <v>52</v>
@@ -81311,7 +81371,7 @@
         <v>54</v>
       </c>
       <c r="J232" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K232" s="16" t="s">
         <v>55</v>
@@ -81332,7 +81392,7 @@
         <v>16</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="D233" s="16">
         <v>-122.24647899999999</v>
@@ -81341,7 +81401,7 @@
         <v>47.930019000000001</v>
       </c>
       <c r="F233" s="16" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G233" s="16" t="s">
         <v>52</v>
@@ -81353,7 +81413,7 @@
         <v>54</v>
       </c>
       <c r="J233" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K233" s="16" t="s">
         <v>55</v>
@@ -81374,7 +81434,7 @@
         <v>16</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D234" s="16">
         <v>-84.609566999999998</v>
@@ -81383,7 +81443,7 @@
         <v>38.923580000000001</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G234" s="16" t="s">
         <v>52</v>
@@ -81395,7 +81455,7 @@
         <v>54</v>
       </c>
       <c r="J234" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K234" s="16" t="s">
         <v>55</v>
@@ -81416,7 +81476,7 @@
         <v>16</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D235" s="16">
         <v>-77.487328000000005</v>
@@ -81425,7 +81485,7 @@
         <v>39.069634999999998</v>
       </c>
       <c r="F235" s="16" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G235" s="16" t="s">
         <v>52</v>
@@ -81437,7 +81497,7 @@
         <v>54</v>
       </c>
       <c r="J235" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K235" s="16" t="s">
         <v>55</v>
@@ -81458,7 +81518,7 @@
         <v>16</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="D236" s="16">
         <v>-79.024158</v>
@@ -81467,7 +81527,7 @@
         <v>43.835935999999997</v>
       </c>
       <c r="F236" s="16" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G236" s="16" t="s">
         <v>52</v>
@@ -81479,7 +81539,7 @@
         <v>54</v>
       </c>
       <c r="J236" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K236" s="16" t="s">
         <v>55</v>
@@ -81500,7 +81560,7 @@
         <v>16</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D237" s="16">
         <v>-71.508251000000001</v>
@@ -81509,7 +81569,7 @@
         <v>42.961101999999997</v>
       </c>
       <c r="F237" s="16" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G237" s="16" t="s">
         <v>52</v>
@@ -81521,7 +81581,7 @@
         <v>54</v>
       </c>
       <c r="J237" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K237" s="16" t="s">
         <v>55</v>
@@ -81542,7 +81602,7 @@
         <v>16</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D238" s="16">
         <v>-70.914761999999996</v>
@@ -81551,7 +81611,7 @@
         <v>43.282378000000001</v>
       </c>
       <c r="F238" s="16" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G238" s="16" t="s">
         <v>52</v>
@@ -81563,7 +81623,7 @@
         <v>54</v>
       </c>
       <c r="J238" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K238" s="16" t="s">
         <v>55</v>
@@ -81584,7 +81644,7 @@
         <v>16</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D239" s="16">
         <v>-100.167277</v>
@@ -81593,7 +81653,7 @@
         <v>20.618442999999999</v>
       </c>
       <c r="F239" s="16" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G239" s="16" t="s">
         <v>52</v>
@@ -81605,7 +81665,7 @@
         <v>54</v>
       </c>
       <c r="J239" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K239" s="16" t="s">
         <v>55</v>
@@ -81626,7 +81686,7 @@
         <v>16</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D240" s="16">
         <v>-106.11589600000001</v>
@@ -81635,7 +81695,7 @@
         <v>28.715803999999999</v>
       </c>
       <c r="F240" s="16" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="G240" s="16" t="s">
         <v>52</v>
@@ -81647,7 +81707,7 @@
         <v>54</v>
       </c>
       <c r="J240" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K240" s="16" t="s">
         <v>55</v>
@@ -81668,7 +81728,7 @@
         <v>16</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="D241" s="16">
         <v>-43.300623999999999</v>
@@ -81677,7 +81737,7 @@
         <v>-22.61393</v>
       </c>
       <c r="F241" s="16" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="G241" s="16" t="s">
         <v>52</v>
@@ -81689,7 +81749,7 @@
         <v>54</v>
       </c>
       <c r="J241" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K241" s="16" t="s">
         <v>55</v>
@@ -81710,7 +81770,7 @@
         <v>16</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="D242" s="16">
         <v>-45.952769000000004</v>
@@ -81719,7 +81779,7 @@
         <v>-23.208466999999999</v>
       </c>
       <c r="F242" s="16" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="G242" s="16" t="s">
         <v>52</v>
@@ -81731,7 +81791,7 @@
         <v>54</v>
       </c>
       <c r="J242" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K242" s="16" t="s">
         <v>55</v>
@@ -81752,7 +81812,7 @@
         <v>16</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="D243" s="16">
         <v>150.99613500000001</v>
@@ -81761,7 +81821,7 @@
         <v>-33.923194000000002</v>
       </c>
       <c r="F243" s="16" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="G243" s="16" t="s">
         <v>52</v>
@@ -81773,7 +81833,7 @@
         <v>54</v>
       </c>
       <c r="J243" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K243" s="16" t="s">
         <v>55</v>
@@ -81794,7 +81854,7 @@
         <v>16</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D244" s="16">
         <v>103.9708</v>
@@ -81803,7 +81863,7 @@
         <v>1.3827210000000001</v>
       </c>
       <c r="F244" s="16" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="G244" s="16" t="s">
         <v>52</v>
@@ -81815,7 +81875,7 @@
         <v>54</v>
       </c>
       <c r="J244" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K244" s="16" t="s">
         <v>55</v>
@@ -81836,7 +81896,7 @@
         <v>16</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D245" s="16">
         <v>103.857985</v>
@@ -81845,7 +81905,7 @@
         <v>1.4028670000000001</v>
       </c>
       <c r="F245" s="16" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="G245" s="16" t="s">
         <v>52</v>
@@ -81857,7 +81917,7 @@
         <v>54</v>
       </c>
       <c r="J245" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K245" s="16" t="s">
         <v>55</v>
@@ -81878,7 +81938,7 @@
         <v>16</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D246" s="16">
         <v>101.831389</v>
@@ -81887,7 +81947,7 @@
         <v>2.6761219999999999</v>
       </c>
       <c r="F246" s="16" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="G246" s="16" t="s">
         <v>52</v>
@@ -81899,7 +81959,7 @@
         <v>54</v>
       </c>
       <c r="J246" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K246" s="16" t="s">
         <v>55</v>
@@ -81920,7 +81980,7 @@
         <v>16</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D247" s="16">
         <v>137.03008600000001</v>
@@ -81929,7 +81989,7 @@
         <v>50.538521000000003</v>
       </c>
       <c r="F247" s="16" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="G247" s="16" t="s">
         <v>52</v>
@@ -81941,7 +82001,7 @@
         <v>54</v>
       </c>
       <c r="J247" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K247" s="16" t="s">
         <v>55</v>
@@ -81962,7 +82022,7 @@
         <v>16</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="D248" s="16">
         <v>116.460798</v>
@@ -81971,7 +82031,7 @@
         <v>39.950358999999999</v>
       </c>
       <c r="F248" s="16" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="G248" s="16" t="s">
         <v>52</v>
@@ -81983,7 +82043,7 @@
         <v>54</v>
       </c>
       <c r="J248" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K248" s="16" t="s">
         <v>55</v>
@@ -82004,7 +82064,7 @@
         <v>16</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D249" s="16">
         <v>106.628068</v>
@@ -82013,7 +82073,7 @@
         <v>26.618995999999999</v>
       </c>
       <c r="F249" s="16" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G249" s="16" t="s">
         <v>52</v>
@@ -82025,7 +82085,7 @@
         <v>54</v>
       </c>
       <c r="J249" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K249" s="16" t="s">
         <v>55</v>
@@ -82046,7 +82106,7 @@
         <v>16</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="D250" s="16">
         <v>120.836454</v>
@@ -82055,7 +82115,7 @@
         <v>31.339154000000001</v>
       </c>
       <c r="F250" s="16" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="G250" s="16" t="s">
         <v>52</v>
@@ -82067,7 +82127,7 @@
         <v>54</v>
       </c>
       <c r="J250" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K250" s="16" t="s">
         <v>55</v>
@@ -82088,7 +82148,7 @@
         <v>16</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D251" s="16">
         <v>120.33216899999999</v>
@@ -82097,7 +82157,7 @@
         <v>31.586589</v>
       </c>
       <c r="F251" s="16" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="G251" s="16" t="s">
         <v>52</v>
@@ -82109,7 +82169,7 @@
         <v>54</v>
       </c>
       <c r="J251" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K251" s="16" t="s">
         <v>55</v>
@@ -82130,7 +82190,7 @@
         <v>16</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D252" s="16">
         <v>-6.8972420000000003</v>
@@ -82139,7 +82199,7 @@
         <v>33.930509000000001</v>
       </c>
       <c r="F252" s="16" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="G252" s="16" t="s">
         <v>52</v>
@@ -82151,7 +82211,7 @@
         <v>54</v>
       </c>
       <c r="J252" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K252" s="16" t="s">
         <v>55</v>
@@ -82172,7 +82232,7 @@
         <v>16</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D253" s="16">
         <v>-7.5748610000000003</v>
@@ -82181,7 +82241,7 @@
         <v>33.368747999999997</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G253" s="16" t="s">
         <v>52</v>
@@ -82193,7 +82253,7 @@
         <v>54</v>
       </c>
       <c r="J253" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K253" s="16" t="s">
         <v>55</v>
@@ -82214,7 +82274,7 @@
         <v>16</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D254" s="16">
         <v>-2.21936</v>
@@ -82223,7 +82283,7 @@
         <v>53.801454</v>
       </c>
       <c r="F254" s="16" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="G254" s="16" t="s">
         <v>52</v>
@@ -82235,7 +82295,7 @@
         <v>54</v>
       </c>
       <c r="J254" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K254" s="16" t="s">
         <v>55</v>
@@ -82256,7 +82316,7 @@
         <v>16</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="D255" s="16">
         <v>-2.1738179999999998</v>
@@ -82265,7 +82325,7 @@
         <v>51.898057000000001</v>
       </c>
       <c r="F255" s="16" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G255" s="16" t="s">
         <v>52</v>
@@ -82277,7 +82337,7 @@
         <v>54</v>
       </c>
       <c r="J255" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K255" s="16" t="s">
         <v>55</v>
@@ -82298,7 +82358,7 @@
         <v>16</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D256" s="16">
         <v>-0.64873499999999995</v>
@@ -82307,7 +82367,7 @@
         <v>51.828142999999997</v>
       </c>
       <c r="F256" s="16" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="G256" s="16" t="s">
         <v>52</v>
@@ -82319,7 +82379,7 @@
         <v>54</v>
       </c>
       <c r="J256" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K256" s="16" t="s">
         <v>55</v>
@@ -82340,7 +82400,7 @@
         <v>16</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D257" s="16">
         <v>-1.248904</v>
@@ -82349,7 +82409,7 @@
         <v>50.871502999999997</v>
       </c>
       <c r="F257" s="16" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="G257" s="16" t="s">
         <v>52</v>
@@ -82361,7 +82421,7 @@
         <v>54</v>
       </c>
       <c r="J257" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K257" s="16" t="s">
         <v>55</v>
@@ -82382,7 +82442,7 @@
         <v>16</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D258" s="16">
         <v>9.9832900000000002</v>
@@ -82391,7 +82451,7 @@
         <v>53.604832999999999</v>
       </c>
       <c r="F258" s="16" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G258" s="16" t="s">
         <v>52</v>
@@ -82403,7 +82463,7 @@
         <v>54</v>
       </c>
       <c r="J258" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K258" s="16" t="s">
         <v>55</v>
@@ -82424,7 +82484,7 @@
         <v>16</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D259" s="16">
         <v>9.9061859999999999</v>
@@ -82433,7 +82493,7 @@
         <v>53.478997999999997</v>
       </c>
       <c r="F259" s="16" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G259" s="16" t="s">
         <v>52</v>
@@ -82445,7 +82505,7 @@
         <v>54</v>
       </c>
       <c r="J259" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K259" s="16" t="s">
         <v>55</v>
@@ -82466,7 +82526,7 @@
         <v>16</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D260" s="16">
         <v>5.5824860000000003</v>
@@ -82475,7 +82535,7 @@
         <v>50.686290999999997</v>
       </c>
       <c r="F260" s="16" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="G260" s="16" t="s">
         <v>52</v>
@@ -82487,7 +82547,7 @@
         <v>54</v>
       </c>
       <c r="J260" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K260" s="16" t="s">
         <v>55</v>
@@ -82508,7 +82568,7 @@
         <v>16</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D261" s="16">
         <v>5.600193</v>
@@ -82517,7 +82577,7 @@
         <v>48.748761000000002</v>
       </c>
       <c r="F261" s="16" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="G261" s="16" t="s">
         <v>52</v>
@@ -82529,7 +82589,7 @@
         <v>54</v>
       </c>
       <c r="J261" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K261" s="16" t="s">
         <v>55</v>
@@ -82550,7 +82610,7 @@
         <v>16</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="D262" s="16">
         <v>6.1279640000000004</v>
@@ -82559,7 +82619,7 @@
         <v>49.314391000000001</v>
       </c>
       <c r="F262" s="16" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="G262" s="16" t="s">
         <v>52</v>
@@ -82571,7 +82631,7 @@
         <v>54</v>
       </c>
       <c r="J262" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K262" s="16" t="s">
         <v>55</v>
@@ -82592,7 +82652,7 @@
         <v>16</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D263" s="16">
         <v>7.5030140000000003</v>
@@ -82601,7 +82661,7 @@
         <v>48.531860000000002</v>
       </c>
       <c r="F263" s="16" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="G263" s="16" t="s">
         <v>52</v>
@@ -82613,7 +82673,7 @@
         <v>54</v>
       </c>
       <c r="J263" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K263" s="16" t="s">
         <v>55</v>
@@ -82634,7 +82694,7 @@
         <v>16</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D264" s="16">
         <v>1.497584</v>
@@ -82643,7 +82703,7 @@
         <v>49.110956999999999</v>
       </c>
       <c r="F264" s="16" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="G264" s="16" t="s">
         <v>52</v>
@@ -82655,7 +82715,7 @@
         <v>54</v>
       </c>
       <c r="J264" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K264" s="16" t="s">
         <v>55</v>
@@ -82676,7 +82736,7 @@
         <v>16</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D265" s="16">
         <v>1.6670259999999999</v>
@@ -82685,7 +82745,7 @@
         <v>48.990408000000002</v>
       </c>
       <c r="F265" s="16" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="G265" s="16" t="s">
         <v>52</v>
@@ -82697,7 +82757,7 @@
         <v>54</v>
       </c>
       <c r="J265" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K265" s="16" t="s">
         <v>55</v>
@@ -82718,7 +82778,7 @@
         <v>16</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D266" s="16">
         <v>1.7081360000000001</v>
@@ -82727,7 +82787,7 @@
         <v>48.982239</v>
       </c>
       <c r="F266" s="16" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G266" s="16" t="s">
         <v>52</v>
@@ -82739,7 +82799,7 @@
         <v>54</v>
       </c>
       <c r="J266" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K266" s="16" t="s">
         <v>55</v>
@@ -82760,7 +82820,7 @@
         <v>16</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D267" s="16">
         <v>2.111132</v>
@@ -82769,7 +82829,7 @@
         <v>49.026496000000002</v>
       </c>
       <c r="F267" s="16" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G267" s="16" t="s">
         <v>52</v>
@@ -82781,7 +82841,7 @@
         <v>54</v>
       </c>
       <c r="J267" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K267" s="16" t="s">
         <v>55</v>
@@ -82802,7 +82862,7 @@
         <v>16</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D268" s="16">
         <v>2.2572420000000002</v>
@@ -82811,7 +82871,7 @@
         <v>48.937874000000001</v>
       </c>
       <c r="F268" s="16" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="G268" s="16" t="s">
         <v>52</v>
@@ -82823,7 +82883,7 @@
         <v>54</v>
       </c>
       <c r="J268" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K268" s="16" t="s">
         <v>55</v>
@@ -82844,7 +82904,7 @@
         <v>16</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D269" s="16">
         <v>2.0669759999999999</v>
@@ -82853,7 +82913,7 @@
         <v>48.754483</v>
       </c>
       <c r="F269" s="16" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="G269" s="16" t="s">
         <v>52</v>
@@ -82865,7 +82925,7 @@
         <v>54</v>
       </c>
       <c r="J269" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K269" s="16" t="s">
         <v>55</v>
@@ -82886,7 +82946,7 @@
         <v>16</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D270" s="16">
         <v>2.2665130000000002</v>
@@ -82895,7 +82955,7 @@
         <v>48.724623000000001</v>
       </c>
       <c r="F270" s="16" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="G270" s="16" t="s">
         <v>52</v>
@@ -82907,7 +82967,7 @@
         <v>54</v>
       </c>
       <c r="J270" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K270" s="16" t="s">
         <v>55</v>
@@ -82928,7 +82988,7 @@
         <v>16</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D271" s="16">
         <v>-1.1792</v>
@@ -82937,7 +82997,7 @@
         <v>48.341538</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="G271" s="16" t="s">
         <v>52</v>
@@ -82949,7 +83009,7 @@
         <v>54</v>
       </c>
       <c r="J271" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K271" s="16" t="s">
         <v>55</v>
@@ -82970,7 +83030,7 @@
         <v>16</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D272" s="16">
         <v>2.5782180000000001</v>
@@ -82979,7 +83039,7 @@
         <v>46.364280000000001</v>
       </c>
       <c r="F272" s="16" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="G272" s="16" t="s">
         <v>52</v>
@@ -82991,7 +83051,7 @@
         <v>54</v>
       </c>
       <c r="J272" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K272" s="16" t="s">
         <v>55</v>
@@ -83012,7 +83072,7 @@
         <v>16</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D273" s="16">
         <v>0.54775700000000005</v>
@@ -83021,7 +83081,7 @@
         <v>46.847375999999997</v>
       </c>
       <c r="F273" s="16" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="G273" s="16" t="s">
         <v>52</v>
@@ -83033,7 +83093,7 @@
         <v>54</v>
       </c>
       <c r="J273" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K273" s="16" t="s">
         <v>55</v>
@@ -83054,7 +83114,7 @@
         <v>16</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D274" s="16">
         <v>0.33130100000000001</v>
@@ -83063,7 +83123,7 @@
         <v>46.551630000000003</v>
       </c>
       <c r="F274" s="16" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="G274" s="16" t="s">
         <v>52</v>
@@ -83075,7 +83135,7 @@
         <v>54</v>
       </c>
       <c r="J274" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K274" s="16" t="s">
         <v>55</v>
@@ -83096,7 +83156,7 @@
         <v>16</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D275" s="16">
         <v>4.9124780000000001</v>
@@ -83105,7 +83165,7 @@
         <v>45.757010999999999</v>
       </c>
       <c r="F275" s="16" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="G275" s="16" t="s">
         <v>52</v>
@@ -83117,7 +83177,7 @@
         <v>54</v>
       </c>
       <c r="J275" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K275" s="16" t="s">
         <v>55</v>
@@ -83138,7 +83198,7 @@
         <v>16</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D276" s="16">
         <v>4.9202700000000004</v>
@@ -83147,7 +83207,7 @@
         <v>44.939267000000001</v>
       </c>
       <c r="F276" s="16" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="G276" s="16" t="s">
         <v>52</v>
@@ -83159,7 +83219,7 @@
         <v>54</v>
       </c>
       <c r="J276" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K276" s="16" t="s">
         <v>55</v>
@@ -83180,7 +83240,7 @@
         <v>16</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D277" s="16">
         <v>4.9298409999999997</v>
@@ -83189,7 +83249,7 @@
         <v>43.524590000000003</v>
       </c>
       <c r="F277" s="16" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="G277" s="16" t="s">
         <v>52</v>
@@ -83201,7 +83261,7 @@
         <v>54</v>
       </c>
       <c r="J277" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K277" s="16" t="s">
         <v>55</v>
@@ -83222,7 +83282,7 @@
         <v>16</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D278" s="16">
         <v>1.3462460000000001</v>
@@ -83231,7 +83291,7 @@
         <v>43.624940000000002</v>
       </c>
       <c r="F278" s="16" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="G278" s="16" t="s">
         <v>52</v>
@@ -83243,7 +83303,7 @@
         <v>54</v>
       </c>
       <c r="J278" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K278" s="16" t="s">
         <v>55</v>
@@ -83264,7 +83324,7 @@
         <v>16</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D279" s="16">
         <v>-1.494318</v>
@@ -83273,7 +83333,7 @@
         <v>43.547445000000003</v>
       </c>
       <c r="F279" s="16" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="G279" s="16" t="s">
         <v>52</v>
@@ -83285,7 +83345,7 @@
         <v>54</v>
       </c>
       <c r="J279" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K279" s="16" t="s">
         <v>55</v>
@@ -83306,7 +83366,7 @@
         <v>16</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D280" s="16">
         <v>-0.60818099999999997</v>
@@ -83315,7 +83375,7 @@
         <v>43.179895000000002</v>
       </c>
       <c r="F280" s="16" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="G280" s="16" t="s">
         <v>52</v>
@@ -83327,7 +83387,7 @@
         <v>54</v>
       </c>
       <c r="J280" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K280" s="16" t="s">
         <v>55</v>
@@ -83422,13 +83482,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C5" t="s">
         <v>1681</v>
       </c>
-      <c r="C5" t="s">
-        <v>1682</v>
-      </c>
       <c r="D5" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -83436,13 +83496,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -83450,13 +83510,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C7" t="s">
         <v>1765</v>
       </c>
-      <c r="C7" t="s">
-        <v>1766</v>
-      </c>
       <c r="D7" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -83464,13 +83524,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -83478,13 +83538,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C9" t="s">
         <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -83492,13 +83552,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C10" t="s">
         <v>1887</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1888</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -83506,13 +83566,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -83520,13 +83580,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -83534,13 +83594,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -83548,13 +83608,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -83562,13 +83622,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D15" t="s">
         <v>1963</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1964</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1965</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -83576,13 +83636,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -83590,13 +83650,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C17" t="s">
         <v>2052</v>
       </c>
-      <c r="C17" t="s">
-        <v>2054</v>
-      </c>
       <c r="D17" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
   </sheetData>
@@ -83787,19 +83847,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="94.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -83812,8 +83873,11 @@
       <c r="D1" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -83824,10 +83888,13 @@
         <v>159</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1679</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -83840,8 +83907,11 @@
       <c r="D3" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -83854,8 +83924,11 @@
       <c r="D4" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -83868,8 +83941,11 @@
       <c r="D5" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -83882,8 +83958,11 @@
       <c r="D6" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -83896,8 +83975,11 @@
       <c r="D7" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -83910,8 +83992,11 @@
       <c r="D8" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -83924,8 +84009,11 @@
       <c r="D9" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -83938,8 +84026,11 @@
       <c r="D10" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -83952,8 +84043,11 @@
       <c r="D11" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -83966,8 +84060,11 @@
       <c r="D12" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -83980,8 +84077,11 @@
       <c r="D13" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -83994,8 +84094,11 @@
       <c r="D14" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -84008,8 +84111,11 @@
       <c r="D15" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -84021,6 +84127,9 @@
       </c>
       <c r="D16" s="4" t="s">
         <v>165</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/TCSDB/TCSDB_structure.xlsx
+++ b/data/TCSDB/TCSDB_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="2940" windowWidth="31460" windowHeight="17980" tabRatio="723" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="880" yWindow="2940" windowWidth="31460" windowHeight="17980" tabRatio="723" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CorpRiskTable" sheetId="10" r:id="rId1"/>
@@ -47579,7 +47579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -69442,7 +69442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -69919,7 +69919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -71625,8 +71625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M280"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="F246" sqref="F246"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="N231" sqref="N231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71705,7 +71705,7 @@
         <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
@@ -71747,7 +71747,7 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>59</v>
@@ -71789,7 +71789,7 @@
         <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
@@ -71831,7 +71831,7 @@
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I5" t="s">
         <v>54</v>
@@ -71873,7 +71873,7 @@
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
         <v>54</v>
@@ -71915,7 +71915,7 @@
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
         <v>54</v>
@@ -71957,7 +71957,7 @@
         <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
@@ -71999,7 +71999,7 @@
         <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I9" t="s">
         <v>54</v>
@@ -72965,7 +72965,7 @@
         <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="I32" t="s">
         <v>54</v>
@@ -73007,7 +73007,7 @@
         <v>52</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I33" t="s">
         <v>54</v>
@@ -73049,7 +73049,7 @@
         <v>52</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I34" t="s">
         <v>54</v>
@@ -73091,7 +73091,7 @@
         <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I35" t="s">
         <v>54</v>
@@ -73133,7 +73133,7 @@
         <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I36" t="s">
         <v>54</v>
@@ -73175,7 +73175,7 @@
         <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I37" t="s">
         <v>54</v>
@@ -73217,7 +73217,7 @@
         <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I38" t="s">
         <v>54</v>
@@ -73259,7 +73259,7 @@
         <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I39" t="s">
         <v>54</v>
@@ -73301,7 +73301,7 @@
         <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I40" t="s">
         <v>54</v>
@@ -73343,7 +73343,7 @@
         <v>52</v>
       </c>
       <c r="H41" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I41" t="s">
         <v>54</v>
@@ -73385,7 +73385,7 @@
         <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I42" t="s">
         <v>54</v>
@@ -73427,7 +73427,7 @@
         <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I43" t="s">
         <v>54</v>
@@ -73469,7 +73469,7 @@
         <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I44" t="s">
         <v>54</v>
@@ -73511,7 +73511,7 @@
         <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I45" t="s">
         <v>54</v>
@@ -73553,7 +73553,7 @@
         <v>52</v>
       </c>
       <c r="H46" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I46" t="s">
         <v>54</v>
@@ -73595,7 +73595,7 @@
         <v>52</v>
       </c>
       <c r="H47" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="I47" t="s">
         <v>54</v>
@@ -73637,7 +73637,7 @@
         <v>52</v>
       </c>
       <c r="H48" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="I48" t="s">
         <v>54</v>
@@ -73679,7 +73679,7 @@
         <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="I49" t="s">
         <v>54</v>
@@ -73721,7 +73721,7 @@
         <v>52</v>
       </c>
       <c r="H50" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="I50" t="s">
         <v>54</v>
@@ -73763,7 +73763,7 @@
         <v>52</v>
       </c>
       <c r="H51" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="I51" t="s">
         <v>54</v>
@@ -73805,7 +73805,7 @@
         <v>52</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>54</v>
@@ -73847,7 +73847,7 @@
         <v>52</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>59</v>
@@ -73889,7 +73889,7 @@
         <v>52</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>54</v>
@@ -73931,7 +73931,7 @@
         <v>52</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>54</v>
@@ -73973,7 +73973,7 @@
         <v>52</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I56" s="13" t="s">
         <v>54</v>
@@ -74015,7 +74015,7 @@
         <v>52</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>59</v>
@@ -74057,7 +74057,7 @@
         <v>52</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>59</v>
@@ -74099,7 +74099,7 @@
         <v>52</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>54</v>
@@ -74141,7 +74141,7 @@
         <v>52</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>59</v>
@@ -74183,7 +74183,7 @@
         <v>52</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I61" s="13" t="s">
         <v>59</v>
@@ -74225,7 +74225,7 @@
         <v>52</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I62" s="13" t="s">
         <v>54</v>
@@ -74435,7 +74435,7 @@
         <v>52</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I67" s="13" t="s">
         <v>54</v>
@@ -74477,7 +74477,7 @@
         <v>52</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I68" s="13" t="s">
         <v>54</v>
@@ -74519,7 +74519,7 @@
         <v>52</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I69" s="13" t="s">
         <v>54</v>
@@ -74561,7 +74561,7 @@
         <v>52</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I70" s="13" t="s">
         <v>54</v>
@@ -74603,7 +74603,7 @@
         <v>52</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I71" s="13" t="s">
         <v>54</v>
@@ -74645,7 +74645,7 @@
         <v>52</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I72" s="13" t="s">
         <v>54</v>
@@ -74687,7 +74687,7 @@
         <v>52</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I73" s="13" t="s">
         <v>54</v>
@@ -74729,7 +74729,7 @@
         <v>52</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>54</v>
@@ -74771,7 +74771,7 @@
         <v>52</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I75" s="13" t="s">
         <v>54</v>
@@ -74813,7 +74813,7 @@
         <v>52</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>54</v>
@@ -74855,7 +74855,7 @@
         <v>52</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I77" s="13" t="s">
         <v>54</v>
@@ -74897,7 +74897,7 @@
         <v>52</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>54</v>
@@ -74939,7 +74939,7 @@
         <v>52</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I79" s="13" t="s">
         <v>54</v>
@@ -74981,7 +74981,7 @@
         <v>52</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I80" s="13" t="s">
         <v>54</v>
@@ -75023,7 +75023,7 @@
         <v>52</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>54</v>
@@ -75065,7 +75065,7 @@
         <v>52</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I82" s="13" t="s">
         <v>54</v>
@@ -75107,7 +75107,7 @@
         <v>52</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I83" s="13" t="s">
         <v>54</v>
@@ -75149,7 +75149,7 @@
         <v>52</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I84" s="13" t="s">
         <v>54</v>
@@ -75191,7 +75191,7 @@
         <v>52</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I85" s="13" t="s">
         <v>54</v>
@@ -75233,7 +75233,7 @@
         <v>52</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I86" s="13" t="s">
         <v>54</v>
@@ -75275,7 +75275,7 @@
         <v>52</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I87" s="13" t="s">
         <v>54</v>
@@ -75317,7 +75317,7 @@
         <v>52</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>54</v>
@@ -75359,7 +75359,7 @@
         <v>52</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I89" s="13" t="s">
         <v>54</v>
@@ -75401,7 +75401,7 @@
         <v>52</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I90" s="13" t="s">
         <v>54</v>
@@ -75443,7 +75443,7 @@
         <v>52</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I91" s="13" t="s">
         <v>54</v>
@@ -75485,7 +75485,7 @@
         <v>52</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I92" s="13" t="s">
         <v>54</v>
@@ -75527,7 +75527,7 @@
         <v>52</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I93" s="13" t="s">
         <v>54</v>
@@ -75569,7 +75569,7 @@
         <v>52</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I94" s="13" t="s">
         <v>54</v>
@@ -78676,8 +78676,8 @@
       <c r="G168" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H168" s="16" t="s">
-        <v>53</v>
+      <c r="H168" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I168" s="16" t="s">
         <v>54</v>
@@ -78718,8 +78718,8 @@
       <c r="G169" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H169" s="16" t="s">
-        <v>53</v>
+      <c r="H169" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I169" s="16" t="s">
         <v>54</v>
@@ -78760,8 +78760,8 @@
       <c r="G170" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H170" s="16" t="s">
-        <v>53</v>
+      <c r="H170" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I170" s="16" t="s">
         <v>54</v>
@@ -78802,8 +78802,8 @@
       <c r="G171" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H171" s="16" t="s">
-        <v>53</v>
+      <c r="H171" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I171" s="16" t="s">
         <v>54</v>
@@ -78844,8 +78844,8 @@
       <c r="G172" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H172" s="16" t="s">
-        <v>53</v>
+      <c r="H172" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I172" s="16" t="s">
         <v>54</v>
@@ -78886,8 +78886,8 @@
       <c r="G173" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H173" s="16" t="s">
-        <v>53</v>
+      <c r="H173" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I173" s="16" t="s">
         <v>54</v>
@@ -78928,8 +78928,8 @@
       <c r="G174" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H174" s="16" t="s">
-        <v>53</v>
+      <c r="H174" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I174" s="16" t="s">
         <v>54</v>
@@ -78970,8 +78970,8 @@
       <c r="G175" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H175" s="16" t="s">
-        <v>53</v>
+      <c r="H175" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I175" s="16" t="s">
         <v>54</v>
@@ -79012,8 +79012,8 @@
       <c r="G176" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H176" s="16" t="s">
-        <v>53</v>
+      <c r="H176" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I176" s="16" t="s">
         <v>54</v>
@@ -79054,8 +79054,8 @@
       <c r="G177" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H177" s="16" t="s">
-        <v>53</v>
+      <c r="H177" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I177" s="16" t="s">
         <v>54</v>
@@ -79096,8 +79096,8 @@
       <c r="G178" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H178" s="16" t="s">
-        <v>53</v>
+      <c r="H178" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I178" s="16" t="s">
         <v>54</v>
@@ -79138,8 +79138,8 @@
       <c r="G179" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H179" s="16" t="s">
-        <v>53</v>
+      <c r="H179" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I179" s="16" t="s">
         <v>54</v>
@@ -79180,8 +79180,8 @@
       <c r="G180" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H180" s="16" t="s">
-        <v>53</v>
+      <c r="H180" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I180" s="16" t="s">
         <v>54</v>
@@ -79222,8 +79222,8 @@
       <c r="G181" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H181" s="16" t="s">
-        <v>53</v>
+      <c r="H181" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I181" s="16" t="s">
         <v>54</v>
@@ -79264,8 +79264,8 @@
       <c r="G182" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H182" s="16" t="s">
-        <v>53</v>
+      <c r="H182" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I182" s="16" t="s">
         <v>54</v>
@@ -79307,7 +79307,7 @@
         <v>52</v>
       </c>
       <c r="H183" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I183" t="s">
         <v>54</v>
@@ -79349,7 +79349,7 @@
         <v>52</v>
       </c>
       <c r="H184" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I184" t="s">
         <v>54</v>
@@ -79391,7 +79391,7 @@
         <v>52</v>
       </c>
       <c r="H185" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I185" t="s">
         <v>54</v>
@@ -79433,7 +79433,7 @@
         <v>52</v>
       </c>
       <c r="H186" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="I186" t="s">
         <v>54</v>
@@ -79474,8 +79474,8 @@
       <c r="G187" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H187" s="16" t="s">
-        <v>53</v>
+      <c r="H187" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I187" s="16" t="s">
         <v>54</v>
@@ -79516,8 +79516,8 @@
       <c r="G188" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H188" s="16" t="s">
-        <v>53</v>
+      <c r="H188" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I188" s="16" t="s">
         <v>54</v>
@@ -79558,8 +79558,8 @@
       <c r="G189" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H189" s="16" t="s">
-        <v>53</v>
+      <c r="H189" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I189" s="16" t="s">
         <v>54</v>
@@ -79600,8 +79600,8 @@
       <c r="G190" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H190" s="16" t="s">
-        <v>53</v>
+      <c r="H190" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I190" s="16" t="s">
         <v>54</v>
@@ -79642,8 +79642,8 @@
       <c r="G191" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H191" s="16" t="s">
-        <v>53</v>
+      <c r="H191" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I191" s="16" t="s">
         <v>54</v>
@@ -79684,8 +79684,8 @@
       <c r="G192" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H192" s="16" t="s">
-        <v>53</v>
+      <c r="H192" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I192" s="16" t="s">
         <v>54</v>
@@ -79726,8 +79726,8 @@
       <c r="G193" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H193" s="16" t="s">
-        <v>53</v>
+      <c r="H193" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I193" s="16" t="s">
         <v>54</v>
@@ -79768,8 +79768,8 @@
       <c r="G194" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H194" s="16" t="s">
-        <v>53</v>
+      <c r="H194" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I194" s="16" t="s">
         <v>54</v>
@@ -79810,8 +79810,8 @@
       <c r="G195" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H195" s="16" t="s">
-        <v>53</v>
+      <c r="H195" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I195" s="16" t="s">
         <v>54</v>
@@ -79852,8 +79852,8 @@
       <c r="G196" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H196" s="16" t="s">
-        <v>53</v>
+      <c r="H196" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I196" s="16" t="s">
         <v>54</v>
@@ -79894,8 +79894,8 @@
       <c r="G197" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H197" s="18" t="s">
-        <v>53</v>
+      <c r="H197" t="s">
+        <v>219</v>
       </c>
       <c r="I197" s="18" t="s">
         <v>54</v>
@@ -79936,8 +79936,8 @@
       <c r="G198" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H198" s="18" t="s">
-        <v>53</v>
+      <c r="H198" t="s">
+        <v>219</v>
       </c>
       <c r="I198" s="18" t="s">
         <v>54</v>
@@ -79978,8 +79978,8 @@
       <c r="G199" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H199" s="18" t="s">
-        <v>53</v>
+      <c r="H199" t="s">
+        <v>219</v>
       </c>
       <c r="I199" s="18" t="s">
         <v>54</v>
@@ -80020,8 +80020,8 @@
       <c r="G200" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H200" s="18" t="s">
-        <v>53</v>
+      <c r="H200" t="s">
+        <v>219</v>
       </c>
       <c r="I200" s="18" t="s">
         <v>54</v>
@@ -80062,8 +80062,8 @@
       <c r="G201" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H201" s="18" t="s">
-        <v>53</v>
+      <c r="H201" t="s">
+        <v>219</v>
       </c>
       <c r="I201" s="18" t="s">
         <v>54</v>
@@ -80104,8 +80104,8 @@
       <c r="G202" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H202" s="18" t="s">
-        <v>53</v>
+      <c r="H202" t="s">
+        <v>219</v>
       </c>
       <c r="I202" s="18" t="s">
         <v>54</v>
@@ -80146,8 +80146,8 @@
       <c r="G203" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H203" s="18" t="s">
-        <v>53</v>
+      <c r="H203" t="s">
+        <v>219</v>
       </c>
       <c r="I203" s="18" t="s">
         <v>54</v>
@@ -80188,8 +80188,8 @@
       <c r="G204" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H204" s="18" t="s">
-        <v>53</v>
+      <c r="H204" t="s">
+        <v>219</v>
       </c>
       <c r="I204" s="18" t="s">
         <v>54</v>
@@ -80230,8 +80230,8 @@
       <c r="G205" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H205" s="18" t="s">
-        <v>53</v>
+      <c r="H205" t="s">
+        <v>219</v>
       </c>
       <c r="I205" s="18" t="s">
         <v>54</v>
@@ -80272,8 +80272,8 @@
       <c r="G206" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H206" s="18" t="s">
-        <v>53</v>
+      <c r="H206" t="s">
+        <v>219</v>
       </c>
       <c r="I206" s="18" t="s">
         <v>54</v>
@@ -80314,8 +80314,8 @@
       <c r="G207" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H207" s="16" t="s">
-        <v>53</v>
+      <c r="H207" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I207" s="16" t="s">
         <v>54</v>
@@ -80356,8 +80356,8 @@
       <c r="G208" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H208" s="16" t="s">
-        <v>53</v>
+      <c r="H208" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I208" s="16" t="s">
         <v>54</v>
@@ -80398,8 +80398,8 @@
       <c r="G209" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H209" s="16" t="s">
-        <v>53</v>
+      <c r="H209" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I209" s="16" t="s">
         <v>54</v>
@@ -80440,8 +80440,8 @@
       <c r="G210" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H210" s="16" t="s">
-        <v>53</v>
+      <c r="H210" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I210" s="16" t="s">
         <v>54</v>
@@ -80482,8 +80482,8 @@
       <c r="G211" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H211" s="16" t="s">
-        <v>53</v>
+      <c r="H211" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I211" s="16" t="s">
         <v>54</v>
@@ -80524,8 +80524,8 @@
       <c r="G212" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H212" s="16" t="s">
-        <v>53</v>
+      <c r="H212" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I212" s="16" t="s">
         <v>54</v>
@@ -80566,8 +80566,8 @@
       <c r="G213" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H213" s="16" t="s">
-        <v>53</v>
+      <c r="H213" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I213" s="16" t="s">
         <v>54</v>
@@ -80608,8 +80608,8 @@
       <c r="G214" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H214" s="16" t="s">
-        <v>53</v>
+      <c r="H214" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I214" s="16" t="s">
         <v>54</v>
@@ -80650,8 +80650,8 @@
       <c r="G215" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H215" s="16" t="s">
-        <v>53</v>
+      <c r="H215" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I215" s="16" t="s">
         <v>54</v>
@@ -80692,8 +80692,8 @@
       <c r="G216" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H216" s="16" t="s">
-        <v>53</v>
+      <c r="H216" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I216" s="16" t="s">
         <v>54</v>
@@ -80734,8 +80734,8 @@
       <c r="G217" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H217" s="16" t="s">
-        <v>53</v>
+      <c r="H217" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I217" s="16" t="s">
         <v>54</v>
@@ -80776,8 +80776,8 @@
       <c r="G218" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H218" s="16" t="s">
-        <v>53</v>
+      <c r="H218" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I218" s="16" t="s">
         <v>54</v>
@@ -80818,8 +80818,8 @@
       <c r="G219" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H219" s="16" t="s">
-        <v>53</v>
+      <c r="H219" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I219" s="16" t="s">
         <v>54</v>
@@ -80860,8 +80860,8 @@
       <c r="G220" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H220" s="16" t="s">
-        <v>53</v>
+      <c r="H220" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I220" s="16" t="s">
         <v>54</v>
@@ -80902,8 +80902,8 @@
       <c r="G221" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H221" s="16" t="s">
-        <v>53</v>
+      <c r="H221" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I221" s="16" t="s">
         <v>54</v>
@@ -80944,8 +80944,8 @@
       <c r="G222" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H222" s="16" t="s">
-        <v>53</v>
+      <c r="H222" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I222" s="16" t="s">
         <v>54</v>
@@ -80986,8 +80986,8 @@
       <c r="G223" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H223" s="16" t="s">
-        <v>53</v>
+      <c r="H223" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I223" s="16" t="s">
         <v>54</v>
@@ -81028,8 +81028,8 @@
       <c r="G224" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H224" s="16" t="s">
-        <v>53</v>
+      <c r="H224" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I224" s="16" t="s">
         <v>54</v>
@@ -81070,8 +81070,8 @@
       <c r="G225" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H225" s="16" t="s">
-        <v>53</v>
+      <c r="H225" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I225" s="16" t="s">
         <v>54</v>
@@ -81112,8 +81112,8 @@
       <c r="G226" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H226" s="16" t="s">
-        <v>53</v>
+      <c r="H226" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I226" s="16" t="s">
         <v>54</v>
@@ -81154,8 +81154,8 @@
       <c r="G227" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H227" s="16" t="s">
-        <v>53</v>
+      <c r="H227" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I227" s="16" t="s">
         <v>54</v>
@@ -81196,8 +81196,8 @@
       <c r="G228" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H228" s="18" t="s">
-        <v>53</v>
+      <c r="H228" t="s">
+        <v>219</v>
       </c>
       <c r="I228" s="18" t="s">
         <v>54</v>
@@ -81238,8 +81238,8 @@
       <c r="G229" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H229" s="18" t="s">
-        <v>53</v>
+      <c r="H229" t="s">
+        <v>219</v>
       </c>
       <c r="I229" s="18" t="s">
         <v>54</v>
@@ -81280,8 +81280,8 @@
       <c r="G230" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H230" s="18" t="s">
-        <v>53</v>
+      <c r="H230" t="s">
+        <v>219</v>
       </c>
       <c r="I230" s="18" t="s">
         <v>54</v>
@@ -81322,8 +81322,8 @@
       <c r="G231" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H231" s="16" t="s">
-        <v>53</v>
+      <c r="H231" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I231" s="16" t="s">
         <v>54</v>
@@ -81364,8 +81364,8 @@
       <c r="G232" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H232" s="16" t="s">
-        <v>53</v>
+      <c r="H232" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I232" s="16" t="s">
         <v>54</v>
@@ -81406,8 +81406,8 @@
       <c r="G233" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H233" s="16" t="s">
-        <v>53</v>
+      <c r="H233" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I233" s="16" t="s">
         <v>54</v>
@@ -81448,8 +81448,8 @@
       <c r="G234" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H234" s="16" t="s">
-        <v>53</v>
+      <c r="H234" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I234" s="16" t="s">
         <v>54</v>
@@ -81490,8 +81490,8 @@
       <c r="G235" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H235" s="16" t="s">
-        <v>53</v>
+      <c r="H235" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I235" s="16" t="s">
         <v>54</v>
@@ -81532,8 +81532,8 @@
       <c r="G236" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H236" s="16" t="s">
-        <v>53</v>
+      <c r="H236" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I236" s="16" t="s">
         <v>54</v>
@@ -81574,8 +81574,8 @@
       <c r="G237" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H237" s="16" t="s">
-        <v>53</v>
+      <c r="H237" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I237" s="16" t="s">
         <v>54</v>
@@ -81616,8 +81616,8 @@
       <c r="G238" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H238" s="16" t="s">
-        <v>53</v>
+      <c r="H238" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I238" s="16" t="s">
         <v>54</v>
@@ -81658,8 +81658,8 @@
       <c r="G239" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H239" s="16" t="s">
-        <v>53</v>
+      <c r="H239" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I239" s="16" t="s">
         <v>54</v>
@@ -81700,8 +81700,8 @@
       <c r="G240" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H240" s="16" t="s">
-        <v>53</v>
+      <c r="H240" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I240" s="16" t="s">
         <v>54</v>
@@ -81742,8 +81742,8 @@
       <c r="G241" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H241" s="16" t="s">
-        <v>53</v>
+      <c r="H241" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I241" s="16" t="s">
         <v>54</v>
@@ -81784,8 +81784,8 @@
       <c r="G242" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H242" s="16" t="s">
-        <v>53</v>
+      <c r="H242" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I242" s="16" t="s">
         <v>54</v>
@@ -81826,8 +81826,8 @@
       <c r="G243" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H243" s="16" t="s">
-        <v>53</v>
+      <c r="H243" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I243" s="16" t="s">
         <v>54</v>
@@ -81868,8 +81868,8 @@
       <c r="G244" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H244" s="16" t="s">
-        <v>53</v>
+      <c r="H244" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I244" s="16" t="s">
         <v>54</v>
@@ -81910,8 +81910,8 @@
       <c r="G245" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H245" s="16" t="s">
-        <v>53</v>
+      <c r="H245" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I245" s="16" t="s">
         <v>54</v>
@@ -81952,8 +81952,8 @@
       <c r="G246" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H246" s="16" t="s">
-        <v>53</v>
+      <c r="H246" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I246" s="16" t="s">
         <v>54</v>
@@ -81994,8 +81994,8 @@
       <c r="G247" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H247" s="16" t="s">
-        <v>53</v>
+      <c r="H247" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I247" s="16" t="s">
         <v>54</v>
@@ -82036,8 +82036,8 @@
       <c r="G248" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H248" s="16" t="s">
-        <v>53</v>
+      <c r="H248" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I248" s="16" t="s">
         <v>54</v>
@@ -82078,8 +82078,8 @@
       <c r="G249" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H249" s="16" t="s">
-        <v>53</v>
+      <c r="H249" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I249" s="16" t="s">
         <v>54</v>
@@ -82120,8 +82120,8 @@
       <c r="G250" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H250" s="16" t="s">
-        <v>53</v>
+      <c r="H250" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I250" s="16" t="s">
         <v>54</v>
@@ -82162,8 +82162,8 @@
       <c r="G251" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H251" s="16" t="s">
-        <v>53</v>
+      <c r="H251" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I251" s="16" t="s">
         <v>54</v>
@@ -82204,8 +82204,8 @@
       <c r="G252" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H252" s="16" t="s">
-        <v>53</v>
+      <c r="H252" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I252" s="16" t="s">
         <v>54</v>
@@ -82246,8 +82246,8 @@
       <c r="G253" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H253" s="16" t="s">
-        <v>53</v>
+      <c r="H253" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I253" s="16" t="s">
         <v>54</v>
@@ -82288,8 +82288,8 @@
       <c r="G254" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H254" s="16" t="s">
-        <v>53</v>
+      <c r="H254" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I254" s="16" t="s">
         <v>54</v>
@@ -82330,8 +82330,8 @@
       <c r="G255" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H255" s="16" t="s">
-        <v>53</v>
+      <c r="H255" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I255" s="16" t="s">
         <v>54</v>
@@ -82372,8 +82372,8 @@
       <c r="G256" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H256" s="16" t="s">
-        <v>53</v>
+      <c r="H256" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I256" s="16" t="s">
         <v>54</v>
@@ -82414,8 +82414,8 @@
       <c r="G257" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H257" s="16" t="s">
-        <v>53</v>
+      <c r="H257" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I257" s="16" t="s">
         <v>54</v>
@@ -82456,8 +82456,8 @@
       <c r="G258" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H258" s="16" t="s">
-        <v>53</v>
+      <c r="H258" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I258" s="16" t="s">
         <v>54</v>
@@ -82498,8 +82498,8 @@
       <c r="G259" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H259" s="16" t="s">
-        <v>53</v>
+      <c r="H259" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I259" s="16" t="s">
         <v>54</v>
@@ -82540,8 +82540,8 @@
       <c r="G260" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H260" s="16" t="s">
-        <v>53</v>
+      <c r="H260" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I260" s="16" t="s">
         <v>54</v>
@@ -82582,8 +82582,8 @@
       <c r="G261" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H261" s="16" t="s">
-        <v>53</v>
+      <c r="H261" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I261" s="16" t="s">
         <v>54</v>
@@ -82624,8 +82624,8 @@
       <c r="G262" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H262" s="16" t="s">
-        <v>53</v>
+      <c r="H262" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I262" s="16" t="s">
         <v>54</v>
@@ -82666,8 +82666,8 @@
       <c r="G263" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H263" s="16" t="s">
-        <v>53</v>
+      <c r="H263" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I263" s="16" t="s">
         <v>54</v>
@@ -82708,8 +82708,8 @@
       <c r="G264" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H264" s="16" t="s">
-        <v>53</v>
+      <c r="H264" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I264" s="16" t="s">
         <v>54</v>
@@ -82750,8 +82750,8 @@
       <c r="G265" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H265" s="16" t="s">
-        <v>53</v>
+      <c r="H265" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I265" s="16" t="s">
         <v>54</v>
@@ -82792,8 +82792,8 @@
       <c r="G266" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H266" s="16" t="s">
-        <v>53</v>
+      <c r="H266" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I266" s="16" t="s">
         <v>54</v>
@@ -82834,8 +82834,8 @@
       <c r="G267" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H267" s="16" t="s">
-        <v>53</v>
+      <c r="H267" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I267" s="16" t="s">
         <v>54</v>
@@ -82876,8 +82876,8 @@
       <c r="G268" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H268" s="16" t="s">
-        <v>53</v>
+      <c r="H268" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I268" s="16" t="s">
         <v>54</v>
@@ -82918,8 +82918,8 @@
       <c r="G269" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H269" s="16" t="s">
-        <v>53</v>
+      <c r="H269" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I269" s="16" t="s">
         <v>54</v>
@@ -82960,8 +82960,8 @@
       <c r="G270" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H270" s="16" t="s">
-        <v>53</v>
+      <c r="H270" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I270" s="16" t="s">
         <v>54</v>
@@ -83002,8 +83002,8 @@
       <c r="G271" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H271" s="16" t="s">
-        <v>53</v>
+      <c r="H271" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I271" s="16" t="s">
         <v>54</v>
@@ -83044,8 +83044,8 @@
       <c r="G272" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H272" s="16" t="s">
-        <v>53</v>
+      <c r="H272" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I272" s="16" t="s">
         <v>54</v>
@@ -83086,8 +83086,8 @@
       <c r="G273" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H273" s="16" t="s">
-        <v>53</v>
+      <c r="H273" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I273" s="16" t="s">
         <v>54</v>
@@ -83128,8 +83128,8 @@
       <c r="G274" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H274" s="16" t="s">
-        <v>53</v>
+      <c r="H274" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I274" s="16" t="s">
         <v>54</v>
@@ -83170,8 +83170,8 @@
       <c r="G275" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H275" s="16" t="s">
-        <v>53</v>
+      <c r="H275" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I275" s="16" t="s">
         <v>54</v>
@@ -83212,8 +83212,8 @@
       <c r="G276" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H276" s="16" t="s">
-        <v>53</v>
+      <c r="H276" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I276" s="16" t="s">
         <v>54</v>
@@ -83254,8 +83254,8 @@
       <c r="G277" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H277" s="16" t="s">
-        <v>53</v>
+      <c r="H277" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I277" s="16" t="s">
         <v>54</v>
@@ -83296,8 +83296,8 @@
       <c r="G278" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H278" s="16" t="s">
-        <v>53</v>
+      <c r="H278" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I278" s="16" t="s">
         <v>54</v>
@@ -83338,8 +83338,8 @@
       <c r="G279" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H279" s="16" t="s">
-        <v>53</v>
+      <c r="H279" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I279" s="16" t="s">
         <v>54</v>
@@ -83380,8 +83380,8 @@
       <c r="G280" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H280" s="16" t="s">
-        <v>53</v>
+      <c r="H280" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="I280" s="16" t="s">
         <v>54</v>
